--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -10,12 +10,11 @@
     <sheet name="locale" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10158" uniqueCount="8575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10164" uniqueCount="8581">
   <si>
     <t>English</t>
   </si>
@@ -25740,13 +25739,36 @@
   </si>
   <si>
     <t>servo pimi %n 'in açısını %d.servovalue 'e ayarla</t>
+  </si>
+  <si>
+    <t>button %d.blackPorts %m.button_key pressed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键 %d.blackPorts %m.button_key 是否按下</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按鍵 %d.blackPorts %m.button_key 是否按下</t>
+  </si>
+  <si>
+    <t>touch sensor %d.normalPort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触摸传感器 %d.normalPort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸摸傳感器 %d.normalPort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -25785,6 +25807,13 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -25806,7 +25835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -25868,6 +25897,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -26162,19 +26195,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O880"/>
+  <dimension ref="A1:O878"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N794" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C809" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P68" sqref="P68"/>
+      <selection pane="bottomRight" activeCell="C820" sqref="C820"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="64" customWidth="1"/>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="2" max="2" width="58.75" customWidth="1"/>
     <col min="3" max="3" width="65.5" customWidth="1"/>
     <col min="4" max="4" width="91.75" customWidth="1"/>
     <col min="5" max="5" width="92.5" customWidth="1"/>
@@ -60421,9 +60454,15 @@
       </c>
     </row>
     <row r="820" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A820" s="7"/>
-      <c r="B820" s="7"/>
-      <c r="C820" s="8"/>
+      <c r="A820" s="27" t="s">
+        <v>8578</v>
+      </c>
+      <c r="B820" s="27" t="s">
+        <v>8579</v>
+      </c>
+      <c r="C820" s="28" t="s">
+        <v>8580</v>
+      </c>
       <c r="D820" s="7"/>
       <c r="E820" s="7"/>
       <c r="F820" s="7"/>
@@ -60437,9 +60476,15 @@
       <c r="N820" s="7"/>
     </row>
     <row r="821" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A821" s="7"/>
-      <c r="B821" s="7"/>
-      <c r="C821" s="3"/>
+      <c r="A821" s="27" t="s">
+        <v>8575</v>
+      </c>
+      <c r="B821" s="27" t="s">
+        <v>8576</v>
+      </c>
+      <c r="C821" s="3" t="s">
+        <v>8577</v>
+      </c>
       <c r="D821" s="7"/>
       <c r="E821" s="7"/>
       <c r="F821" s="7"/>
@@ -60471,7 +60516,7 @@
     <row r="823" spans="1:15" ht="13.5" customHeight="1">
       <c r="A823" s="7"/>
       <c r="B823" s="7"/>
-      <c r="C823" s="2"/>
+      <c r="C823" s="7"/>
       <c r="D823" s="7"/>
       <c r="E823" s="7"/>
       <c r="F823" s="7"/>
@@ -60487,7 +60532,6 @@
     <row r="824" spans="1:15" ht="13.5" customHeight="1">
       <c r="A824" s="7"/>
       <c r="B824" s="7"/>
-      <c r="C824" s="2"/>
       <c r="D824" s="7"/>
       <c r="E824" s="7"/>
       <c r="F824" s="7"/>
@@ -60503,7 +60547,6 @@
     <row r="825" spans="1:15" ht="13.5" customHeight="1">
       <c r="A825" s="7"/>
       <c r="B825" s="7"/>
-      <c r="C825" s="7"/>
       <c r="D825" s="7"/>
       <c r="E825" s="7"/>
       <c r="F825" s="7"/>
@@ -60534,6 +60577,7 @@
     <row r="827" spans="1:15" ht="13.5" customHeight="1">
       <c r="A827" s="7"/>
       <c r="B827" s="7"/>
+      <c r="C827" s="7"/>
       <c r="D827" s="7"/>
       <c r="E827" s="7"/>
       <c r="F827" s="7"/>
@@ -60549,6 +60593,7 @@
     <row r="828" spans="1:15" ht="13.5" customHeight="1">
       <c r="A828" s="7"/>
       <c r="B828" s="7"/>
+      <c r="C828" s="7"/>
       <c r="D828" s="7"/>
       <c r="E828" s="7"/>
       <c r="F828" s="7"/>
@@ -61361,38 +61406,6 @@
       <c r="M878" s="7"/>
       <c r="N878" s="7"/>
     </row>
-    <row r="879" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A879" s="7"/>
-      <c r="B879" s="7"/>
-      <c r="C879" s="7"/>
-      <c r="D879" s="7"/>
-      <c r="E879" s="7"/>
-      <c r="F879" s="7"/>
-      <c r="G879" s="7"/>
-      <c r="H879" s="7"/>
-      <c r="I879" s="7"/>
-      <c r="J879" s="7"/>
-      <c r="K879" s="7"/>
-      <c r="L879" s="7"/>
-      <c r="M879" s="7"/>
-      <c r="N879" s="7"/>
-    </row>
-    <row r="880" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A880" s="7"/>
-      <c r="B880" s="7"/>
-      <c r="C880" s="7"/>
-      <c r="D880" s="7"/>
-      <c r="E880" s="7"/>
-      <c r="F880" s="7"/>
-      <c r="G880" s="7"/>
-      <c r="H880" s="7"/>
-      <c r="I880" s="7"/>
-      <c r="J880" s="7"/>
-      <c r="K880" s="7"/>
-      <c r="L880" s="7"/>
-      <c r="M880" s="7"/>
-      <c r="N880" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -61400,5 +61413,6 @@
     <hyperlink ref="M725" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="90" windowWidth="25575" windowHeight="11475"/>
+    <workbookView xWindow="930" yWindow="300" windowWidth="25575" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="locale" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14695" uniqueCount="12556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14710" uniqueCount="12569">
   <si>
     <t>zh_CN</t>
   </si>
@@ -38260,6 +38260,108 @@
   </si>
   <si>
     <t>板載編碼電機 %d.slot %d.encoderValue</t>
+  </si>
+  <si>
+    <t>Auriga Program</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auriga 主程序</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auriga 主程式</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Programma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Auriga</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auriga - générer le code</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auriga プログラム</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auriga Programma</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auriga Programm</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>תוכנת</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Auriga</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auriga programm</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Auriga Program</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ı</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auriga program</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Programa Auriga</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -38435,7 +38537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -38527,6 +38629,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -38825,10 +38934,10 @@
   <dimension ref="A1:T1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B820" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="S823" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C833" sqref="C833"/>
+      <selection pane="bottomRight" activeCell="T835" sqref="T835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -85738,7 +85847,7 @@
       <c r="R832" s="18"/>
       <c r="T832" s="7"/>
     </row>
-    <row r="833" spans="1:17" ht="13.5" customHeight="1">
+    <row r="833" spans="1:20" ht="13.5" customHeight="1">
       <c r="A833" s="13" t="s">
         <v>12550</v>
       </c>
@@ -85761,7 +85870,7 @@
       <c r="N833" s="39"/>
       <c r="Q833" s="9"/>
     </row>
-    <row r="834" spans="1:17" ht="13.5" customHeight="1">
+    <row r="834" spans="1:20" ht="13.5" customHeight="1">
       <c r="A834" s="13" t="s">
         <v>12551</v>
       </c>
@@ -85784,24 +85893,54 @@
       <c r="N834" s="39"/>
       <c r="Q834" s="9"/>
     </row>
-    <row r="835" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A835" s="13"/>
-      <c r="B835" s="13"/>
-      <c r="C835" s="40"/>
-      <c r="D835" s="13"/>
-      <c r="E835" s="13"/>
-      <c r="F835" s="13"/>
-      <c r="G835" s="13"/>
-      <c r="H835" s="13"/>
-      <c r="I835" s="13"/>
-      <c r="J835" s="13"/>
-      <c r="K835" s="13"/>
-      <c r="L835" s="13"/>
-      <c r="M835" s="13"/>
-      <c r="N835" s="39"/>
-      <c r="Q835" s="9"/>
-    </row>
-    <row r="836" spans="1:17" ht="13.5" customHeight="1">
+    <row r="835" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A835" s="43" t="s">
+        <v>12556</v>
+      </c>
+      <c r="B835" s="43" t="s">
+        <v>12557</v>
+      </c>
+      <c r="C835" s="46" t="s">
+        <v>12558</v>
+      </c>
+      <c r="D835" s="43" t="s">
+        <v>12559</v>
+      </c>
+      <c r="E835" s="45" t="s">
+        <v>12560</v>
+      </c>
+      <c r="K835" s="43" t="s">
+        <v>12561</v>
+      </c>
+      <c r="L835" s="14" t="s">
+        <v>12562</v>
+      </c>
+      <c r="M835" s="44" t="s">
+        <v>12563</v>
+      </c>
+      <c r="N835" s="47" t="s">
+        <v>12564</v>
+      </c>
+      <c r="O835" s="7" t="s">
+        <v>12565</v>
+      </c>
+      <c r="P835" s="48" t="s">
+        <v>12566</v>
+      </c>
+      <c r="Q835" s="16" t="s">
+        <v>12567</v>
+      </c>
+      <c r="R835" s="7" t="s">
+        <v>12567</v>
+      </c>
+      <c r="S835" s="7" t="s">
+        <v>12568</v>
+      </c>
+      <c r="T835" s="7" t="s">
+        <v>12556</v>
+      </c>
+    </row>
+    <row r="836" spans="1:20" ht="13.5" customHeight="1">
       <c r="A836" s="13"/>
       <c r="B836" s="13"/>
       <c r="C836" s="40"/>
@@ -85818,7 +85957,7 @@
       <c r="N836" s="39"/>
       <c r="Q836" s="9"/>
     </row>
-    <row r="837" spans="1:17" ht="13.5" customHeight="1">
+    <row r="837" spans="1:20" ht="13.5" customHeight="1">
       <c r="A837" s="13"/>
       <c r="B837" s="13"/>
       <c r="C837" s="40"/>
@@ -85835,7 +85974,7 @@
       <c r="N837" s="39"/>
       <c r="Q837" s="9"/>
     </row>
-    <row r="838" spans="1:17" ht="13.5" customHeight="1">
+    <row r="838" spans="1:20" ht="13.5" customHeight="1">
       <c r="A838" s="13"/>
       <c r="B838" s="13"/>
       <c r="C838" s="40"/>
@@ -85852,7 +85991,7 @@
       <c r="N838" s="39"/>
       <c r="Q838" s="9"/>
     </row>
-    <row r="839" spans="1:17" ht="13.5" customHeight="1">
+    <row r="839" spans="1:20" ht="13.5" customHeight="1">
       <c r="A839" s="13"/>
       <c r="B839" s="13"/>
       <c r="C839" s="40"/>
@@ -85869,7 +86008,7 @@
       <c r="N839" s="39"/>
       <c r="Q839" s="9"/>
     </row>
-    <row r="840" spans="1:17" ht="13.5" customHeight="1">
+    <row r="840" spans="1:20" ht="13.5" customHeight="1">
       <c r="A840" s="13"/>
       <c r="B840" s="13"/>
       <c r="C840" s="40"/>
@@ -85886,7 +86025,7 @@
       <c r="N840" s="39"/>
       <c r="Q840" s="9"/>
     </row>
-    <row r="841" spans="1:17" ht="13.5" customHeight="1">
+    <row r="841" spans="1:20" ht="13.5" customHeight="1">
       <c r="A841" s="13"/>
       <c r="B841" s="13"/>
       <c r="C841" s="40"/>
@@ -85903,7 +86042,7 @@
       <c r="N841" s="39"/>
       <c r="Q841" s="9"/>
     </row>
-    <row r="842" spans="1:17" ht="13.5" customHeight="1">
+    <row r="842" spans="1:20" ht="13.5" customHeight="1">
       <c r="A842" s="13"/>
       <c r="B842" s="13"/>
       <c r="C842" s="40"/>
@@ -85920,7 +86059,7 @@
       <c r="N842" s="39"/>
       <c r="Q842" s="9"/>
     </row>
-    <row r="843" spans="1:17" ht="13.5" customHeight="1">
+    <row r="843" spans="1:20" ht="13.5" customHeight="1">
       <c r="A843" s="13"/>
       <c r="B843" s="13"/>
       <c r="C843" s="40"/>
@@ -85937,7 +86076,7 @@
       <c r="N843" s="39"/>
       <c r="Q843" s="9"/>
     </row>
-    <row r="844" spans="1:17" ht="13.5" customHeight="1">
+    <row r="844" spans="1:20" ht="13.5" customHeight="1">
       <c r="A844" s="13"/>
       <c r="B844" s="13"/>
       <c r="C844" s="40"/>
@@ -85954,7 +86093,7 @@
       <c r="N844" s="39"/>
       <c r="Q844" s="9"/>
     </row>
-    <row r="845" spans="1:17" ht="13.5" customHeight="1">
+    <row r="845" spans="1:20" ht="13.5" customHeight="1">
       <c r="A845" s="13"/>
       <c r="B845" s="13"/>
       <c r="C845" s="40"/>
@@ -85971,7 +86110,7 @@
       <c r="N845" s="39"/>
       <c r="Q845" s="9"/>
     </row>
-    <row r="846" spans="1:17" ht="13.5" customHeight="1">
+    <row r="846" spans="1:20" ht="13.5" customHeight="1">
       <c r="A846" s="13"/>
       <c r="B846" s="13"/>
       <c r="C846" s="40"/>
@@ -85988,7 +86127,7 @@
       <c r="N846" s="39"/>
       <c r="Q846" s="9"/>
     </row>
-    <row r="847" spans="1:17" ht="13.5" customHeight="1">
+    <row r="847" spans="1:20" ht="13.5" customHeight="1">
       <c r="A847" s="13"/>
       <c r="B847" s="13"/>
       <c r="C847" s="40"/>
@@ -86005,7 +86144,7 @@
       <c r="N847" s="39"/>
       <c r="Q847" s="9"/>
     </row>
-    <row r="848" spans="1:17" ht="13.5" customHeight="1">
+    <row r="848" spans="1:20" ht="13.5" customHeight="1">
       <c r="A848" s="13"/>
       <c r="B848" s="13"/>
       <c r="C848" s="40"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14710" uniqueCount="12569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14713" uniqueCount="12573">
   <si>
     <t>zh_CN</t>
   </si>
@@ -38364,6 +38364,21 @@
   </si>
   <si>
     <t>Отмена</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>set led on board %d.index3 red%d.value green%d.value blue%d.value</t>
+  </si>
+  <si>
+    <t>板载</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置板载LED %d.index3 红色%d.value 绿色%d.value 蓝色%d.value</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>設置板載LED %d.index3 紅色%d.value 綠色%d.value 藍色%d.value</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -38937,17 +38952,17 @@
   <dimension ref="A1:T1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I551" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B817" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I571" sqref="I571"/>
+      <selection pane="bottomRight" activeCell="C836" sqref="C836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="64" customWidth="1"/>
-    <col min="2" max="2" width="54.625" customWidth="1"/>
-    <col min="3" max="3" width="65.5" customWidth="1"/>
+    <col min="2" max="2" width="115.125" customWidth="1"/>
+    <col min="3" max="3" width="84.125" customWidth="1"/>
     <col min="4" max="4" width="91.75" customWidth="1"/>
     <col min="5" max="5" width="92.5" customWidth="1"/>
     <col min="6" max="6" width="80" customWidth="1"/>
@@ -85685,8 +85700,8 @@
       <c r="A824" s="43" t="s">
         <v>12525</v>
       </c>
-      <c r="B824" s="20" t="s">
-        <v>12314</v>
+      <c r="B824" s="43" t="s">
+        <v>12570</v>
       </c>
       <c r="C824" s="44" t="s">
         <v>12546</v>
@@ -85944,9 +85959,15 @@
       </c>
     </row>
     <row r="836" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A836" s="13"/>
-      <c r="B836" s="13"/>
-      <c r="C836" s="40"/>
+      <c r="A836" s="13" t="s">
+        <v>12569</v>
+      </c>
+      <c r="B836" s="43" t="s">
+        <v>12571</v>
+      </c>
+      <c r="C836" s="44" t="s">
+        <v>12572</v>
+      </c>
       <c r="D836" s="13"/>
       <c r="E836" s="13"/>
       <c r="F836" s="13"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -36021,63 +36021,6 @@
   </si>
   <si>
     <t>ustaw led na czujniku swiatła  %d.blackPorts na %d.switch</t>
-  </si>
-  <si>
-    <t>line follower %d.normalPort</t>
-  </si>
-  <si>
-    <t>巡线传感器%d.normalPort</t>
-  </si>
-  <si>
-    <t>巡線感應器%d.normalPort</t>
-  </si>
-  <si>
-    <t>sensore inseguimento di linea %d.normalPort</t>
-  </si>
-  <si>
-    <t>état du suiveur de ligne sur le %d.normalPort</t>
-  </si>
-  <si>
-    <t>sigue-líneas%d.normalPort</t>
-  </si>
-  <si>
-    <t>라인 센서%d.normalPort</t>
-  </si>
-  <si>
-    <t>linjefølger %d.normalPort</t>
-  </si>
-  <si>
-    <t>датчик линии %d.normalPort</t>
-  </si>
-  <si>
-    <t>ライントレースセンサー %d.normalPort の値</t>
-  </si>
-  <si>
-    <t>ライントレーサー%d.normalPort</t>
-  </si>
-  <si>
-    <t>Lijnvolg module op %d.normalPort</t>
-  </si>
-  <si>
-    <t>Line-Follower-Sensor%d.normalPort</t>
-  </si>
-  <si>
-    <t>עוקב קו d.normalPort%</t>
-  </si>
-  <si>
-    <t>jooneandur %d.normalPort</t>
-  </si>
-  <si>
-    <t>çizgi izleyen %d.normalPort</t>
-  </si>
-  <si>
-    <t>sledovač čáry %d.normalPort</t>
-  </si>
-  <si>
-    <t>linjeföljare %d.normalPort</t>
-  </si>
-  <si>
-    <t>czujnik linii %d.normalPort</t>
   </si>
   <si>
     <t>limit switch %d.normalPort %d.slot</t>
@@ -38379,6 +38322,342 @@
   </si>
   <si>
     <t>設置板載LED %d.index3 紅色%d.value 綠色%d.value 藍色%d.value</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>line follower %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>巡线传感器%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>巡線感應器%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sensore inseguimento di linea %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>état du suiveur de ligne sur le %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sigue-líneas%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>센서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>linjefølger %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>датчик линии %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ライントレースセンサー %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> の値</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ライントレーサー%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lijnvolg module op %d.bluePorts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Line-Follower-Sensor%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>עוקב</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>קו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>jooneandur %d.bluePorts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>çizgi izleyen %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>sledovač čáry %d.bluePorts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>linjeföljare %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>czujnik linii %d.bluePorts</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -38952,10 +39231,10 @@
   <dimension ref="A1:T1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B817" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="S776" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C836" sqref="C836"/>
+      <selection pane="bottomRight" activeCell="T786" sqref="T786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -71593,7 +71872,7 @@
         <v>8930</v>
       </c>
       <c r="I571" s="45" t="s">
-        <v>12568</v>
+        <v>12549</v>
       </c>
       <c r="J571" s="2" t="s">
         <v>3508</v>
@@ -83754,546 +84033,546 @@
       </c>
     </row>
     <row r="786" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A786" s="13" t="s">
-        <v>11989</v>
-      </c>
-      <c r="B786" s="13" t="s">
-        <v>11990</v>
-      </c>
-      <c r="C786" s="30" t="s">
-        <v>11991</v>
-      </c>
-      <c r="D786" s="13" t="s">
-        <v>11992</v>
-      </c>
-      <c r="E786" s="13" t="s">
-        <v>11993</v>
-      </c>
-      <c r="F786" s="2" t="s">
-        <v>11994</v>
-      </c>
-      <c r="G786" s="13" t="s">
-        <v>11995</v>
-      </c>
-      <c r="H786" s="2" t="s">
-        <v>11996</v>
-      </c>
-      <c r="I786" s="2" t="s">
-        <v>11997</v>
-      </c>
-      <c r="J786" s="2" t="s">
-        <v>11998</v>
-      </c>
-      <c r="K786" s="13" t="s">
-        <v>11999</v>
+      <c r="A786" s="43" t="s">
+        <v>12554</v>
+      </c>
+      <c r="B786" s="43" t="s">
+        <v>12555</v>
+      </c>
+      <c r="C786" s="44" t="s">
+        <v>12556</v>
+      </c>
+      <c r="D786" s="43" t="s">
+        <v>12557</v>
+      </c>
+      <c r="E786" s="43" t="s">
+        <v>12558</v>
+      </c>
+      <c r="F786" s="45" t="s">
+        <v>12559</v>
+      </c>
+      <c r="G786" s="43" t="s">
+        <v>12560</v>
+      </c>
+      <c r="H786" s="45" t="s">
+        <v>12561</v>
+      </c>
+      <c r="I786" s="45" t="s">
+        <v>12562</v>
+      </c>
+      <c r="J786" s="45" t="s">
+        <v>12563</v>
+      </c>
+      <c r="K786" s="43" t="s">
+        <v>12564</v>
       </c>
       <c r="L786" s="4" t="s">
-        <v>12000</v>
-      </c>
-      <c r="M786" s="8" t="s">
-        <v>12001</v>
-      </c>
-      <c r="N786" s="29" t="s">
-        <v>12002</v>
+        <v>12565</v>
+      </c>
+      <c r="M786" s="44" t="s">
+        <v>12566</v>
+      </c>
+      <c r="N786" s="47" t="s">
+        <v>12567</v>
       </c>
       <c r="O786" s="7" t="s">
-        <v>12003</v>
-      </c>
-      <c r="P786" s="30" t="s">
-        <v>12004</v>
+        <v>12568</v>
+      </c>
+      <c r="P786" s="44" t="s">
+        <v>12569</v>
       </c>
       <c r="Q786" s="16" t="s">
-        <v>12005</v>
-      </c>
-      <c r="R786" s="1" t="s">
-        <v>12006</v>
+        <v>12570</v>
+      </c>
+      <c r="R786" s="43" t="s">
+        <v>12571</v>
       </c>
       <c r="T786" s="7" t="s">
-        <v>12007</v>
+        <v>12572</v>
       </c>
     </row>
     <row r="787" spans="1:20" ht="13.5" customHeight="1">
       <c r="A787" s="13" t="s">
-        <v>12008</v>
+        <v>11989</v>
       </c>
       <c r="B787" s="13" t="s">
-        <v>12009</v>
+        <v>11990</v>
       </c>
       <c r="C787" s="30" t="s">
-        <v>12010</v>
+        <v>11991</v>
       </c>
       <c r="D787" s="13" t="s">
-        <v>12011</v>
+        <v>11992</v>
       </c>
       <c r="E787" s="13" t="s">
-        <v>12012</v>
+        <v>11993</v>
       </c>
       <c r="F787" s="2" t="s">
-        <v>12013</v>
+        <v>11994</v>
       </c>
       <c r="G787" s="13" t="s">
-        <v>12014</v>
+        <v>11995</v>
       </c>
       <c r="H787" s="2" t="s">
-        <v>12015</v>
+        <v>11996</v>
       </c>
       <c r="I787" s="2" t="s">
-        <v>12016</v>
+        <v>11997</v>
       </c>
       <c r="J787" s="2" t="s">
-        <v>12017</v>
+        <v>11998</v>
       </c>
       <c r="K787" s="13" t="s">
-        <v>12018</v>
+        <v>11999</v>
       </c>
       <c r="L787" s="4" t="s">
-        <v>12019</v>
+        <v>12000</v>
       </c>
       <c r="M787" s="8" t="s">
-        <v>12020</v>
+        <v>12001</v>
       </c>
       <c r="N787" s="6" t="s">
-        <v>12021</v>
+        <v>12002</v>
       </c>
       <c r="O787" s="7" t="s">
-        <v>12022</v>
+        <v>12003</v>
       </c>
       <c r="P787" s="30" t="s">
-        <v>12023</v>
+        <v>12004</v>
       </c>
       <c r="Q787" s="16" t="s">
-        <v>12024</v>
+        <v>12005</v>
       </c>
       <c r="R787" s="13" t="s">
-        <v>12008</v>
+        <v>11989</v>
       </c>
       <c r="T787" s="7" t="s">
-        <v>12025</v>
+        <v>12006</v>
       </c>
     </row>
     <row r="788" spans="1:20" ht="13.5" customHeight="1">
       <c r="A788" s="13" t="s">
-        <v>12026</v>
+        <v>12007</v>
       </c>
       <c r="B788" s="13" t="s">
-        <v>12027</v>
+        <v>12008</v>
       </c>
       <c r="C788" s="30" t="s">
-        <v>12028</v>
+        <v>12009</v>
       </c>
       <c r="D788" s="13" t="s">
-        <v>12029</v>
+        <v>12010</v>
       </c>
       <c r="E788" s="13" t="s">
-        <v>12030</v>
+        <v>12011</v>
       </c>
       <c r="F788" s="2" t="s">
-        <v>12031</v>
+        <v>12012</v>
       </c>
       <c r="G788" s="13" t="s">
-        <v>12032</v>
+        <v>12013</v>
       </c>
       <c r="H788" s="2" t="s">
-        <v>12026</v>
+        <v>12007</v>
       </c>
       <c r="I788" s="2" t="s">
-        <v>12033</v>
+        <v>12014</v>
       </c>
       <c r="J788" s="2" t="s">
-        <v>12034</v>
+        <v>12015</v>
       </c>
       <c r="K788" s="13" t="s">
-        <v>12035</v>
+        <v>12016</v>
       </c>
       <c r="L788" s="4" t="s">
-        <v>12036</v>
+        <v>12017</v>
       </c>
       <c r="M788" s="8" t="s">
-        <v>12037</v>
+        <v>12018</v>
       </c>
       <c r="N788" s="29" t="s">
-        <v>12038</v>
+        <v>12019</v>
       </c>
       <c r="O788" s="7" t="s">
-        <v>12039</v>
+        <v>12020</v>
       </c>
       <c r="P788" s="30" t="s">
-        <v>12040</v>
+        <v>12021</v>
       </c>
       <c r="Q788" s="16" t="s">
-        <v>12041</v>
+        <v>12022</v>
       </c>
       <c r="R788" s="13" t="s">
-        <v>12026</v>
+        <v>12007</v>
       </c>
       <c r="T788" s="7" t="s">
-        <v>12042</v>
+        <v>12023</v>
       </c>
     </row>
     <row r="789" spans="1:20" ht="13.5" customHeight="1">
       <c r="A789" s="2" t="s">
-        <v>12043</v>
+        <v>12024</v>
       </c>
       <c r="B789" s="13" t="s">
-        <v>12044</v>
+        <v>12025</v>
       </c>
       <c r="C789" s="30" t="s">
-        <v>12045</v>
+        <v>12026</v>
       </c>
       <c r="D789" s="13" t="s">
-        <v>12046</v>
+        <v>12027</v>
       </c>
       <c r="E789" s="2" t="s">
-        <v>12047</v>
+        <v>12028</v>
       </c>
       <c r="F789" s="2" t="s">
-        <v>12048</v>
+        <v>12029</v>
       </c>
       <c r="G789" s="13"/>
       <c r="H789" s="2" t="s">
-        <v>12049</v>
+        <v>12030</v>
       </c>
       <c r="I789" s="2" t="s">
-        <v>12050</v>
+        <v>12031</v>
       </c>
       <c r="J789" s="2" t="s">
-        <v>12051</v>
+        <v>12032</v>
       </c>
       <c r="K789" s="2" t="s">
-        <v>12051</v>
+        <v>12032</v>
       </c>
       <c r="L789" s="4" t="s">
-        <v>12052</v>
+        <v>12033</v>
       </c>
       <c r="M789" s="5" t="s">
-        <v>12053</v>
+        <v>12034</v>
       </c>
       <c r="N789" s="6" t="s">
-        <v>12054</v>
+        <v>12035</v>
       </c>
       <c r="O789" s="7" t="s">
-        <v>12055</v>
+        <v>12036</v>
       </c>
       <c r="P789" s="30" t="s">
-        <v>12056</v>
+        <v>12037</v>
       </c>
       <c r="Q789" s="16" t="s">
-        <v>12057</v>
+        <v>12038</v>
       </c>
       <c r="R789" s="2" t="s">
-        <v>12043</v>
+        <v>12024</v>
       </c>
       <c r="T789" s="7" t="s">
-        <v>12058</v>
+        <v>12039</v>
       </c>
     </row>
     <row r="790" spans="1:20" ht="13.5" customHeight="1">
       <c r="A790" s="13" t="s">
-        <v>12059</v>
+        <v>12040</v>
       </c>
       <c r="B790" s="13" t="s">
-        <v>12060</v>
+        <v>12041</v>
       </c>
       <c r="C790" s="30" t="s">
-        <v>12061</v>
+        <v>12042</v>
       </c>
       <c r="D790" s="13" t="s">
-        <v>12062</v>
+        <v>12043</v>
       </c>
       <c r="E790" s="13" t="s">
-        <v>12063</v>
+        <v>12044</v>
       </c>
       <c r="F790" s="2" t="s">
-        <v>12064</v>
+        <v>12045</v>
       </c>
       <c r="G790" s="13"/>
       <c r="H790" s="2" t="s">
-        <v>12065</v>
+        <v>12046</v>
       </c>
       <c r="I790" s="2" t="s">
-        <v>12066</v>
+        <v>12047</v>
       </c>
       <c r="J790" s="2" t="s">
-        <v>12067</v>
+        <v>12048</v>
       </c>
       <c r="K790" s="2" t="s">
-        <v>12067</v>
+        <v>12048</v>
       </c>
       <c r="L790" s="4" t="s">
-        <v>12068</v>
+        <v>12049</v>
       </c>
       <c r="M790" s="5" t="s">
-        <v>12069</v>
+        <v>12050</v>
       </c>
       <c r="N790" s="29" t="s">
-        <v>12070</v>
+        <v>12051</v>
       </c>
       <c r="O790" s="7" t="s">
-        <v>12071</v>
+        <v>12052</v>
       </c>
       <c r="P790" s="30" t="s">
-        <v>12072</v>
+        <v>12053</v>
       </c>
       <c r="Q790" s="16" t="s">
-        <v>12073</v>
+        <v>12054</v>
       </c>
       <c r="R790" s="1" t="s">
-        <v>12074</v>
+        <v>12055</v>
       </c>
       <c r="T790" s="7" t="s">
-        <v>12075</v>
+        <v>12056</v>
       </c>
     </row>
     <row r="791" spans="1:20" ht="13.5" customHeight="1">
       <c r="A791" s="13" t="s">
-        <v>12076</v>
+        <v>12057</v>
       </c>
       <c r="B791" s="13" t="s">
-        <v>12077</v>
+        <v>12058</v>
       </c>
       <c r="C791" s="30" t="s">
-        <v>12078</v>
+        <v>12059</v>
       </c>
       <c r="D791" s="13" t="s">
-        <v>12079</v>
+        <v>12060</v>
       </c>
       <c r="E791" s="13" t="s">
-        <v>12080</v>
+        <v>12061</v>
       </c>
       <c r="F791" s="2" t="s">
-        <v>12081</v>
+        <v>12062</v>
       </c>
       <c r="G791" s="13" t="s">
-        <v>12082</v>
+        <v>12063</v>
       </c>
       <c r="H791" s="2" t="s">
-        <v>12083</v>
+        <v>12064</v>
       </c>
       <c r="I791" s="2" t="s">
-        <v>12084</v>
+        <v>12065</v>
       </c>
       <c r="J791" s="2" t="s">
-        <v>12085</v>
+        <v>12066</v>
       </c>
       <c r="K791" s="13" t="s">
-        <v>12086</v>
+        <v>12067</v>
       </c>
       <c r="L791" s="4" t="s">
-        <v>12087</v>
+        <v>12068</v>
       </c>
       <c r="M791" s="8" t="s">
-        <v>12088</v>
+        <v>12069</v>
       </c>
       <c r="N791" s="29" t="s">
-        <v>12089</v>
+        <v>12070</v>
       </c>
       <c r="O791" s="7" t="s">
-        <v>12090</v>
+        <v>12071</v>
       </c>
       <c r="P791" s="30" t="s">
-        <v>12091</v>
+        <v>12072</v>
       </c>
       <c r="Q791" s="16" t="s">
-        <v>12092</v>
+        <v>12073</v>
       </c>
       <c r="R791" s="1" t="s">
-        <v>12093</v>
+        <v>12074</v>
       </c>
       <c r="T791" s="7" t="s">
-        <v>12094</v>
+        <v>12075</v>
       </c>
     </row>
     <row r="792" spans="1:20" ht="13.5" customHeight="1">
       <c r="A792" s="13" t="s">
-        <v>12095</v>
+        <v>12076</v>
       </c>
       <c r="B792" s="13" t="s">
-        <v>12096</v>
+        <v>12077</v>
       </c>
       <c r="C792" s="30" t="s">
-        <v>12097</v>
+        <v>12078</v>
       </c>
       <c r="D792" s="13" t="s">
-        <v>12098</v>
+        <v>12079</v>
       </c>
       <c r="E792" s="13" t="s">
-        <v>12099</v>
+        <v>12080</v>
       </c>
       <c r="F792" s="2" t="s">
-        <v>12100</v>
+        <v>12081</v>
       </c>
       <c r="G792" s="13" t="s">
-        <v>12101</v>
+        <v>12082</v>
       </c>
       <c r="H792" s="2" t="s">
-        <v>12102</v>
+        <v>12083</v>
       </c>
       <c r="I792" s="2" t="s">
-        <v>12103</v>
+        <v>12084</v>
       </c>
       <c r="J792" s="2" t="s">
-        <v>12104</v>
+        <v>12085</v>
       </c>
       <c r="K792" s="13" t="s">
-        <v>12105</v>
+        <v>12086</v>
       </c>
       <c r="L792" s="4" t="s">
-        <v>12106</v>
+        <v>12087</v>
       </c>
       <c r="M792" s="8" t="s">
-        <v>12107</v>
+        <v>12088</v>
       </c>
       <c r="N792" s="6" t="s">
-        <v>12108</v>
+        <v>12089</v>
       </c>
       <c r="O792" s="7" t="s">
-        <v>12109</v>
+        <v>12090</v>
       </c>
       <c r="P792" s="30" t="s">
-        <v>12110</v>
+        <v>12091</v>
       </c>
       <c r="Q792" s="16" t="s">
-        <v>12111</v>
+        <v>12092</v>
       </c>
       <c r="R792" s="1" t="s">
-        <v>12112</v>
+        <v>12093</v>
       </c>
       <c r="T792" s="7" t="s">
-        <v>12098</v>
+        <v>12079</v>
       </c>
     </row>
     <row r="793" spans="1:20" ht="13.5" customHeight="1">
       <c r="A793" s="13" t="s">
-        <v>12113</v>
+        <v>12094</v>
       </c>
       <c r="B793" s="13" t="s">
-        <v>12114</v>
+        <v>12095</v>
       </c>
       <c r="C793" s="30" t="s">
-        <v>12115</v>
+        <v>12096</v>
       </c>
       <c r="D793" s="13" t="s">
-        <v>12113</v>
+        <v>12094</v>
       </c>
       <c r="E793" s="13" t="s">
-        <v>12116</v>
+        <v>12097</v>
       </c>
       <c r="F793" s="13" t="s">
-        <v>12113</v>
+        <v>12094</v>
       </c>
       <c r="G793" s="13" t="s">
-        <v>12117</v>
+        <v>12098</v>
       </c>
       <c r="H793" s="13" t="s">
-        <v>12113</v>
+        <v>12094</v>
       </c>
       <c r="I793" s="13" t="s">
-        <v>12118</v>
+        <v>12099</v>
       </c>
       <c r="J793" s="2" t="s">
-        <v>12119</v>
+        <v>12100</v>
       </c>
       <c r="K793" s="13" t="s">
-        <v>12119</v>
+        <v>12100</v>
       </c>
       <c r="L793" s="4" t="s">
-        <v>12120</v>
+        <v>12101</v>
       </c>
       <c r="M793" s="8" t="s">
-        <v>12121</v>
+        <v>12102</v>
       </c>
       <c r="N793" s="29" t="s">
-        <v>12122</v>
+        <v>12103</v>
       </c>
       <c r="O793" s="7" t="s">
-        <v>12123</v>
+        <v>12104</v>
       </c>
       <c r="P793" s="8" t="s">
-        <v>12113</v>
+        <v>12094</v>
       </c>
       <c r="Q793" s="16" t="s">
-        <v>12113</v>
+        <v>12094</v>
       </c>
       <c r="R793" s="13" t="s">
-        <v>12113</v>
+        <v>12094</v>
       </c>
       <c r="T793" s="7" t="s">
-        <v>12113</v>
+        <v>12094</v>
       </c>
     </row>
     <row r="794" spans="1:20" ht="13.5" customHeight="1">
       <c r="A794" s="13" t="s">
-        <v>12124</v>
+        <v>12105</v>
       </c>
       <c r="B794" s="13" t="s">
-        <v>12125</v>
+        <v>12106</v>
       </c>
       <c r="C794" s="30" t="s">
-        <v>12126</v>
+        <v>12107</v>
       </c>
       <c r="D794" s="13" t="s">
-        <v>12127</v>
+        <v>12108</v>
       </c>
       <c r="E794" s="13" t="s">
-        <v>12128</v>
+        <v>12109</v>
       </c>
       <c r="F794" s="2" t="s">
-        <v>12129</v>
+        <v>12110</v>
       </c>
       <c r="G794" s="13" t="s">
-        <v>12130</v>
+        <v>12111</v>
       </c>
       <c r="H794" s="2" t="s">
-        <v>12131</v>
+        <v>12112</v>
       </c>
       <c r="I794" s="2" t="s">
-        <v>12132</v>
+        <v>12113</v>
       </c>
       <c r="J794" s="13"/>
       <c r="K794" s="2" t="s">
-        <v>12133</v>
+        <v>12114</v>
       </c>
       <c r="L794" s="4" t="s">
-        <v>12134</v>
+        <v>12115</v>
       </c>
       <c r="M794" s="8" t="s">
-        <v>12135</v>
+        <v>12116</v>
       </c>
       <c r="N794" s="29" t="s">
-        <v>12136</v>
+        <v>12117</v>
       </c>
       <c r="O794" s="7" t="s">
-        <v>12137</v>
+        <v>12118</v>
       </c>
       <c r="P794" s="30" t="s">
-        <v>12138</v>
+        <v>12119</v>
       </c>
       <c r="Q794" s="16" t="s">
-        <v>12139</v>
+        <v>12120</v>
       </c>
       <c r="R794" s="1" t="s">
-        <v>12140</v>
+        <v>12121</v>
       </c>
       <c r="T794" s="7" t="s">
-        <v>12141</v>
+        <v>12122</v>
       </c>
     </row>
     <row r="795" spans="1:20" ht="13.5" customHeight="1">
       <c r="A795" s="13" t="s">
-        <v>12142</v>
+        <v>12123</v>
       </c>
       <c r="B795" s="13" t="s">
-        <v>12143</v>
+        <v>12124</v>
       </c>
       <c r="C795" s="30" t="s">
-        <v>12144</v>
+        <v>12125</v>
       </c>
       <c r="D795" s="13"/>
       <c r="E795" s="1" t="s">
-        <v>12145</v>
+        <v>12126</v>
       </c>
       <c r="F795" s="1" t="s">
-        <v>12146</v>
+        <v>12127</v>
       </c>
       <c r="G795" s="13"/>
       <c r="H795" s="13"/>
@@ -84301,46 +84580,46 @@
       <c r="J795" s="13"/>
       <c r="K795" s="13"/>
       <c r="L795" s="14" t="s">
-        <v>12147</v>
+        <v>12128</v>
       </c>
       <c r="M795" s="8" t="s">
-        <v>12148</v>
+        <v>12129</v>
       </c>
       <c r="N795" s="29" t="s">
-        <v>12149</v>
+        <v>12130</v>
       </c>
       <c r="O795" s="7" t="s">
-        <v>12150</v>
+        <v>12131</v>
       </c>
       <c r="P795" s="12" t="s">
-        <v>12151</v>
+        <v>12132</v>
       </c>
       <c r="Q795" s="16" t="s">
-        <v>12152</v>
+        <v>12133</v>
       </c>
       <c r="R795" s="7" t="s">
-        <v>12153</v>
+        <v>12134</v>
       </c>
       <c r="T795" s="7" t="s">
-        <v>12154</v>
+        <v>12135</v>
       </c>
     </row>
     <row r="796" spans="1:20" ht="13.5" customHeight="1">
       <c r="A796" s="13" t="s">
-        <v>12155</v>
+        <v>12136</v>
       </c>
       <c r="B796" s="13" t="s">
-        <v>12156</v>
+        <v>12137</v>
       </c>
       <c r="C796" s="3" t="s">
-        <v>12157</v>
+        <v>12138</v>
       </c>
       <c r="D796" s="13"/>
       <c r="E796" s="21" t="s">
-        <v>12158</v>
+        <v>12139</v>
       </c>
       <c r="F796" s="1" t="s">
-        <v>12159</v>
+        <v>12140</v>
       </c>
       <c r="G796" s="13"/>
       <c r="H796" s="13"/>
@@ -84348,7 +84627,7 @@
       <c r="J796" s="13"/>
       <c r="K796" s="13"/>
       <c r="L796" s="14" t="s">
-        <v>12160</v>
+        <v>12141</v>
       </c>
       <c r="M796" s="8" t="s">
         <v>9071</v>
@@ -84357,37 +84636,37 @@
         <v>9075</v>
       </c>
       <c r="O796" s="7" t="s">
-        <v>12160</v>
+        <v>12141</v>
       </c>
       <c r="P796" s="30" t="s">
-        <v>12161</v>
+        <v>12142</v>
       </c>
       <c r="Q796" s="16" t="s">
-        <v>12162</v>
+        <v>12143</v>
       </c>
       <c r="R796" s="7" t="s">
-        <v>12163</v>
+        <v>12144</v>
       </c>
       <c r="T796" s="7" t="s">
-        <v>12159</v>
+        <v>12140</v>
       </c>
     </row>
     <row r="797" spans="1:20" ht="13.5" customHeight="1">
       <c r="A797" s="13" t="s">
-        <v>12164</v>
+        <v>12145</v>
       </c>
       <c r="B797" s="13" t="s">
-        <v>12165</v>
+        <v>12146</v>
       </c>
       <c r="C797" s="30" t="s">
-        <v>12166</v>
+        <v>12147</v>
       </c>
       <c r="D797" s="13"/>
       <c r="E797" s="21" t="s">
-        <v>12167</v>
+        <v>12148</v>
       </c>
       <c r="F797" s="1" t="s">
-        <v>12168</v>
+        <v>12149</v>
       </c>
       <c r="G797" s="13"/>
       <c r="H797" s="13"/>
@@ -84395,46 +84674,46 @@
       <c r="J797" s="13"/>
       <c r="K797" s="13"/>
       <c r="L797" s="14" t="s">
-        <v>12169</v>
+        <v>12150</v>
       </c>
       <c r="M797" s="8" t="s">
-        <v>12170</v>
+        <v>12151</v>
       </c>
       <c r="N797" s="6" t="s">
-        <v>12171</v>
+        <v>12152</v>
       </c>
       <c r="O797" s="7" t="s">
-        <v>12172</v>
+        <v>12153</v>
       </c>
       <c r="P797" s="8" t="s">
-        <v>12173</v>
+        <v>12154</v>
       </c>
       <c r="Q797" s="16" t="s">
-        <v>12174</v>
+        <v>12155</v>
       </c>
       <c r="R797" s="1" t="s">
-        <v>12175</v>
+        <v>12156</v>
       </c>
       <c r="T797" s="7" t="s">
-        <v>12176</v>
+        <v>12157</v>
       </c>
     </row>
     <row r="798" spans="1:20" ht="13.5" customHeight="1">
       <c r="A798" s="13" t="s">
-        <v>12177</v>
+        <v>12158</v>
       </c>
       <c r="B798" s="13" t="s">
-        <v>12178</v>
+        <v>12159</v>
       </c>
       <c r="C798" s="30" t="s">
-        <v>12179</v>
+        <v>12160</v>
       </c>
       <c r="D798" s="13"/>
       <c r="E798" s="21" t="s">
-        <v>12180</v>
+        <v>12161</v>
       </c>
       <c r="F798" s="1" t="s">
-        <v>12181</v>
+        <v>12162</v>
       </c>
       <c r="G798" s="13"/>
       <c r="H798" s="13"/>
@@ -84442,46 +84721,46 @@
       <c r="J798" s="13"/>
       <c r="K798" s="13"/>
       <c r="L798" s="14" t="s">
-        <v>12182</v>
+        <v>12163</v>
       </c>
       <c r="M798" s="8" t="s">
-        <v>12183</v>
+        <v>12164</v>
       </c>
       <c r="N798" s="29" t="s">
-        <v>12184</v>
+        <v>12165</v>
       </c>
       <c r="O798" s="7" t="s">
-        <v>12185</v>
+        <v>12166</v>
       </c>
       <c r="P798" s="8" t="s">
-        <v>12186</v>
+        <v>12167</v>
       </c>
       <c r="Q798" s="16" t="s">
-        <v>12187</v>
+        <v>12168</v>
       </c>
       <c r="R798" s="1" t="s">
-        <v>12188</v>
+        <v>12169</v>
       </c>
       <c r="T798" s="7" t="s">
-        <v>12189</v>
+        <v>12170</v>
       </c>
     </row>
     <row r="799" spans="1:20" ht="13.5" customHeight="1">
       <c r="A799" s="13" t="s">
-        <v>12190</v>
+        <v>12171</v>
       </c>
       <c r="B799" s="13" t="s">
-        <v>12191</v>
+        <v>12172</v>
       </c>
       <c r="C799" s="30" t="s">
-        <v>12192</v>
+        <v>12173</v>
       </c>
       <c r="D799" s="13"/>
       <c r="E799" s="1" t="s">
-        <v>12193</v>
+        <v>12174</v>
       </c>
       <c r="F799" s="1" t="s">
-        <v>12194</v>
+        <v>12175</v>
       </c>
       <c r="G799" s="13"/>
       <c r="H799" s="13"/>
@@ -84489,43 +84768,43 @@
       <c r="J799" s="13"/>
       <c r="K799" s="13"/>
       <c r="L799" s="14" t="s">
-        <v>12195</v>
+        <v>12176</v>
       </c>
       <c r="M799" s="8" t="s">
-        <v>12196</v>
+        <v>12177</v>
       </c>
       <c r="N799" s="29" t="s">
-        <v>12197</v>
+        <v>12178</v>
       </c>
       <c r="O799" s="7" t="s">
-        <v>12198</v>
+        <v>12179</v>
       </c>
       <c r="P799" s="8" t="s">
-        <v>12199</v>
+        <v>12180</v>
       </c>
       <c r="Q799" s="16" t="s">
-        <v>12200</v>
+        <v>12181</v>
       </c>
       <c r="R799" s="1" t="s">
-        <v>12201</v>
+        <v>12182</v>
       </c>
       <c r="T799" s="7" t="s">
-        <v>12202</v>
+        <v>12183</v>
       </c>
     </row>
     <row r="800" spans="1:20" ht="13.5" customHeight="1">
       <c r="A800" s="21" t="s">
-        <v>12203</v>
+        <v>12184</v>
       </c>
       <c r="B800" s="13" t="s">
-        <v>12204</v>
+        <v>12185</v>
       </c>
       <c r="C800" s="30" t="s">
-        <v>12205</v>
+        <v>12186</v>
       </c>
       <c r="D800" s="13"/>
       <c r="E800" s="21" t="s">
-        <v>12206</v>
+        <v>12187</v>
       </c>
       <c r="F800" s="13"/>
       <c r="G800" s="13"/>
@@ -84534,274 +84813,274 @@
       <c r="J800" s="13"/>
       <c r="K800" s="13"/>
       <c r="L800" s="14" t="s">
-        <v>12207</v>
+        <v>12188</v>
       </c>
       <c r="M800" s="35" t="s">
-        <v>12208</v>
+        <v>12189</v>
       </c>
       <c r="N800" s="15" t="s">
-        <v>12209</v>
+        <v>12190</v>
       </c>
       <c r="O800" s="7" t="s">
-        <v>12210</v>
+        <v>12191</v>
       </c>
       <c r="P800" s="8" t="s">
-        <v>12211</v>
+        <v>12192</v>
       </c>
       <c r="Q800" s="16" t="s">
-        <v>12212</v>
+        <v>12193</v>
       </c>
       <c r="R800" s="21" t="s">
-        <v>12213</v>
+        <v>12194</v>
       </c>
       <c r="T800" s="7" t="s">
-        <v>12214</v>
+        <v>12195</v>
       </c>
     </row>
     <row r="801" spans="1:20" ht="13.5" customHeight="1">
       <c r="A801" s="13" t="s">
-        <v>12215</v>
+        <v>12196</v>
       </c>
       <c r="B801" s="13" t="s">
-        <v>12216</v>
+        <v>12197</v>
       </c>
       <c r="C801" s="30" t="s">
-        <v>12217</v>
+        <v>12198</v>
       </c>
       <c r="D801" s="13" t="s">
-        <v>12218</v>
+        <v>12199</v>
       </c>
       <c r="E801" s="21" t="s">
-        <v>12219</v>
+        <v>12200</v>
       </c>
       <c r="F801" s="1" t="s">
-        <v>12220</v>
+        <v>12201</v>
       </c>
       <c r="G801" s="20" t="s">
-        <v>12221</v>
+        <v>12202</v>
       </c>
       <c r="H801" s="13"/>
       <c r="I801" s="13"/>
       <c r="J801" s="13"/>
       <c r="K801" s="13"/>
       <c r="L801" s="14" t="s">
-        <v>12222</v>
+        <v>12203</v>
       </c>
       <c r="M801" s="8" t="s">
-        <v>12223</v>
+        <v>12204</v>
       </c>
       <c r="N801" s="17" t="s">
-        <v>12224</v>
+        <v>12205</v>
       </c>
       <c r="O801" s="7" t="s">
-        <v>12225</v>
+        <v>12206</v>
       </c>
       <c r="P801" s="30" t="s">
-        <v>12226</v>
+        <v>12207</v>
       </c>
       <c r="Q801" s="16" t="s">
-        <v>12227</v>
+        <v>12208</v>
       </c>
       <c r="R801" s="1" t="s">
-        <v>12228</v>
+        <v>12209</v>
       </c>
       <c r="T801" s="7" t="s">
-        <v>12229</v>
+        <v>12210</v>
       </c>
     </row>
     <row r="802" spans="1:20" ht="13.5" customHeight="1">
       <c r="A802" s="13" t="s">
-        <v>12230</v>
+        <v>12211</v>
       </c>
       <c r="B802" s="13" t="s">
-        <v>12231</v>
+        <v>12212</v>
       </c>
       <c r="C802" s="30" t="s">
-        <v>12232</v>
+        <v>12213</v>
       </c>
       <c r="D802" s="13" t="s">
-        <v>12233</v>
+        <v>12214</v>
       </c>
       <c r="E802" s="21" t="s">
-        <v>12234</v>
+        <v>12215</v>
       </c>
       <c r="F802" s="1" t="s">
-        <v>12235</v>
+        <v>12216</v>
       </c>
       <c r="G802" s="13" t="s">
-        <v>12236</v>
+        <v>12217</v>
       </c>
       <c r="H802" s="13"/>
       <c r="I802" s="13"/>
       <c r="J802" s="13"/>
       <c r="K802" s="13"/>
       <c r="L802" s="14" t="s">
-        <v>12237</v>
+        <v>12218</v>
       </c>
       <c r="M802" s="8" t="s">
-        <v>12238</v>
+        <v>12219</v>
       </c>
       <c r="N802" s="17" t="s">
-        <v>12239</v>
+        <v>12220</v>
       </c>
       <c r="O802" s="7" t="s">
-        <v>12240</v>
+        <v>12221</v>
       </c>
       <c r="P802" s="30" t="s">
-        <v>12241</v>
+        <v>12222</v>
       </c>
       <c r="Q802" s="16" t="s">
-        <v>12242</v>
+        <v>12223</v>
       </c>
       <c r="R802" s="1" t="s">
-        <v>12243</v>
+        <v>12224</v>
       </c>
       <c r="T802" s="7" t="s">
-        <v>12244</v>
+        <v>12225</v>
       </c>
     </row>
     <row r="803" spans="1:20" ht="13.5" customHeight="1">
       <c r="A803" s="13" t="s">
-        <v>12245</v>
+        <v>12226</v>
       </c>
       <c r="B803" s="13" t="s">
-        <v>12246</v>
+        <v>12227</v>
       </c>
       <c r="C803" s="30" t="s">
-        <v>12247</v>
+        <v>12228</v>
       </c>
       <c r="D803" s="13" t="s">
-        <v>12248</v>
+        <v>12229</v>
       </c>
       <c r="E803" s="21" t="s">
-        <v>12249</v>
+        <v>12230</v>
       </c>
       <c r="F803" s="13"/>
       <c r="G803" s="13" t="s">
-        <v>12250</v>
+        <v>12231</v>
       </c>
       <c r="H803" s="13"/>
       <c r="I803" s="13"/>
       <c r="J803" s="13"/>
       <c r="K803" s="13"/>
       <c r="L803" s="14" t="s">
-        <v>12251</v>
+        <v>12232</v>
       </c>
       <c r="M803" s="8" t="s">
-        <v>12252</v>
+        <v>12233</v>
       </c>
       <c r="N803" s="17" t="s">
-        <v>12253</v>
+        <v>12234</v>
       </c>
       <c r="O803" s="7" t="s">
-        <v>12254</v>
+        <v>12235</v>
       </c>
       <c r="P803" s="30" t="s">
-        <v>12255</v>
+        <v>12236</v>
       </c>
       <c r="Q803" s="16" t="s">
-        <v>12256</v>
+        <v>12237</v>
       </c>
       <c r="R803" s="1" t="s">
-        <v>12257</v>
+        <v>12238</v>
       </c>
       <c r="T803" s="7" t="s">
-        <v>12258</v>
+        <v>12239</v>
       </c>
     </row>
     <row r="804" spans="1:20" ht="13.5" customHeight="1">
       <c r="A804" s="13" t="s">
-        <v>12259</v>
+        <v>12240</v>
       </c>
       <c r="B804" s="13" t="s">
-        <v>12260</v>
+        <v>12241</v>
       </c>
       <c r="C804" s="30" t="s">
-        <v>12261</v>
+        <v>12242</v>
       </c>
       <c r="D804" s="13" t="s">
-        <v>12262</v>
+        <v>12243</v>
       </c>
       <c r="E804" s="13" t="s">
-        <v>12263</v>
+        <v>12244</v>
       </c>
       <c r="F804" s="13"/>
       <c r="G804" s="20" t="s">
-        <v>12264</v>
+        <v>12245</v>
       </c>
       <c r="H804" s="13"/>
       <c r="I804" s="13"/>
       <c r="J804" s="13"/>
       <c r="K804" s="13"/>
       <c r="L804" s="14" t="s">
-        <v>12265</v>
+        <v>12246</v>
       </c>
       <c r="M804" s="8" t="s">
-        <v>12266</v>
+        <v>12247</v>
       </c>
       <c r="N804" s="15" t="s">
-        <v>12267</v>
+        <v>12248</v>
       </c>
       <c r="O804" s="7" t="s">
-        <v>12268</v>
+        <v>12249</v>
       </c>
       <c r="P804" s="8" t="s">
-        <v>12259</v>
+        <v>12240</v>
       </c>
       <c r="Q804" s="16" t="s">
-        <v>12269</v>
+        <v>12250</v>
       </c>
       <c r="R804" s="1" t="s">
-        <v>12270</v>
+        <v>12251</v>
       </c>
       <c r="T804" s="7" t="s">
-        <v>12271</v>
+        <v>12252</v>
       </c>
     </row>
     <row r="805" spans="1:20" ht="13.5" customHeight="1">
       <c r="A805" s="13" t="s">
-        <v>12272</v>
+        <v>12253</v>
       </c>
       <c r="B805" s="13" t="s">
-        <v>12273</v>
+        <v>12254</v>
       </c>
       <c r="C805" s="30" t="s">
-        <v>12273</v>
+        <v>12254</v>
       </c>
       <c r="D805" s="13" t="s">
-        <v>12274</v>
+        <v>12255</v>
       </c>
       <c r="E805" s="13" t="s">
-        <v>12275</v>
+        <v>12256</v>
       </c>
       <c r="F805" s="13"/>
       <c r="G805" s="20" t="s">
-        <v>12276</v>
+        <v>12257</v>
       </c>
       <c r="H805" s="13"/>
       <c r="I805" s="13"/>
       <c r="J805" s="13"/>
       <c r="K805" s="13"/>
       <c r="L805" s="14" t="s">
-        <v>12277</v>
+        <v>12258</v>
       </c>
       <c r="M805" s="8" t="s">
-        <v>12278</v>
+        <v>12259</v>
       </c>
       <c r="N805" s="15" t="s">
-        <v>12279</v>
+        <v>12260</v>
       </c>
       <c r="O805" s="7" t="s">
-        <v>12280</v>
+        <v>12261</v>
       </c>
       <c r="P805" s="8" t="s">
-        <v>12281</v>
+        <v>12262</v>
       </c>
       <c r="Q805" s="16" t="s">
-        <v>12282</v>
+        <v>12263</v>
       </c>
       <c r="R805" s="1" t="s">
-        <v>12283</v>
+        <v>12264</v>
       </c>
       <c r="T805" s="7" t="s">
         <v>11342</v>
@@ -84809,213 +85088,213 @@
     </row>
     <row r="806" spans="1:20" ht="13.5" customHeight="1">
       <c r="A806" s="2" t="s">
-        <v>12284</v>
+        <v>12265</v>
       </c>
       <c r="B806" s="13" t="s">
-        <v>12285</v>
+        <v>12266</v>
       </c>
       <c r="C806" s="30" t="s">
-        <v>12285</v>
+        <v>12266</v>
       </c>
       <c r="D806" s="13" t="s">
-        <v>12286</v>
+        <v>12267</v>
       </c>
       <c r="E806" s="2" t="s">
-        <v>12287</v>
+        <v>12268</v>
       </c>
       <c r="F806" s="1" t="s">
-        <v>12288</v>
+        <v>12269</v>
       </c>
       <c r="G806" s="20" t="s">
-        <v>12289</v>
+        <v>12270</v>
       </c>
       <c r="H806" s="13"/>
       <c r="I806" s="13"/>
       <c r="J806" s="13"/>
       <c r="K806" s="13" t="s">
-        <v>12290</v>
+        <v>12271</v>
       </c>
       <c r="L806" s="14" t="s">
-        <v>12291</v>
+        <v>12272</v>
       </c>
       <c r="M806" s="8" t="s">
-        <v>12292</v>
+        <v>12273</v>
       </c>
       <c r="N806" s="15" t="s">
         <v>11738</v>
       </c>
       <c r="O806" s="7" t="s">
-        <v>12293</v>
+        <v>12274</v>
       </c>
       <c r="P806" s="12" t="s">
-        <v>12294</v>
+        <v>12275</v>
       </c>
       <c r="Q806" s="16" t="s">
-        <v>12295</v>
+        <v>12276</v>
       </c>
       <c r="R806" s="18" t="s">
-        <v>12296</v>
+        <v>12277</v>
       </c>
       <c r="T806" s="7" t="s">
-        <v>12297</v>
+        <v>12278</v>
       </c>
     </row>
     <row r="807" spans="1:20" ht="13.5" customHeight="1">
       <c r="A807" s="13" t="s">
-        <v>12298</v>
+        <v>12279</v>
       </c>
       <c r="B807" s="13" t="s">
-        <v>12299</v>
+        <v>12280</v>
       </c>
       <c r="C807" s="30" t="s">
-        <v>12300</v>
+        <v>12281</v>
       </c>
       <c r="D807" s="13" t="s">
-        <v>12301</v>
+        <v>12282</v>
       </c>
       <c r="E807" s="13" t="s">
-        <v>12302</v>
+        <v>12283</v>
       </c>
       <c r="F807" s="13"/>
       <c r="G807" s="20" t="s">
-        <v>12303</v>
+        <v>12284</v>
       </c>
       <c r="H807" s="13"/>
       <c r="I807" s="13"/>
       <c r="J807" s="13"/>
       <c r="K807" s="13" t="s">
-        <v>12304</v>
+        <v>12285</v>
       </c>
       <c r="L807" s="14" t="s">
-        <v>12305</v>
+        <v>12286</v>
       </c>
       <c r="M807" s="8" t="s">
-        <v>12306</v>
+        <v>12287</v>
       </c>
       <c r="N807" s="15" t="s">
-        <v>12307</v>
+        <v>12288</v>
       </c>
       <c r="O807" s="7" t="s">
-        <v>12308</v>
+        <v>12289</v>
       </c>
       <c r="P807" s="30" t="s">
-        <v>12309</v>
+        <v>12290</v>
       </c>
       <c r="Q807" s="16" t="s">
-        <v>12310</v>
+        <v>12291</v>
       </c>
       <c r="R807" s="1" t="s">
-        <v>12311</v>
+        <v>12292</v>
       </c>
       <c r="T807" s="7" t="s">
-        <v>12312</v>
+        <v>12293</v>
       </c>
     </row>
     <row r="808" spans="1:20" ht="13.5" customHeight="1">
       <c r="A808" s="13" t="s">
-        <v>12313</v>
+        <v>12294</v>
       </c>
       <c r="B808" s="13" t="s">
-        <v>12314</v>
+        <v>12295</v>
       </c>
       <c r="C808" s="30" t="s">
-        <v>12315</v>
+        <v>12296</v>
       </c>
       <c r="D808" s="13" t="s">
-        <v>12316</v>
+        <v>12297</v>
       </c>
       <c r="E808" s="1" t="s">
-        <v>12317</v>
+        <v>12298</v>
       </c>
       <c r="F808" s="1" t="s">
-        <v>12318</v>
+        <v>12299</v>
       </c>
       <c r="G808" s="20" t="s">
-        <v>12319</v>
+        <v>12300</v>
       </c>
       <c r="H808" s="13"/>
       <c r="I808" s="13"/>
       <c r="J808" s="13"/>
       <c r="K808" s="13"/>
       <c r="L808" s="14" t="s">
-        <v>12320</v>
+        <v>12301</v>
       </c>
       <c r="M808" s="8" t="s">
-        <v>12321</v>
+        <v>12302</v>
       </c>
       <c r="N808" s="15" t="s">
         <v>7105</v>
       </c>
       <c r="O808" s="7" t="s">
-        <v>12322</v>
+        <v>12303</v>
       </c>
       <c r="P808" s="30" t="s">
-        <v>12323</v>
+        <v>12304</v>
       </c>
       <c r="Q808" s="16" t="s">
-        <v>12324</v>
+        <v>12305</v>
       </c>
       <c r="R808" s="7" t="s">
-        <v>12325</v>
+        <v>12306</v>
       </c>
       <c r="T808" s="7" t="s">
-        <v>12326</v>
+        <v>12307</v>
       </c>
     </row>
     <row r="809" spans="1:20" ht="13.5" customHeight="1">
       <c r="A809" s="13" t="s">
-        <v>12327</v>
+        <v>12308</v>
       </c>
       <c r="B809" s="13" t="s">
-        <v>12314</v>
+        <v>12295</v>
       </c>
       <c r="C809" s="30" t="s">
-        <v>12315</v>
+        <v>12296</v>
       </c>
       <c r="D809" s="13" t="s">
-        <v>12328</v>
+        <v>12309</v>
       </c>
       <c r="E809" s="1" t="s">
-        <v>12329</v>
+        <v>12310</v>
       </c>
       <c r="F809" s="1" t="s">
-        <v>12330</v>
+        <v>12311</v>
       </c>
       <c r="G809" s="20" t="s">
-        <v>12331</v>
+        <v>12312</v>
       </c>
       <c r="H809" s="13"/>
       <c r="I809" s="13"/>
       <c r="J809" s="13"/>
       <c r="K809" s="13"/>
       <c r="L809" s="14" t="s">
-        <v>12332</v>
+        <v>12313</v>
       </c>
       <c r="M809" s="8" t="s">
-        <v>12321</v>
+        <v>12302</v>
       </c>
       <c r="N809" s="15" t="s">
-        <v>12333</v>
+        <v>12314</v>
       </c>
       <c r="O809" s="7" t="s">
-        <v>12334</v>
+        <v>12315</v>
       </c>
       <c r="P809" s="30" t="s">
-        <v>12335</v>
+        <v>12316</v>
       </c>
       <c r="Q809" s="16" t="s">
-        <v>12336</v>
+        <v>12317</v>
       </c>
       <c r="R809" s="1" t="s">
-        <v>12337</v>
+        <v>12318</v>
       </c>
       <c r="T809" s="7" t="s">
-        <v>12338</v>
+        <v>12319</v>
       </c>
     </row>
     <row r="810" spans="1:20" ht="13.5" customHeight="1">
       <c r="A810" s="2" t="s">
-        <v>12339</v>
+        <v>12320</v>
       </c>
       <c r="B810" s="13" t="s">
         <v>9841</v>
@@ -85024,10 +85303,10 @@
         <v>9842</v>
       </c>
       <c r="D810" s="13" t="s">
-        <v>12340</v>
+        <v>12321</v>
       </c>
       <c r="E810" s="13" t="s">
-        <v>12341</v>
+        <v>12322</v>
       </c>
       <c r="F810" s="13"/>
       <c r="G810" s="13"/>
@@ -85036,33 +85315,33 @@
       <c r="J810" s="13"/>
       <c r="K810" s="13"/>
       <c r="L810" s="4" t="s">
-        <v>12342</v>
+        <v>12323</v>
       </c>
       <c r="M810" s="5" t="s">
-        <v>12339</v>
+        <v>12320</v>
       </c>
       <c r="N810" s="15" t="s">
-        <v>12343</v>
+        <v>12324</v>
       </c>
       <c r="O810" s="7" t="s">
-        <v>12344</v>
+        <v>12325</v>
       </c>
       <c r="P810" s="30" t="s">
-        <v>12345</v>
+        <v>12326</v>
       </c>
       <c r="Q810" s="16" t="s">
-        <v>12339</v>
+        <v>12320</v>
       </c>
       <c r="R810" s="7" t="s">
-        <v>12346</v>
+        <v>12327</v>
       </c>
       <c r="T810" s="7" t="s">
-        <v>12347</v>
+        <v>12328</v>
       </c>
     </row>
     <row r="811" spans="1:20" ht="13.5" customHeight="1">
       <c r="A811" s="2" t="s">
-        <v>12348</v>
+        <v>12329</v>
       </c>
       <c r="B811" s="13" t="s">
         <v>10265</v>
@@ -85071,10 +85350,10 @@
         <v>10266</v>
       </c>
       <c r="D811" s="13" t="s">
-        <v>12349</v>
+        <v>12330</v>
       </c>
       <c r="E811" s="13" t="s">
-        <v>12350</v>
+        <v>12331</v>
       </c>
       <c r="F811" s="13"/>
       <c r="G811" s="13"/>
@@ -85083,45 +85362,45 @@
       <c r="J811" s="13"/>
       <c r="K811" s="13"/>
       <c r="L811" s="4" t="s">
-        <v>12351</v>
+        <v>12332</v>
       </c>
       <c r="M811" s="5" t="s">
-        <v>12348</v>
+        <v>12329</v>
       </c>
       <c r="N811" s="15" t="s">
         <v>10270</v>
       </c>
       <c r="O811" s="7" t="s">
-        <v>12352</v>
+        <v>12333</v>
       </c>
       <c r="P811" s="30" t="s">
-        <v>12353</v>
+        <v>12334</v>
       </c>
       <c r="Q811" s="16" t="s">
-        <v>12348</v>
+        <v>12329</v>
       </c>
       <c r="R811" s="7" t="s">
-        <v>12354</v>
+        <v>12335</v>
       </c>
       <c r="T811" s="7" t="s">
-        <v>12355</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="812" spans="1:20" ht="13.5" customHeight="1">
       <c r="A812" s="13" t="s">
-        <v>12356</v>
+        <v>12337</v>
       </c>
       <c r="B812" s="13" t="s">
-        <v>12357</v>
+        <v>12338</v>
       </c>
       <c r="C812" s="30" t="s">
-        <v>12358</v>
+        <v>12339</v>
       </c>
       <c r="D812" s="13" t="s">
-        <v>12359</v>
+        <v>12340</v>
       </c>
       <c r="E812" s="13" t="s">
-        <v>12360</v>
+        <v>12341</v>
       </c>
       <c r="F812" s="13"/>
       <c r="G812" s="13"/>
@@ -85130,45 +85409,45 @@
       <c r="J812" s="13"/>
       <c r="K812" s="13"/>
       <c r="L812" s="14" t="s">
-        <v>12361</v>
+        <v>12342</v>
       </c>
       <c r="M812" s="8" t="s">
-        <v>12362</v>
+        <v>12343</v>
       </c>
       <c r="N812" s="17" t="s">
-        <v>12363</v>
+        <v>12344</v>
       </c>
       <c r="O812" s="7" t="s">
-        <v>12364</v>
+        <v>12345</v>
       </c>
       <c r="P812" s="8" t="s">
-        <v>12365</v>
+        <v>12346</v>
       </c>
       <c r="Q812" s="36" t="s">
-        <v>12366</v>
+        <v>12347</v>
       </c>
       <c r="R812" s="1" t="s">
-        <v>12367</v>
+        <v>12348</v>
       </c>
       <c r="T812" s="7" t="s">
-        <v>12368</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="813" spans="1:20" ht="13.5" customHeight="1">
       <c r="A813" s="13" t="s">
-        <v>12369</v>
+        <v>12350</v>
       </c>
       <c r="B813" s="13" t="s">
-        <v>12370</v>
+        <v>12351</v>
       </c>
       <c r="C813" s="30" t="s">
-        <v>12371</v>
+        <v>12352</v>
       </c>
       <c r="D813" s="13" t="s">
-        <v>12372</v>
+        <v>12353</v>
       </c>
       <c r="E813" s="13" t="s">
-        <v>12373</v>
+        <v>12354</v>
       </c>
       <c r="F813" s="13"/>
       <c r="G813" s="13"/>
@@ -85177,388 +85456,388 @@
       <c r="J813" s="13"/>
       <c r="K813" s="13"/>
       <c r="L813" s="14" t="s">
-        <v>12374</v>
+        <v>12355</v>
       </c>
       <c r="M813" s="8" t="s">
-        <v>12375</v>
+        <v>12356</v>
       </c>
       <c r="N813" s="15" t="s">
-        <v>12376</v>
+        <v>12357</v>
       </c>
       <c r="O813" s="7" t="s">
-        <v>12377</v>
+        <v>12358</v>
       </c>
       <c r="P813" s="30" t="s">
-        <v>12378</v>
+        <v>12359</v>
       </c>
       <c r="Q813" s="16" t="s">
-        <v>12379</v>
+        <v>12360</v>
       </c>
       <c r="R813" s="1" t="s">
-        <v>12380</v>
+        <v>12361</v>
       </c>
       <c r="T813" s="7" t="s">
-        <v>12381</v>
+        <v>12362</v>
       </c>
     </row>
     <row r="814" spans="1:20" ht="13.5" customHeight="1">
       <c r="A814" s="13" t="s">
-        <v>12382</v>
+        <v>12363</v>
       </c>
       <c r="B814" s="13" t="s">
-        <v>12383</v>
+        <v>12364</v>
       </c>
       <c r="C814" s="30" t="s">
-        <v>12384</v>
+        <v>12365</v>
       </c>
       <c r="D814" s="13" t="s">
-        <v>12385</v>
+        <v>12366</v>
       </c>
       <c r="E814" s="13" t="s">
-        <v>12386</v>
+        <v>12367</v>
       </c>
       <c r="F814" s="2" t="s">
-        <v>12387</v>
+        <v>12368</v>
       </c>
       <c r="G814" s="13"/>
       <c r="H814" s="2" t="s">
-        <v>12388</v>
+        <v>12369</v>
       </c>
       <c r="I814" s="2" t="s">
-        <v>12389</v>
+        <v>12370</v>
       </c>
       <c r="J814" s="2" t="s">
-        <v>12390</v>
+        <v>12371</v>
       </c>
       <c r="K814" s="2" t="s">
-        <v>12390</v>
+        <v>12371</v>
       </c>
       <c r="L814" s="4" t="s">
-        <v>12391</v>
+        <v>12372</v>
       </c>
       <c r="M814" s="5" t="s">
-        <v>12392</v>
+        <v>12373</v>
       </c>
       <c r="N814" s="17" t="s">
-        <v>12393</v>
+        <v>12374</v>
       </c>
       <c r="O814" s="7" t="s">
-        <v>12394</v>
+        <v>12375</v>
       </c>
       <c r="P814" s="30" t="s">
-        <v>12395</v>
+        <v>12376</v>
       </c>
       <c r="Q814" s="16" t="s">
-        <v>12396</v>
+        <v>12377</v>
       </c>
       <c r="R814" s="1" t="s">
-        <v>12397</v>
+        <v>12378</v>
       </c>
       <c r="T814" s="7" t="s">
-        <v>12398</v>
+        <v>12379</v>
       </c>
     </row>
     <row r="815" spans="1:20" ht="13.5" customHeight="1">
       <c r="A815" s="2" t="s">
-        <v>12399</v>
+        <v>12380</v>
       </c>
       <c r="B815" s="13" t="s">
-        <v>12400</v>
+        <v>12381</v>
       </c>
       <c r="C815" s="30" t="s">
-        <v>12401</v>
+        <v>12382</v>
       </c>
       <c r="D815" s="13" t="s">
-        <v>12402</v>
+        <v>12383</v>
       </c>
       <c r="E815" s="13" t="s">
-        <v>12403</v>
+        <v>12384</v>
       </c>
       <c r="F815" s="2" t="s">
-        <v>12404</v>
+        <v>12385</v>
       </c>
       <c r="G815" s="13"/>
       <c r="H815" s="2" t="s">
-        <v>12405</v>
+        <v>12386</v>
       </c>
       <c r="I815" s="2" t="s">
-        <v>12406</v>
+        <v>12387</v>
       </c>
       <c r="J815" s="2" t="s">
-        <v>12407</v>
+        <v>12388</v>
       </c>
       <c r="K815" s="2" t="s">
-        <v>12407</v>
+        <v>12388</v>
       </c>
       <c r="L815" s="4" t="s">
-        <v>12408</v>
+        <v>12389</v>
       </c>
       <c r="M815" s="5" t="s">
-        <v>12409</v>
+        <v>12390</v>
       </c>
       <c r="N815" s="15" t="s">
-        <v>12410</v>
+        <v>12391</v>
       </c>
       <c r="O815" s="7" t="s">
-        <v>12411</v>
+        <v>12392</v>
       </c>
       <c r="P815" s="30" t="s">
-        <v>12412</v>
+        <v>12393</v>
       </c>
       <c r="Q815" s="16" t="s">
-        <v>12413</v>
+        <v>12394</v>
       </c>
       <c r="R815" s="18" t="s">
-        <v>12414</v>
+        <v>12395</v>
       </c>
       <c r="T815" s="7" t="s">
-        <v>12415</v>
+        <v>12396</v>
       </c>
     </row>
     <row r="816" spans="1:20" ht="13.5" customHeight="1">
       <c r="A816" s="2" t="s">
-        <v>12416</v>
+        <v>12397</v>
       </c>
       <c r="B816" s="13" t="s">
-        <v>12417</v>
+        <v>12398</v>
       </c>
       <c r="C816" s="30" t="s">
-        <v>12418</v>
+        <v>12399</v>
       </c>
       <c r="D816" s="13" t="s">
-        <v>12419</v>
+        <v>12400</v>
       </c>
       <c r="E816" s="13" t="s">
-        <v>12420</v>
+        <v>12401</v>
       </c>
       <c r="F816" s="2" t="s">
-        <v>12421</v>
+        <v>12402</v>
       </c>
       <c r="G816" s="13"/>
       <c r="H816" s="2" t="s">
-        <v>12422</v>
+        <v>12403</v>
       </c>
       <c r="I816" s="2" t="s">
-        <v>12423</v>
+        <v>12404</v>
       </c>
       <c r="J816" s="2" t="s">
-        <v>12424</v>
+        <v>12405</v>
       </c>
       <c r="K816" s="2" t="s">
-        <v>12424</v>
+        <v>12405</v>
       </c>
       <c r="L816" s="4" t="s">
-        <v>12425</v>
+        <v>12406</v>
       </c>
       <c r="M816" s="5" t="s">
-        <v>12426</v>
+        <v>12407</v>
       </c>
       <c r="N816" s="15" t="s">
-        <v>12427</v>
+        <v>12408</v>
       </c>
       <c r="O816" s="7" t="s">
-        <v>12428</v>
+        <v>12409</v>
       </c>
       <c r="P816" s="30" t="s">
-        <v>12429</v>
+        <v>12410</v>
       </c>
       <c r="Q816" s="16" t="s">
-        <v>12430</v>
+        <v>12411</v>
       </c>
       <c r="R816" s="18" t="s">
-        <v>12431</v>
+        <v>12412</v>
       </c>
       <c r="T816" s="7" t="s">
-        <v>12432</v>
+        <v>12413</v>
       </c>
     </row>
     <row r="817" spans="1:20" ht="13.5" customHeight="1">
       <c r="A817" s="2" t="s">
-        <v>12433</v>
+        <v>12414</v>
       </c>
       <c r="B817" s="13" t="s">
-        <v>12434</v>
+        <v>12415</v>
       </c>
       <c r="C817" s="30" t="s">
-        <v>12435</v>
+        <v>12416</v>
       </c>
       <c r="D817" s="13" t="s">
-        <v>12436</v>
+        <v>12417</v>
       </c>
       <c r="E817" s="13" t="s">
-        <v>12437</v>
+        <v>12418</v>
       </c>
       <c r="F817" s="2" t="s">
-        <v>12438</v>
+        <v>12419</v>
       </c>
       <c r="G817" s="13"/>
       <c r="H817" s="2" t="s">
-        <v>12439</v>
+        <v>12420</v>
       </c>
       <c r="I817" s="2" t="s">
-        <v>12440</v>
+        <v>12421</v>
       </c>
       <c r="J817" s="2" t="s">
-        <v>12441</v>
+        <v>12422</v>
       </c>
       <c r="K817" s="2" t="s">
-        <v>12441</v>
+        <v>12422</v>
       </c>
       <c r="L817" s="4" t="s">
-        <v>12442</v>
+        <v>12423</v>
       </c>
       <c r="M817" s="5" t="s">
-        <v>12443</v>
+        <v>12424</v>
       </c>
       <c r="N817" s="17" t="s">
-        <v>12444</v>
+        <v>12425</v>
       </c>
       <c r="O817" s="7" t="s">
-        <v>12445</v>
+        <v>12426</v>
       </c>
       <c r="P817" s="30" t="s">
-        <v>12446</v>
+        <v>12427</v>
       </c>
       <c r="Q817" s="16" t="s">
-        <v>12447</v>
+        <v>12428</v>
       </c>
       <c r="R817" s="18" t="s">
-        <v>12448</v>
+        <v>12429</v>
       </c>
       <c r="T817" s="7" t="s">
-        <v>12449</v>
+        <v>12430</v>
       </c>
     </row>
     <row r="818" spans="1:20" ht="13.5" customHeight="1">
       <c r="A818" s="2" t="s">
-        <v>12450</v>
+        <v>12431</v>
       </c>
       <c r="B818" s="13" t="s">
-        <v>12451</v>
+        <v>12432</v>
       </c>
       <c r="C818" s="30" t="s">
-        <v>12452</v>
+        <v>12433</v>
       </c>
       <c r="D818" s="13" t="s">
-        <v>12453</v>
+        <v>12434</v>
       </c>
       <c r="E818" s="13" t="s">
-        <v>12454</v>
+        <v>12435</v>
       </c>
       <c r="F818" s="18" t="s">
-        <v>12455</v>
+        <v>12436</v>
       </c>
       <c r="G818" s="13"/>
       <c r="H818" s="2" t="s">
-        <v>12456</v>
+        <v>12437</v>
       </c>
       <c r="I818" s="2" t="s">
-        <v>12457</v>
+        <v>12438</v>
       </c>
       <c r="J818" s="2" t="s">
-        <v>12458</v>
+        <v>12439</v>
       </c>
       <c r="K818" s="2" t="s">
-        <v>12458</v>
+        <v>12439</v>
       </c>
       <c r="L818" s="4" t="s">
-        <v>12459</v>
+        <v>12440</v>
       </c>
       <c r="M818" s="5" t="s">
-        <v>12460</v>
+        <v>12441</v>
       </c>
       <c r="N818" s="17" t="s">
-        <v>12461</v>
+        <v>12442</v>
       </c>
       <c r="O818" s="7" t="s">
-        <v>12462</v>
+        <v>12443</v>
       </c>
       <c r="P818" s="30" t="s">
-        <v>12463</v>
+        <v>12444</v>
       </c>
       <c r="Q818" s="16" t="s">
-        <v>12464</v>
+        <v>12445</v>
       </c>
       <c r="R818" s="18" t="s">
-        <v>12465</v>
+        <v>12446</v>
       </c>
       <c r="T818" s="7" t="s">
-        <v>12466</v>
+        <v>12447</v>
       </c>
     </row>
     <row r="819" spans="1:20" ht="13.5" customHeight="1">
       <c r="A819" s="2" t="s">
-        <v>12467</v>
+        <v>12448</v>
       </c>
       <c r="B819" s="13" t="s">
-        <v>12468</v>
+        <v>12449</v>
       </c>
       <c r="C819" s="30" t="s">
-        <v>12469</v>
+        <v>12450</v>
       </c>
       <c r="D819" s="13" t="s">
-        <v>12470</v>
+        <v>12451</v>
       </c>
       <c r="E819" s="13" t="s">
-        <v>12471</v>
+        <v>12452</v>
       </c>
       <c r="F819" s="2" t="s">
-        <v>12472</v>
+        <v>12453</v>
       </c>
       <c r="G819" s="13"/>
       <c r="H819" s="2" t="s">
-        <v>12473</v>
+        <v>12454</v>
       </c>
       <c r="I819" s="2" t="s">
-        <v>12474</v>
+        <v>12455</v>
       </c>
       <c r="J819" s="2" t="s">
-        <v>12475</v>
+        <v>12456</v>
       </c>
       <c r="K819" s="2" t="s">
-        <v>12475</v>
+        <v>12456</v>
       </c>
       <c r="L819" s="4" t="s">
-        <v>12476</v>
+        <v>12457</v>
       </c>
       <c r="M819" s="5" t="s">
-        <v>12477</v>
+        <v>12458</v>
       </c>
       <c r="N819" s="17" t="s">
-        <v>12478</v>
+        <v>12459</v>
       </c>
       <c r="O819" s="7" t="s">
-        <v>12479</v>
+        <v>12460</v>
       </c>
       <c r="P819" s="30" t="s">
-        <v>12480</v>
+        <v>12461</v>
       </c>
       <c r="Q819" s="16" t="s">
-        <v>12481</v>
+        <v>12462</v>
       </c>
       <c r="R819" s="18" t="s">
-        <v>12482</v>
+        <v>12463</v>
       </c>
       <c r="T819" s="7" t="s">
-        <v>12483</v>
+        <v>12464</v>
       </c>
     </row>
     <row r="820" spans="1:20" ht="13.5" customHeight="1">
       <c r="A820" s="8" t="s">
-        <v>12484</v>
+        <v>12465</v>
       </c>
       <c r="B820" s="8" t="s">
-        <v>12485</v>
+        <v>12466</v>
       </c>
       <c r="C820" s="30" t="s">
-        <v>12486</v>
+        <v>12467</v>
       </c>
       <c r="D820" s="13"/>
       <c r="E820" s="8" t="s">
-        <v>12487</v>
+        <v>12468</v>
       </c>
       <c r="F820" s="1" t="s">
-        <v>12488</v>
+        <v>12469</v>
       </c>
       <c r="G820" s="13"/>
       <c r="H820" s="13"/>
@@ -85566,38 +85845,38 @@
       <c r="J820" s="13"/>
       <c r="K820" s="13"/>
       <c r="L820" s="37" t="s">
-        <v>12489</v>
+        <v>12470</v>
       </c>
       <c r="M820" s="13"/>
       <c r="N820" s="15" t="s">
-        <v>12490</v>
+        <v>12471</v>
       </c>
       <c r="O820" s="7" t="s">
-        <v>12491</v>
+        <v>12472</v>
       </c>
       <c r="Q820" s="8" t="s">
-        <v>12492</v>
+        <v>12473</v>
       </c>
       <c r="R820" s="8" t="s">
-        <v>12484</v>
+        <v>12465</v>
       </c>
       <c r="T820" s="7" t="s">
-        <v>12493</v>
+        <v>12474</v>
       </c>
     </row>
     <row r="821" spans="1:20" ht="13.5" customHeight="1">
       <c r="A821" s="8" t="s">
-        <v>12494</v>
+        <v>12475</v>
       </c>
       <c r="B821" s="8" t="s">
-        <v>12495</v>
+        <v>12476</v>
       </c>
       <c r="C821" s="3" t="s">
-        <v>12496</v>
+        <v>12477</v>
       </c>
       <c r="D821" s="13"/>
       <c r="E821" s="8" t="s">
-        <v>12497</v>
+        <v>12478</v>
       </c>
       <c r="F821" s="13"/>
       <c r="G821" s="13"/>
@@ -85606,105 +85885,105 @@
       <c r="J821" s="13"/>
       <c r="K821" s="13"/>
       <c r="L821" s="37" t="s">
-        <v>12498</v>
+        <v>12479</v>
       </c>
       <c r="M821" s="13"/>
       <c r="N821" s="17" t="s">
-        <v>12499</v>
+        <v>12480</v>
       </c>
       <c r="O821" s="7" t="s">
-        <v>12500</v>
+        <v>12481</v>
       </c>
       <c r="Q821" s="8" t="s">
-        <v>12501</v>
+        <v>12482</v>
       </c>
       <c r="R821" s="8" t="s">
-        <v>12502</v>
+        <v>12483</v>
       </c>
       <c r="T821" s="38" t="s">
-        <v>12503</v>
+        <v>12484</v>
       </c>
     </row>
     <row r="822" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A822" s="43" t="s">
-        <v>12504</v>
+        <v>12485</v>
       </c>
       <c r="B822" s="43" t="s">
-        <v>12505</v>
+        <v>12486</v>
       </c>
       <c r="C822" s="44" t="s">
-        <v>12506</v>
+        <v>12487</v>
       </c>
       <c r="D822" s="43" t="s">
-        <v>12507</v>
+        <v>12488</v>
       </c>
       <c r="E822" s="43" t="s">
-        <v>12508</v>
+        <v>12489</v>
       </c>
       <c r="F822" s="43" t="s">
-        <v>12509</v>
+        <v>12490</v>
       </c>
       <c r="G822" s="43" t="s">
-        <v>12510</v>
+        <v>12491</v>
       </c>
       <c r="H822" s="45" t="s">
-        <v>12511</v>
+        <v>12492</v>
       </c>
       <c r="I822" s="45" t="s">
-        <v>12512</v>
+        <v>12493</v>
       </c>
       <c r="J822" s="45" t="s">
-        <v>12513</v>
+        <v>12494</v>
       </c>
       <c r="K822" s="43" t="s">
-        <v>12513</v>
+        <v>12494</v>
       </c>
       <c r="L822" s="45" t="s">
-        <v>12514</v>
+        <v>12495</v>
       </c>
       <c r="M822" s="44" t="s">
-        <v>12515</v>
+        <v>12496</v>
       </c>
       <c r="N822" s="45" t="s">
-        <v>12516</v>
+        <v>12497</v>
       </c>
       <c r="O822" s="7" t="s">
-        <v>12517</v>
+        <v>12498</v>
       </c>
       <c r="P822" s="44" t="s">
-        <v>12518</v>
+        <v>12499</v>
       </c>
       <c r="Q822" s="16" t="s">
-        <v>12519</v>
+        <v>12500</v>
       </c>
       <c r="R822" s="43" t="s">
-        <v>12520</v>
+        <v>12501</v>
       </c>
       <c r="T822" s="7" t="s">
-        <v>12521</v>
+        <v>12502</v>
       </c>
     </row>
     <row r="823" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A823" s="44" t="s">
-        <v>12522</v>
+        <v>12503</v>
       </c>
       <c r="B823" s="43" t="s">
-        <v>12523</v>
+        <v>12504</v>
       </c>
       <c r="C823" s="43" t="s">
-        <v>12524</v>
+        <v>12505</v>
       </c>
       <c r="Q823" s="41"/>
     </row>
     <row r="824" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A824" s="43" t="s">
-        <v>12525</v>
+        <v>12506</v>
       </c>
       <c r="B824" s="43" t="s">
-        <v>12570</v>
+        <v>12551</v>
       </c>
       <c r="C824" s="44" t="s">
-        <v>12546</v>
+        <v>12527</v>
       </c>
       <c r="M824" s="40"/>
       <c r="O824" s="7"/>
@@ -85715,13 +85994,13 @@
     </row>
     <row r="825" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A825" s="43" t="s">
-        <v>12526</v>
+        <v>12507</v>
       </c>
       <c r="B825" s="43" t="s">
-        <v>12527</v>
+        <v>12508</v>
       </c>
       <c r="C825" s="44" t="s">
-        <v>12528</v>
+        <v>12509</v>
       </c>
       <c r="M825" s="40"/>
       <c r="O825" s="7"/>
@@ -85732,13 +86011,13 @@
     </row>
     <row r="826" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A826" s="43" t="s">
-        <v>12536</v>
+        <v>12517</v>
       </c>
       <c r="B826" s="43" t="s">
-        <v>12538</v>
+        <v>12519</v>
       </c>
       <c r="C826" s="44" t="s">
-        <v>12540</v>
+        <v>12521</v>
       </c>
       <c r="D826" s="43"/>
       <c r="E826" s="43"/>
@@ -85752,13 +86031,13 @@
     </row>
     <row r="827" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A827" s="43" t="s">
-        <v>12537</v>
+        <v>12518</v>
       </c>
       <c r="B827" s="43" t="s">
-        <v>12539</v>
+        <v>12520</v>
       </c>
       <c r="C827" s="44" t="s">
-        <v>12541</v>
+        <v>12522</v>
       </c>
       <c r="D827" s="43"/>
       <c r="E827" s="43"/>
@@ -85771,13 +86050,13 @@
     </row>
     <row r="828" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A828" s="20" t="s">
-        <v>12529</v>
+        <v>12510</v>
       </c>
       <c r="B828" s="43" t="s">
-        <v>12530</v>
+        <v>12511</v>
       </c>
       <c r="C828" s="44" t="s">
-        <v>12531</v>
+        <v>12512</v>
       </c>
       <c r="F828" s="18"/>
       <c r="H828" s="18"/>
@@ -85793,37 +86072,37 @@
     </row>
     <row r="829" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A829" s="43" t="s">
-        <v>12532</v>
+        <v>12513</v>
       </c>
       <c r="B829" s="43" t="s">
-        <v>12533</v>
+        <v>12514</v>
       </c>
       <c r="C829" s="43" t="s">
-        <v>12533</v>
+        <v>12514</v>
       </c>
       <c r="Q829" s="41"/>
     </row>
     <row r="830" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A830" s="43" t="s">
-        <v>12534</v>
+        <v>12515</v>
       </c>
       <c r="B830" s="43" t="s">
-        <v>12535</v>
+        <v>12516</v>
       </c>
       <c r="C830" s="43" t="s">
-        <v>12535</v>
+        <v>12516</v>
       </c>
       <c r="Q830" s="41"/>
     </row>
     <row r="831" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A831" s="45" t="s">
-        <v>12542</v>
+        <v>12523</v>
       </c>
       <c r="B831" s="43" t="s">
-        <v>12544</v>
+        <v>12525</v>
       </c>
       <c r="C831" s="44" t="s">
-        <v>12548</v>
+        <v>12529</v>
       </c>
       <c r="E831" s="18"/>
       <c r="F831" s="18"/>
@@ -85842,13 +86121,13 @@
     </row>
     <row r="832" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A832" s="45" t="s">
-        <v>12543</v>
+        <v>12524</v>
       </c>
       <c r="B832" s="43" t="s">
-        <v>12545</v>
+        <v>12526</v>
       </c>
       <c r="C832" s="44" t="s">
-        <v>12547</v>
+        <v>12528</v>
       </c>
       <c r="E832" s="18"/>
       <c r="F832" s="18"/>
@@ -85867,13 +86146,13 @@
     </row>
     <row r="833" spans="1:20" ht="13.5" customHeight="1">
       <c r="A833" s="13" t="s">
-        <v>12549</v>
+        <v>12530</v>
       </c>
       <c r="B833" s="43" t="s">
-        <v>12551</v>
+        <v>12532</v>
       </c>
       <c r="C833" s="40" t="s">
-        <v>12552</v>
+        <v>12533</v>
       </c>
       <c r="D833" s="13"/>
       <c r="E833" s="13"/>
@@ -85890,13 +86169,13 @@
     </row>
     <row r="834" spans="1:20" ht="13.5" customHeight="1">
       <c r="A834" s="13" t="s">
-        <v>12550</v>
+        <v>12531</v>
       </c>
       <c r="B834" s="43" t="s">
-        <v>12553</v>
+        <v>12534</v>
       </c>
       <c r="C834" s="40" t="s">
-        <v>12554</v>
+        <v>12535</v>
       </c>
       <c r="D834" s="13"/>
       <c r="E834" s="13"/>
@@ -85913,60 +86192,60 @@
     </row>
     <row r="835" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A835" s="43" t="s">
-        <v>12555</v>
+        <v>12536</v>
       </c>
       <c r="B835" s="43" t="s">
-        <v>12556</v>
+        <v>12537</v>
       </c>
       <c r="C835" s="46" t="s">
-        <v>12557</v>
+        <v>12538</v>
       </c>
       <c r="D835" s="43" t="s">
-        <v>12558</v>
+        <v>12539</v>
       </c>
       <c r="E835" s="45" t="s">
-        <v>12559</v>
+        <v>12540</v>
       </c>
       <c r="K835" s="43" t="s">
-        <v>12560</v>
+        <v>12541</v>
       </c>
       <c r="L835" s="14" t="s">
-        <v>12561</v>
+        <v>12542</v>
       </c>
       <c r="M835" s="44" t="s">
-        <v>12562</v>
+        <v>12543</v>
       </c>
       <c r="N835" s="47" t="s">
-        <v>12563</v>
+        <v>12544</v>
       </c>
       <c r="O835" s="7" t="s">
-        <v>12564</v>
+        <v>12545</v>
       </c>
       <c r="P835" s="48" t="s">
-        <v>12565</v>
+        <v>12546</v>
       </c>
       <c r="Q835" s="16" t="s">
-        <v>12566</v>
+        <v>12547</v>
       </c>
       <c r="R835" s="7" t="s">
-        <v>12566</v>
+        <v>12547</v>
       </c>
       <c r="S835" s="7" t="s">
-        <v>12567</v>
+        <v>12548</v>
       </c>
       <c r="T835" s="7" t="s">
-        <v>12555</v>
+        <v>12536</v>
       </c>
     </row>
     <row r="836" spans="1:20" ht="13.5" customHeight="1">
       <c r="A836" s="13" t="s">
-        <v>12569</v>
+        <v>12550</v>
       </c>
       <c r="B836" s="43" t="s">
-        <v>12571</v>
+        <v>12552</v>
       </c>
       <c r="C836" s="44" t="s">
-        <v>12572</v>
+        <v>12553</v>
       </c>
       <c r="D836" s="13"/>
       <c r="E836" s="13"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="locale" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14731" uniqueCount="12592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14746" uniqueCount="12607">
   <si>
     <t>zh_CN</t>
   </si>
@@ -38155,17 +38155,7 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>set encoder motor on board %d.slot speed %d.encoderSpeed</t>
-  </si>
-  <si>
     <t>encoder motor on board %d.slot %d.encoderValue</t>
-  </si>
-  <si>
-    <t>设置板载编码电机 %d.slot 速度 %d.encoderSpeed</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>設置板載編碼電機 %d.slot 速度 %d.encoderSpeed</t>
   </si>
   <si>
     <t>板载编码电机 %d.slot %d.encoderValue</t>
@@ -39093,6 +39083,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">or </t>
     </r>
@@ -39111,6 +39103,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>pdate</t>
     </r>
@@ -39157,6 +39151,118 @@
   </si>
   <si>
     <t>反饋建議</t>
+  </si>
+  <si>
+    <r>
+      <t>set encoder motor on board %d.slot speed %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>motorvalue</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>設置板載編碼電機 %d.slot 速度 %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>motorvalue</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置板载编码电机 %d.slot 速度 %d.motorvalue</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>luetooth mode</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>line follower mode</t>
+  </si>
+  <si>
+    <t>balance mode</t>
+  </si>
+  <si>
+    <t>Set mBot Ranger Mode</t>
+  </si>
+  <si>
+    <r>
+      <t>设置m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bot Ranger模式</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙模式</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultrasonic mode</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波避障模式</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻线模式</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>自平衡模式</t>
+  </si>
+  <si>
+    <t>自平衡模式</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>設置mBot Ranger模式</t>
+  </si>
+  <si>
+    <t>藍牙模式</t>
+  </si>
+  <si>
+    <t>超聲波避障模式</t>
+  </si>
+  <si>
+    <t>尋線模式</t>
   </si>
 </sst>
 </file>
@@ -39801,10 +39907,10 @@
   <dimension ref="A1:T1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C807" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C816" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C840" sqref="C840"/>
+      <selection pane="bottomRight" activeCell="C847" sqref="C847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -40335,7 +40441,7 @@
         <v>132</v>
       </c>
       <c r="N9" s="50" t="s">
-        <v>12568</v>
+        <v>12565</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>133</v>
@@ -41832,7 +41938,7 @@
         <v>525</v>
       </c>
       <c r="N35" s="49" t="s">
-        <v>12567</v>
+        <v>12564</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>526</v>
@@ -46720,7 +46826,7 @@
         <v>1856</v>
       </c>
       <c r="N122" s="17" t="s">
-        <v>12564</v>
+        <v>12561</v>
       </c>
       <c r="O122" s="7" t="s">
         <v>1857</v>
@@ -49053,7 +49159,7 @@
         <v>2494</v>
       </c>
       <c r="N164" s="52" t="s">
-        <v>12566</v>
+        <v>12563</v>
       </c>
       <c r="O164" s="7" t="s">
         <v>2495</v>
@@ -53881,7 +53987,7 @@
         <v>3866</v>
       </c>
       <c r="N250" s="50" t="s">
-        <v>12569</v>
+        <v>12566</v>
       </c>
       <c r="O250" s="7" t="s">
         <v>3867</v>
@@ -55861,7 +55967,7 @@
         <v>4391</v>
       </c>
       <c r="N284" s="53" t="s">
-        <v>12570</v>
+        <v>12567</v>
       </c>
       <c r="O284" s="7" t="s">
         <v>4392</v>
@@ -61773,7 +61879,7 @@
         <v>5996</v>
       </c>
       <c r="N386" s="51" t="s">
-        <v>12565</v>
+        <v>12562</v>
       </c>
       <c r="O386" s="7" t="s">
         <v>5997</v>
@@ -69150,7 +69256,7 @@
     </row>
     <row r="515" spans="1:20" ht="13.5" customHeight="1">
       <c r="A515" s="45" t="s">
-        <v>12579</v>
+        <v>12576</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>568</v>
@@ -72442,7 +72548,7 @@
         <v>8922</v>
       </c>
       <c r="I571" s="45" t="s">
-        <v>12540</v>
+        <v>12537</v>
       </c>
       <c r="J571" s="2" t="s">
         <v>3504</v>
@@ -73177,7 +73283,7 @@
     </row>
     <row r="584" spans="1:20" ht="13.5" customHeight="1">
       <c r="A584" s="45" t="s">
-        <v>12572</v>
+        <v>12569</v>
       </c>
       <c r="B584" s="2" t="s">
         <v>9108</v>
@@ -73223,7 +73329,7 @@
         <v>9117</v>
       </c>
       <c r="Q584" s="16" t="s">
-        <v>12571</v>
+        <v>12568</v>
       </c>
       <c r="R584" s="7" t="s">
         <v>9118</v>
@@ -84604,61 +84710,61 @@
     </row>
     <row r="786" spans="1:20" ht="13.5" customHeight="1">
       <c r="A786" s="43" t="s">
+        <v>12542</v>
+      </c>
+      <c r="B786" s="43" t="s">
+        <v>12543</v>
+      </c>
+      <c r="C786" s="44" t="s">
+        <v>12544</v>
+      </c>
+      <c r="D786" s="43" t="s">
         <v>12545</v>
       </c>
-      <c r="B786" s="43" t="s">
+      <c r="E786" s="43" t="s">
         <v>12546</v>
       </c>
-      <c r="C786" s="44" t="s">
+      <c r="F786" s="45" t="s">
         <v>12547</v>
       </c>
-      <c r="D786" s="43" t="s">
+      <c r="G786" s="43" t="s">
         <v>12548</v>
       </c>
-      <c r="E786" s="43" t="s">
+      <c r="H786" s="45" t="s">
         <v>12549</v>
       </c>
-      <c r="F786" s="45" t="s">
+      <c r="I786" s="45" t="s">
         <v>12550</v>
       </c>
-      <c r="G786" s="43" t="s">
+      <c r="J786" s="45" t="s">
         <v>12551</v>
       </c>
-      <c r="H786" s="45" t="s">
+      <c r="K786" s="43" t="s">
         <v>12552</v>
       </c>
-      <c r="I786" s="45" t="s">
+      <c r="L786" s="4" t="s">
         <v>12553</v>
       </c>
-      <c r="J786" s="45" t="s">
+      <c r="M786" s="44" t="s">
         <v>12554</v>
       </c>
-      <c r="K786" s="43" t="s">
+      <c r="N786" s="47" t="s">
         <v>12555</v>
       </c>
-      <c r="L786" s="4" t="s">
+      <c r="O786" s="7" t="s">
         <v>12556</v>
       </c>
-      <c r="M786" s="44" t="s">
+      <c r="P786" s="44" t="s">
         <v>12557</v>
       </c>
-      <c r="N786" s="47" t="s">
+      <c r="Q786" s="16" t="s">
         <v>12558</v>
       </c>
-      <c r="O786" s="7" t="s">
+      <c r="R786" s="43" t="s">
         <v>12559</v>
       </c>
-      <c r="P786" s="44" t="s">
+      <c r="T786" s="7" t="s">
         <v>12560</v>
-      </c>
-      <c r="Q786" s="16" t="s">
-        <v>12561</v>
-      </c>
-      <c r="R786" s="43" t="s">
-        <v>12562</v>
-      </c>
-      <c r="T786" s="7" t="s">
-        <v>12563</v>
       </c>
     </row>
     <row r="787" spans="1:20" ht="13.5" customHeight="1">
@@ -86550,7 +86656,7 @@
         <v>12497</v>
       </c>
       <c r="B824" s="43" t="s">
-        <v>12542</v>
+        <v>12539</v>
       </c>
       <c r="C824" s="44" t="s">
         <v>12518</v>
@@ -86715,14 +86821,14 @@
       <c r="T832" s="7"/>
     </row>
     <row r="833" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A833" s="13" t="s">
-        <v>12521</v>
+      <c r="A833" s="43" t="s">
+        <v>12589</v>
       </c>
       <c r="B833" s="43" t="s">
-        <v>12523</v>
-      </c>
-      <c r="C833" s="40" t="s">
-        <v>12524</v>
+        <v>12591</v>
+      </c>
+      <c r="C833" s="44" t="s">
+        <v>12590</v>
       </c>
       <c r="D833" s="13"/>
       <c r="E833" s="13"/>
@@ -86739,13 +86845,13 @@
     </row>
     <row r="834" spans="1:20" ht="13.5" customHeight="1">
       <c r="A834" s="13" t="s">
+        <v>12521</v>
+      </c>
+      <c r="B834" s="43" t="s">
         <v>12522</v>
       </c>
-      <c r="B834" s="43" t="s">
-        <v>12525</v>
-      </c>
       <c r="C834" s="40" t="s">
-        <v>12526</v>
+        <v>12523</v>
       </c>
       <c r="D834" s="13"/>
       <c r="E834" s="13"/>
@@ -86762,60 +86868,60 @@
     </row>
     <row r="835" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A835" s="43" t="s">
+        <v>12524</v>
+      </c>
+      <c r="B835" s="43" t="s">
+        <v>12525</v>
+      </c>
+      <c r="C835" s="46" t="s">
+        <v>12526</v>
+      </c>
+      <c r="D835" s="43" t="s">
         <v>12527</v>
       </c>
-      <c r="B835" s="43" t="s">
+      <c r="E835" s="45" t="s">
         <v>12528</v>
       </c>
-      <c r="C835" s="46" t="s">
+      <c r="K835" s="43" t="s">
         <v>12529</v>
       </c>
-      <c r="D835" s="43" t="s">
+      <c r="L835" s="14" t="s">
         <v>12530</v>
       </c>
-      <c r="E835" s="45" t="s">
+      <c r="M835" s="44" t="s">
         <v>12531</v>
       </c>
-      <c r="K835" s="43" t="s">
+      <c r="N835" s="47" t="s">
         <v>12532</v>
       </c>
-      <c r="L835" s="14" t="s">
+      <c r="O835" s="7" t="s">
         <v>12533</v>
       </c>
-      <c r="M835" s="44" t="s">
+      <c r="P835" s="48" t="s">
         <v>12534</v>
       </c>
-      <c r="N835" s="47" t="s">
+      <c r="Q835" s="16" t="s">
         <v>12535</v>
       </c>
-      <c r="O835" s="7" t="s">
+      <c r="R835" s="7" t="s">
+        <v>12535</v>
+      </c>
+      <c r="S835" s="7" t="s">
         <v>12536</v>
       </c>
-      <c r="P835" s="48" t="s">
-        <v>12537</v>
-      </c>
-      <c r="Q835" s="16" t="s">
-        <v>12538</v>
-      </c>
-      <c r="R835" s="7" t="s">
-        <v>12538</v>
-      </c>
-      <c r="S835" s="7" t="s">
-        <v>12539</v>
-      </c>
       <c r="T835" s="7" t="s">
-        <v>12527</v>
+        <v>12524</v>
       </c>
     </row>
     <row r="836" spans="1:20" ht="13.5" customHeight="1">
       <c r="A836" s="13" t="s">
+        <v>12538</v>
+      </c>
+      <c r="B836" s="43" t="s">
+        <v>12540</v>
+      </c>
+      <c r="C836" s="44" t="s">
         <v>12541</v>
-      </c>
-      <c r="B836" s="43" t="s">
-        <v>12543</v>
-      </c>
-      <c r="C836" s="44" t="s">
-        <v>12544</v>
       </c>
       <c r="D836" s="13"/>
       <c r="E836" s="13"/>
@@ -86832,13 +86938,13 @@
     </row>
     <row r="837" spans="1:20" ht="13.5" customHeight="1">
       <c r="A837" s="13" t="s">
-        <v>12573</v>
+        <v>12570</v>
       </c>
       <c r="B837" s="43" t="s">
-        <v>12581</v>
+        <v>12578</v>
       </c>
       <c r="C837" s="40" t="s">
-        <v>12586</v>
+        <v>12583</v>
       </c>
       <c r="D837" s="13"/>
       <c r="E837" s="13"/>
@@ -86855,13 +86961,13 @@
     </row>
     <row r="838" spans="1:20" ht="13.5" customHeight="1">
       <c r="A838" s="13" t="s">
-        <v>12574</v>
+        <v>12571</v>
       </c>
       <c r="B838" s="43" t="s">
-        <v>12582</v>
+        <v>12579</v>
       </c>
       <c r="C838" s="40" t="s">
-        <v>12587</v>
+        <v>12584</v>
       </c>
       <c r="D838" s="13"/>
       <c r="E838" s="13"/>
@@ -86878,13 +86984,13 @@
     </row>
     <row r="839" spans="1:20" ht="13.5" customHeight="1">
       <c r="A839" s="13" t="s">
-        <v>12575</v>
+        <v>12572</v>
       </c>
       <c r="B839" s="43" t="s">
-        <v>12583</v>
+        <v>12580</v>
       </c>
       <c r="C839" s="40" t="s">
-        <v>12588</v>
+        <v>12585</v>
       </c>
       <c r="D839" s="13"/>
       <c r="E839" s="13"/>
@@ -86901,13 +87007,13 @@
     </row>
     <row r="840" spans="1:20" ht="13.5" customHeight="1">
       <c r="A840" s="13" t="s">
-        <v>12576</v>
+        <v>12573</v>
       </c>
       <c r="B840" s="43" t="s">
-        <v>12584</v>
+        <v>12581</v>
       </c>
       <c r="C840" s="40" t="s">
-        <v>12589</v>
+        <v>12586</v>
       </c>
       <c r="D840" s="13"/>
       <c r="E840" s="13"/>
@@ -86924,13 +87030,13 @@
     </row>
     <row r="841" spans="1:20" ht="13.5" customHeight="1">
       <c r="A841" s="13" t="s">
-        <v>12577</v>
+        <v>12574</v>
       </c>
       <c r="B841" s="43" t="s">
-        <v>12585</v>
+        <v>12582</v>
       </c>
       <c r="C841" s="40" t="s">
-        <v>12590</v>
+        <v>12587</v>
       </c>
       <c r="D841" s="13"/>
       <c r="E841" s="13"/>
@@ -86947,13 +87053,13 @@
     </row>
     <row r="842" spans="1:20" ht="13.5" customHeight="1">
       <c r="A842" s="20" t="s">
-        <v>12578</v>
+        <v>12575</v>
       </c>
       <c r="B842" s="43" t="s">
-        <v>12580</v>
+        <v>12577</v>
       </c>
       <c r="C842" s="40" t="s">
-        <v>12591</v>
+        <v>12588</v>
       </c>
       <c r="D842" s="13"/>
       <c r="E842" s="13"/>
@@ -86969,9 +87075,15 @@
       <c r="Q842" s="9"/>
     </row>
     <row r="843" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A843" s="13"/>
-      <c r="B843" s="13"/>
-      <c r="C843" s="40"/>
+      <c r="A843" s="43" t="s">
+        <v>12595</v>
+      </c>
+      <c r="B843" s="43" t="s">
+        <v>12596</v>
+      </c>
+      <c r="C843" s="40" t="s">
+        <v>12603</v>
+      </c>
       <c r="D843" s="13"/>
       <c r="E843" s="13"/>
       <c r="F843" s="13"/>
@@ -86986,9 +87098,15 @@
       <c r="Q843" s="9"/>
     </row>
     <row r="844" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A844" s="13"/>
-      <c r="B844" s="13"/>
-      <c r="C844" s="40"/>
+      <c r="A844" s="43" t="s">
+        <v>12592</v>
+      </c>
+      <c r="B844" s="43" t="s">
+        <v>12597</v>
+      </c>
+      <c r="C844" s="40" t="s">
+        <v>12604</v>
+      </c>
       <c r="D844" s="13"/>
       <c r="E844" s="13"/>
       <c r="F844" s="13"/>
@@ -87003,9 +87121,15 @@
       <c r="Q844" s="9"/>
     </row>
     <row r="845" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A845" s="13"/>
-      <c r="B845" s="13"/>
-      <c r="C845" s="40"/>
+      <c r="A845" s="43" t="s">
+        <v>12598</v>
+      </c>
+      <c r="B845" s="43" t="s">
+        <v>12599</v>
+      </c>
+      <c r="C845" s="40" t="s">
+        <v>12605</v>
+      </c>
       <c r="D845" s="13"/>
       <c r="E845" s="13"/>
       <c r="F845" s="13"/>
@@ -87020,9 +87144,15 @@
       <c r="Q845" s="9"/>
     </row>
     <row r="846" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A846" s="13"/>
-      <c r="B846" s="13"/>
-      <c r="C846" s="40"/>
+      <c r="A846" s="13" t="s">
+        <v>12593</v>
+      </c>
+      <c r="B846" s="43" t="s">
+        <v>12600</v>
+      </c>
+      <c r="C846" s="40" t="s">
+        <v>12606</v>
+      </c>
       <c r="D846" s="13"/>
       <c r="E846" s="13"/>
       <c r="F846" s="13"/>
@@ -87037,9 +87167,15 @@
       <c r="Q846" s="9"/>
     </row>
     <row r="847" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A847" s="13"/>
-      <c r="B847" s="13"/>
-      <c r="C847" s="40"/>
+      <c r="A847" s="13" t="s">
+        <v>12594</v>
+      </c>
+      <c r="B847" s="43" t="s">
+        <v>12602</v>
+      </c>
+      <c r="C847" s="40" t="s">
+        <v>12601</v>
+      </c>
       <c r="D847" s="13"/>
       <c r="E847" s="13"/>
       <c r="F847" s="13"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -36519,39 +36519,6 @@
   </si>
   <si>
     <t>czujnik gazu %d.blackPorts</t>
-  </si>
-  <si>
-    <t>compass sensor %d.normalPort</t>
-  </si>
-  <si>
-    <t>电子罗盘 %d.normalPort</t>
-  </si>
-  <si>
-    <t>電子羅盤 %d.normalPort</t>
-  </si>
-  <si>
-    <t>compas %d.normalPort</t>
-  </si>
-  <si>
-    <t>kompas sensor %d.normalPort</t>
-  </si>
-  <si>
-    <t>Kompass-Sensor %d.normalPort</t>
-  </si>
-  <si>
-    <t>kompass %d.normalPort</t>
-  </si>
-  <si>
-    <t>pusula %d.nornalPort</t>
-  </si>
-  <si>
-    <t>elektronický kompas %d.normalPort</t>
-  </si>
-  <si>
-    <t>kompasssensor %d.normalPort</t>
-  </si>
-  <si>
-    <t>kompas %d.normalPort</t>
   </si>
   <si>
     <t>show time %d.normalPort hour:%n %m.points min:%n</t>
@@ -40026,47 +39993,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>חישן</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>מצפן</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> d.normalPort%</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>when %m.booleanSensor</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -40225,6 +40151,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -40242,6 +40170,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> temperature %d.normalPort</t>
     </r>
@@ -40260,9 +40190,132 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>%d.slot °C</t>
     </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>compass sensor %d.whitePorts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电子罗盘 %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>whitePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>電子羅盤 %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>whitePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>compas %d.whitePorts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>kompas sensor %d.whitePorts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kompass-Sensor %d.whitePorts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>חישן</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>מצפן</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> d.whitePorts%</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>kompass %d.whitePorts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pusula %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>whitePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>elektronický kompas %d.whitePorts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>kompasssensor %d.whitePorts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>kompas %d.whitePorts</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -40908,10 +40961,10 @@
   <dimension ref="A1:T1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N773" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="R773" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N792" sqref="N792"/>
+      <selection pane="bottomRight" activeCell="T800" sqref="T800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -41442,7 +41495,7 @@
         <v>132</v>
       </c>
       <c r="N9" s="50" t="s">
-        <v>12597</v>
+        <v>12586</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>133</v>
@@ -42939,7 +42992,7 @@
         <v>525</v>
       </c>
       <c r="N35" s="49" t="s">
-        <v>12543</v>
+        <v>12532</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>526</v>
@@ -45275,7 +45328,7 @@
     </row>
     <row r="77" spans="1:20" ht="13.5" customHeight="1">
       <c r="A77" s="45" t="s">
-        <v>12599</v>
+        <v>12587</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>1164</v>
@@ -45314,7 +45367,7 @@
         <v>1174</v>
       </c>
       <c r="N77" s="48" t="s">
-        <v>12601</v>
+        <v>12589</v>
       </c>
       <c r="O77" s="7" t="s">
         <v>1175</v>
@@ -45423,7 +45476,7 @@
         <v>1204</v>
       </c>
       <c r="N79" s="15" t="s">
-        <v>12593</v>
+        <v>12582</v>
       </c>
       <c r="O79" s="7" t="s">
         <v>1205</v>
@@ -46382,7 +46435,7 @@
         <v>1465</v>
       </c>
       <c r="N96" s="15" t="s">
-        <v>12592</v>
+        <v>12581</v>
       </c>
       <c r="O96" s="7" t="s">
         <v>1466</v>
@@ -47827,7 +47880,7 @@
         <v>1852</v>
       </c>
       <c r="N122" s="17" t="s">
-        <v>12540</v>
+        <v>12529</v>
       </c>
       <c r="O122" s="7" t="s">
         <v>1853</v>
@@ -49560,7 +49613,7 @@
         <v>2325</v>
       </c>
       <c r="N153" s="15" t="s">
-        <v>12589</v>
+        <v>12578</v>
       </c>
       <c r="O153" s="7" t="s">
         <v>2326</v>
@@ -49938,7 +49991,7 @@
         <v>2429</v>
       </c>
       <c r="N160" s="15" t="s">
-        <v>12586</v>
+        <v>12575</v>
       </c>
       <c r="O160" s="7" t="s">
         <v>2430</v>
@@ -50160,7 +50213,7 @@
         <v>2488</v>
       </c>
       <c r="N164" s="52" t="s">
-        <v>12542</v>
+        <v>12531</v>
       </c>
       <c r="O164" s="7" t="s">
         <v>2489</v>
@@ -51085,7 +51138,7 @@
         <v>2758</v>
       </c>
       <c r="N181" s="15" t="s">
-        <v>12590</v>
+        <v>12579</v>
       </c>
       <c r="O181" s="7" t="s">
         <v>2759</v>
@@ -52885,7 +52938,7 @@
         <v>3264</v>
       </c>
       <c r="N213" s="15" t="s">
-        <v>12591</v>
+        <v>12580</v>
       </c>
       <c r="O213" s="7" t="s">
         <v>3265</v>
@@ -54988,7 +55041,7 @@
         <v>3858</v>
       </c>
       <c r="N250" s="50" t="s">
-        <v>12544</v>
+        <v>12533</v>
       </c>
       <c r="O250" s="7" t="s">
         <v>3859</v>
@@ -55047,7 +55100,7 @@
         <v>3874</v>
       </c>
       <c r="N251" s="48" t="s">
-        <v>12585</v>
+        <v>12574</v>
       </c>
       <c r="O251" s="7" t="s">
         <v>3875</v>
@@ -55975,7 +56028,7 @@
         <v>4110</v>
       </c>
       <c r="N267" s="48" t="s">
-        <v>12596</v>
+        <v>12585</v>
       </c>
       <c r="O267" s="7" t="s">
         <v>4111</v>
@@ -56966,7 +57019,7 @@
         <v>4380</v>
       </c>
       <c r="N284" s="53" t="s">
-        <v>12545</v>
+        <v>12534</v>
       </c>
       <c r="O284" s="7" t="s">
         <v>4381</v>
@@ -59070,7 +59123,7 @@
         <v>4964</v>
       </c>
       <c r="N320" s="15" t="s">
-        <v>12594</v>
+        <v>12583</v>
       </c>
       <c r="O320" s="7" t="s">
         <v>4965</v>
@@ -62416,7 +62469,7 @@
         <v>5856</v>
       </c>
       <c r="N378" s="15" t="s">
-        <v>12587</v>
+        <v>12576</v>
       </c>
       <c r="O378" s="7" t="s">
         <v>5857</v>
@@ -62878,7 +62931,7 @@
         <v>5983</v>
       </c>
       <c r="N386" s="51" t="s">
-        <v>12541</v>
+        <v>12530</v>
       </c>
       <c r="O386" s="7" t="s">
         <v>5984</v>
@@ -70255,7 +70308,7 @@
     </row>
     <row r="515" spans="1:20" ht="13.5" customHeight="1">
       <c r="A515" s="45" t="s">
-        <v>12554</v>
+        <v>12543</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>568</v>
@@ -73547,7 +73600,7 @@
         <v>8909</v>
       </c>
       <c r="I571" s="45" t="s">
-        <v>12516</v>
+        <v>12505</v>
       </c>
       <c r="J571" s="2" t="s">
         <v>3496</v>
@@ -74282,7 +74335,7 @@
     </row>
     <row r="584" spans="1:20" ht="13.5" customHeight="1">
       <c r="A584" s="45" t="s">
-        <v>12547</v>
+        <v>12536</v>
       </c>
       <c r="B584" s="2" t="s">
         <v>9095</v>
@@ -74328,7 +74381,7 @@
         <v>9104</v>
       </c>
       <c r="Q584" s="16" t="s">
-        <v>12546</v>
+        <v>12535</v>
       </c>
       <c r="R584" s="7" t="s">
         <v>9105</v>
@@ -75838,7 +75891,7 @@
         <v>9486</v>
       </c>
       <c r="N610" s="15" t="s">
-        <v>12595</v>
+        <v>12584</v>
       </c>
       <c r="O610" s="7" t="s">
         <v>9487</v>
@@ -79828,7 +79881,7 @@
         <v>10452</v>
       </c>
       <c r="N677" s="15" t="s">
-        <v>12588</v>
+        <v>12577</v>
       </c>
       <c r="O677" s="7" t="s">
         <v>10453</v>
@@ -85139,7 +85192,7 @@
         <v>11794</v>
       </c>
       <c r="N775" s="47" t="s">
-        <v>12600</v>
+        <v>12588</v>
       </c>
       <c r="O775" s="7" t="s">
         <v>11795</v>
@@ -85699,61 +85752,61 @@
     </row>
     <row r="786" spans="1:20" ht="13.5" customHeight="1">
       <c r="A786" s="43" t="s">
+        <v>12510</v>
+      </c>
+      <c r="B786" s="43" t="s">
+        <v>12511</v>
+      </c>
+      <c r="C786" s="44" t="s">
+        <v>12512</v>
+      </c>
+      <c r="D786" s="43" t="s">
+        <v>12513</v>
+      </c>
+      <c r="E786" s="43" t="s">
+        <v>12514</v>
+      </c>
+      <c r="F786" s="45" t="s">
+        <v>12515</v>
+      </c>
+      <c r="G786" s="43" t="s">
+        <v>12516</v>
+      </c>
+      <c r="H786" s="45" t="s">
+        <v>12517</v>
+      </c>
+      <c r="I786" s="45" t="s">
+        <v>12518</v>
+      </c>
+      <c r="J786" s="45" t="s">
+        <v>12519</v>
+      </c>
+      <c r="K786" s="43" t="s">
+        <v>12520</v>
+      </c>
+      <c r="L786" s="4" t="s">
         <v>12521</v>
       </c>
-      <c r="B786" s="43" t="s">
+      <c r="M786" s="44" t="s">
         <v>12522</v>
       </c>
-      <c r="C786" s="44" t="s">
+      <c r="N786" s="47" t="s">
         <v>12523</v>
       </c>
-      <c r="D786" s="43" t="s">
+      <c r="O786" s="7" t="s">
         <v>12524</v>
       </c>
-      <c r="E786" s="43" t="s">
+      <c r="P786" s="44" t="s">
         <v>12525</v>
       </c>
-      <c r="F786" s="45" t="s">
+      <c r="Q786" s="16" t="s">
         <v>12526</v>
       </c>
-      <c r="G786" s="43" t="s">
+      <c r="R786" s="43" t="s">
         <v>12527</v>
       </c>
-      <c r="H786" s="45" t="s">
+      <c r="T786" s="7" t="s">
         <v>12528</v>
-      </c>
-      <c r="I786" s="45" t="s">
-        <v>12529</v>
-      </c>
-      <c r="J786" s="45" t="s">
-        <v>12530</v>
-      </c>
-      <c r="K786" s="43" t="s">
-        <v>12531</v>
-      </c>
-      <c r="L786" s="4" t="s">
-        <v>12532</v>
-      </c>
-      <c r="M786" s="44" t="s">
-        <v>12533</v>
-      </c>
-      <c r="N786" s="47" t="s">
-        <v>12534</v>
-      </c>
-      <c r="O786" s="7" t="s">
-        <v>12535</v>
-      </c>
-      <c r="P786" s="44" t="s">
-        <v>12536</v>
-      </c>
-      <c r="Q786" s="16" t="s">
-        <v>12537</v>
-      </c>
-      <c r="R786" s="43" t="s">
-        <v>12538</v>
-      </c>
-      <c r="T786" s="7" t="s">
-        <v>12539</v>
       </c>
     </row>
     <row r="787" spans="1:20" ht="13.5" customHeight="1">
@@ -86088,7 +86141,7 @@
         <v>12060</v>
       </c>
       <c r="N792" s="47" t="s">
-        <v>12602</v>
+        <v>12590</v>
       </c>
       <c r="O792" s="7" t="s">
         <v>12061</v>
@@ -86459,17 +86512,17 @@
     </row>
     <row r="800" spans="1:20" ht="13.5" customHeight="1">
       <c r="A800" s="21" t="s">
-        <v>12155</v>
-      </c>
-      <c r="B800" s="13" t="s">
-        <v>12156</v>
-      </c>
-      <c r="C800" s="30" t="s">
-        <v>12157</v>
+        <v>12591</v>
+      </c>
+      <c r="B800" s="43" t="s">
+        <v>12592</v>
+      </c>
+      <c r="C800" s="44" t="s">
+        <v>12593</v>
       </c>
       <c r="D800" s="13"/>
       <c r="E800" s="21" t="s">
-        <v>12158</v>
+        <v>12594</v>
       </c>
       <c r="F800" s="13"/>
       <c r="G800" s="13"/>
@@ -86478,274 +86531,274 @@
       <c r="J800" s="13"/>
       <c r="K800" s="13"/>
       <c r="L800" s="14" t="s">
-        <v>12159</v>
+        <v>12595</v>
       </c>
       <c r="M800" s="35" t="s">
-        <v>12160</v>
+        <v>12596</v>
       </c>
       <c r="N800" s="48" t="s">
+        <v>12597</v>
+      </c>
+      <c r="O800" s="7" t="s">
         <v>12598</v>
       </c>
-      <c r="O800" s="7" t="s">
-        <v>12161</v>
-      </c>
-      <c r="P800" s="8" t="s">
-        <v>12162</v>
+      <c r="P800" s="44" t="s">
+        <v>12599</v>
       </c>
       <c r="Q800" s="16" t="s">
-        <v>12163</v>
+        <v>12600</v>
       </c>
       <c r="R800" s="21" t="s">
-        <v>12164</v>
+        <v>12601</v>
       </c>
       <c r="T800" s="7" t="s">
-        <v>12165</v>
+        <v>12602</v>
       </c>
     </row>
     <row r="801" spans="1:20" ht="13.5" customHeight="1">
       <c r="A801" s="13" t="s">
-        <v>12166</v>
+        <v>12155</v>
       </c>
       <c r="B801" s="13" t="s">
-        <v>12167</v>
+        <v>12156</v>
       </c>
       <c r="C801" s="30" t="s">
-        <v>12168</v>
+        <v>12157</v>
       </c>
       <c r="D801" s="13" t="s">
-        <v>12169</v>
+        <v>12158</v>
       </c>
       <c r="E801" s="21" t="s">
-        <v>12170</v>
+        <v>12159</v>
       </c>
       <c r="F801" s="1" t="s">
-        <v>12171</v>
+        <v>12160</v>
       </c>
       <c r="G801" s="20" t="s">
-        <v>12172</v>
+        <v>12161</v>
       </c>
       <c r="H801" s="13"/>
       <c r="I801" s="13"/>
       <c r="J801" s="13"/>
       <c r="K801" s="13"/>
       <c r="L801" s="14" t="s">
-        <v>12173</v>
+        <v>12162</v>
       </c>
       <c r="M801" s="8" t="s">
-        <v>12174</v>
+        <v>12163</v>
       </c>
       <c r="N801" s="17" t="s">
-        <v>12175</v>
+        <v>12164</v>
       </c>
       <c r="O801" s="7" t="s">
-        <v>12176</v>
+        <v>12165</v>
       </c>
       <c r="P801" s="30" t="s">
-        <v>12177</v>
+        <v>12166</v>
       </c>
       <c r="Q801" s="16" t="s">
-        <v>12178</v>
+        <v>12167</v>
       </c>
       <c r="R801" s="1" t="s">
-        <v>12179</v>
+        <v>12168</v>
       </c>
       <c r="T801" s="7" t="s">
-        <v>12180</v>
+        <v>12169</v>
       </c>
     </row>
     <row r="802" spans="1:20" ht="13.5" customHeight="1">
       <c r="A802" s="13" t="s">
-        <v>12181</v>
+        <v>12170</v>
       </c>
       <c r="B802" s="13" t="s">
-        <v>12182</v>
+        <v>12171</v>
       </c>
       <c r="C802" s="30" t="s">
-        <v>12183</v>
+        <v>12172</v>
       </c>
       <c r="D802" s="13" t="s">
-        <v>12184</v>
+        <v>12173</v>
       </c>
       <c r="E802" s="21" t="s">
-        <v>12185</v>
+        <v>12174</v>
       </c>
       <c r="F802" s="1" t="s">
-        <v>12186</v>
+        <v>12175</v>
       </c>
       <c r="G802" s="13" t="s">
-        <v>12187</v>
+        <v>12176</v>
       </c>
       <c r="H802" s="13"/>
       <c r="I802" s="13"/>
       <c r="J802" s="13"/>
       <c r="K802" s="13"/>
       <c r="L802" s="14" t="s">
-        <v>12188</v>
+        <v>12177</v>
       </c>
       <c r="M802" s="8" t="s">
-        <v>12189</v>
+        <v>12178</v>
       </c>
       <c r="N802" s="17" t="s">
-        <v>12190</v>
+        <v>12179</v>
       </c>
       <c r="O802" s="7" t="s">
-        <v>12191</v>
+        <v>12180</v>
       </c>
       <c r="P802" s="30" t="s">
-        <v>12192</v>
+        <v>12181</v>
       </c>
       <c r="Q802" s="16" t="s">
-        <v>12193</v>
+        <v>12182</v>
       </c>
       <c r="R802" s="1" t="s">
-        <v>12194</v>
+        <v>12183</v>
       </c>
       <c r="T802" s="7" t="s">
-        <v>12195</v>
+        <v>12184</v>
       </c>
     </row>
     <row r="803" spans="1:20" ht="13.5" customHeight="1">
       <c r="A803" s="13" t="s">
-        <v>12196</v>
+        <v>12185</v>
       </c>
       <c r="B803" s="13" t="s">
-        <v>12197</v>
+        <v>12186</v>
       </c>
       <c r="C803" s="30" t="s">
-        <v>12198</v>
+        <v>12187</v>
       </c>
       <c r="D803" s="13" t="s">
-        <v>12199</v>
+        <v>12188</v>
       </c>
       <c r="E803" s="21" t="s">
-        <v>12200</v>
+        <v>12189</v>
       </c>
       <c r="F803" s="13"/>
       <c r="G803" s="13" t="s">
-        <v>12201</v>
+        <v>12190</v>
       </c>
       <c r="H803" s="13"/>
       <c r="I803" s="13"/>
       <c r="J803" s="13"/>
       <c r="K803" s="13"/>
       <c r="L803" s="14" t="s">
-        <v>12202</v>
+        <v>12191</v>
       </c>
       <c r="M803" s="8" t="s">
-        <v>12203</v>
+        <v>12192</v>
       </c>
       <c r="N803" s="17" t="s">
-        <v>12204</v>
+        <v>12193</v>
       </c>
       <c r="O803" s="7" t="s">
-        <v>12205</v>
+        <v>12194</v>
       </c>
       <c r="P803" s="30" t="s">
-        <v>12206</v>
+        <v>12195</v>
       </c>
       <c r="Q803" s="16" t="s">
-        <v>12207</v>
+        <v>12196</v>
       </c>
       <c r="R803" s="1" t="s">
-        <v>12208</v>
+        <v>12197</v>
       </c>
       <c r="T803" s="7" t="s">
-        <v>12209</v>
+        <v>12198</v>
       </c>
     </row>
     <row r="804" spans="1:20" ht="13.5" customHeight="1">
       <c r="A804" s="13" t="s">
-        <v>12210</v>
+        <v>12199</v>
       </c>
       <c r="B804" s="13" t="s">
-        <v>12211</v>
+        <v>12200</v>
       </c>
       <c r="C804" s="30" t="s">
-        <v>12212</v>
+        <v>12201</v>
       </c>
       <c r="D804" s="13" t="s">
-        <v>12213</v>
+        <v>12202</v>
       </c>
       <c r="E804" s="13" t="s">
-        <v>12214</v>
+        <v>12203</v>
       </c>
       <c r="F804" s="13"/>
       <c r="G804" s="20" t="s">
-        <v>12215</v>
+        <v>12204</v>
       </c>
       <c r="H804" s="13"/>
       <c r="I804" s="13"/>
       <c r="J804" s="13"/>
       <c r="K804" s="13"/>
       <c r="L804" s="14" t="s">
-        <v>12216</v>
+        <v>12205</v>
       </c>
       <c r="M804" s="8" t="s">
-        <v>12217</v>
+        <v>12206</v>
       </c>
       <c r="N804" s="15" t="s">
-        <v>12218</v>
+        <v>12207</v>
       </c>
       <c r="O804" s="7" t="s">
-        <v>12219</v>
+        <v>12208</v>
       </c>
       <c r="P804" s="8" t="s">
+        <v>12199</v>
+      </c>
+      <c r="Q804" s="16" t="s">
+        <v>12209</v>
+      </c>
+      <c r="R804" s="1" t="s">
         <v>12210</v>
       </c>
-      <c r="Q804" s="16" t="s">
-        <v>12220</v>
-      </c>
-      <c r="R804" s="1" t="s">
-        <v>12221</v>
-      </c>
       <c r="T804" s="7" t="s">
-        <v>12222</v>
+        <v>12211</v>
       </c>
     </row>
     <row r="805" spans="1:20" ht="13.5" customHeight="1">
       <c r="A805" s="13" t="s">
-        <v>12223</v>
+        <v>12212</v>
       </c>
       <c r="B805" s="13" t="s">
-        <v>12224</v>
+        <v>12213</v>
       </c>
       <c r="C805" s="30" t="s">
-        <v>12224</v>
+        <v>12213</v>
       </c>
       <c r="D805" s="13" t="s">
-        <v>12225</v>
+        <v>12214</v>
       </c>
       <c r="E805" s="13" t="s">
-        <v>12226</v>
+        <v>12215</v>
       </c>
       <c r="F805" s="13"/>
       <c r="G805" s="20" t="s">
-        <v>12227</v>
+        <v>12216</v>
       </c>
       <c r="H805" s="13"/>
       <c r="I805" s="13"/>
       <c r="J805" s="13"/>
       <c r="K805" s="13"/>
       <c r="L805" s="14" t="s">
-        <v>12228</v>
+        <v>12217</v>
       </c>
       <c r="M805" s="8" t="s">
-        <v>12229</v>
+        <v>12218</v>
       </c>
       <c r="N805" s="15" t="s">
-        <v>12230</v>
+        <v>12219</v>
       </c>
       <c r="O805" s="7" t="s">
-        <v>12231</v>
+        <v>12220</v>
       </c>
       <c r="P805" s="8" t="s">
-        <v>12232</v>
+        <v>12221</v>
       </c>
       <c r="Q805" s="16" t="s">
-        <v>12233</v>
+        <v>12222</v>
       </c>
       <c r="R805" s="1" t="s">
-        <v>12234</v>
+        <v>12223</v>
       </c>
       <c r="T805" s="7" t="s">
         <v>11318</v>
@@ -86753,213 +86806,213 @@
     </row>
     <row r="806" spans="1:20" ht="13.5" customHeight="1">
       <c r="A806" s="2" t="s">
-        <v>12235</v>
+        <v>12224</v>
       </c>
       <c r="B806" s="13" t="s">
-        <v>12236</v>
+        <v>12225</v>
       </c>
       <c r="C806" s="30" t="s">
-        <v>12236</v>
+        <v>12225</v>
       </c>
       <c r="D806" s="13" t="s">
-        <v>12237</v>
+        <v>12226</v>
       </c>
       <c r="E806" s="2" t="s">
-        <v>12238</v>
+        <v>12227</v>
       </c>
       <c r="F806" s="1" t="s">
-        <v>12239</v>
+        <v>12228</v>
       </c>
       <c r="G806" s="20" t="s">
-        <v>12240</v>
+        <v>12229</v>
       </c>
       <c r="H806" s="13"/>
       <c r="I806" s="13"/>
       <c r="J806" s="13"/>
       <c r="K806" s="13" t="s">
-        <v>12241</v>
+        <v>12230</v>
       </c>
       <c r="L806" s="14" t="s">
-        <v>12242</v>
+        <v>12231</v>
       </c>
       <c r="M806" s="8" t="s">
-        <v>12243</v>
+        <v>12232</v>
       </c>
       <c r="N806" s="15" t="s">
         <v>11714</v>
       </c>
       <c r="O806" s="7" t="s">
-        <v>12244</v>
+        <v>12233</v>
       </c>
       <c r="P806" s="12" t="s">
-        <v>12245</v>
+        <v>12234</v>
       </c>
       <c r="Q806" s="16" t="s">
-        <v>12246</v>
+        <v>12235</v>
       </c>
       <c r="R806" s="18" t="s">
-        <v>12247</v>
+        <v>12236</v>
       </c>
       <c r="T806" s="7" t="s">
-        <v>12248</v>
+        <v>12237</v>
       </c>
     </row>
     <row r="807" spans="1:20" ht="13.5" customHeight="1">
       <c r="A807" s="13" t="s">
-        <v>12249</v>
+        <v>12238</v>
       </c>
       <c r="B807" s="13" t="s">
-        <v>12250</v>
+        <v>12239</v>
       </c>
       <c r="C807" s="30" t="s">
-        <v>12251</v>
+        <v>12240</v>
       </c>
       <c r="D807" s="13" t="s">
-        <v>12252</v>
+        <v>12241</v>
       </c>
       <c r="E807" s="13" t="s">
-        <v>12253</v>
+        <v>12242</v>
       </c>
       <c r="F807" s="13"/>
       <c r="G807" s="20" t="s">
-        <v>12254</v>
+        <v>12243</v>
       </c>
       <c r="H807" s="13"/>
       <c r="I807" s="13"/>
       <c r="J807" s="13"/>
       <c r="K807" s="13" t="s">
-        <v>12255</v>
+        <v>12244</v>
       </c>
       <c r="L807" s="14" t="s">
-        <v>12256</v>
+        <v>12245</v>
       </c>
       <c r="M807" s="8" t="s">
-        <v>12257</v>
+        <v>12246</v>
       </c>
       <c r="N807" s="15" t="s">
-        <v>12258</v>
+        <v>12247</v>
       </c>
       <c r="O807" s="7" t="s">
-        <v>12259</v>
+        <v>12248</v>
       </c>
       <c r="P807" s="30" t="s">
-        <v>12260</v>
+        <v>12249</v>
       </c>
       <c r="Q807" s="16" t="s">
-        <v>12261</v>
+        <v>12250</v>
       </c>
       <c r="R807" s="1" t="s">
-        <v>12262</v>
+        <v>12251</v>
       </c>
       <c r="T807" s="7" t="s">
-        <v>12263</v>
+        <v>12252</v>
       </c>
     </row>
     <row r="808" spans="1:20" ht="13.5" customHeight="1">
       <c r="A808" s="13" t="s">
-        <v>12264</v>
+        <v>12253</v>
       </c>
       <c r="B808" s="13" t="s">
-        <v>12265</v>
+        <v>12254</v>
       </c>
       <c r="C808" s="30" t="s">
-        <v>12266</v>
+        <v>12255</v>
       </c>
       <c r="D808" s="13" t="s">
-        <v>12267</v>
+        <v>12256</v>
       </c>
       <c r="E808" s="1" t="s">
-        <v>12268</v>
+        <v>12257</v>
       </c>
       <c r="F808" s="1" t="s">
-        <v>12269</v>
+        <v>12258</v>
       </c>
       <c r="G808" s="20" t="s">
-        <v>12270</v>
+        <v>12259</v>
       </c>
       <c r="H808" s="13"/>
       <c r="I808" s="13"/>
       <c r="J808" s="13"/>
       <c r="K808" s="13"/>
       <c r="L808" s="14" t="s">
-        <v>12271</v>
+        <v>12260</v>
       </c>
       <c r="M808" s="8" t="s">
-        <v>12272</v>
+        <v>12261</v>
       </c>
       <c r="N808" s="15" t="s">
         <v>7085</v>
       </c>
       <c r="O808" s="7" t="s">
-        <v>12273</v>
+        <v>12262</v>
       </c>
       <c r="P808" s="30" t="s">
-        <v>12274</v>
+        <v>12263</v>
       </c>
       <c r="Q808" s="16" t="s">
-        <v>12275</v>
+        <v>12264</v>
       </c>
       <c r="R808" s="7" t="s">
-        <v>12276</v>
+        <v>12265</v>
       </c>
       <c r="T808" s="7" t="s">
-        <v>12277</v>
+        <v>12266</v>
       </c>
     </row>
     <row r="809" spans="1:20" ht="13.5" customHeight="1">
       <c r="A809" s="13" t="s">
-        <v>12278</v>
+        <v>12267</v>
       </c>
       <c r="B809" s="13" t="s">
-        <v>12265</v>
+        <v>12254</v>
       </c>
       <c r="C809" s="30" t="s">
-        <v>12266</v>
+        <v>12255</v>
       </c>
       <c r="D809" s="13" t="s">
-        <v>12279</v>
+        <v>12268</v>
       </c>
       <c r="E809" s="1" t="s">
-        <v>12280</v>
+        <v>12269</v>
       </c>
       <c r="F809" s="1" t="s">
-        <v>12281</v>
+        <v>12270</v>
       </c>
       <c r="G809" s="20" t="s">
-        <v>12282</v>
+        <v>12271</v>
       </c>
       <c r="H809" s="13"/>
       <c r="I809" s="13"/>
       <c r="J809" s="13"/>
       <c r="K809" s="13"/>
       <c r="L809" s="14" t="s">
-        <v>12283</v>
+        <v>12272</v>
       </c>
       <c r="M809" s="8" t="s">
-        <v>12272</v>
+        <v>12261</v>
       </c>
       <c r="N809" s="15" t="s">
-        <v>12284</v>
+        <v>12273</v>
       </c>
       <c r="O809" s="7" t="s">
-        <v>12285</v>
+        <v>12274</v>
       </c>
       <c r="P809" s="30" t="s">
-        <v>12286</v>
+        <v>12275</v>
       </c>
       <c r="Q809" s="16" t="s">
-        <v>12287</v>
+        <v>12276</v>
       </c>
       <c r="R809" s="1" t="s">
-        <v>12288</v>
+        <v>12277</v>
       </c>
       <c r="T809" s="7" t="s">
-        <v>12289</v>
+        <v>12278</v>
       </c>
     </row>
     <row r="810" spans="1:20" ht="13.5" customHeight="1">
       <c r="A810" s="2" t="s">
-        <v>12290</v>
+        <v>12279</v>
       </c>
       <c r="B810" s="13" t="s">
         <v>9818</v>
@@ -86968,10 +87021,10 @@
         <v>9819</v>
       </c>
       <c r="D810" s="13" t="s">
-        <v>12291</v>
+        <v>12280</v>
       </c>
       <c r="E810" s="13" t="s">
-        <v>12292</v>
+        <v>12281</v>
       </c>
       <c r="F810" s="13"/>
       <c r="G810" s="13"/>
@@ -86980,33 +87033,33 @@
       <c r="J810" s="13"/>
       <c r="K810" s="13"/>
       <c r="L810" s="4" t="s">
-        <v>12293</v>
+        <v>12282</v>
       </c>
       <c r="M810" s="5" t="s">
-        <v>12290</v>
+        <v>12279</v>
       </c>
       <c r="N810" s="15" t="s">
-        <v>12294</v>
+        <v>12283</v>
       </c>
       <c r="O810" s="7" t="s">
-        <v>12295</v>
+        <v>12284</v>
       </c>
       <c r="P810" s="30" t="s">
-        <v>12296</v>
+        <v>12285</v>
       </c>
       <c r="Q810" s="16" t="s">
-        <v>12290</v>
+        <v>12279</v>
       </c>
       <c r="R810" s="7" t="s">
-        <v>12297</v>
+        <v>12286</v>
       </c>
       <c r="T810" s="7" t="s">
-        <v>12298</v>
+        <v>12287</v>
       </c>
     </row>
     <row r="811" spans="1:20" ht="13.5" customHeight="1">
       <c r="A811" s="2" t="s">
-        <v>12299</v>
+        <v>12288</v>
       </c>
       <c r="B811" s="13" t="s">
         <v>10242</v>
@@ -87015,10 +87068,10 @@
         <v>10243</v>
       </c>
       <c r="D811" s="13" t="s">
-        <v>12300</v>
+        <v>12289</v>
       </c>
       <c r="E811" s="13" t="s">
-        <v>12301</v>
+        <v>12290</v>
       </c>
       <c r="F811" s="13"/>
       <c r="G811" s="13"/>
@@ -87027,45 +87080,45 @@
       <c r="J811" s="13"/>
       <c r="K811" s="13"/>
       <c r="L811" s="4" t="s">
-        <v>12302</v>
+        <v>12291</v>
       </c>
       <c r="M811" s="5" t="s">
-        <v>12299</v>
+        <v>12288</v>
       </c>
       <c r="N811" s="15" t="s">
         <v>10247</v>
       </c>
       <c r="O811" s="7" t="s">
-        <v>12303</v>
+        <v>12292</v>
       </c>
       <c r="P811" s="30" t="s">
-        <v>12304</v>
+        <v>12293</v>
       </c>
       <c r="Q811" s="16" t="s">
-        <v>12299</v>
+        <v>12288</v>
       </c>
       <c r="R811" s="7" t="s">
-        <v>12305</v>
+        <v>12294</v>
       </c>
       <c r="T811" s="7" t="s">
-        <v>12306</v>
+        <v>12295</v>
       </c>
     </row>
     <row r="812" spans="1:20" ht="13.5" customHeight="1">
       <c r="A812" s="13" t="s">
-        <v>12307</v>
+        <v>12296</v>
       </c>
       <c r="B812" s="13" t="s">
-        <v>12308</v>
+        <v>12297</v>
       </c>
       <c r="C812" s="30" t="s">
-        <v>12309</v>
+        <v>12298</v>
       </c>
       <c r="D812" s="13" t="s">
-        <v>12310</v>
+        <v>12299</v>
       </c>
       <c r="E812" s="13" t="s">
-        <v>12311</v>
+        <v>12300</v>
       </c>
       <c r="F812" s="13"/>
       <c r="G812" s="13"/>
@@ -87074,45 +87127,45 @@
       <c r="J812" s="13"/>
       <c r="K812" s="13"/>
       <c r="L812" s="14" t="s">
-        <v>12312</v>
+        <v>12301</v>
       </c>
       <c r="M812" s="8" t="s">
-        <v>12313</v>
+        <v>12302</v>
       </c>
       <c r="N812" s="17" t="s">
-        <v>12314</v>
+        <v>12303</v>
       </c>
       <c r="O812" s="7" t="s">
-        <v>12315</v>
+        <v>12304</v>
       </c>
       <c r="P812" s="8" t="s">
-        <v>12316</v>
+        <v>12305</v>
       </c>
       <c r="Q812" s="36" t="s">
-        <v>12317</v>
+        <v>12306</v>
       </c>
       <c r="R812" s="1" t="s">
-        <v>12318</v>
+        <v>12307</v>
       </c>
       <c r="T812" s="7" t="s">
-        <v>12319</v>
+        <v>12308</v>
       </c>
     </row>
     <row r="813" spans="1:20" ht="13.5" customHeight="1">
       <c r="A813" s="13" t="s">
-        <v>12320</v>
+        <v>12309</v>
       </c>
       <c r="B813" s="13" t="s">
-        <v>12321</v>
+        <v>12310</v>
       </c>
       <c r="C813" s="30" t="s">
-        <v>12322</v>
+        <v>12311</v>
       </c>
       <c r="D813" s="13" t="s">
-        <v>12323</v>
+        <v>12312</v>
       </c>
       <c r="E813" s="13" t="s">
-        <v>12324</v>
+        <v>12313</v>
       </c>
       <c r="F813" s="13"/>
       <c r="G813" s="13"/>
@@ -87121,388 +87174,388 @@
       <c r="J813" s="13"/>
       <c r="K813" s="13"/>
       <c r="L813" s="14" t="s">
-        <v>12325</v>
+        <v>12314</v>
       </c>
       <c r="M813" s="8" t="s">
-        <v>12326</v>
+        <v>12315</v>
       </c>
       <c r="N813" s="15" t="s">
-        <v>12327</v>
+        <v>12316</v>
       </c>
       <c r="O813" s="7" t="s">
-        <v>12328</v>
+        <v>12317</v>
       </c>
       <c r="P813" s="30" t="s">
-        <v>12329</v>
+        <v>12318</v>
       </c>
       <c r="Q813" s="16" t="s">
-        <v>12330</v>
+        <v>12319</v>
       </c>
       <c r="R813" s="1" t="s">
-        <v>12331</v>
+        <v>12320</v>
       </c>
       <c r="T813" s="7" t="s">
-        <v>12332</v>
+        <v>12321</v>
       </c>
     </row>
     <row r="814" spans="1:20" ht="13.5" customHeight="1">
       <c r="A814" s="13" t="s">
-        <v>12333</v>
+        <v>12322</v>
       </c>
       <c r="B814" s="13" t="s">
-        <v>12334</v>
+        <v>12323</v>
       </c>
       <c r="C814" s="30" t="s">
-        <v>12335</v>
+        <v>12324</v>
       </c>
       <c r="D814" s="13" t="s">
-        <v>12336</v>
+        <v>12325</v>
       </c>
       <c r="E814" s="13" t="s">
-        <v>12337</v>
+        <v>12326</v>
       </c>
       <c r="F814" s="2" t="s">
-        <v>12338</v>
+        <v>12327</v>
       </c>
       <c r="G814" s="13"/>
       <c r="H814" s="2" t="s">
-        <v>12339</v>
+        <v>12328</v>
       </c>
       <c r="I814" s="2" t="s">
-        <v>12340</v>
+        <v>12329</v>
       </c>
       <c r="J814" s="2" t="s">
-        <v>12341</v>
+        <v>12330</v>
       </c>
       <c r="K814" s="2" t="s">
-        <v>12341</v>
+        <v>12330</v>
       </c>
       <c r="L814" s="4" t="s">
-        <v>12342</v>
+        <v>12331</v>
       </c>
       <c r="M814" s="5" t="s">
-        <v>12343</v>
+        <v>12332</v>
       </c>
       <c r="N814" s="17" t="s">
-        <v>12344</v>
+        <v>12333</v>
       </c>
       <c r="O814" s="7" t="s">
-        <v>12345</v>
+        <v>12334</v>
       </c>
       <c r="P814" s="30" t="s">
-        <v>12346</v>
+        <v>12335</v>
       </c>
       <c r="Q814" s="16" t="s">
-        <v>12347</v>
+        <v>12336</v>
       </c>
       <c r="R814" s="1" t="s">
-        <v>12348</v>
+        <v>12337</v>
       </c>
       <c r="T814" s="7" t="s">
-        <v>12349</v>
+        <v>12338</v>
       </c>
     </row>
     <row r="815" spans="1:20" ht="13.5" customHeight="1">
       <c r="A815" s="2" t="s">
-        <v>12350</v>
+        <v>12339</v>
       </c>
       <c r="B815" s="13" t="s">
-        <v>12351</v>
+        <v>12340</v>
       </c>
       <c r="C815" s="30" t="s">
-        <v>12352</v>
+        <v>12341</v>
       </c>
       <c r="D815" s="13" t="s">
-        <v>12353</v>
+        <v>12342</v>
       </c>
       <c r="E815" s="13" t="s">
-        <v>12354</v>
+        <v>12343</v>
       </c>
       <c r="F815" s="2" t="s">
-        <v>12355</v>
+        <v>12344</v>
       </c>
       <c r="G815" s="13"/>
       <c r="H815" s="2" t="s">
-        <v>12356</v>
+        <v>12345</v>
       </c>
       <c r="I815" s="2" t="s">
-        <v>12357</v>
+        <v>12346</v>
       </c>
       <c r="J815" s="2" t="s">
-        <v>12358</v>
+        <v>12347</v>
       </c>
       <c r="K815" s="2" t="s">
-        <v>12358</v>
+        <v>12347</v>
       </c>
       <c r="L815" s="4" t="s">
-        <v>12359</v>
+        <v>12348</v>
       </c>
       <c r="M815" s="5" t="s">
-        <v>12360</v>
+        <v>12349</v>
       </c>
       <c r="N815" s="15" t="s">
-        <v>12361</v>
+        <v>12350</v>
       </c>
       <c r="O815" s="7" t="s">
-        <v>12362</v>
+        <v>12351</v>
       </c>
       <c r="P815" s="30" t="s">
-        <v>12363</v>
+        <v>12352</v>
       </c>
       <c r="Q815" s="16" t="s">
-        <v>12364</v>
+        <v>12353</v>
       </c>
       <c r="R815" s="18" t="s">
-        <v>12365</v>
+        <v>12354</v>
       </c>
       <c r="T815" s="7" t="s">
-        <v>12366</v>
+        <v>12355</v>
       </c>
     </row>
     <row r="816" spans="1:20" ht="13.5" customHeight="1">
       <c r="A816" s="2" t="s">
-        <v>12367</v>
+        <v>12356</v>
       </c>
       <c r="B816" s="13" t="s">
-        <v>12368</v>
+        <v>12357</v>
       </c>
       <c r="C816" s="30" t="s">
-        <v>12369</v>
+        <v>12358</v>
       </c>
       <c r="D816" s="13" t="s">
-        <v>12370</v>
+        <v>12359</v>
       </c>
       <c r="E816" s="13" t="s">
-        <v>12371</v>
+        <v>12360</v>
       </c>
       <c r="F816" s="2" t="s">
-        <v>12372</v>
+        <v>12361</v>
       </c>
       <c r="G816" s="13"/>
       <c r="H816" s="2" t="s">
-        <v>12373</v>
+        <v>12362</v>
       </c>
       <c r="I816" s="2" t="s">
-        <v>12374</v>
+        <v>12363</v>
       </c>
       <c r="J816" s="2" t="s">
-        <v>12375</v>
+        <v>12364</v>
       </c>
       <c r="K816" s="2" t="s">
-        <v>12375</v>
+        <v>12364</v>
       </c>
       <c r="L816" s="4" t="s">
-        <v>12376</v>
+        <v>12365</v>
       </c>
       <c r="M816" s="5" t="s">
-        <v>12377</v>
+        <v>12366</v>
       </c>
       <c r="N816" s="15" t="s">
-        <v>12378</v>
+        <v>12367</v>
       </c>
       <c r="O816" s="7" t="s">
-        <v>12379</v>
+        <v>12368</v>
       </c>
       <c r="P816" s="30" t="s">
-        <v>12380</v>
+        <v>12369</v>
       </c>
       <c r="Q816" s="16" t="s">
-        <v>12381</v>
+        <v>12370</v>
       </c>
       <c r="R816" s="18" t="s">
-        <v>12382</v>
+        <v>12371</v>
       </c>
       <c r="T816" s="7" t="s">
-        <v>12383</v>
+        <v>12372</v>
       </c>
     </row>
     <row r="817" spans="1:20" ht="13.5" customHeight="1">
       <c r="A817" s="2" t="s">
-        <v>12384</v>
+        <v>12373</v>
       </c>
       <c r="B817" s="13" t="s">
-        <v>12385</v>
+        <v>12374</v>
       </c>
       <c r="C817" s="30" t="s">
-        <v>12386</v>
+        <v>12375</v>
       </c>
       <c r="D817" s="13" t="s">
-        <v>12387</v>
+        <v>12376</v>
       </c>
       <c r="E817" s="13" t="s">
-        <v>12388</v>
+        <v>12377</v>
       </c>
       <c r="F817" s="2" t="s">
-        <v>12389</v>
+        <v>12378</v>
       </c>
       <c r="G817" s="13"/>
       <c r="H817" s="2" t="s">
-        <v>12390</v>
+        <v>12379</v>
       </c>
       <c r="I817" s="2" t="s">
-        <v>12391</v>
+        <v>12380</v>
       </c>
       <c r="J817" s="2" t="s">
-        <v>12392</v>
+        <v>12381</v>
       </c>
       <c r="K817" s="2" t="s">
-        <v>12392</v>
+        <v>12381</v>
       </c>
       <c r="L817" s="4" t="s">
-        <v>12393</v>
+        <v>12382</v>
       </c>
       <c r="M817" s="5" t="s">
-        <v>12394</v>
+        <v>12383</v>
       </c>
       <c r="N817" s="17" t="s">
-        <v>12395</v>
+        <v>12384</v>
       </c>
       <c r="O817" s="7" t="s">
-        <v>12396</v>
+        <v>12385</v>
       </c>
       <c r="P817" s="30" t="s">
-        <v>12397</v>
+        <v>12386</v>
       </c>
       <c r="Q817" s="16" t="s">
-        <v>12398</v>
+        <v>12387</v>
       </c>
       <c r="R817" s="18" t="s">
-        <v>12399</v>
+        <v>12388</v>
       </c>
       <c r="T817" s="7" t="s">
-        <v>12400</v>
+        <v>12389</v>
       </c>
     </row>
     <row r="818" spans="1:20" ht="13.5" customHeight="1">
       <c r="A818" s="2" t="s">
-        <v>12401</v>
+        <v>12390</v>
       </c>
       <c r="B818" s="13" t="s">
-        <v>12402</v>
+        <v>12391</v>
       </c>
       <c r="C818" s="30" t="s">
-        <v>12403</v>
+        <v>12392</v>
       </c>
       <c r="D818" s="13" t="s">
-        <v>12404</v>
+        <v>12393</v>
       </c>
       <c r="E818" s="13" t="s">
-        <v>12405</v>
+        <v>12394</v>
       </c>
       <c r="F818" s="18" t="s">
-        <v>12406</v>
+        <v>12395</v>
       </c>
       <c r="G818" s="13"/>
       <c r="H818" s="2" t="s">
-        <v>12407</v>
+        <v>12396</v>
       </c>
       <c r="I818" s="2" t="s">
-        <v>12408</v>
+        <v>12397</v>
       </c>
       <c r="J818" s="2" t="s">
-        <v>12409</v>
+        <v>12398</v>
       </c>
       <c r="K818" s="2" t="s">
-        <v>12409</v>
+        <v>12398</v>
       </c>
       <c r="L818" s="4" t="s">
-        <v>12410</v>
+        <v>12399</v>
       </c>
       <c r="M818" s="5" t="s">
-        <v>12411</v>
+        <v>12400</v>
       </c>
       <c r="N818" s="17" t="s">
-        <v>12412</v>
+        <v>12401</v>
       </c>
       <c r="O818" s="7" t="s">
-        <v>12413</v>
+        <v>12402</v>
       </c>
       <c r="P818" s="30" t="s">
-        <v>12414</v>
+        <v>12403</v>
       </c>
       <c r="Q818" s="16" t="s">
-        <v>12415</v>
+        <v>12404</v>
       </c>
       <c r="R818" s="18" t="s">
-        <v>12416</v>
+        <v>12405</v>
       </c>
       <c r="T818" s="7" t="s">
-        <v>12417</v>
+        <v>12406</v>
       </c>
     </row>
     <row r="819" spans="1:20" ht="13.5" customHeight="1">
       <c r="A819" s="2" t="s">
-        <v>12418</v>
+        <v>12407</v>
       </c>
       <c r="B819" s="13" t="s">
-        <v>12419</v>
+        <v>12408</v>
       </c>
       <c r="C819" s="30" t="s">
-        <v>12420</v>
+        <v>12409</v>
       </c>
       <c r="D819" s="13" t="s">
-        <v>12421</v>
+        <v>12410</v>
       </c>
       <c r="E819" s="13" t="s">
-        <v>12422</v>
+        <v>12411</v>
       </c>
       <c r="F819" s="2" t="s">
-        <v>12423</v>
+        <v>12412</v>
       </c>
       <c r="G819" s="13"/>
       <c r="H819" s="2" t="s">
-        <v>12424</v>
+        <v>12413</v>
       </c>
       <c r="I819" s="2" t="s">
-        <v>12425</v>
+        <v>12414</v>
       </c>
       <c r="J819" s="2" t="s">
-        <v>12426</v>
+        <v>12415</v>
       </c>
       <c r="K819" s="2" t="s">
-        <v>12426</v>
+        <v>12415</v>
       </c>
       <c r="L819" s="4" t="s">
-        <v>12427</v>
+        <v>12416</v>
       </c>
       <c r="M819" s="5" t="s">
-        <v>12428</v>
+        <v>12417</v>
       </c>
       <c r="N819" s="17" t="s">
-        <v>12429</v>
+        <v>12418</v>
       </c>
       <c r="O819" s="7" t="s">
-        <v>12430</v>
+        <v>12419</v>
       </c>
       <c r="P819" s="30" t="s">
-        <v>12431</v>
+        <v>12420</v>
       </c>
       <c r="Q819" s="16" t="s">
-        <v>12432</v>
+        <v>12421</v>
       </c>
       <c r="R819" s="18" t="s">
-        <v>12433</v>
+        <v>12422</v>
       </c>
       <c r="T819" s="7" t="s">
-        <v>12434</v>
+        <v>12423</v>
       </c>
     </row>
     <row r="820" spans="1:20" ht="13.5" customHeight="1">
       <c r="A820" s="8" t="s">
-        <v>12435</v>
+        <v>12424</v>
       </c>
       <c r="B820" s="8" t="s">
-        <v>12436</v>
+        <v>12425</v>
       </c>
       <c r="C820" s="30" t="s">
-        <v>12437</v>
+        <v>12426</v>
       </c>
       <c r="D820" s="13"/>
       <c r="E820" s="8" t="s">
-        <v>12438</v>
+        <v>12427</v>
       </c>
       <c r="F820" s="1" t="s">
-        <v>12439</v>
+        <v>12428</v>
       </c>
       <c r="G820" s="13"/>
       <c r="H820" s="13"/>
@@ -87510,38 +87563,38 @@
       <c r="J820" s="13"/>
       <c r="K820" s="13"/>
       <c r="L820" s="37" t="s">
-        <v>12440</v>
+        <v>12429</v>
       </c>
       <c r="M820" s="13"/>
       <c r="N820" s="15" t="s">
-        <v>12441</v>
+        <v>12430</v>
       </c>
       <c r="O820" s="7" t="s">
-        <v>12442</v>
+        <v>12431</v>
       </c>
       <c r="Q820" s="8" t="s">
-        <v>12443</v>
+        <v>12432</v>
       </c>
       <c r="R820" s="8" t="s">
-        <v>12435</v>
+        <v>12424</v>
       </c>
       <c r="T820" s="7" t="s">
-        <v>12444</v>
+        <v>12433</v>
       </c>
     </row>
     <row r="821" spans="1:20" ht="13.5" customHeight="1">
       <c r="A821" s="8" t="s">
-        <v>12445</v>
+        <v>12434</v>
       </c>
       <c r="B821" s="8" t="s">
-        <v>12446</v>
+        <v>12435</v>
       </c>
       <c r="C821" s="3" t="s">
-        <v>12447</v>
+        <v>12436</v>
       </c>
       <c r="D821" s="13"/>
       <c r="E821" s="8" t="s">
-        <v>12448</v>
+        <v>12437</v>
       </c>
       <c r="F821" s="13"/>
       <c r="G821" s="13"/>
@@ -87550,105 +87603,105 @@
       <c r="J821" s="13"/>
       <c r="K821" s="13"/>
       <c r="L821" s="37" t="s">
-        <v>12449</v>
+        <v>12438</v>
       </c>
       <c r="M821" s="13"/>
       <c r="N821" s="17" t="s">
-        <v>12450</v>
+        <v>12439</v>
       </c>
       <c r="O821" s="7" t="s">
-        <v>12451</v>
+        <v>12440</v>
       </c>
       <c r="Q821" s="8" t="s">
-        <v>12452</v>
+        <v>12441</v>
       </c>
       <c r="R821" s="8" t="s">
-        <v>12453</v>
+        <v>12442</v>
       </c>
       <c r="T821" s="38" t="s">
-        <v>12454</v>
+        <v>12443</v>
       </c>
     </row>
     <row r="822" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A822" s="43" t="s">
+        <v>12444</v>
+      </c>
+      <c r="B822" s="43" t="s">
+        <v>12445</v>
+      </c>
+      <c r="C822" s="44" t="s">
+        <v>12446</v>
+      </c>
+      <c r="D822" s="43" t="s">
+        <v>12447</v>
+      </c>
+      <c r="E822" s="43" t="s">
+        <v>12448</v>
+      </c>
+      <c r="F822" s="43" t="s">
+        <v>12449</v>
+      </c>
+      <c r="G822" s="43" t="s">
+        <v>12450</v>
+      </c>
+      <c r="H822" s="45" t="s">
+        <v>12451</v>
+      </c>
+      <c r="I822" s="45" t="s">
+        <v>12452</v>
+      </c>
+      <c r="J822" s="45" t="s">
+        <v>12453</v>
+      </c>
+      <c r="K822" s="43" t="s">
+        <v>12453</v>
+      </c>
+      <c r="L822" s="45" t="s">
+        <v>12454</v>
+      </c>
+      <c r="M822" s="44" t="s">
         <v>12455</v>
       </c>
-      <c r="B822" s="43" t="s">
+      <c r="N822" s="45" t="s">
         <v>12456</v>
       </c>
-      <c r="C822" s="44" t="s">
+      <c r="O822" s="7" t="s">
         <v>12457</v>
       </c>
-      <c r="D822" s="43" t="s">
+      <c r="P822" s="44" t="s">
         <v>12458</v>
       </c>
-      <c r="E822" s="43" t="s">
+      <c r="Q822" s="16" t="s">
         <v>12459</v>
       </c>
-      <c r="F822" s="43" t="s">
+      <c r="R822" s="43" t="s">
         <v>12460</v>
       </c>
-      <c r="G822" s="43" t="s">
+      <c r="T822" s="7" t="s">
         <v>12461</v>
-      </c>
-      <c r="H822" s="45" t="s">
-        <v>12462</v>
-      </c>
-      <c r="I822" s="45" t="s">
-        <v>12463</v>
-      </c>
-      <c r="J822" s="45" t="s">
-        <v>12464</v>
-      </c>
-      <c r="K822" s="43" t="s">
-        <v>12464</v>
-      </c>
-      <c r="L822" s="45" t="s">
-        <v>12465</v>
-      </c>
-      <c r="M822" s="44" t="s">
-        <v>12466</v>
-      </c>
-      <c r="N822" s="45" t="s">
-        <v>12467</v>
-      </c>
-      <c r="O822" s="7" t="s">
-        <v>12468</v>
-      </c>
-      <c r="P822" s="44" t="s">
-        <v>12469</v>
-      </c>
-      <c r="Q822" s="16" t="s">
-        <v>12470</v>
-      </c>
-      <c r="R822" s="43" t="s">
-        <v>12471</v>
-      </c>
-      <c r="T822" s="7" t="s">
-        <v>12472</v>
       </c>
     </row>
     <row r="823" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A823" s="44" t="s">
-        <v>12473</v>
+        <v>12462</v>
       </c>
       <c r="B823" s="43" t="s">
-        <v>12474</v>
+        <v>12463</v>
       </c>
       <c r="C823" s="43" t="s">
-        <v>12475</v>
+        <v>12464</v>
       </c>
       <c r="Q823" s="41"/>
     </row>
     <row r="824" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A824" s="43" t="s">
-        <v>12476</v>
+        <v>12465</v>
       </c>
       <c r="B824" s="43" t="s">
-        <v>12518</v>
+        <v>12507</v>
       </c>
       <c r="C824" s="44" t="s">
-        <v>12497</v>
+        <v>12486</v>
       </c>
       <c r="M824" s="40"/>
       <c r="O824" s="7"/>
@@ -87659,13 +87712,13 @@
     </row>
     <row r="825" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A825" s="43" t="s">
-        <v>12477</v>
+        <v>12466</v>
       </c>
       <c r="B825" s="43" t="s">
-        <v>12478</v>
+        <v>12467</v>
       </c>
       <c r="C825" s="44" t="s">
-        <v>12479</v>
+        <v>12468</v>
       </c>
       <c r="M825" s="40"/>
       <c r="O825" s="7"/>
@@ -87676,13 +87729,13 @@
     </row>
     <row r="826" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A826" s="43" t="s">
-        <v>12487</v>
+        <v>12476</v>
       </c>
       <c r="B826" s="43" t="s">
-        <v>12489</v>
+        <v>12478</v>
       </c>
       <c r="C826" s="44" t="s">
-        <v>12491</v>
+        <v>12480</v>
       </c>
       <c r="D826" s="43"/>
       <c r="E826" s="43"/>
@@ -87696,13 +87749,13 @@
     </row>
     <row r="827" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A827" s="43" t="s">
-        <v>12488</v>
+        <v>12477</v>
       </c>
       <c r="B827" s="43" t="s">
-        <v>12490</v>
+        <v>12479</v>
       </c>
       <c r="C827" s="44" t="s">
-        <v>12492</v>
+        <v>12481</v>
       </c>
       <c r="D827" s="43"/>
       <c r="E827" s="43"/>
@@ -87715,13 +87768,13 @@
     </row>
     <row r="828" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A828" s="20" t="s">
-        <v>12480</v>
+        <v>12469</v>
       </c>
       <c r="B828" s="43" t="s">
-        <v>12481</v>
+        <v>12470</v>
       </c>
       <c r="C828" s="44" t="s">
-        <v>12482</v>
+        <v>12471</v>
       </c>
       <c r="F828" s="18"/>
       <c r="H828" s="18"/>
@@ -87737,37 +87790,37 @@
     </row>
     <row r="829" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A829" s="43" t="s">
-        <v>12483</v>
+        <v>12472</v>
       </c>
       <c r="B829" s="43" t="s">
-        <v>12484</v>
+        <v>12473</v>
       </c>
       <c r="C829" s="43" t="s">
-        <v>12484</v>
+        <v>12473</v>
       </c>
       <c r="Q829" s="41"/>
     </row>
     <row r="830" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A830" s="43" t="s">
-        <v>12485</v>
+        <v>12474</v>
       </c>
       <c r="B830" s="43" t="s">
-        <v>12486</v>
+        <v>12475</v>
       </c>
       <c r="C830" s="43" t="s">
-        <v>12486</v>
+        <v>12475</v>
       </c>
       <c r="Q830" s="41"/>
     </row>
     <row r="831" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A831" s="45" t="s">
-        <v>12493</v>
+        <v>12482</v>
       </c>
       <c r="B831" s="43" t="s">
-        <v>12495</v>
+        <v>12484</v>
       </c>
       <c r="C831" s="44" t="s">
-        <v>12499</v>
+        <v>12488</v>
       </c>
       <c r="E831" s="18"/>
       <c r="F831" s="18"/>
@@ -87786,13 +87839,13 @@
     </row>
     <row r="832" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A832" s="45" t="s">
-        <v>12494</v>
+        <v>12483</v>
       </c>
       <c r="B832" s="43" t="s">
-        <v>12496</v>
+        <v>12485</v>
       </c>
       <c r="C832" s="44" t="s">
-        <v>12498</v>
+        <v>12487</v>
       </c>
       <c r="E832" s="18"/>
       <c r="F832" s="18"/>
@@ -87811,13 +87864,13 @@
     </row>
     <row r="833" spans="1:20" ht="13.5" customHeight="1">
       <c r="A833" s="43" t="s">
-        <v>12567</v>
+        <v>12556</v>
       </c>
       <c r="B833" s="43" t="s">
-        <v>12569</v>
+        <v>12558</v>
       </c>
       <c r="C833" s="44" t="s">
-        <v>12568</v>
+        <v>12557</v>
       </c>
       <c r="D833" s="13"/>
       <c r="E833" s="13"/>
@@ -87834,13 +87887,13 @@
     </row>
     <row r="834" spans="1:20" ht="13.5" customHeight="1">
       <c r="A834" s="13" t="s">
-        <v>12500</v>
+        <v>12489</v>
       </c>
       <c r="B834" s="43" t="s">
-        <v>12501</v>
+        <v>12490</v>
       </c>
       <c r="C834" s="40" t="s">
-        <v>12502</v>
+        <v>12491</v>
       </c>
       <c r="D834" s="13"/>
       <c r="E834" s="13"/>
@@ -87857,60 +87910,60 @@
     </row>
     <row r="835" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A835" s="43" t="s">
+        <v>12492</v>
+      </c>
+      <c r="B835" s="43" t="s">
+        <v>12493</v>
+      </c>
+      <c r="C835" s="46" t="s">
+        <v>12494</v>
+      </c>
+      <c r="D835" s="43" t="s">
+        <v>12495</v>
+      </c>
+      <c r="E835" s="45" t="s">
+        <v>12496</v>
+      </c>
+      <c r="K835" s="43" t="s">
+        <v>12497</v>
+      </c>
+      <c r="L835" s="14" t="s">
+        <v>12498</v>
+      </c>
+      <c r="M835" s="44" t="s">
+        <v>12499</v>
+      </c>
+      <c r="N835" s="47" t="s">
+        <v>12500</v>
+      </c>
+      <c r="O835" s="7" t="s">
+        <v>12501</v>
+      </c>
+      <c r="P835" s="48" t="s">
+        <v>12502</v>
+      </c>
+      <c r="Q835" s="16" t="s">
         <v>12503</v>
       </c>
-      <c r="B835" s="43" t="s">
+      <c r="R835" s="7" t="s">
+        <v>12503</v>
+      </c>
+      <c r="S835" s="7" t="s">
         <v>12504</v>
       </c>
-      <c r="C835" s="46" t="s">
-        <v>12505</v>
-      </c>
-      <c r="D835" s="43" t="s">
-        <v>12506</v>
-      </c>
-      <c r="E835" s="45" t="s">
-        <v>12507</v>
-      </c>
-      <c r="K835" s="43" t="s">
-        <v>12508</v>
-      </c>
-      <c r="L835" s="14" t="s">
-        <v>12509</v>
-      </c>
-      <c r="M835" s="44" t="s">
-        <v>12510</v>
-      </c>
-      <c r="N835" s="47" t="s">
-        <v>12511</v>
-      </c>
-      <c r="O835" s="7" t="s">
-        <v>12512</v>
-      </c>
-      <c r="P835" s="48" t="s">
-        <v>12513</v>
-      </c>
-      <c r="Q835" s="16" t="s">
-        <v>12514</v>
-      </c>
-      <c r="R835" s="7" t="s">
-        <v>12514</v>
-      </c>
-      <c r="S835" s="7" t="s">
-        <v>12515</v>
-      </c>
       <c r="T835" s="7" t="s">
-        <v>12503</v>
+        <v>12492</v>
       </c>
     </row>
     <row r="836" spans="1:20" ht="13.5" customHeight="1">
       <c r="A836" s="13" t="s">
-        <v>12517</v>
+        <v>12506</v>
       </c>
       <c r="B836" s="43" t="s">
-        <v>12519</v>
+        <v>12508</v>
       </c>
       <c r="C836" s="44" t="s">
-        <v>12520</v>
+        <v>12509</v>
       </c>
       <c r="D836" s="13"/>
       <c r="E836" s="13"/>
@@ -87927,13 +87980,13 @@
     </row>
     <row r="837" spans="1:20" ht="13.5" customHeight="1">
       <c r="A837" s="13" t="s">
-        <v>12548</v>
+        <v>12537</v>
       </c>
       <c r="B837" s="43" t="s">
-        <v>12556</v>
+        <v>12545</v>
       </c>
       <c r="C837" s="40" t="s">
-        <v>12561</v>
+        <v>12550</v>
       </c>
       <c r="D837" s="13"/>
       <c r="E837" s="13"/>
@@ -87950,13 +88003,13 @@
     </row>
     <row r="838" spans="1:20" ht="13.5" customHeight="1">
       <c r="A838" s="13" t="s">
-        <v>12549</v>
+        <v>12538</v>
       </c>
       <c r="B838" s="43" t="s">
-        <v>12557</v>
+        <v>12546</v>
       </c>
       <c r="C838" s="40" t="s">
-        <v>12562</v>
+        <v>12551</v>
       </c>
       <c r="D838" s="13"/>
       <c r="E838" s="13"/>
@@ -87973,13 +88026,13 @@
     </row>
     <row r="839" spans="1:20" ht="13.5" customHeight="1">
       <c r="A839" s="13" t="s">
-        <v>12550</v>
+        <v>12539</v>
       </c>
       <c r="B839" s="43" t="s">
-        <v>12558</v>
+        <v>12547</v>
       </c>
       <c r="C839" s="40" t="s">
-        <v>12563</v>
+        <v>12552</v>
       </c>
       <c r="D839" s="13"/>
       <c r="E839" s="13"/>
@@ -87996,13 +88049,13 @@
     </row>
     <row r="840" spans="1:20" ht="13.5" customHeight="1">
       <c r="A840" s="13" t="s">
-        <v>12551</v>
+        <v>12540</v>
       </c>
       <c r="B840" s="43" t="s">
-        <v>12559</v>
+        <v>12548</v>
       </c>
       <c r="C840" s="40" t="s">
-        <v>12564</v>
+        <v>12553</v>
       </c>
       <c r="D840" s="13"/>
       <c r="E840" s="13"/>
@@ -88019,13 +88072,13 @@
     </row>
     <row r="841" spans="1:20" ht="13.5" customHeight="1">
       <c r="A841" s="13" t="s">
-        <v>12552</v>
+        <v>12541</v>
       </c>
       <c r="B841" s="43" t="s">
-        <v>12560</v>
+        <v>12549</v>
       </c>
       <c r="C841" s="40" t="s">
-        <v>12565</v>
+        <v>12554</v>
       </c>
       <c r="D841" s="13"/>
       <c r="E841" s="13"/>
@@ -88042,13 +88095,13 @@
     </row>
     <row r="842" spans="1:20" ht="13.5" customHeight="1">
       <c r="A842" s="20" t="s">
-        <v>12553</v>
+        <v>12542</v>
       </c>
       <c r="B842" s="43" t="s">
+        <v>12544</v>
+      </c>
+      <c r="C842" s="40" t="s">
         <v>12555</v>
-      </c>
-      <c r="C842" s="40" t="s">
-        <v>12566</v>
       </c>
       <c r="D842" s="13"/>
       <c r="E842" s="13"/>
@@ -88065,13 +88118,13 @@
     </row>
     <row r="843" spans="1:20" ht="13.5" customHeight="1">
       <c r="A843" s="43" t="s">
-        <v>12573</v>
+        <v>12562</v>
       </c>
       <c r="B843" s="43" t="s">
-        <v>12574</v>
+        <v>12563</v>
       </c>
       <c r="C843" s="40" t="s">
-        <v>12581</v>
+        <v>12570</v>
       </c>
       <c r="D843" s="13"/>
       <c r="E843" s="13"/>
@@ -88088,13 +88141,13 @@
     </row>
     <row r="844" spans="1:20" ht="13.5" customHeight="1">
       <c r="A844" s="43" t="s">
-        <v>12570</v>
+        <v>12559</v>
       </c>
       <c r="B844" s="43" t="s">
-        <v>12575</v>
+        <v>12564</v>
       </c>
       <c r="C844" s="40" t="s">
-        <v>12582</v>
+        <v>12571</v>
       </c>
       <c r="D844" s="13"/>
       <c r="E844" s="13"/>
@@ -88111,13 +88164,13 @@
     </row>
     <row r="845" spans="1:20" ht="13.5" customHeight="1">
       <c r="A845" s="43" t="s">
-        <v>12576</v>
+        <v>12565</v>
       </c>
       <c r="B845" s="43" t="s">
-        <v>12577</v>
+        <v>12566</v>
       </c>
       <c r="C845" s="40" t="s">
-        <v>12583</v>
+        <v>12572</v>
       </c>
       <c r="D845" s="13"/>
       <c r="E845" s="13"/>
@@ -88134,13 +88187,13 @@
     </row>
     <row r="846" spans="1:20" ht="13.5" customHeight="1">
       <c r="A846" s="13" t="s">
-        <v>12571</v>
+        <v>12560</v>
       </c>
       <c r="B846" s="43" t="s">
-        <v>12578</v>
+        <v>12567</v>
       </c>
       <c r="C846" s="40" t="s">
-        <v>12584</v>
+        <v>12573</v>
       </c>
       <c r="D846" s="13"/>
       <c r="E846" s="13"/>
@@ -88157,13 +88210,13 @@
     </row>
     <row r="847" spans="1:20" ht="13.5" customHeight="1">
       <c r="A847" s="13" t="s">
-        <v>12572</v>
+        <v>12561</v>
       </c>
       <c r="B847" s="43" t="s">
-        <v>12580</v>
+        <v>12569</v>
       </c>
       <c r="C847" s="40" t="s">
-        <v>12579</v>
+        <v>12568</v>
       </c>
       <c r="D847" s="13"/>
       <c r="E847" s="13"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14740" uniqueCount="12603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14751" uniqueCount="12603">
   <si>
     <t>zh_CN</t>
   </si>
@@ -37326,36 +37326,6 @@
   </si>
   <si>
     <t>ustaw serwo pin %n kąt %d.servovalue</t>
-  </si>
-  <si>
-    <t>touch sensor %d.normalPort</t>
-  </si>
-  <si>
-    <t>触摸传感器 %d.normalPort</t>
-  </si>
-  <si>
-    <t>觸摸感應器 %d.normalPort</t>
-  </si>
-  <si>
-    <t>capteur tactile %d.normalPort</t>
-  </si>
-  <si>
-    <t>sensor táctil %d.normalPort</t>
-  </si>
-  <si>
-    <t>aanraak sensor %d.normalPort</t>
-  </si>
-  <si>
-    <t>חישן מגע d.normalPort%</t>
-  </si>
-  <si>
-    <t>puuteandur %d.normalPort</t>
-  </si>
-  <si>
-    <t>snímač dotyku %d.normalPort</t>
-  </si>
-  <si>
-    <t>czujnik dotyku %d.normalPort</t>
   </si>
   <si>
     <t>button %d.blackPorts %m.button_key pressed</t>
@@ -40316,6 +40286,186 @@
   </si>
   <si>
     <t>kompas %d.whitePorts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>touch sensor %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>触摸传感器 %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>觸摸感應器 %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>capteur tactile %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sensor táctil %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>aanraak sensor %d.bluePorts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>חישן</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>מגע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>puuteandur %d.bluePorts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sníma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>č</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> dotyku %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>czujnik dotyku %d.bluePorts</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -40961,10 +41111,10 @@
   <dimension ref="A1:T1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="R773" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B821" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T800" sqref="T800"/>
+      <selection pane="bottomRight" activeCell="A848" sqref="A848:XFD848"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -41495,7 +41645,7 @@
         <v>132</v>
       </c>
       <c r="N9" s="50" t="s">
-        <v>12586</v>
+        <v>12576</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>133</v>
@@ -42992,7 +43142,7 @@
         <v>525</v>
       </c>
       <c r="N35" s="49" t="s">
-        <v>12532</v>
+        <v>12522</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>526</v>
@@ -45328,7 +45478,7 @@
     </row>
     <row r="77" spans="1:20" ht="13.5" customHeight="1">
       <c r="A77" s="45" t="s">
-        <v>12587</v>
+        <v>12577</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>1164</v>
@@ -45367,7 +45517,7 @@
         <v>1174</v>
       </c>
       <c r="N77" s="48" t="s">
-        <v>12589</v>
+        <v>12579</v>
       </c>
       <c r="O77" s="7" t="s">
         <v>1175</v>
@@ -45476,7 +45626,7 @@
         <v>1204</v>
       </c>
       <c r="N79" s="15" t="s">
-        <v>12582</v>
+        <v>12572</v>
       </c>
       <c r="O79" s="7" t="s">
         <v>1205</v>
@@ -46435,7 +46585,7 @@
         <v>1465</v>
       </c>
       <c r="N96" s="15" t="s">
-        <v>12581</v>
+        <v>12571</v>
       </c>
       <c r="O96" s="7" t="s">
         <v>1466</v>
@@ -47880,7 +48030,7 @@
         <v>1852</v>
       </c>
       <c r="N122" s="17" t="s">
-        <v>12529</v>
+        <v>12519</v>
       </c>
       <c r="O122" s="7" t="s">
         <v>1853</v>
@@ -49613,7 +49763,7 @@
         <v>2325</v>
       </c>
       <c r="N153" s="15" t="s">
-        <v>12578</v>
+        <v>12568</v>
       </c>
       <c r="O153" s="7" t="s">
         <v>2326</v>
@@ -49991,7 +50141,7 @@
         <v>2429</v>
       </c>
       <c r="N160" s="15" t="s">
-        <v>12575</v>
+        <v>12565</v>
       </c>
       <c r="O160" s="7" t="s">
         <v>2430</v>
@@ -50213,7 +50363,7 @@
         <v>2488</v>
       </c>
       <c r="N164" s="52" t="s">
-        <v>12531</v>
+        <v>12521</v>
       </c>
       <c r="O164" s="7" t="s">
         <v>2489</v>
@@ -51138,7 +51288,7 @@
         <v>2758</v>
       </c>
       <c r="N181" s="15" t="s">
-        <v>12579</v>
+        <v>12569</v>
       </c>
       <c r="O181" s="7" t="s">
         <v>2759</v>
@@ -52938,7 +53088,7 @@
         <v>3264</v>
       </c>
       <c r="N213" s="15" t="s">
-        <v>12580</v>
+        <v>12570</v>
       </c>
       <c r="O213" s="7" t="s">
         <v>3265</v>
@@ -55041,7 +55191,7 @@
         <v>3858</v>
       </c>
       <c r="N250" s="50" t="s">
-        <v>12533</v>
+        <v>12523</v>
       </c>
       <c r="O250" s="7" t="s">
         <v>3859</v>
@@ -55100,7 +55250,7 @@
         <v>3874</v>
       </c>
       <c r="N251" s="48" t="s">
-        <v>12574</v>
+        <v>12564</v>
       </c>
       <c r="O251" s="7" t="s">
         <v>3875</v>
@@ -56028,7 +56178,7 @@
         <v>4110</v>
       </c>
       <c r="N267" s="48" t="s">
-        <v>12585</v>
+        <v>12575</v>
       </c>
       <c r="O267" s="7" t="s">
         <v>4111</v>
@@ -57019,7 +57169,7 @@
         <v>4380</v>
       </c>
       <c r="N284" s="53" t="s">
-        <v>12534</v>
+        <v>12524</v>
       </c>
       <c r="O284" s="7" t="s">
         <v>4381</v>
@@ -59123,7 +59273,7 @@
         <v>4964</v>
       </c>
       <c r="N320" s="15" t="s">
-        <v>12583</v>
+        <v>12573</v>
       </c>
       <c r="O320" s="7" t="s">
         <v>4965</v>
@@ -62469,7 +62619,7 @@
         <v>5856</v>
       </c>
       <c r="N378" s="15" t="s">
-        <v>12576</v>
+        <v>12566</v>
       </c>
       <c r="O378" s="7" t="s">
         <v>5857</v>
@@ -62931,7 +63081,7 @@
         <v>5983</v>
       </c>
       <c r="N386" s="51" t="s">
-        <v>12530</v>
+        <v>12520</v>
       </c>
       <c r="O386" s="7" t="s">
         <v>5984</v>
@@ -70308,7 +70458,7 @@
     </row>
     <row r="515" spans="1:20" ht="13.5" customHeight="1">
       <c r="A515" s="45" t="s">
-        <v>12543</v>
+        <v>12533</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>568</v>
@@ -73600,7 +73750,7 @@
         <v>8909</v>
       </c>
       <c r="I571" s="45" t="s">
-        <v>12505</v>
+        <v>12495</v>
       </c>
       <c r="J571" s="2" t="s">
         <v>3496</v>
@@ -74335,7 +74485,7 @@
     </row>
     <row r="584" spans="1:20" ht="13.5" customHeight="1">
       <c r="A584" s="45" t="s">
-        <v>12536</v>
+        <v>12526</v>
       </c>
       <c r="B584" s="2" t="s">
         <v>9095</v>
@@ -74381,7 +74531,7 @@
         <v>9104</v>
       </c>
       <c r="Q584" s="16" t="s">
-        <v>12535</v>
+        <v>12525</v>
       </c>
       <c r="R584" s="7" t="s">
         <v>9105</v>
@@ -75891,7 +76041,7 @@
         <v>9486</v>
       </c>
       <c r="N610" s="15" t="s">
-        <v>12584</v>
+        <v>12574</v>
       </c>
       <c r="O610" s="7" t="s">
         <v>9487</v>
@@ -79881,7 +80031,7 @@
         <v>10452</v>
       </c>
       <c r="N677" s="15" t="s">
-        <v>12577</v>
+        <v>12567</v>
       </c>
       <c r="O677" s="7" t="s">
         <v>10453</v>
@@ -85192,7 +85342,7 @@
         <v>11794</v>
       </c>
       <c r="N775" s="47" t="s">
-        <v>12588</v>
+        <v>12578</v>
       </c>
       <c r="O775" s="7" t="s">
         <v>11795</v>
@@ -85752,61 +85902,61 @@
     </row>
     <row r="786" spans="1:20" ht="13.5" customHeight="1">
       <c r="A786" s="43" t="s">
+        <v>12500</v>
+      </c>
+      <c r="B786" s="43" t="s">
+        <v>12501</v>
+      </c>
+      <c r="C786" s="44" t="s">
+        <v>12502</v>
+      </c>
+      <c r="D786" s="43" t="s">
+        <v>12503</v>
+      </c>
+      <c r="E786" s="43" t="s">
+        <v>12504</v>
+      </c>
+      <c r="F786" s="45" t="s">
+        <v>12505</v>
+      </c>
+      <c r="G786" s="43" t="s">
+        <v>12506</v>
+      </c>
+      <c r="H786" s="45" t="s">
+        <v>12507</v>
+      </c>
+      <c r="I786" s="45" t="s">
+        <v>12508</v>
+      </c>
+      <c r="J786" s="45" t="s">
+        <v>12509</v>
+      </c>
+      <c r="K786" s="43" t="s">
         <v>12510</v>
       </c>
-      <c r="B786" s="43" t="s">
+      <c r="L786" s="4" t="s">
         <v>12511</v>
       </c>
-      <c r="C786" s="44" t="s">
+      <c r="M786" s="44" t="s">
         <v>12512</v>
       </c>
-      <c r="D786" s="43" t="s">
+      <c r="N786" s="47" t="s">
         <v>12513</v>
       </c>
-      <c r="E786" s="43" t="s">
+      <c r="O786" s="7" t="s">
         <v>12514</v>
       </c>
-      <c r="F786" s="45" t="s">
+      <c r="P786" s="44" t="s">
         <v>12515</v>
       </c>
-      <c r="G786" s="43" t="s">
+      <c r="Q786" s="16" t="s">
         <v>12516</v>
       </c>
-      <c r="H786" s="45" t="s">
+      <c r="R786" s="43" t="s">
         <v>12517</v>
       </c>
-      <c r="I786" s="45" t="s">
+      <c r="T786" s="7" t="s">
         <v>12518</v>
-      </c>
-      <c r="J786" s="45" t="s">
-        <v>12519</v>
-      </c>
-      <c r="K786" s="43" t="s">
-        <v>12520</v>
-      </c>
-      <c r="L786" s="4" t="s">
-        <v>12521</v>
-      </c>
-      <c r="M786" s="44" t="s">
-        <v>12522</v>
-      </c>
-      <c r="N786" s="47" t="s">
-        <v>12523</v>
-      </c>
-      <c r="O786" s="7" t="s">
-        <v>12524</v>
-      </c>
-      <c r="P786" s="44" t="s">
-        <v>12525</v>
-      </c>
-      <c r="Q786" s="16" t="s">
-        <v>12526</v>
-      </c>
-      <c r="R786" s="43" t="s">
-        <v>12527</v>
-      </c>
-      <c r="T786" s="7" t="s">
-        <v>12528</v>
       </c>
     </row>
     <row r="787" spans="1:20" ht="13.5" customHeight="1">
@@ -86141,7 +86291,7 @@
         <v>12060</v>
       </c>
       <c r="N792" s="47" t="s">
-        <v>12590</v>
+        <v>12580</v>
       </c>
       <c r="O792" s="7" t="s">
         <v>12061</v>
@@ -86512,17 +86662,17 @@
     </row>
     <row r="800" spans="1:20" ht="13.5" customHeight="1">
       <c r="A800" s="21" t="s">
-        <v>12591</v>
+        <v>12581</v>
       </c>
       <c r="B800" s="43" t="s">
-        <v>12592</v>
+        <v>12582</v>
       </c>
       <c r="C800" s="44" t="s">
-        <v>12593</v>
+        <v>12583</v>
       </c>
       <c r="D800" s="13"/>
       <c r="E800" s="21" t="s">
-        <v>12594</v>
+        <v>12584</v>
       </c>
       <c r="F800" s="13"/>
       <c r="G800" s="13"/>
@@ -86531,28 +86681,28 @@
       <c r="J800" s="13"/>
       <c r="K800" s="13"/>
       <c r="L800" s="14" t="s">
-        <v>12595</v>
+        <v>12585</v>
       </c>
       <c r="M800" s="35" t="s">
-        <v>12596</v>
+        <v>12586</v>
       </c>
       <c r="N800" s="48" t="s">
-        <v>12597</v>
+        <v>12587</v>
       </c>
       <c r="O800" s="7" t="s">
-        <v>12598</v>
+        <v>12588</v>
       </c>
       <c r="P800" s="44" t="s">
-        <v>12599</v>
+        <v>12589</v>
       </c>
       <c r="Q800" s="16" t="s">
-        <v>12600</v>
+        <v>12590</v>
       </c>
       <c r="R800" s="21" t="s">
-        <v>12601</v>
+        <v>12591</v>
       </c>
       <c r="T800" s="7" t="s">
-        <v>12602</v>
+        <v>12592</v>
       </c>
     </row>
     <row r="801" spans="1:20" ht="13.5" customHeight="1">
@@ -87541,21 +87691,21 @@
       </c>
     </row>
     <row r="820" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A820" s="8" t="s">
-        <v>12424</v>
-      </c>
-      <c r="B820" s="8" t="s">
-        <v>12425</v>
-      </c>
-      <c r="C820" s="30" t="s">
-        <v>12426</v>
+      <c r="A820" s="44" t="s">
+        <v>12593</v>
+      </c>
+      <c r="B820" s="44" t="s">
+        <v>12594</v>
+      </c>
+      <c r="C820" s="44" t="s">
+        <v>12595</v>
       </c>
       <c r="D820" s="13"/>
-      <c r="E820" s="8" t="s">
-        <v>12427</v>
-      </c>
-      <c r="F820" s="1" t="s">
-        <v>12428</v>
+      <c r="E820" s="44" t="s">
+        <v>12596</v>
+      </c>
+      <c r="F820" s="43" t="s">
+        <v>12597</v>
       </c>
       <c r="G820" s="13"/>
       <c r="H820" s="13"/>
@@ -87563,38 +87713,38 @@
       <c r="J820" s="13"/>
       <c r="K820" s="13"/>
       <c r="L820" s="37" t="s">
-        <v>12429</v>
+        <v>12598</v>
       </c>
       <c r="M820" s="13"/>
-      <c r="N820" s="15" t="s">
-        <v>12430</v>
+      <c r="N820" s="48" t="s">
+        <v>12599</v>
       </c>
       <c r="O820" s="7" t="s">
-        <v>12431</v>
-      </c>
-      <c r="Q820" s="8" t="s">
-        <v>12432</v>
-      </c>
-      <c r="R820" s="8" t="s">
-        <v>12424</v>
+        <v>12600</v>
+      </c>
+      <c r="Q820" s="44" t="s">
+        <v>12601</v>
+      </c>
+      <c r="R820" s="44" t="s">
+        <v>12593</v>
       </c>
       <c r="T820" s="7" t="s">
-        <v>12433</v>
+        <v>12602</v>
       </c>
     </row>
     <row r="821" spans="1:20" ht="13.5" customHeight="1">
       <c r="A821" s="8" t="s">
-        <v>12434</v>
+        <v>12424</v>
       </c>
       <c r="B821" s="8" t="s">
-        <v>12435</v>
+        <v>12425</v>
       </c>
       <c r="C821" s="3" t="s">
-        <v>12436</v>
+        <v>12426</v>
       </c>
       <c r="D821" s="13"/>
       <c r="E821" s="8" t="s">
-        <v>12437</v>
+        <v>12427</v>
       </c>
       <c r="F821" s="13"/>
       <c r="G821" s="13"/>
@@ -87603,105 +87753,105 @@
       <c r="J821" s="13"/>
       <c r="K821" s="13"/>
       <c r="L821" s="37" t="s">
-        <v>12438</v>
+        <v>12428</v>
       </c>
       <c r="M821" s="13"/>
       <c r="N821" s="17" t="s">
-        <v>12439</v>
+        <v>12429</v>
       </c>
       <c r="O821" s="7" t="s">
-        <v>12440</v>
+        <v>12430</v>
       </c>
       <c r="Q821" s="8" t="s">
-        <v>12441</v>
+        <v>12431</v>
       </c>
       <c r="R821" s="8" t="s">
-        <v>12442</v>
+        <v>12432</v>
       </c>
       <c r="T821" s="38" t="s">
-        <v>12443</v>
+        <v>12433</v>
       </c>
     </row>
     <row r="822" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A822" s="43" t="s">
+        <v>12434</v>
+      </c>
+      <c r="B822" s="43" t="s">
+        <v>12435</v>
+      </c>
+      <c r="C822" s="44" t="s">
+        <v>12436</v>
+      </c>
+      <c r="D822" s="43" t="s">
+        <v>12437</v>
+      </c>
+      <c r="E822" s="43" t="s">
+        <v>12438</v>
+      </c>
+      <c r="F822" s="43" t="s">
+        <v>12439</v>
+      </c>
+      <c r="G822" s="43" t="s">
+        <v>12440</v>
+      </c>
+      <c r="H822" s="45" t="s">
+        <v>12441</v>
+      </c>
+      <c r="I822" s="45" t="s">
+        <v>12442</v>
+      </c>
+      <c r="J822" s="45" t="s">
+        <v>12443</v>
+      </c>
+      <c r="K822" s="43" t="s">
+        <v>12443</v>
+      </c>
+      <c r="L822" s="45" t="s">
         <v>12444</v>
       </c>
-      <c r="B822" s="43" t="s">
+      <c r="M822" s="44" t="s">
         <v>12445</v>
       </c>
-      <c r="C822" s="44" t="s">
+      <c r="N822" s="45" t="s">
         <v>12446</v>
       </c>
-      <c r="D822" s="43" t="s">
+      <c r="O822" s="7" t="s">
         <v>12447</v>
       </c>
-      <c r="E822" s="43" t="s">
+      <c r="P822" s="44" t="s">
         <v>12448</v>
       </c>
-      <c r="F822" s="43" t="s">
+      <c r="Q822" s="16" t="s">
         <v>12449</v>
       </c>
-      <c r="G822" s="43" t="s">
+      <c r="R822" s="43" t="s">
         <v>12450</v>
       </c>
-      <c r="H822" s="45" t="s">
+      <c r="T822" s="7" t="s">
         <v>12451</v>
-      </c>
-      <c r="I822" s="45" t="s">
-        <v>12452</v>
-      </c>
-      <c r="J822" s="45" t="s">
-        <v>12453</v>
-      </c>
-      <c r="K822" s="43" t="s">
-        <v>12453</v>
-      </c>
-      <c r="L822" s="45" t="s">
-        <v>12454</v>
-      </c>
-      <c r="M822" s="44" t="s">
-        <v>12455</v>
-      </c>
-      <c r="N822" s="45" t="s">
-        <v>12456</v>
-      </c>
-      <c r="O822" s="7" t="s">
-        <v>12457</v>
-      </c>
-      <c r="P822" s="44" t="s">
-        <v>12458</v>
-      </c>
-      <c r="Q822" s="16" t="s">
-        <v>12459</v>
-      </c>
-      <c r="R822" s="43" t="s">
-        <v>12460</v>
-      </c>
-      <c r="T822" s="7" t="s">
-        <v>12461</v>
       </c>
     </row>
     <row r="823" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A823" s="44" t="s">
-        <v>12462</v>
+        <v>12452</v>
       </c>
       <c r="B823" s="43" t="s">
-        <v>12463</v>
+        <v>12453</v>
       </c>
       <c r="C823" s="43" t="s">
-        <v>12464</v>
+        <v>12454</v>
       </c>
       <c r="Q823" s="41"/>
     </row>
     <row r="824" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A824" s="43" t="s">
-        <v>12465</v>
+        <v>12455</v>
       </c>
       <c r="B824" s="43" t="s">
-        <v>12507</v>
+        <v>12497</v>
       </c>
       <c r="C824" s="44" t="s">
-        <v>12486</v>
+        <v>12476</v>
       </c>
       <c r="M824" s="40"/>
       <c r="O824" s="7"/>
@@ -87712,13 +87862,13 @@
     </row>
     <row r="825" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A825" s="43" t="s">
-        <v>12466</v>
+        <v>12456</v>
       </c>
       <c r="B825" s="43" t="s">
-        <v>12467</v>
+        <v>12457</v>
       </c>
       <c r="C825" s="44" t="s">
-        <v>12468</v>
+        <v>12458</v>
       </c>
       <c r="M825" s="40"/>
       <c r="O825" s="7"/>
@@ -87729,13 +87879,13 @@
     </row>
     <row r="826" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A826" s="43" t="s">
-        <v>12476</v>
+        <v>12466</v>
       </c>
       <c r="B826" s="43" t="s">
-        <v>12478</v>
+        <v>12468</v>
       </c>
       <c r="C826" s="44" t="s">
-        <v>12480</v>
+        <v>12470</v>
       </c>
       <c r="D826" s="43"/>
       <c r="E826" s="43"/>
@@ -87749,13 +87899,13 @@
     </row>
     <row r="827" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A827" s="43" t="s">
-        <v>12477</v>
+        <v>12467</v>
       </c>
       <c r="B827" s="43" t="s">
-        <v>12479</v>
+        <v>12469</v>
       </c>
       <c r="C827" s="44" t="s">
-        <v>12481</v>
+        <v>12471</v>
       </c>
       <c r="D827" s="43"/>
       <c r="E827" s="43"/>
@@ -87768,13 +87918,13 @@
     </row>
     <row r="828" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A828" s="20" t="s">
-        <v>12469</v>
+        <v>12459</v>
       </c>
       <c r="B828" s="43" t="s">
-        <v>12470</v>
+        <v>12460</v>
       </c>
       <c r="C828" s="44" t="s">
-        <v>12471</v>
+        <v>12461</v>
       </c>
       <c r="F828" s="18"/>
       <c r="H828" s="18"/>
@@ -87790,37 +87940,37 @@
     </row>
     <row r="829" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A829" s="43" t="s">
-        <v>12472</v>
+        <v>12462</v>
       </c>
       <c r="B829" s="43" t="s">
-        <v>12473</v>
+        <v>12463</v>
       </c>
       <c r="C829" s="43" t="s">
-        <v>12473</v>
+        <v>12463</v>
       </c>
       <c r="Q829" s="41"/>
     </row>
     <row r="830" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A830" s="43" t="s">
-        <v>12474</v>
+        <v>12464</v>
       </c>
       <c r="B830" s="43" t="s">
-        <v>12475</v>
+        <v>12465</v>
       </c>
       <c r="C830" s="43" t="s">
-        <v>12475</v>
+        <v>12465</v>
       </c>
       <c r="Q830" s="41"/>
     </row>
     <row r="831" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A831" s="45" t="s">
-        <v>12482</v>
+        <v>12472</v>
       </c>
       <c r="B831" s="43" t="s">
-        <v>12484</v>
+        <v>12474</v>
       </c>
       <c r="C831" s="44" t="s">
-        <v>12488</v>
+        <v>12478</v>
       </c>
       <c r="E831" s="18"/>
       <c r="F831" s="18"/>
@@ -87839,13 +87989,13 @@
     </row>
     <row r="832" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A832" s="45" t="s">
-        <v>12483</v>
+        <v>12473</v>
       </c>
       <c r="B832" s="43" t="s">
-        <v>12485</v>
+        <v>12475</v>
       </c>
       <c r="C832" s="44" t="s">
-        <v>12487</v>
+        <v>12477</v>
       </c>
       <c r="E832" s="18"/>
       <c r="F832" s="18"/>
@@ -87864,13 +88014,13 @@
     </row>
     <row r="833" spans="1:20" ht="13.5" customHeight="1">
       <c r="A833" s="43" t="s">
-        <v>12556</v>
+        <v>12546</v>
       </c>
       <c r="B833" s="43" t="s">
-        <v>12558</v>
+        <v>12548</v>
       </c>
       <c r="C833" s="44" t="s">
-        <v>12557</v>
+        <v>12547</v>
       </c>
       <c r="D833" s="13"/>
       <c r="E833" s="13"/>
@@ -87887,13 +88037,13 @@
     </row>
     <row r="834" spans="1:20" ht="13.5" customHeight="1">
       <c r="A834" s="13" t="s">
-        <v>12489</v>
+        <v>12479</v>
       </c>
       <c r="B834" s="43" t="s">
-        <v>12490</v>
+        <v>12480</v>
       </c>
       <c r="C834" s="40" t="s">
-        <v>12491</v>
+        <v>12481</v>
       </c>
       <c r="D834" s="13"/>
       <c r="E834" s="13"/>
@@ -87910,60 +88060,60 @@
     </row>
     <row r="835" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A835" s="43" t="s">
+        <v>12482</v>
+      </c>
+      <c r="B835" s="43" t="s">
+        <v>12483</v>
+      </c>
+      <c r="C835" s="46" t="s">
+        <v>12484</v>
+      </c>
+      <c r="D835" s="43" t="s">
+        <v>12485</v>
+      </c>
+      <c r="E835" s="45" t="s">
+        <v>12486</v>
+      </c>
+      <c r="K835" s="43" t="s">
+        <v>12487</v>
+      </c>
+      <c r="L835" s="14" t="s">
+        <v>12488</v>
+      </c>
+      <c r="M835" s="44" t="s">
+        <v>12489</v>
+      </c>
+      <c r="N835" s="47" t="s">
+        <v>12490</v>
+      </c>
+      <c r="O835" s="7" t="s">
+        <v>12491</v>
+      </c>
+      <c r="P835" s="48" t="s">
         <v>12492</v>
       </c>
-      <c r="B835" s="43" t="s">
+      <c r="Q835" s="16" t="s">
         <v>12493</v>
       </c>
-      <c r="C835" s="46" t="s">
+      <c r="R835" s="7" t="s">
+        <v>12493</v>
+      </c>
+      <c r="S835" s="7" t="s">
         <v>12494</v>
       </c>
-      <c r="D835" s="43" t="s">
-        <v>12495</v>
-      </c>
-      <c r="E835" s="45" t="s">
-        <v>12496</v>
-      </c>
-      <c r="K835" s="43" t="s">
-        <v>12497</v>
-      </c>
-      <c r="L835" s="14" t="s">
-        <v>12498</v>
-      </c>
-      <c r="M835" s="44" t="s">
-        <v>12499</v>
-      </c>
-      <c r="N835" s="47" t="s">
-        <v>12500</v>
-      </c>
-      <c r="O835" s="7" t="s">
-        <v>12501</v>
-      </c>
-      <c r="P835" s="48" t="s">
-        <v>12502</v>
-      </c>
-      <c r="Q835" s="16" t="s">
-        <v>12503</v>
-      </c>
-      <c r="R835" s="7" t="s">
-        <v>12503</v>
-      </c>
-      <c r="S835" s="7" t="s">
-        <v>12504</v>
-      </c>
       <c r="T835" s="7" t="s">
-        <v>12492</v>
+        <v>12482</v>
       </c>
     </row>
     <row r="836" spans="1:20" ht="13.5" customHeight="1">
       <c r="A836" s="13" t="s">
-        <v>12506</v>
+        <v>12496</v>
       </c>
       <c r="B836" s="43" t="s">
-        <v>12508</v>
+        <v>12498</v>
       </c>
       <c r="C836" s="44" t="s">
-        <v>12509</v>
+        <v>12499</v>
       </c>
       <c r="D836" s="13"/>
       <c r="E836" s="13"/>
@@ -87980,13 +88130,13 @@
     </row>
     <row r="837" spans="1:20" ht="13.5" customHeight="1">
       <c r="A837" s="13" t="s">
-        <v>12537</v>
+        <v>12527</v>
       </c>
       <c r="B837" s="43" t="s">
-        <v>12545</v>
+        <v>12535</v>
       </c>
       <c r="C837" s="40" t="s">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="D837" s="13"/>
       <c r="E837" s="13"/>
@@ -88003,13 +88153,13 @@
     </row>
     <row r="838" spans="1:20" ht="13.5" customHeight="1">
       <c r="A838" s="13" t="s">
-        <v>12538</v>
+        <v>12528</v>
       </c>
       <c r="B838" s="43" t="s">
-        <v>12546</v>
+        <v>12536</v>
       </c>
       <c r="C838" s="40" t="s">
-        <v>12551</v>
+        <v>12541</v>
       </c>
       <c r="D838" s="13"/>
       <c r="E838" s="13"/>
@@ -88026,13 +88176,13 @@
     </row>
     <row r="839" spans="1:20" ht="13.5" customHeight="1">
       <c r="A839" s="13" t="s">
-        <v>12539</v>
+        <v>12529</v>
       </c>
       <c r="B839" s="43" t="s">
-        <v>12547</v>
+        <v>12537</v>
       </c>
       <c r="C839" s="40" t="s">
-        <v>12552</v>
+        <v>12542</v>
       </c>
       <c r="D839" s="13"/>
       <c r="E839" s="13"/>
@@ -88049,13 +88199,13 @@
     </row>
     <row r="840" spans="1:20" ht="13.5" customHeight="1">
       <c r="A840" s="13" t="s">
-        <v>12540</v>
+        <v>12530</v>
       </c>
       <c r="B840" s="43" t="s">
-        <v>12548</v>
+        <v>12538</v>
       </c>
       <c r="C840" s="40" t="s">
-        <v>12553</v>
+        <v>12543</v>
       </c>
       <c r="D840" s="13"/>
       <c r="E840" s="13"/>
@@ -88072,13 +88222,13 @@
     </row>
     <row r="841" spans="1:20" ht="13.5" customHeight="1">
       <c r="A841" s="13" t="s">
-        <v>12541</v>
+        <v>12531</v>
       </c>
       <c r="B841" s="43" t="s">
-        <v>12549</v>
+        <v>12539</v>
       </c>
       <c r="C841" s="40" t="s">
-        <v>12554</v>
+        <v>12544</v>
       </c>
       <c r="D841" s="13"/>
       <c r="E841" s="13"/>
@@ -88095,13 +88245,13 @@
     </row>
     <row r="842" spans="1:20" ht="13.5" customHeight="1">
       <c r="A842" s="20" t="s">
-        <v>12542</v>
+        <v>12532</v>
       </c>
       <c r="B842" s="43" t="s">
-        <v>12544</v>
+        <v>12534</v>
       </c>
       <c r="C842" s="40" t="s">
-        <v>12555</v>
+        <v>12545</v>
       </c>
       <c r="D842" s="13"/>
       <c r="E842" s="13"/>
@@ -88118,13 +88268,13 @@
     </row>
     <row r="843" spans="1:20" ht="13.5" customHeight="1">
       <c r="A843" s="43" t="s">
-        <v>12562</v>
+        <v>12552</v>
       </c>
       <c r="B843" s="43" t="s">
-        <v>12563</v>
+        <v>12553</v>
       </c>
       <c r="C843" s="40" t="s">
-        <v>12570</v>
+        <v>12560</v>
       </c>
       <c r="D843" s="13"/>
       <c r="E843" s="13"/>
@@ -88141,13 +88291,13 @@
     </row>
     <row r="844" spans="1:20" ht="13.5" customHeight="1">
       <c r="A844" s="43" t="s">
-        <v>12559</v>
+        <v>12549</v>
       </c>
       <c r="B844" s="43" t="s">
-        <v>12564</v>
+        <v>12554</v>
       </c>
       <c r="C844" s="40" t="s">
-        <v>12571</v>
+        <v>12561</v>
       </c>
       <c r="D844" s="13"/>
       <c r="E844" s="13"/>
@@ -88164,13 +88314,13 @@
     </row>
     <row r="845" spans="1:20" ht="13.5" customHeight="1">
       <c r="A845" s="43" t="s">
-        <v>12565</v>
+        <v>12555</v>
       </c>
       <c r="B845" s="43" t="s">
-        <v>12566</v>
+        <v>12556</v>
       </c>
       <c r="C845" s="40" t="s">
-        <v>12572</v>
+        <v>12562</v>
       </c>
       <c r="D845" s="13"/>
       <c r="E845" s="13"/>
@@ -88187,13 +88337,13 @@
     </row>
     <row r="846" spans="1:20" ht="13.5" customHeight="1">
       <c r="A846" s="13" t="s">
-        <v>12560</v>
+        <v>12550</v>
       </c>
       <c r="B846" s="43" t="s">
-        <v>12567</v>
+        <v>12557</v>
       </c>
       <c r="C846" s="40" t="s">
-        <v>12573</v>
+        <v>12563</v>
       </c>
       <c r="D846" s="13"/>
       <c r="E846" s="13"/>
@@ -88210,13 +88360,13 @@
     </row>
     <row r="847" spans="1:20" ht="13.5" customHeight="1">
       <c r="A847" s="13" t="s">
-        <v>12561</v>
+        <v>12551</v>
       </c>
       <c r="B847" s="43" t="s">
-        <v>12569</v>
+        <v>12559</v>
       </c>
       <c r="C847" s="40" t="s">
-        <v>12568</v>
+        <v>12558</v>
       </c>
       <c r="D847" s="13"/>
       <c r="E847" s="13"/>
@@ -88231,22 +88381,40 @@
       <c r="N847" s="39"/>
       <c r="Q847" s="9"/>
     </row>
-    <row r="848" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A848" s="13"/>
-      <c r="B848" s="13"/>
-      <c r="C848" s="40"/>
-      <c r="D848" s="13"/>
-      <c r="E848" s="13"/>
-      <c r="F848" s="13"/>
-      <c r="G848" s="13"/>
-      <c r="H848" s="13"/>
-      <c r="I848" s="13"/>
-      <c r="J848" s="13"/>
-      <c r="K848" s="13"/>
-      <c r="L848" s="13"/>
-      <c r="M848" s="13"/>
-      <c r="N848" s="39"/>
-      <c r="Q848" s="9"/>
+    <row r="848" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A848" s="44" t="s">
+        <v>12593</v>
+      </c>
+      <c r="B848" s="44" t="s">
+        <v>12594</v>
+      </c>
+      <c r="C848" s="44" t="s">
+        <v>12595</v>
+      </c>
+      <c r="E848" s="44" t="s">
+        <v>12596</v>
+      </c>
+      <c r="F848" s="43" t="s">
+        <v>12597</v>
+      </c>
+      <c r="L848" s="37" t="s">
+        <v>12598</v>
+      </c>
+      <c r="N848" s="48" t="s">
+        <v>12599</v>
+      </c>
+      <c r="O848" s="7" t="s">
+        <v>12600</v>
+      </c>
+      <c r="Q848" s="44" t="s">
+        <v>12601</v>
+      </c>
+      <c r="R848" s="44" t="s">
+        <v>12593</v>
+      </c>
+      <c r="T848" s="7" t="s">
+        <v>12602</v>
+      </c>
     </row>
     <row r="849" spans="1:17" ht="13.5" customHeight="1">
       <c r="A849" s="13"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14751" uniqueCount="12603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14783" uniqueCount="12609">
   <si>
     <t>zh_CN</t>
   </si>
@@ -40387,6 +40387,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -40404,6 +40406,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> d.</t>
     </r>
@@ -40422,6 +40426,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>%</t>
     </r>
@@ -40449,6 +40455,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> dotyku %d.</t>
     </r>
@@ -40466,6 +40474,70 @@
   </si>
   <si>
     <t>czujnik dotyku %d.bluePorts</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>when</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> button %m.button_state</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n board </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>button %m.button_state</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>当板载按钮%m.button_state</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>板载按钮%m.button_state</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>當板載按鈕%m.button_state</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>板載按鈕%m.button_state</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -41111,10 +41183,10 @@
   <dimension ref="A1:T1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B821" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C816" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A848" sqref="A848:XFD848"/>
+      <selection pane="bottomRight" activeCell="C847" sqref="C847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -88416,41 +88488,107 @@
         <v>12602</v>
       </c>
     </row>
-    <row r="849" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A849" s="13"/>
-      <c r="B849" s="13"/>
-      <c r="C849" s="40"/>
-      <c r="D849" s="13"/>
-      <c r="E849" s="13"/>
-      <c r="F849" s="13"/>
-      <c r="G849" s="13"/>
-      <c r="H849" s="13"/>
-      <c r="I849" s="13"/>
-      <c r="J849" s="13"/>
-      <c r="K849" s="13"/>
-      <c r="L849" s="13"/>
-      <c r="M849" s="13"/>
-      <c r="N849" s="39"/>
-      <c r="Q849" s="9"/>
-    </row>
-    <row r="850" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A850" s="13"/>
-      <c r="B850" s="13"/>
-      <c r="C850" s="40"/>
-      <c r="D850" s="13"/>
-      <c r="E850" s="13"/>
-      <c r="F850" s="13"/>
-      <c r="G850" s="13"/>
-      <c r="H850" s="13"/>
-      <c r="I850" s="13"/>
-      <c r="J850" s="13"/>
-      <c r="K850" s="13"/>
-      <c r="L850" s="13"/>
-      <c r="M850" s="13"/>
-      <c r="N850" s="39"/>
-      <c r="Q850" s="9"/>
-    </row>
-    <row r="851" spans="1:17" ht="13.5" customHeight="1">
+    <row r="849" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A849" s="45" t="s">
+        <v>12603</v>
+      </c>
+      <c r="B849" s="43" t="s">
+        <v>12605</v>
+      </c>
+      <c r="C849" s="44" t="s">
+        <v>12607</v>
+      </c>
+      <c r="D849" s="20" t="s">
+        <v>11251</v>
+      </c>
+      <c r="E849" s="18" t="s">
+        <v>11252</v>
+      </c>
+      <c r="F849" s="18" t="s">
+        <v>11253</v>
+      </c>
+      <c r="G849" s="20" t="s">
+        <v>11254</v>
+      </c>
+      <c r="K849" s="20" t="s">
+        <v>11255</v>
+      </c>
+      <c r="L849" s="14" t="s">
+        <v>11256</v>
+      </c>
+      <c r="M849" s="40" t="s">
+        <v>11257</v>
+      </c>
+      <c r="N849" s="17" t="s">
+        <v>11258</v>
+      </c>
+      <c r="O849" s="7" t="s">
+        <v>11259</v>
+      </c>
+      <c r="P849" s="17" t="s">
+        <v>11260</v>
+      </c>
+      <c r="Q849" s="16" t="s">
+        <v>11261</v>
+      </c>
+      <c r="R849" s="7" t="s">
+        <v>11035</v>
+      </c>
+      <c r="T849" s="7" t="s">
+        <v>11262</v>
+      </c>
+    </row>
+    <row r="850" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A850" s="45" t="s">
+        <v>12604</v>
+      </c>
+      <c r="B850" s="43" t="s">
+        <v>12606</v>
+      </c>
+      <c r="C850" s="44" t="s">
+        <v>12608</v>
+      </c>
+      <c r="D850" s="20" t="s">
+        <v>11266</v>
+      </c>
+      <c r="E850" s="18" t="s">
+        <v>11267</v>
+      </c>
+      <c r="F850" s="18" t="s">
+        <v>11268</v>
+      </c>
+      <c r="G850" s="20" t="s">
+        <v>11254</v>
+      </c>
+      <c r="K850" s="20" t="s">
+        <v>11269</v>
+      </c>
+      <c r="L850" s="14" t="s">
+        <v>11270</v>
+      </c>
+      <c r="M850" s="40" t="s">
+        <v>11271</v>
+      </c>
+      <c r="N850" s="17" t="s">
+        <v>11272</v>
+      </c>
+      <c r="O850" s="7" t="s">
+        <v>11273</v>
+      </c>
+      <c r="P850" s="17" t="s">
+        <v>11274</v>
+      </c>
+      <c r="Q850" s="16" t="s">
+        <v>11275</v>
+      </c>
+      <c r="R850" s="18" t="s">
+        <v>11276</v>
+      </c>
+      <c r="T850" s="7" t="s">
+        <v>11277</v>
+      </c>
+    </row>
+    <row r="851" spans="1:20" ht="13.5" customHeight="1">
       <c r="A851" s="13"/>
       <c r="B851" s="13"/>
       <c r="C851" s="40"/>
@@ -88467,7 +88605,7 @@
       <c r="N851" s="39"/>
       <c r="Q851" s="9"/>
     </row>
-    <row r="852" spans="1:17" ht="13.5" customHeight="1">
+    <row r="852" spans="1:20" ht="13.5" customHeight="1">
       <c r="A852" s="13"/>
       <c r="B852" s="13"/>
       <c r="C852" s="40"/>
@@ -88484,7 +88622,7 @@
       <c r="N852" s="39"/>
       <c r="Q852" s="9"/>
     </row>
-    <row r="853" spans="1:17" ht="13.5" customHeight="1">
+    <row r="853" spans="1:20" ht="13.5" customHeight="1">
       <c r="A853" s="13"/>
       <c r="B853" s="13"/>
       <c r="C853" s="40"/>
@@ -88501,7 +88639,7 @@
       <c r="N853" s="39"/>
       <c r="Q853" s="9"/>
     </row>
-    <row r="854" spans="1:17" ht="13.5" customHeight="1">
+    <row r="854" spans="1:20" ht="13.5" customHeight="1">
       <c r="A854" s="13"/>
       <c r="B854" s="13"/>
       <c r="C854" s="40"/>
@@ -88518,7 +88656,7 @@
       <c r="N854" s="39"/>
       <c r="Q854" s="9"/>
     </row>
-    <row r="855" spans="1:17" ht="13.5" customHeight="1">
+    <row r="855" spans="1:20" ht="13.5" customHeight="1">
       <c r="A855" s="13"/>
       <c r="B855" s="13"/>
       <c r="C855" s="40"/>
@@ -88535,7 +88673,7 @@
       <c r="N855" s="39"/>
       <c r="Q855" s="9"/>
     </row>
-    <row r="856" spans="1:17" ht="13.5" customHeight="1">
+    <row r="856" spans="1:20" ht="13.5" customHeight="1">
       <c r="A856" s="13"/>
       <c r="B856" s="13"/>
       <c r="C856" s="40"/>
@@ -88552,7 +88690,7 @@
       <c r="N856" s="39"/>
       <c r="Q856" s="9"/>
     </row>
-    <row r="857" spans="1:17" ht="13.5" customHeight="1">
+    <row r="857" spans="1:20" ht="13.5" customHeight="1">
       <c r="A857" s="13"/>
       <c r="B857" s="13"/>
       <c r="C857" s="40"/>
@@ -88569,7 +88707,7 @@
       <c r="N857" s="39"/>
       <c r="Q857" s="9"/>
     </row>
-    <row r="858" spans="1:17" ht="13.5" customHeight="1">
+    <row r="858" spans="1:20" ht="13.5" customHeight="1">
       <c r="A858" s="13"/>
       <c r="B858" s="13"/>
       <c r="C858" s="40"/>
@@ -88586,7 +88724,7 @@
       <c r="N858" s="39"/>
       <c r="Q858" s="9"/>
     </row>
-    <row r="859" spans="1:17" ht="13.5" customHeight="1">
+    <row r="859" spans="1:20" ht="13.5" customHeight="1">
       <c r="A859" s="13"/>
       <c r="B859" s="13"/>
       <c r="C859" s="40"/>
@@ -88603,7 +88741,7 @@
       <c r="N859" s="39"/>
       <c r="Q859" s="9"/>
     </row>
-    <row r="860" spans="1:17" ht="13.5" customHeight="1">
+    <row r="860" spans="1:20" ht="13.5" customHeight="1">
       <c r="A860" s="13"/>
       <c r="B860" s="13"/>
       <c r="C860" s="40"/>
@@ -88620,7 +88758,7 @@
       <c r="N860" s="39"/>
       <c r="Q860" s="9"/>
     </row>
-    <row r="861" spans="1:17" ht="13.5" customHeight="1">
+    <row r="861" spans="1:20" ht="13.5" customHeight="1">
       <c r="A861" s="13"/>
       <c r="B861" s="13"/>
       <c r="C861" s="40"/>
@@ -88637,7 +88775,7 @@
       <c r="N861" s="39"/>
       <c r="Q861" s="9"/>
     </row>
-    <row r="862" spans="1:17" ht="13.5" customHeight="1">
+    <row r="862" spans="1:20" ht="13.5" customHeight="1">
       <c r="A862" s="13"/>
       <c r="B862" s="13"/>
       <c r="C862" s="40"/>
@@ -88654,7 +88792,7 @@
       <c r="N862" s="39"/>
       <c r="Q862" s="9"/>
     </row>
-    <row r="863" spans="1:17" ht="13.5" customHeight="1">
+    <row r="863" spans="1:20" ht="13.5" customHeight="1">
       <c r="A863" s="13"/>
       <c r="B863" s="13"/>
       <c r="C863" s="40"/>
@@ -88671,7 +88809,7 @@
       <c r="N863" s="39"/>
       <c r="Q863" s="9"/>
     </row>
-    <row r="864" spans="1:17" ht="13.5" customHeight="1">
+    <row r="864" spans="1:20" ht="13.5" customHeight="1">
       <c r="A864" s="13"/>
       <c r="B864" s="13"/>
       <c r="C864" s="40"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14783" uniqueCount="12609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14802" uniqueCount="12627">
   <si>
     <t>zh_CN</t>
   </si>
@@ -40495,6 +40495,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> button %m.button_state</t>
     </r>
@@ -40519,6 +40521,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>button %m.button_state</t>
     </r>
@@ -40538,6 +40542,652 @@
   </si>
   <si>
     <t>板載按鈕%m.button_state</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>set light sensor %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>light</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>Ports led as %d.switch</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>设置光线传感器%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lightPorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> LED状态为 %d.switch</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>設置光線感應器%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lightPorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> LED狀態為 %d.switch</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>setta il led del sensore di luce %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lightPorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> come %d.switch</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>régler le détecteur de lumière du %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lightPorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> sur %d.switch</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fijar LED del sesnor de sonidos%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lightPorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> a %d.switch</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>라이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>센서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lightPorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>동작상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> %d.switch</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sæt lyssensor %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lightPorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> LED til %d.switch</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>установить датчик света %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lightPorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> LED как %d.switch</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>明るさセンサー%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lightPorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> LED %d.switch にする</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>wijzig licht sensor op %d.lightPorts LED naar %d.switch</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>setze Licht-Sensor %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lightPorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> LED %d.switch</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>קבע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ערך</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>חיישן</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>אור</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lightPorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>לד</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> d.switch%</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>pane valgusanduri %d.lightPorts valgusdioodi olekuks %d.switch</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ı</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ş</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ı</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>k alg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ı</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>lay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ı</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ı</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lightPorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> 'n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ı</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>n LED'ini %d.switch 'e ayarla</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>nastav snímač osvětlení %d.lightPorts LED na %d.switch</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sätt ljussensor %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lightPorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve"> LED till %d.switch</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ustaw led na czujniku swiat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ł</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a  %d.lightPorts na %d.switch</t>
+    </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -40545,7 +41195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -40728,6 +41378,12 @@
       <color rgb="FF1F497D"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -41183,10 +41839,10 @@
   <dimension ref="A1:T1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C816" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="S838" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C847" sqref="C847"/>
+      <selection pane="bottomRight" activeCell="V851" sqref="V851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -41209,7 +41865,7 @@
     <col min="17" max="17" width="74.75" customWidth="1"/>
     <col min="18" max="18" width="56.25" customWidth="1"/>
     <col min="19" max="19" width="48" customWidth="1"/>
-    <col min="20" max="20" width="36.375" customWidth="1"/>
+    <col min="20" max="20" width="54.25" customWidth="1"/>
     <col min="21" max="25" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -88588,22 +89244,64 @@
         <v>11277</v>
       </c>
     </row>
-    <row r="851" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A851" s="13"/>
-      <c r="B851" s="13"/>
-      <c r="C851" s="40"/>
-      <c r="D851" s="13"/>
-      <c r="E851" s="13"/>
-      <c r="F851" s="13"/>
-      <c r="G851" s="13"/>
-      <c r="H851" s="13"/>
-      <c r="I851" s="13"/>
-      <c r="J851" s="13"/>
-      <c r="K851" s="13"/>
-      <c r="L851" s="13"/>
-      <c r="M851" s="13"/>
-      <c r="N851" s="39"/>
-      <c r="Q851" s="9"/>
+    <row r="851" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A851" s="43" t="s">
+        <v>12609</v>
+      </c>
+      <c r="B851" s="43" t="s">
+        <v>12610</v>
+      </c>
+      <c r="C851" s="44" t="s">
+        <v>12611</v>
+      </c>
+      <c r="D851" s="43" t="s">
+        <v>12612</v>
+      </c>
+      <c r="E851" s="43" t="s">
+        <v>12613</v>
+      </c>
+      <c r="F851" s="45" t="s">
+        <v>12614</v>
+      </c>
+      <c r="G851" s="43" t="s">
+        <v>12615</v>
+      </c>
+      <c r="H851" s="45" t="s">
+        <v>12616</v>
+      </c>
+      <c r="I851" s="45" t="s">
+        <v>12617</v>
+      </c>
+      <c r="J851" s="45" t="s">
+        <v>12618</v>
+      </c>
+      <c r="K851" s="45" t="s">
+        <v>12618</v>
+      </c>
+      <c r="L851" s="4" t="s">
+        <v>12619</v>
+      </c>
+      <c r="M851" s="44" t="s">
+        <v>12620</v>
+      </c>
+      <c r="N851" s="47" t="s">
+        <v>12621</v>
+      </c>
+      <c r="O851" s="7" t="s">
+        <v>12622</v>
+      </c>
+      <c r="P851" s="44" t="s">
+        <v>12623</v>
+      </c>
+      <c r="Q851" s="16" t="s">
+        <v>12624</v>
+      </c>
+      <c r="R851" s="43" t="s">
+        <v>12625</v>
+      </c>
+      <c r="T851" s="7" t="s">
+        <v>12626</v>
+      </c>
     </row>
     <row r="852" spans="1:20" ht="13.5" customHeight="1">
       <c r="A852" s="13"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14802" uniqueCount="12627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14820" uniqueCount="12645">
   <si>
     <t>zh_CN</t>
   </si>
@@ -40563,6 +40563,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>Ports led as %d.switch</t>
     </r>
@@ -40587,6 +40589,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> LED状态为 %d.switch</t>
     </r>
@@ -40611,6 +40615,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> LED狀態為 %d.switch</t>
     </r>
@@ -40635,6 +40641,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> come %d.switch</t>
     </r>
@@ -40659,6 +40667,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> sur %d.switch</t>
     </r>
@@ -40683,6 +40693,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> a %d.switch</t>
     </r>
@@ -40704,6 +40716,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -40722,6 +40736,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -40740,6 +40756,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>%d.</t>
     </r>
@@ -40758,6 +40776,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -40776,6 +40796,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> %d.switch</t>
     </r>
@@ -40800,6 +40822,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> LED til %d.switch</t>
     </r>
@@ -40824,6 +40848,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> LED как %d.switch</t>
     </r>
@@ -40848,6 +40874,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> LED %d.switch にする</t>
     </r>
@@ -40876,6 +40904,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> LED %d.switch</t>
     </r>
@@ -40896,6 +40926,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -40913,6 +40945,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -40930,6 +40964,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -40947,6 +40983,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> d.</t>
     </r>
@@ -40965,6 +41003,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">% </t>
     </r>
@@ -40982,6 +41022,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -40999,6 +41041,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> d.switch%</t>
     </r>
@@ -41043,6 +41087,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>k alg</t>
     </r>
@@ -41061,6 +41107,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>lay</t>
     </r>
@@ -41079,6 +41127,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>c</t>
     </r>
@@ -41097,6 +41147,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> %d.</t>
     </r>
@@ -41115,6 +41167,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 'n</t>
     </r>
@@ -41133,6 +41187,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>n LED'ini %d.switch 'e ayarla</t>
     </r>
@@ -41161,6 +41217,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> LED till %d.switch</t>
     </r>
@@ -41187,6 +41245,565 @@
         <charset val="134"/>
       </rPr>
       <t>a  %d.lightPorts na %d.switch</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>set camera shutter %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>blue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Port</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> as %d.shutter</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>设置相机快门%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 状态为%d.shutter</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>設置相機快門%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 狀態為%d.shutter</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>setta l'otturatore della camera %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a %d.shutter</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mettre l'obturateur du %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> en mode %d.shutter</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fijar shutter de cámara%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d.bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a %d.shutter</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>카메라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>셔터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%d.shutter</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sæt kameralukker %d.bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> til %d.shutter</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Установка затвора камеры %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d.bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> как %d.shutter</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>カメラのシャッター%d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> を%d.digital にする</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>wijzig camera op %d.bluePorts : %d.shutter</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>setze Camera-Shutter %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> auf %d.shutter</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>קבע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>צמצם</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>מצלמה</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>לפי</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> d.shutter%</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>pane fotokaamera %d.bluePorts katiku olekuks %d.shutter</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>kamera perdesi %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 'iyi %d.shutter 'e ayarla</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>nastav závěrku kamery %d.bluePorts na %d.shutter</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sätt kamerans slutare %d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bluePorts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> as %d.shutter</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ustaw migawk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ę</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> aparatu %d.bluePorts na %d.shutter</t>
     </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -41842,7 +42459,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="S838" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V851" sqref="V851"/>
+      <selection pane="bottomRight" activeCell="A852" sqref="A852:XFD852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -89303,22 +89920,61 @@
         <v>12626</v>
       </c>
     </row>
-    <row r="852" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A852" s="13"/>
-      <c r="B852" s="13"/>
-      <c r="C852" s="40"/>
-      <c r="D852" s="13"/>
-      <c r="E852" s="13"/>
-      <c r="F852" s="13"/>
-      <c r="G852" s="13"/>
-      <c r="H852" s="13"/>
-      <c r="I852" s="13"/>
-      <c r="J852" s="13"/>
-      <c r="K852" s="13"/>
-      <c r="L852" s="13"/>
-      <c r="M852" s="13"/>
-      <c r="N852" s="39"/>
-      <c r="Q852" s="9"/>
+    <row r="852" spans="1:20" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A852" s="43" t="s">
+        <v>12627</v>
+      </c>
+      <c r="B852" s="43" t="s">
+        <v>12628</v>
+      </c>
+      <c r="C852" s="44" t="s">
+        <v>12629</v>
+      </c>
+      <c r="D852" s="43" t="s">
+        <v>12630</v>
+      </c>
+      <c r="E852" s="43" t="s">
+        <v>12631</v>
+      </c>
+      <c r="F852" s="45" t="s">
+        <v>12632</v>
+      </c>
+      <c r="G852" s="43" t="s">
+        <v>12633</v>
+      </c>
+      <c r="H852" s="45" t="s">
+        <v>12634</v>
+      </c>
+      <c r="I852" s="45" t="s">
+        <v>12635</v>
+      </c>
+      <c r="K852" s="45" t="s">
+        <v>12636</v>
+      </c>
+      <c r="L852" s="4" t="s">
+        <v>12637</v>
+      </c>
+      <c r="M852" s="44" t="s">
+        <v>12638</v>
+      </c>
+      <c r="N852" s="47" t="s">
+        <v>12639</v>
+      </c>
+      <c r="O852" s="7" t="s">
+        <v>12640</v>
+      </c>
+      <c r="P852" s="44" t="s">
+        <v>12641</v>
+      </c>
+      <c r="Q852" s="16" t="s">
+        <v>12642</v>
+      </c>
+      <c r="R852" s="43" t="s">
+        <v>12643</v>
+      </c>
+      <c r="T852" s="7" t="s">
+        <v>12644</v>
+      </c>
     </row>
     <row r="853" spans="1:20" ht="13.5" customHeight="1">
       <c r="A853" s="13"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -41971,6 +41971,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>תוכנת</t>
     </r>
     <r>
@@ -41988,6 +41994,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>MegaPi Program</t>
     </r>
     <r>
@@ -42019,19 +42031,19 @@
     <t>set encoder motor%d.exMotorPort speed %d.motorvalue</t>
   </si>
   <si>
-    <t>设置板载编码电机 %d.exMotorPort 速度 %d.motorvalue</t>
-  </si>
-  <si>
-    <t>設置板載編碼電機 %d.exMotorPort 速度 %d.motorvalue</t>
+    <t>设置编码电机 %d.exMotorPort 速度 %d.motorvalue</t>
+  </si>
+  <si>
+    <t>設置編碼電機 %d.exMotorPort 速度 %d.motorvalue</t>
   </si>
   <si>
     <t>encoder motor %d.exMotorPort %d.encoderValue</t>
   </si>
   <si>
-    <t>板载编码电机 %d.exMotorPort %d.encoderValue</t>
-  </si>
-  <si>
-    <t>板載編碼電機 %d.exMotorPort %d.encoderValue</t>
+    <t>编码电机 %d.exMotorPort %d.encoderValue</t>
+  </si>
+  <si>
+    <t>編碼電機 %d.exMotorPort %d.encoderValue</t>
   </si>
 </sst>
 </file>
@@ -42039,12 +42051,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -42084,12 +42096,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -42133,19 +42139,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -42153,15 +42146,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -42181,9 +42174,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -42197,8 +42197,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -42221,7 +42230,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -42229,14 +42260,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -42250,14 +42274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -42266,24 +42282,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -42337,12 +42337,6 @@
       <name val="Arial Unicode MS"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -42359,13 +42353,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -42377,31 +42377,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -42419,49 +42425,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -42479,31 +42467,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -42521,25 +42515,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -42568,11 +42562,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -42588,6 +42588,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -42609,29 +42629,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -42651,169 +42651,163 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -42849,50 +42843,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -43247,7 +43227,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C854" sqref="C854"/>
+      <selection pane="bottomRight" activeCell="C855" sqref="C855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -47473,7 +47453,7 @@
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="1" t="s">
         <v>1166</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -47512,7 +47492,7 @@
       <c r="M77" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="N77" s="19" t="s">
+      <c r="N77" s="9" t="s">
         <v>1178</v>
       </c>
       <c r="O77" s="6" t="s">
@@ -48387,7 +48367,7 @@
       <c r="Q93" s="15" t="s">
         <v>1436</v>
       </c>
-      <c r="R93" s="23" t="s">
+      <c r="R93" s="21" t="s">
         <v>1437</v>
       </c>
       <c r="T93" s="6" t="s">
@@ -48778,21 +48758,21 @@
       <c r="B101" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="17" t="s">
         <v>1537</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="L101" s="20"/>
+      <c r="L101" s="18"/>
       <c r="M101" s="13"/>
-      <c r="N101" s="21" t="s">
+      <c r="N101" s="19" t="s">
         <v>1536</v>
       </c>
-      <c r="P101" s="22" t="s">
+      <c r="P101" s="20" t="s">
         <v>1536</v>
       </c>
-      <c r="Q101" s="22" t="s">
+      <c r="Q101" s="20" t="s">
         <v>1536</v>
       </c>
       <c r="R101" s="1" t="s">
@@ -48801,7 +48781,7 @@
       <c r="S101" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="T101" s="24" t="s">
+      <c r="T101" s="22" t="s">
         <v>1536</v>
       </c>
     </row>
@@ -50478,7 +50458,7 @@
       <c r="Q132" s="15" t="s">
         <v>2009</v>
       </c>
-      <c r="R132" s="23" t="s">
+      <c r="R132" s="21" t="s">
         <v>2010</v>
       </c>
       <c r="T132" s="6" t="s">
@@ -52198,7 +52178,7 @@
       <c r="M164" s="2" t="s">
         <v>2497</v>
       </c>
-      <c r="N164" s="25" t="s">
+      <c r="N164" s="23" t="s">
         <v>2498</v>
       </c>
       <c r="O164" s="6" t="s">
@@ -56963,7 +56943,7 @@
       <c r="M251" s="2" t="s">
         <v>3887</v>
       </c>
-      <c r="N251" s="19" t="s">
+      <c r="N251" s="9" t="s">
         <v>3888</v>
       </c>
       <c r="O251" s="6" t="s">
@@ -57884,7 +57864,7 @@
       <c r="M267" s="2" t="s">
         <v>4124</v>
       </c>
-      <c r="N267" s="19" t="s">
+      <c r="N267" s="9" t="s">
         <v>4125</v>
       </c>
       <c r="O267" s="6" t="s">
@@ -58869,7 +58849,7 @@
       <c r="M284" s="2" t="s">
         <v>4395</v>
       </c>
-      <c r="N284" s="26" t="s">
+      <c r="N284" s="24" t="s">
         <v>4396</v>
       </c>
       <c r="O284" s="6" t="s">
@@ -64728,7 +64708,7 @@
       <c r="M386" s="2" t="s">
         <v>6001</v>
       </c>
-      <c r="N386" s="27" t="s">
+      <c r="N386" s="25" t="s">
         <v>6002</v>
       </c>
       <c r="O386" s="6" t="s">
@@ -72010,7 +71990,7 @@
       </c>
     </row>
     <row r="515" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A515" s="17" t="s">
+      <c r="A515" s="1" t="s">
         <v>8023</v>
       </c>
       <c r="B515" s="1" t="s">
@@ -75284,7 +75264,7 @@
       <c r="H571" s="1" t="s">
         <v>8929</v>
       </c>
-      <c r="I571" s="17" t="s">
+      <c r="I571" s="1" t="s">
         <v>3507</v>
       </c>
       <c r="J571" s="1" t="s">
@@ -76015,7 +75995,7 @@
       </c>
     </row>
     <row r="584" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A584" s="17" t="s">
+      <c r="A584" s="1" t="s">
         <v>9115</v>
       </c>
       <c r="B584" s="1" t="s">
@@ -83985,7 +83965,7 @@
       <c r="A725" s="1" t="s">
         <v>11150</v>
       </c>
-      <c r="B725" s="28" t="s">
+      <c r="B725" s="26" t="s">
         <v>11150</v>
       </c>
       <c r="C725" s="7"/>
@@ -84007,28 +83987,28 @@
       <c r="K725" s="1" t="s">
         <v>11151</v>
       </c>
-      <c r="L725" s="29" t="s">
+      <c r="L725" s="27" t="s">
         <v>11150</v>
       </c>
-      <c r="M725" s="18" t="s">
+      <c r="M725" s="17" t="s">
         <v>11151</v>
       </c>
-      <c r="N725" s="21" t="s">
+      <c r="N725" s="19" t="s">
         <v>11150</v>
       </c>
-      <c r="O725" s="24" t="s">
+      <c r="O725" s="22" t="s">
         <v>11150</v>
       </c>
-      <c r="P725" s="22" t="s">
+      <c r="P725" s="20" t="s">
         <v>11150</v>
       </c>
-      <c r="Q725" s="22" t="s">
+      <c r="Q725" s="20" t="s">
         <v>11150</v>
       </c>
       <c r="R725" s="1" t="s">
         <v>11150</v>
       </c>
-      <c r="T725" s="24" t="s">
+      <c r="T725" s="22" t="s">
         <v>11150</v>
       </c>
     </row>
@@ -86559,7 +86539,7 @@
       <c r="M775" s="2" t="s">
         <v>11818</v>
       </c>
-      <c r="N775" s="32" t="s">
+      <c r="N775" s="5" t="s">
         <v>11819</v>
       </c>
       <c r="O775" s="6" t="s">
@@ -86900,7 +86880,7 @@
       <c r="L782" s="4" t="s">
         <v>11923</v>
       </c>
-      <c r="M782" s="33" t="s">
+      <c r="M782" s="28" t="s">
         <v>11924</v>
       </c>
       <c r="N782" s="5" t="s">
@@ -87100,58 +87080,58 @@
       </c>
     </row>
     <row r="786" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A786" s="30" t="s">
+      <c r="A786" t="s">
         <v>11986</v>
       </c>
-      <c r="B786" s="30" t="s">
+      <c r="B786" t="s">
         <v>11987</v>
       </c>
-      <c r="C786" s="31" t="s">
+      <c r="C786" s="7" t="s">
         <v>11988</v>
       </c>
-      <c r="D786" s="30" t="s">
+      <c r="D786" t="s">
         <v>11989</v>
       </c>
-      <c r="E786" s="30" t="s">
+      <c r="E786" t="s">
         <v>11990</v>
       </c>
-      <c r="F786" s="17" t="s">
+      <c r="F786" s="1" t="s">
         <v>11991</v>
       </c>
-      <c r="G786" s="30" t="s">
+      <c r="G786" t="s">
         <v>11992</v>
       </c>
-      <c r="H786" s="17" t="s">
+      <c r="H786" s="1" t="s">
         <v>11993</v>
       </c>
-      <c r="I786" s="17" t="s">
+      <c r="I786" s="1" t="s">
         <v>11994</v>
       </c>
-      <c r="J786" s="17" t="s">
+      <c r="J786" s="1" t="s">
         <v>11995</v>
       </c>
-      <c r="K786" s="30" t="s">
+      <c r="K786" t="s">
         <v>11996</v>
       </c>
       <c r="L786" s="4" t="s">
         <v>11997</v>
       </c>
-      <c r="M786" s="31" t="s">
+      <c r="M786" s="7" t="s">
         <v>11998</v>
       </c>
-      <c r="N786" s="32" t="s">
+      <c r="N786" s="5" t="s">
         <v>11999</v>
       </c>
       <c r="O786" s="6" t="s">
         <v>12000</v>
       </c>
-      <c r="P786" s="31" t="s">
+      <c r="P786" s="7" t="s">
         <v>12001</v>
       </c>
       <c r="Q786" s="15" t="s">
         <v>12002</v>
       </c>
-      <c r="R786" s="30" t="s">
+      <c r="R786" t="s">
         <v>12003</v>
       </c>
       <c r="T786" s="6" t="s">
@@ -87487,7 +87467,7 @@
       <c r="M792" s="7" t="s">
         <v>12104</v>
       </c>
-      <c r="N792" s="32" t="s">
+      <c r="N792" s="5" t="s">
         <v>12105</v>
       </c>
       <c r="O792" s="6" t="s">
@@ -87830,10 +87810,10 @@
       <c r="A800" s="16" t="s">
         <v>12200</v>
       </c>
-      <c r="B800" s="30" t="s">
+      <c r="B800" t="s">
         <v>12201</v>
       </c>
-      <c r="C800" s="31" t="s">
+      <c r="C800" s="7" t="s">
         <v>12202</v>
       </c>
       <c r="E800" s="16" t="s">
@@ -87842,16 +87822,16 @@
       <c r="L800" s="10" t="s">
         <v>12204</v>
       </c>
-      <c r="M800" s="33" t="s">
+      <c r="M800" s="28" t="s">
         <v>12205</v>
       </c>
-      <c r="N800" s="19" t="s">
+      <c r="N800" s="9" t="s">
         <v>12206</v>
       </c>
       <c r="O800" s="6" t="s">
         <v>12207</v>
       </c>
-      <c r="P800" s="31" t="s">
+      <c r="P800" s="7" t="s">
         <v>12208</v>
       </c>
       <c r="Q800" s="15" t="s">
@@ -88394,7 +88374,7 @@
       <c r="P812" s="7" t="s">
         <v>12362</v>
       </c>
-      <c r="Q812" s="35" t="s">
+      <c r="Q812" s="30" t="s">
         <v>12363</v>
       </c>
       <c r="R812" t="s">
@@ -88782,34 +88762,34 @@
       </c>
     </row>
     <row r="820" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A820" s="31" t="s">
+      <c r="A820" s="7" t="s">
         <v>12481</v>
       </c>
-      <c r="B820" s="31" t="s">
+      <c r="B820" s="7" t="s">
         <v>12482</v>
       </c>
-      <c r="C820" s="31" t="s">
+      <c r="C820" s="7" t="s">
         <v>12483</v>
       </c>
-      <c r="E820" s="31" t="s">
+      <c r="E820" s="7" t="s">
         <v>12484</v>
       </c>
-      <c r="F820" s="30" t="s">
+      <c r="F820" t="s">
         <v>12485</v>
       </c>
-      <c r="L820" s="34" t="s">
+      <c r="L820" s="29" t="s">
         <v>12486</v>
       </c>
-      <c r="N820" s="19" t="s">
+      <c r="N820" s="9" t="s">
         <v>12487</v>
       </c>
       <c r="O820" s="6" t="s">
         <v>12488</v>
       </c>
-      <c r="Q820" s="31" t="s">
+      <c r="Q820" s="7" t="s">
         <v>12489</v>
       </c>
-      <c r="R820" s="31" t="s">
+      <c r="R820" s="7" t="s">
         <v>12481</v>
       </c>
       <c r="T820" s="6" t="s">
@@ -88829,7 +88809,7 @@
       <c r="E821" s="7" t="s">
         <v>12494</v>
       </c>
-      <c r="L821" s="34" t="s">
+      <c r="L821" s="29" t="s">
         <v>12495</v>
       </c>
       <c r="N821" s="9" t="s">
@@ -88844,63 +88824,63 @@
       <c r="R821" s="7" t="s">
         <v>12499</v>
       </c>
-      <c r="T821" s="36" t="s">
+      <c r="T821" s="31" t="s">
         <v>12500</v>
       </c>
     </row>
     <row r="822" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A822" s="30" t="s">
+      <c r="A822" t="s">
         <v>12501</v>
       </c>
-      <c r="B822" s="30" t="s">
+      <c r="B822" t="s">
         <v>12502</v>
       </c>
-      <c r="C822" s="31" t="s">
+      <c r="C822" s="7" t="s">
         <v>12503</v>
       </c>
-      <c r="D822" s="30" t="s">
+      <c r="D822" t="s">
         <v>12504</v>
       </c>
-      <c r="E822" s="30" t="s">
+      <c r="E822" t="s">
         <v>12505</v>
       </c>
-      <c r="F822" s="30" t="s">
+      <c r="F822" t="s">
         <v>12506</v>
       </c>
-      <c r="G822" s="30" t="s">
+      <c r="G822" t="s">
         <v>12507</v>
       </c>
-      <c r="H822" s="17" t="s">
+      <c r="H822" s="1" t="s">
         <v>12508</v>
       </c>
-      <c r="I822" s="17" t="s">
+      <c r="I822" s="1" t="s">
         <v>12509</v>
       </c>
-      <c r="J822" s="17" t="s">
+      <c r="J822" s="1" t="s">
         <v>12510</v>
       </c>
-      <c r="K822" s="30" t="s">
+      <c r="K822" t="s">
         <v>12510</v>
       </c>
-      <c r="L822" s="17" t="s">
+      <c r="L822" s="1" t="s">
         <v>12511</v>
       </c>
-      <c r="M822" s="31" t="s">
+      <c r="M822" s="7" t="s">
         <v>12512</v>
       </c>
-      <c r="N822" s="17" t="s">
+      <c r="N822" s="1" t="s">
         <v>12513</v>
       </c>
       <c r="O822" s="6" t="s">
         <v>12514</v>
       </c>
-      <c r="P822" s="31" t="s">
+      <c r="P822" s="7" t="s">
         <v>12515</v>
       </c>
       <c r="Q822" s="15" t="s">
         <v>12516</v>
       </c>
-      <c r="R822" s="30" t="s">
+      <c r="R822" t="s">
         <v>12517</v>
       </c>
       <c r="T822" s="6" t="s">
@@ -88908,25 +88888,25 @@
       </c>
     </row>
     <row r="823" customFormat="1" ht="13.5" customHeight="1" spans="1:17">
-      <c r="A823" s="31" t="s">
+      <c r="A823" s="7" t="s">
         <v>12519</v>
       </c>
-      <c r="B823" s="30" t="s">
+      <c r="B823" t="s">
         <v>12520</v>
       </c>
-      <c r="C823" s="30" t="s">
+      <c r="C823" t="s">
         <v>12521</v>
       </c>
       <c r="Q823" s="14"/>
     </row>
     <row r="824" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A824" s="30" t="s">
+      <c r="A824" t="s">
         <v>12522</v>
       </c>
-      <c r="B824" s="30" t="s">
+      <c r="B824" t="s">
         <v>12311</v>
       </c>
-      <c r="C824" s="31" t="s">
+      <c r="C824" s="7" t="s">
         <v>12312</v>
       </c>
       <c r="M824" s="7"/>
@@ -88937,13 +88917,13 @@
       <c r="T824" s="6"/>
     </row>
     <row r="825" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A825" s="30" t="s">
+      <c r="A825" t="s">
         <v>12523</v>
       </c>
-      <c r="B825" s="30" t="s">
+      <c r="B825" t="s">
         <v>12311</v>
       </c>
-      <c r="C825" s="31" t="s">
+      <c r="C825" s="7" t="s">
         <v>12312</v>
       </c>
       <c r="M825" s="7"/>
@@ -88954,18 +88934,15 @@
       <c r="T825" s="6"/>
     </row>
     <row r="826" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A826" s="30" t="s">
+      <c r="A826" t="s">
         <v>12524</v>
       </c>
-      <c r="B826" s="30" t="s">
+      <c r="B826" t="s">
         <v>12525</v>
       </c>
-      <c r="C826" s="31" t="s">
+      <c r="C826" s="7" t="s">
         <v>12526</v>
       </c>
-      <c r="D826" s="30"/>
-      <c r="E826" s="30"/>
-      <c r="G826" s="30"/>
       <c r="M826" s="7"/>
       <c r="O826" s="6"/>
       <c r="P826" s="7"/>
@@ -88974,17 +88951,15 @@
       <c r="T826" s="6"/>
     </row>
     <row r="827" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A827" s="30" t="s">
+      <c r="A827" t="s">
         <v>12527</v>
       </c>
-      <c r="B827" s="30" t="s">
+      <c r="B827" t="s">
         <v>12528</v>
       </c>
-      <c r="C827" s="31" t="s">
+      <c r="C827" s="7" t="s">
         <v>12529</v>
       </c>
-      <c r="D827" s="30"/>
-      <c r="E827" s="30"/>
       <c r="M827" s="7"/>
       <c r="O827" s="6"/>
       <c r="P827" s="7"/>
@@ -88996,10 +88971,10 @@
       <c r="A828" t="s">
         <v>12530</v>
       </c>
-      <c r="B828" s="30" t="s">
+      <c r="B828" t="s">
         <v>12531</v>
       </c>
-      <c r="C828" s="31" t="s">
+      <c r="C828" s="7" t="s">
         <v>12532</v>
       </c>
       <c r="F828" s="1"/>
@@ -89015,37 +88990,37 @@
       <c r="T828" s="6"/>
     </row>
     <row r="829" customFormat="1" ht="13.5" customHeight="1" spans="1:17">
-      <c r="A829" s="30" t="s">
+      <c r="A829" t="s">
         <v>12533</v>
       </c>
-      <c r="B829" s="30" t="s">
+      <c r="B829" t="s">
         <v>12534</v>
       </c>
-      <c r="C829" s="30" t="s">
+      <c r="C829" t="s">
         <v>12534</v>
       </c>
       <c r="Q829" s="14"/>
     </row>
     <row r="830" customFormat="1" ht="13.5" customHeight="1" spans="1:17">
-      <c r="A830" s="30" t="s">
+      <c r="A830" t="s">
         <v>12535</v>
       </c>
-      <c r="B830" s="30" t="s">
+      <c r="B830" t="s">
         <v>12536</v>
       </c>
-      <c r="C830" s="30" t="s">
+      <c r="C830" t="s">
         <v>12536</v>
       </c>
       <c r="Q830" s="14"/>
     </row>
     <row r="831" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A831" s="17" t="s">
+      <c r="A831" s="1" t="s">
         <v>12537</v>
       </c>
-      <c r="B831" s="30" t="s">
+      <c r="B831" t="s">
         <v>12538</v>
       </c>
-      <c r="C831" s="31" t="s">
+      <c r="C831" s="7" t="s">
         <v>12539</v>
       </c>
       <c r="E831" s="1"/>
@@ -89064,13 +89039,13 @@
       <c r="T831" s="6"/>
     </row>
     <row r="832" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A832" s="17" t="s">
+      <c r="A832" s="1" t="s">
         <v>12540</v>
       </c>
-      <c r="B832" s="30" t="s">
+      <c r="B832" t="s">
         <v>12541</v>
       </c>
-      <c r="C832" s="31" t="s">
+      <c r="C832" s="7" t="s">
         <v>12542</v>
       </c>
       <c r="E832" s="1"/>
@@ -89089,16 +89064,16 @@
       <c r="T832" s="6"/>
     </row>
     <row r="833" ht="13.5" customHeight="1" spans="1:17">
-      <c r="A833" s="30" t="s">
+      <c r="A833" t="s">
         <v>12543</v>
       </c>
-      <c r="B833" s="30" t="s">
+      <c r="B833" t="s">
         <v>12544</v>
       </c>
-      <c r="C833" s="31" t="s">
+      <c r="C833" s="7" t="s">
         <v>12545</v>
       </c>
-      <c r="L833" s="20"/>
+      <c r="L833" s="18"/>
       <c r="N833" s="14"/>
       <c r="Q833" s="14"/>
     </row>
@@ -89106,7 +89081,7 @@
       <c r="A834" t="s">
         <v>12546</v>
       </c>
-      <c r="B834" s="30" t="s">
+      <c r="B834" t="s">
         <v>12547</v>
       </c>
       <c r="C834" s="7" t="s">
@@ -89116,37 +89091,37 @@
       <c r="Q834" s="14"/>
     </row>
     <row r="835" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A835" s="30" t="s">
+      <c r="A835" t="s">
         <v>12549</v>
       </c>
-      <c r="B835" s="30" t="s">
+      <c r="B835" t="s">
         <v>12550</v>
       </c>
-      <c r="C835" s="37" t="s">
+      <c r="C835" s="2" t="s">
         <v>12551</v>
       </c>
-      <c r="D835" s="30" t="s">
+      <c r="D835" t="s">
         <v>12552</v>
       </c>
-      <c r="E835" s="17" t="s">
+      <c r="E835" s="1" t="s">
         <v>12553</v>
       </c>
-      <c r="K835" s="30" t="s">
+      <c r="K835" t="s">
         <v>12554</v>
       </c>
       <c r="L835" s="10" t="s">
         <v>12555</v>
       </c>
-      <c r="M835" s="31" t="s">
+      <c r="M835" s="7" t="s">
         <v>12556</v>
       </c>
-      <c r="N835" s="32" t="s">
+      <c r="N835" s="5" t="s">
         <v>12557</v>
       </c>
       <c r="O835" s="6" t="s">
         <v>12558</v>
       </c>
-      <c r="P835" s="19" t="s">
+      <c r="P835" s="9" t="s">
         <v>12559</v>
       </c>
       <c r="Q835" s="15" t="s">
@@ -89166,10 +89141,10 @@
       <c r="A836" t="s">
         <v>12562</v>
       </c>
-      <c r="B836" s="30" t="s">
+      <c r="B836" t="s">
         <v>12563</v>
       </c>
-      <c r="C836" s="31" t="s">
+      <c r="C836" s="7" t="s">
         <v>12564</v>
       </c>
       <c r="N836" s="14"/>
@@ -89179,7 +89154,7 @@
       <c r="A837" t="s">
         <v>12565</v>
       </c>
-      <c r="B837" s="30" t="s">
+      <c r="B837" t="s">
         <v>12566</v>
       </c>
       <c r="C837" s="7" t="s">
@@ -89192,7 +89167,7 @@
       <c r="A838" t="s">
         <v>12568</v>
       </c>
-      <c r="B838" s="30" t="s">
+      <c r="B838" t="s">
         <v>12569</v>
       </c>
       <c r="C838" s="7" t="s">
@@ -89205,7 +89180,7 @@
       <c r="A839" t="s">
         <v>12571</v>
       </c>
-      <c r="B839" s="30" t="s">
+      <c r="B839" t="s">
         <v>12572</v>
       </c>
       <c r="C839" s="7" t="s">
@@ -89218,7 +89193,7 @@
       <c r="A840" t="s">
         <v>12574</v>
       </c>
-      <c r="B840" s="30" t="s">
+      <c r="B840" t="s">
         <v>12575</v>
       </c>
       <c r="C840" s="7" t="s">
@@ -89231,7 +89206,7 @@
       <c r="A841" t="s">
         <v>12577</v>
       </c>
-      <c r="B841" s="30" t="s">
+      <c r="B841" t="s">
         <v>12578</v>
       </c>
       <c r="C841" s="7" t="s">
@@ -89244,7 +89219,7 @@
       <c r="A842" t="s">
         <v>12580</v>
       </c>
-      <c r="B842" s="30" t="s">
+      <c r="B842" t="s">
         <v>12581</v>
       </c>
       <c r="C842" s="7" t="s">
@@ -89254,10 +89229,10 @@
       <c r="Q842" s="14"/>
     </row>
     <row r="843" ht="13.5" customHeight="1" spans="1:17">
-      <c r="A843" s="30" t="s">
+      <c r="A843" t="s">
         <v>12583</v>
       </c>
-      <c r="B843" s="30" t="s">
+      <c r="B843" t="s">
         <v>12584</v>
       </c>
       <c r="C843" s="7" t="s">
@@ -89267,10 +89242,10 @@
       <c r="Q843" s="14"/>
     </row>
     <row r="844" ht="13.5" customHeight="1" spans="1:17">
-      <c r="A844" s="30" t="s">
+      <c r="A844" t="s">
         <v>12586</v>
       </c>
-      <c r="B844" s="30" t="s">
+      <c r="B844" t="s">
         <v>12587</v>
       </c>
       <c r="C844" s="7" t="s">
@@ -89280,10 +89255,10 @@
       <c r="Q844" s="14"/>
     </row>
     <row r="845" ht="13.5" customHeight="1" spans="1:17">
-      <c r="A845" s="30" t="s">
+      <c r="A845" t="s">
         <v>12589</v>
       </c>
-      <c r="B845" s="30" t="s">
+      <c r="B845" t="s">
         <v>12590</v>
       </c>
       <c r="C845" s="7" t="s">
@@ -89296,7 +89271,7 @@
       <c r="A846" t="s">
         <v>12592</v>
       </c>
-      <c r="B846" s="30" t="s">
+      <c r="B846" t="s">
         <v>12593</v>
       </c>
       <c r="C846" s="7" t="s">
@@ -89309,7 +89284,7 @@
       <c r="A847" t="s">
         <v>12595</v>
       </c>
-      <c r="B847" s="30" t="s">
+      <c r="B847" t="s">
         <v>12596</v>
       </c>
       <c r="C847" s="7" t="s">
@@ -89319,34 +89294,34 @@
       <c r="Q847" s="14"/>
     </row>
     <row r="848" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A848" s="31" t="s">
+      <c r="A848" s="7" t="s">
         <v>12481</v>
       </c>
-      <c r="B848" s="31" t="s">
+      <c r="B848" s="7" t="s">
         <v>12482</v>
       </c>
-      <c r="C848" s="31" t="s">
+      <c r="C848" s="7" t="s">
         <v>12483</v>
       </c>
-      <c r="E848" s="31" t="s">
+      <c r="E848" s="7" t="s">
         <v>12484</v>
       </c>
-      <c r="F848" s="30" t="s">
+      <c r="F848" t="s">
         <v>12485</v>
       </c>
-      <c r="L848" s="34" t="s">
+      <c r="L848" s="29" t="s">
         <v>12486</v>
       </c>
-      <c r="N848" s="19" t="s">
+      <c r="N848" s="9" t="s">
         <v>12487</v>
       </c>
       <c r="O848" s="6" t="s">
         <v>12488</v>
       </c>
-      <c r="Q848" s="31" t="s">
+      <c r="Q848" s="7" t="s">
         <v>12489</v>
       </c>
-      <c r="R848" s="31" t="s">
+      <c r="R848" s="7" t="s">
         <v>12481</v>
       </c>
       <c r="T848" s="6" t="s">
@@ -89354,13 +89329,13 @@
       </c>
     </row>
     <row r="849" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A849" s="17" t="s">
+      <c r="A849" s="1" t="s">
         <v>12597</v>
       </c>
-      <c r="B849" s="30" t="s">
+      <c r="B849" t="s">
         <v>12598</v>
       </c>
-      <c r="C849" s="31" t="s">
+      <c r="C849" s="7" t="s">
         <v>12599</v>
       </c>
       <c r="D849" t="s">
@@ -89404,13 +89379,13 @@
       </c>
     </row>
     <row r="850" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A850" s="17" t="s">
+      <c r="A850" s="1" t="s">
         <v>12600</v>
       </c>
-      <c r="B850" s="30" t="s">
+      <c r="B850" t="s">
         <v>12601</v>
       </c>
-      <c r="C850" s="31" t="s">
+      <c r="C850" s="7" t="s">
         <v>12602</v>
       </c>
       <c r="D850" t="s">
@@ -89454,58 +89429,58 @@
       </c>
     </row>
     <row r="851" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A851" s="30" t="s">
+      <c r="A851" t="s">
         <v>12603</v>
       </c>
-      <c r="B851" s="30" t="s">
+      <c r="B851" t="s">
         <v>12604</v>
       </c>
-      <c r="C851" s="31" t="s">
+      <c r="C851" s="7" t="s">
         <v>12605</v>
       </c>
-      <c r="D851" s="30" t="s">
+      <c r="D851" t="s">
         <v>12606</v>
       </c>
-      <c r="E851" s="30" t="s">
+      <c r="E851" t="s">
         <v>12607</v>
       </c>
-      <c r="F851" s="17" t="s">
+      <c r="F851" s="1" t="s">
         <v>12608</v>
       </c>
-      <c r="G851" s="30" t="s">
+      <c r="G851" t="s">
         <v>12609</v>
       </c>
-      <c r="H851" s="17" t="s">
+      <c r="H851" s="1" t="s">
         <v>12610</v>
       </c>
-      <c r="I851" s="17" t="s">
+      <c r="I851" s="1" t="s">
         <v>12611</v>
       </c>
-      <c r="J851" s="17" t="s">
+      <c r="J851" s="1" t="s">
         <v>12612</v>
       </c>
-      <c r="K851" s="17" t="s">
+      <c r="K851" s="1" t="s">
         <v>12612</v>
       </c>
       <c r="L851" s="4" t="s">
         <v>12613</v>
       </c>
-      <c r="M851" s="31" t="s">
+      <c r="M851" s="7" t="s">
         <v>12614</v>
       </c>
-      <c r="N851" s="32" t="s">
+      <c r="N851" s="5" t="s">
         <v>12615</v>
       </c>
       <c r="O851" s="6" t="s">
         <v>12616</v>
       </c>
-      <c r="P851" s="31" t="s">
+      <c r="P851" s="7" t="s">
         <v>12617</v>
       </c>
       <c r="Q851" s="15" t="s">
         <v>12618</v>
       </c>
-      <c r="R851" s="30" t="s">
+      <c r="R851" t="s">
         <v>12619</v>
       </c>
       <c r="T851" s="6" t="s">
@@ -89513,55 +89488,55 @@
       </c>
     </row>
     <row r="852" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A852" s="30" t="s">
+      <c r="A852" t="s">
         <v>12621</v>
       </c>
-      <c r="B852" s="30" t="s">
+      <c r="B852" t="s">
         <v>12622</v>
       </c>
-      <c r="C852" s="31" t="s">
+      <c r="C852" s="7" t="s">
         <v>12623</v>
       </c>
-      <c r="D852" s="30" t="s">
+      <c r="D852" t="s">
         <v>12624</v>
       </c>
-      <c r="E852" s="30" t="s">
+      <c r="E852" t="s">
         <v>12625</v>
       </c>
-      <c r="F852" s="17" t="s">
+      <c r="F852" s="1" t="s">
         <v>12626</v>
       </c>
-      <c r="G852" s="30" t="s">
+      <c r="G852" t="s">
         <v>12627</v>
       </c>
-      <c r="H852" s="17" t="s">
+      <c r="H852" s="1" t="s">
         <v>12628</v>
       </c>
-      <c r="I852" s="17" t="s">
+      <c r="I852" s="1" t="s">
         <v>12629</v>
       </c>
-      <c r="K852" s="17" t="s">
+      <c r="K852" s="1" t="s">
         <v>12630</v>
       </c>
       <c r="L852" s="4" t="s">
         <v>12631</v>
       </c>
-      <c r="M852" s="31" t="s">
+      <c r="M852" s="7" t="s">
         <v>12632</v>
       </c>
-      <c r="N852" s="32" t="s">
+      <c r="N852" s="5" t="s">
         <v>12633</v>
       </c>
       <c r="O852" s="6" t="s">
         <v>12634</v>
       </c>
-      <c r="P852" s="31" t="s">
+      <c r="P852" s="7" t="s">
         <v>12635</v>
       </c>
       <c r="Q852" s="15" t="s">
         <v>12636</v>
       </c>
-      <c r="R852" s="30" t="s">
+      <c r="R852" t="s">
         <v>12637</v>
       </c>
       <c r="T852" s="6" t="s">
@@ -89569,37 +89544,37 @@
       </c>
     </row>
     <row r="853" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
-      <c r="A853" s="30" t="s">
+      <c r="A853" t="s">
         <v>12639</v>
       </c>
-      <c r="B853" s="30" t="s">
+      <c r="B853" t="s">
         <v>12640</v>
       </c>
-      <c r="C853" s="37" t="s">
+      <c r="C853" s="2" t="s">
         <v>12641</v>
       </c>
-      <c r="D853" s="30" t="s">
+      <c r="D853" t="s">
         <v>12642</v>
       </c>
-      <c r="E853" s="17" t="s">
+      <c r="E853" s="1" t="s">
         <v>12643</v>
       </c>
-      <c r="K853" s="30" t="s">
+      <c r="K853" t="s">
         <v>12644</v>
       </c>
       <c r="L853" s="10" t="s">
         <v>12645</v>
       </c>
-      <c r="M853" s="31" t="s">
+      <c r="M853" s="7" t="s">
         <v>12646</v>
       </c>
-      <c r="N853" s="38" t="s">
+      <c r="N853" s="32" t="s">
         <v>12647</v>
       </c>
       <c r="O853" s="6" t="s">
         <v>12648</v>
       </c>
-      <c r="P853" s="19" t="s">
+      <c r="P853" s="9" t="s">
         <v>12649</v>
       </c>
       <c r="Q853" s="15" t="s">
@@ -89629,53 +89604,30 @@
       <c r="Q854" s="14"/>
     </row>
     <row r="855" customFormat="1" ht="13.5" customHeight="1" spans="1:17">
-      <c r="A855" s="30" t="s">
+      <c r="A855" t="s">
         <v>12655</v>
       </c>
-      <c r="B855" s="30" t="s">
+      <c r="B855" t="s">
         <v>12656</v>
       </c>
-      <c r="C855" s="31" t="s">
+      <c r="C855" s="7" t="s">
         <v>12657</v>
       </c>
-      <c r="D855"/>
-      <c r="E855"/>
-      <c r="F855"/>
-      <c r="G855"/>
-      <c r="H855"/>
-      <c r="I855"/>
-      <c r="J855"/>
-      <c r="K855"/>
-      <c r="L855" s="20"/>
-      <c r="M855"/>
+      <c r="L855" s="18"/>
       <c r="N855" s="14"/>
-      <c r="O855"/>
-      <c r="P855"/>
       <c r="Q855" s="14"/>
     </row>
     <row r="856" customFormat="1" ht="13.5" customHeight="1" spans="1:17">
       <c r="A856" t="s">
         <v>12658</v>
       </c>
-      <c r="B856" s="30" t="s">
+      <c r="B856" t="s">
         <v>12659</v>
       </c>
       <c r="C856" s="7" t="s">
         <v>12660</v>
       </c>
-      <c r="D856"/>
-      <c r="E856"/>
-      <c r="F856"/>
-      <c r="G856"/>
-      <c r="H856"/>
-      <c r="I856"/>
-      <c r="J856"/>
-      <c r="K856"/>
-      <c r="L856"/>
-      <c r="M856"/>
       <c r="N856" s="14"/>
-      <c r="O856"/>
-      <c r="P856"/>
       <c r="Q856" s="14"/>
     </row>
     <row r="857" ht="13.5" customHeight="1" spans="3:17">
@@ -90071,337 +90023,337 @@
     <row r="935" ht="13.5" customHeight="1" spans="3:17">
       <c r="C935" s="7"/>
       <c r="N935" s="14"/>
-      <c r="Q935" s="39"/>
+      <c r="Q935" s="33"/>
     </row>
     <row r="936" ht="13.5" customHeight="1" spans="3:17">
       <c r="C936" s="7"/>
       <c r="N936" s="14"/>
-      <c r="Q936" s="39"/>
+      <c r="Q936" s="33"/>
     </row>
     <row r="937" ht="13.5" customHeight="1" spans="3:17">
       <c r="C937" s="7"/>
       <c r="N937" s="14"/>
-      <c r="Q937" s="39"/>
+      <c r="Q937" s="33"/>
     </row>
     <row r="938" ht="13.5" customHeight="1" spans="3:17">
       <c r="C938" s="7"/>
       <c r="N938" s="14"/>
-      <c r="Q938" s="39"/>
+      <c r="Q938" s="33"/>
     </row>
     <row r="939" ht="13.5" customHeight="1" spans="3:17">
       <c r="C939" s="7"/>
       <c r="N939" s="14"/>
-      <c r="Q939" s="39"/>
+      <c r="Q939" s="33"/>
     </row>
     <row r="940" ht="13.5" customHeight="1" spans="3:17">
       <c r="C940" s="7"/>
       <c r="N940" s="14"/>
-      <c r="Q940" s="39"/>
+      <c r="Q940" s="33"/>
     </row>
     <row r="941" ht="13.5" customHeight="1" spans="3:17">
       <c r="C941" s="7"/>
       <c r="N941" s="14"/>
-      <c r="Q941" s="39"/>
+      <c r="Q941" s="33"/>
     </row>
     <row r="942" ht="13.5" customHeight="1" spans="3:17">
       <c r="C942" s="7"/>
       <c r="N942" s="14"/>
-      <c r="Q942" s="39"/>
+      <c r="Q942" s="33"/>
     </row>
     <row r="943" ht="13.5" customHeight="1" spans="3:17">
       <c r="C943" s="7"/>
       <c r="N943" s="14"/>
-      <c r="Q943" s="39"/>
+      <c r="Q943" s="33"/>
     </row>
     <row r="944" ht="13.5" customHeight="1" spans="3:17">
       <c r="C944" s="7"/>
       <c r="N944" s="14"/>
-      <c r="Q944" s="39"/>
+      <c r="Q944" s="33"/>
     </row>
     <row r="945" ht="13.5" customHeight="1" spans="3:17">
       <c r="C945" s="7"/>
       <c r="N945" s="14"/>
-      <c r="Q945" s="39"/>
+      <c r="Q945" s="33"/>
     </row>
     <row r="946" ht="13.5" customHeight="1" spans="3:17">
       <c r="C946" s="7"/>
       <c r="N946" s="14"/>
-      <c r="Q946" s="39"/>
+      <c r="Q946" s="33"/>
     </row>
     <row r="947" ht="13.5" customHeight="1" spans="3:17">
       <c r="C947" s="7"/>
       <c r="N947" s="14"/>
-      <c r="Q947" s="39"/>
+      <c r="Q947" s="33"/>
     </row>
     <row r="948" ht="13.5" customHeight="1" spans="3:17">
       <c r="C948" s="7"/>
       <c r="N948" s="14"/>
-      <c r="Q948" s="39"/>
+      <c r="Q948" s="33"/>
     </row>
     <row r="949" ht="13.5" customHeight="1" spans="3:17">
       <c r="C949" s="7"/>
       <c r="N949" s="14"/>
-      <c r="Q949" s="39"/>
+      <c r="Q949" s="33"/>
     </row>
     <row r="950" ht="13.5" customHeight="1" spans="3:17">
       <c r="C950" s="7"/>
       <c r="N950" s="14"/>
-      <c r="Q950" s="39"/>
+      <c r="Q950" s="33"/>
     </row>
     <row r="951" ht="13.5" customHeight="1" spans="3:17">
       <c r="C951" s="7"/>
       <c r="N951" s="14"/>
-      <c r="Q951" s="39"/>
+      <c r="Q951" s="33"/>
     </row>
     <row r="952" ht="13.5" customHeight="1" spans="3:17">
       <c r="C952" s="7"/>
       <c r="N952" s="14"/>
-      <c r="Q952" s="39"/>
+      <c r="Q952" s="33"/>
     </row>
     <row r="953" ht="13.5" customHeight="1" spans="3:17">
       <c r="C953" s="7"/>
       <c r="N953" s="14"/>
-      <c r="Q953" s="39"/>
+      <c r="Q953" s="33"/>
     </row>
     <row r="954" ht="13.5" customHeight="1" spans="3:17">
       <c r="C954" s="7"/>
       <c r="N954" s="14"/>
-      <c r="Q954" s="39"/>
+      <c r="Q954" s="33"/>
     </row>
     <row r="955" ht="13.5" customHeight="1" spans="3:17">
       <c r="C955" s="7"/>
       <c r="N955" s="14"/>
-      <c r="Q955" s="39"/>
+      <c r="Q955" s="33"/>
     </row>
     <row r="956" ht="13.5" customHeight="1" spans="3:17">
       <c r="C956" s="7"/>
       <c r="N956" s="14"/>
-      <c r="Q956" s="39"/>
+      <c r="Q956" s="33"/>
     </row>
     <row r="957" ht="13.5" customHeight="1" spans="3:17">
       <c r="C957" s="7"/>
       <c r="N957" s="14"/>
-      <c r="Q957" s="39"/>
+      <c r="Q957" s="33"/>
     </row>
     <row r="958" ht="13.5" customHeight="1" spans="3:17">
       <c r="C958" s="7"/>
       <c r="N958" s="14"/>
-      <c r="Q958" s="39"/>
+      <c r="Q958" s="33"/>
     </row>
     <row r="959" ht="13.5" customHeight="1" spans="3:17">
       <c r="C959" s="7"/>
       <c r="N959" s="14"/>
-      <c r="Q959" s="39"/>
+      <c r="Q959" s="33"/>
     </row>
     <row r="960" ht="13.5" customHeight="1" spans="3:17">
       <c r="C960" s="7"/>
       <c r="N960" s="14"/>
-      <c r="Q960" s="39"/>
+      <c r="Q960" s="33"/>
     </row>
     <row r="961" ht="13.5" customHeight="1" spans="3:17">
       <c r="C961" s="7"/>
       <c r="N961" s="14"/>
-      <c r="Q961" s="39"/>
+      <c r="Q961" s="33"/>
     </row>
     <row r="962" ht="13.5" customHeight="1" spans="3:17">
       <c r="C962" s="7"/>
       <c r="N962" s="14"/>
-      <c r="Q962" s="39"/>
+      <c r="Q962" s="33"/>
     </row>
     <row r="963" ht="13.5" customHeight="1" spans="3:17">
       <c r="C963" s="7"/>
       <c r="N963" s="14"/>
-      <c r="Q963" s="39"/>
+      <c r="Q963" s="33"/>
     </row>
     <row r="964" ht="13.5" customHeight="1" spans="3:17">
       <c r="C964" s="7"/>
       <c r="N964" s="14"/>
-      <c r="Q964" s="39"/>
+      <c r="Q964" s="33"/>
     </row>
     <row r="965" ht="13.5" customHeight="1" spans="3:17">
       <c r="C965" s="7"/>
       <c r="N965" s="14"/>
-      <c r="Q965" s="39"/>
+      <c r="Q965" s="33"/>
     </row>
     <row r="966" ht="13.5" customHeight="1" spans="3:17">
       <c r="C966" s="7"/>
       <c r="N966" s="14"/>
-      <c r="Q966" s="39"/>
+      <c r="Q966" s="33"/>
     </row>
     <row r="967" ht="13.5" customHeight="1" spans="3:17">
       <c r="C967" s="7"/>
       <c r="N967" s="14"/>
-      <c r="Q967" s="39"/>
+      <c r="Q967" s="33"/>
     </row>
     <row r="968" ht="13.5" customHeight="1" spans="3:17">
       <c r="C968" s="7"/>
       <c r="N968" s="14"/>
-      <c r="Q968" s="39"/>
+      <c r="Q968" s="33"/>
     </row>
     <row r="969" ht="13.5" customHeight="1" spans="3:17">
       <c r="C969" s="7"/>
       <c r="N969" s="14"/>
-      <c r="Q969" s="39"/>
+      <c r="Q969" s="33"/>
     </row>
     <row r="970" ht="13.5" customHeight="1" spans="3:17">
       <c r="C970" s="7"/>
       <c r="N970" s="14"/>
-      <c r="Q970" s="39"/>
+      <c r="Q970" s="33"/>
     </row>
     <row r="971" ht="13.5" customHeight="1" spans="3:17">
       <c r="C971" s="7"/>
       <c r="N971" s="14"/>
-      <c r="Q971" s="39"/>
+      <c r="Q971" s="33"/>
     </row>
     <row r="972" ht="13.5" customHeight="1" spans="3:17">
       <c r="C972" s="7"/>
       <c r="N972" s="14"/>
-      <c r="Q972" s="39"/>
+      <c r="Q972" s="33"/>
     </row>
     <row r="973" ht="13.5" customHeight="1" spans="3:17">
       <c r="C973" s="7"/>
       <c r="N973" s="14"/>
-      <c r="Q973" s="39"/>
+      <c r="Q973" s="33"/>
     </row>
     <row r="974" ht="13.5" customHeight="1" spans="3:17">
       <c r="C974" s="7"/>
       <c r="N974" s="14"/>
-      <c r="Q974" s="39"/>
+      <c r="Q974" s="33"/>
     </row>
     <row r="975" ht="13.5" customHeight="1" spans="3:17">
       <c r="C975" s="7"/>
       <c r="N975" s="14"/>
-      <c r="Q975" s="39"/>
+      <c r="Q975" s="33"/>
     </row>
     <row r="976" ht="13.5" customHeight="1" spans="3:17">
       <c r="C976" s="7"/>
       <c r="N976" s="14"/>
-      <c r="Q976" s="39"/>
+      <c r="Q976" s="33"/>
     </row>
     <row r="977" ht="13.5" customHeight="1" spans="3:17">
       <c r="C977" s="7"/>
       <c r="N977" s="14"/>
-      <c r="Q977" s="39"/>
+      <c r="Q977" s="33"/>
     </row>
     <row r="978" ht="13.5" customHeight="1" spans="3:17">
       <c r="C978" s="7"/>
       <c r="N978" s="14"/>
-      <c r="Q978" s="39"/>
+      <c r="Q978" s="33"/>
     </row>
     <row r="979" ht="13.5" customHeight="1" spans="3:17">
       <c r="C979" s="7"/>
       <c r="N979" s="14"/>
-      <c r="Q979" s="39"/>
+      <c r="Q979" s="33"/>
     </row>
     <row r="980" ht="13.5" customHeight="1" spans="3:17">
       <c r="C980" s="7"/>
       <c r="N980" s="14"/>
-      <c r="Q980" s="39"/>
+      <c r="Q980" s="33"/>
     </row>
     <row r="981" ht="13.5" customHeight="1" spans="3:17">
       <c r="C981" s="7"/>
       <c r="N981" s="14"/>
-      <c r="Q981" s="39"/>
+      <c r="Q981" s="33"/>
     </row>
     <row r="982" ht="13.5" customHeight="1" spans="3:17">
       <c r="C982" s="7"/>
       <c r="N982" s="14"/>
-      <c r="Q982" s="39"/>
+      <c r="Q982" s="33"/>
     </row>
     <row r="983" ht="13.5" customHeight="1" spans="3:17">
       <c r="C983" s="7"/>
       <c r="N983" s="14"/>
-      <c r="Q983" s="39"/>
+      <c r="Q983" s="33"/>
     </row>
     <row r="984" ht="13.5" customHeight="1" spans="3:17">
       <c r="C984" s="7"/>
       <c r="N984" s="14"/>
-      <c r="Q984" s="39"/>
+      <c r="Q984" s="33"/>
     </row>
     <row r="985" ht="13.5" customHeight="1" spans="3:17">
       <c r="C985" s="7"/>
       <c r="N985" s="14"/>
-      <c r="Q985" s="39"/>
+      <c r="Q985" s="33"/>
     </row>
     <row r="986" ht="13.5" customHeight="1" spans="3:17">
       <c r="C986" s="7"/>
       <c r="N986" s="14"/>
-      <c r="Q986" s="39"/>
+      <c r="Q986" s="33"/>
     </row>
     <row r="987" ht="13.5" customHeight="1" spans="3:17">
       <c r="C987" s="7"/>
       <c r="N987" s="14"/>
-      <c r="Q987" s="39"/>
+      <c r="Q987" s="33"/>
     </row>
     <row r="988" ht="13.5" customHeight="1" spans="3:17">
       <c r="C988" s="7"/>
       <c r="N988" s="14"/>
-      <c r="Q988" s="39"/>
+      <c r="Q988" s="33"/>
     </row>
     <row r="989" ht="13.5" customHeight="1" spans="3:17">
       <c r="C989" s="7"/>
       <c r="N989" s="14"/>
-      <c r="Q989" s="39"/>
+      <c r="Q989" s="33"/>
     </row>
     <row r="990" ht="13.5" customHeight="1" spans="3:17">
       <c r="C990" s="7"/>
       <c r="N990" s="14"/>
-      <c r="Q990" s="39"/>
+      <c r="Q990" s="33"/>
     </row>
     <row r="991" ht="13.5" customHeight="1" spans="3:17">
       <c r="C991" s="7"/>
       <c r="N991" s="14"/>
-      <c r="Q991" s="39"/>
+      <c r="Q991" s="33"/>
     </row>
     <row r="992" ht="13.5" customHeight="1" spans="3:17">
       <c r="C992" s="7"/>
       <c r="N992" s="14"/>
-      <c r="Q992" s="39"/>
+      <c r="Q992" s="33"/>
     </row>
     <row r="993" ht="13.5" customHeight="1" spans="3:17">
       <c r="C993" s="7"/>
       <c r="N993" s="14"/>
-      <c r="Q993" s="39"/>
+      <c r="Q993" s="33"/>
     </row>
     <row r="994" ht="13.5" customHeight="1" spans="3:17">
       <c r="C994" s="7"/>
       <c r="N994" s="14"/>
-      <c r="Q994" s="39"/>
+      <c r="Q994" s="33"/>
     </row>
     <row r="995" ht="13.5" customHeight="1" spans="3:17">
       <c r="C995" s="7"/>
       <c r="N995" s="14"/>
-      <c r="Q995" s="39"/>
+      <c r="Q995" s="33"/>
     </row>
     <row r="996" ht="13.5" customHeight="1" spans="3:17">
       <c r="C996" s="7"/>
       <c r="N996" s="14"/>
-      <c r="Q996" s="39"/>
+      <c r="Q996" s="33"/>
     </row>
     <row r="997" ht="13.5" customHeight="1" spans="3:17">
       <c r="C997" s="7"/>
       <c r="N997" s="14"/>
-      <c r="Q997" s="39"/>
+      <c r="Q997" s="33"/>
     </row>
     <row r="998" ht="13.5" customHeight="1" spans="3:17">
       <c r="C998" s="7"/>
       <c r="N998" s="14"/>
-      <c r="Q998" s="39"/>
+      <c r="Q998" s="33"/>
     </row>
     <row r="999" ht="13.5" customHeight="1" spans="3:17">
       <c r="C999" s="7"/>
       <c r="N999" s="14"/>
-      <c r="Q999" s="39"/>
+      <c r="Q999" s="33"/>
     </row>
     <row r="1000" ht="13.5" customHeight="1" spans="3:17">
       <c r="C1000" s="7"/>
       <c r="N1000" s="14"/>
-      <c r="Q1000" s="39"/>
+      <c r="Q1000" s="33"/>
     </row>
     <row r="1001" ht="13.5" customHeight="1" spans="3:17">
       <c r="C1001" s="7"/>
       <c r="N1001" s="14"/>
-      <c r="Q1001" s="39"/>
+      <c r="Q1001" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="locale" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15600" uniqueCount="13298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15637" uniqueCount="13333">
   <si>
     <t>zh_CN</t>
   </si>
@@ -44554,6 +44555,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -44573,6 +44575,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -44593,6 +44596,138 @@
   </si>
   <si>
     <t> не нашли  серийный </t>
+  </si>
+  <si>
+    <t>%m.direction degrees %n at speed %d.motorvalue</t>
+  </si>
+  <si>
+    <t>%m.direction 角度 %n 速度为 %d.motorvalue</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>%m.direction 角度 %n 速度為 %d.motorvalue</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>set DC motor%d.motorPort speed %d.motorvalue</t>
+  </si>
+  <si>
+    <t>设置直流电机%d.motorPort 转速为 %d.motorvalue</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>設置直流電機%d.motorPort 轉速為 %d.motorvalue</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>set encoder motor%d.exMotorPort %d.slot rotate %n degrees at the speed of %n rpm</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置编码电机%d.exMotorPort %d.slot 旋转 %n 度， 速度为 %n 圈每分钟</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>設置編碼電機%d.exMotorPort %d.slot 旋轉 %n 度， 速度為 %n 圈每分鐘</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>set encoder motor on board %d.slot rotate %n degrees at the speed of %n rpm</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置板载编码电机 %d.slot 旋转 %n 度，速度为 %n 圈每分钟</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>encoder motor on board %d.slot speed/rpm</t>
+  </si>
+  <si>
+    <t>encoder motor on board %d.slot position/degrees</t>
+  </si>
+  <si>
+    <t>板载编码电机 %d.slot 位置/角度</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>板載編碼電機 %d.slot 位置/角度</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>set encoder motor%d.exMotorPort rotate %n degrees at speed %n rpm</t>
+  </si>
+  <si>
+    <t>设置编码电机%d.exMotorPort 旋转 %n 度，速度为 %n 圈每分钟</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>set encoder motor%d.exMotorPort speed %n rpm</t>
+  </si>
+  <si>
+    <t>设置编码电机%d.exMotorPort 速度为 %n 圈每分钟</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>設置編碼電機%d.exMotorPort 速度為 %n 圈每分鐘</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>encoder motor %d.exMotorPort speed/rpm</t>
+  </si>
+  <si>
+    <t>encoder motor %d.exMotorPort position/degrees</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码电机 %d.exMotorPort 位置/角度</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>編碼電機 %d.exMotorPort 位置/角度</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码电机 %d.exMotorPort 速度/圈每分钟</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>板载编码电机 %d.slot 速度/圈每分钟</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>設置板載編碼電機 %d.slot 旋轉 %n 度，速度為 %n 圈每分鐘</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>set encoder motor on board %d.slot rotate at the speed of %n rpm</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置板载编码电机%d.slot 速度为 %n 圈每分钟</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>設置板載編碼電機%d.slot 速度為 %n 圈每分鐘</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>設置編碼電機%d.exMotorPort 旋轉 %n 度，速度為 %n 圈每分鐘</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>編碼電機 %d.exMotorPort 速度/圈每分鐘</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>板載編碼電機 %d.slot 速度/圈每分鐘</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>%m.direction %n degrees at the speed of%d.motorDegreesvalue</t>
+  </si>
+  <si>
+    <t>%m.direction %n 度，速度%d.motorDegreesvalue</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -44811,7 +44946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -44894,6 +45029,12 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -45200,15 +45341,15 @@
   <dimension ref="A1:T1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q844" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B844" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K861" sqref="K861"/>
+      <selection pane="bottomRight" activeCell="C873" sqref="C873"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="1" max="1" width="67.75" customWidth="1"/>
     <col min="2" max="2" width="115.125" customWidth="1"/>
     <col min="3" max="3" width="84.125" customWidth="1"/>
     <col min="4" max="4" width="91.75" customWidth="1"/>
@@ -93894,96 +94035,192 @@
       <c r="Q861" s="14"/>
     </row>
     <row r="862" spans="1:20" ht="13.5" customHeight="1">
-      <c r="C862" s="7"/>
+      <c r="A862" t="s">
+        <v>13298</v>
+      </c>
+      <c r="B862" s="34" t="s">
+        <v>13299</v>
+      </c>
+      <c r="C862" s="34" t="s">
+        <v>13300</v>
+      </c>
       <c r="N862" s="14"/>
-      <c r="Q862" s="14"/>
+      <c r="Q862" s="39"/>
     </row>
     <row r="863" spans="1:20" ht="13.5" customHeight="1">
-      <c r="C863" s="7"/>
+      <c r="A863" t="s">
+        <v>13301</v>
+      </c>
+      <c r="B863" s="35" t="s">
+        <v>13302</v>
+      </c>
+      <c r="C863" s="35" t="s">
+        <v>13303</v>
+      </c>
       <c r="N863" s="14"/>
       <c r="Q863" s="14"/>
     </row>
     <row r="864" spans="1:20" ht="13.5" customHeight="1">
-      <c r="C864" s="7"/>
+      <c r="A864" s="34" t="s">
+        <v>13304</v>
+      </c>
+      <c r="B864" s="40" t="s">
+        <v>13305</v>
+      </c>
+      <c r="C864" s="40" t="s">
+        <v>13306</v>
+      </c>
       <c r="N864" s="14"/>
       <c r="Q864" s="14"/>
     </row>
-    <row r="865" spans="3:17" ht="13.5" customHeight="1">
-      <c r="C865" s="7"/>
+    <row r="865" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A865" s="34" t="s">
+        <v>13325</v>
+      </c>
+      <c r="B865" s="34" t="s">
+        <v>13326</v>
+      </c>
+      <c r="C865" s="34" t="s">
+        <v>13327</v>
+      </c>
       <c r="N865" s="14"/>
       <c r="Q865" s="14"/>
     </row>
-    <row r="866" spans="3:17" ht="13.5" customHeight="1">
-      <c r="C866" s="7"/>
+    <row r="866" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A866" s="34" t="s">
+        <v>13307</v>
+      </c>
+      <c r="B866" s="34" t="s">
+        <v>13308</v>
+      </c>
+      <c r="C866" s="34" t="s">
+        <v>13324</v>
+      </c>
       <c r="N866" s="14"/>
       <c r="Q866" s="14"/>
     </row>
-    <row r="867" spans="3:17" ht="13.5" customHeight="1">
-      <c r="C867" s="7"/>
+    <row r="867" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A867" t="s">
+        <v>13309</v>
+      </c>
+      <c r="B867" s="34" t="s">
+        <v>13323</v>
+      </c>
+      <c r="C867" s="34" t="s">
+        <v>13330</v>
+      </c>
       <c r="N867" s="14"/>
       <c r="Q867" s="14"/>
     </row>
-    <row r="868" spans="3:17" ht="13.5" customHeight="1">
-      <c r="C868" s="7"/>
+    <row r="868" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A868" t="s">
+        <v>13310</v>
+      </c>
+      <c r="B868" s="40" t="s">
+        <v>13311</v>
+      </c>
+      <c r="C868" s="40" t="s">
+        <v>13312</v>
+      </c>
       <c r="N868" s="14"/>
       <c r="Q868" s="14"/>
     </row>
-    <row r="869" spans="3:17" ht="13.5" customHeight="1">
-      <c r="C869" s="7"/>
+    <row r="869" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A869" s="34" t="s">
+        <v>13313</v>
+      </c>
+      <c r="B869" s="34" t="s">
+        <v>13314</v>
+      </c>
+      <c r="C869" s="34" t="s">
+        <v>13328</v>
+      </c>
       <c r="N869" s="14"/>
       <c r="Q869" s="14"/>
     </row>
-    <row r="870" spans="3:17" ht="13.5" customHeight="1">
-      <c r="C870" s="7"/>
+    <row r="870" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A870" t="s">
+        <v>13315</v>
+      </c>
+      <c r="B870" s="34" t="s">
+        <v>13316</v>
+      </c>
+      <c r="C870" s="34" t="s">
+        <v>13317</v>
+      </c>
       <c r="N870" s="14"/>
       <c r="Q870" s="14"/>
     </row>
-    <row r="871" spans="3:17" ht="13.5" customHeight="1">
-      <c r="C871" s="7"/>
+    <row r="871" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A871" t="s">
+        <v>13318</v>
+      </c>
+      <c r="B871" s="34" t="s">
+        <v>13322</v>
+      </c>
+      <c r="C871" s="34" t="s">
+        <v>13329</v>
+      </c>
       <c r="N871" s="14"/>
       <c r="Q871" s="14"/>
     </row>
-    <row r="872" spans="3:17" ht="13.5" customHeight="1">
-      <c r="C872" s="7"/>
+    <row r="872" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A872" s="34" t="s">
+        <v>13319</v>
+      </c>
+      <c r="B872" s="34" t="s">
+        <v>13320</v>
+      </c>
+      <c r="C872" s="34" t="s">
+        <v>13321</v>
+      </c>
       <c r="N872" s="14"/>
       <c r="Q872" s="14"/>
     </row>
-    <row r="873" spans="3:17" ht="13.5" customHeight="1">
-      <c r="C873" s="7"/>
+    <row r="873" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A873" t="s">
+        <v>13331</v>
+      </c>
+      <c r="B873" s="34" t="s">
+        <v>13332</v>
+      </c>
+      <c r="C873" s="34" t="s">
+        <v>13332</v>
+      </c>
       <c r="N873" s="14"/>
       <c r="Q873" s="14"/>
     </row>
-    <row r="874" spans="3:17" ht="13.5" customHeight="1">
+    <row r="874" spans="1:17" ht="13.5" customHeight="1">
       <c r="C874" s="7"/>
       <c r="N874" s="14"/>
       <c r="Q874" s="14"/>
     </row>
-    <row r="875" spans="3:17" ht="13.5" customHeight="1">
+    <row r="875" spans="1:17" ht="13.5" customHeight="1">
       <c r="C875" s="7"/>
       <c r="N875" s="14"/>
       <c r="Q875" s="14"/>
     </row>
-    <row r="876" spans="3:17" ht="13.5" customHeight="1">
+    <row r="876" spans="1:17" ht="13.5" customHeight="1">
       <c r="C876" s="7"/>
       <c r="N876" s="14"/>
       <c r="Q876" s="14"/>
     </row>
-    <row r="877" spans="3:17" ht="13.5" customHeight="1">
+    <row r="877" spans="1:17" ht="13.5" customHeight="1">
       <c r="C877" s="7"/>
       <c r="N877" s="14"/>
       <c r="Q877" s="14"/>
     </row>
-    <row r="878" spans="3:17" ht="13.5" customHeight="1">
+    <row r="878" spans="1:17" ht="13.5" customHeight="1">
       <c r="C878" s="7"/>
       <c r="N878" s="14"/>
       <c r="Q878" s="14"/>
     </row>
-    <row r="879" spans="3:17" ht="13.5" customHeight="1">
+    <row r="879" spans="1:17" ht="13.5" customHeight="1">
       <c r="C879" s="7"/>
       <c r="N879" s="14"/>
       <c r="Q879" s="14"/>
     </row>
-    <row r="880" spans="3:17" ht="13.5" customHeight="1">
+    <row r="880" spans="1:17" ht="13.5" customHeight="1">
       <c r="C880" s="7"/>
       <c r="N880" s="14"/>
       <c r="Q880" s="14"/>
@@ -94621,4 +94858,25 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
   <legacyDrawing r:id="rId17"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="34" t="s">
+        <v>13332</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15637" uniqueCount="13333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15637" uniqueCount="13335">
   <si>
     <t>zh_CN</t>
   </si>
@@ -44723,10 +44723,18 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>%m.direction %n degrees at the speed of%d.motorDegreesvalue</t>
-  </si>
-  <si>
     <t>%m.direction %n 度，速度%d.motorDegreesvalue</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>%m.direction %n degrees at the speed of%d.motorDegreesvalue rpm</t>
+  </si>
+  <si>
+    <t>%m.direction %n 度，速度%d.motorDegreesvalue 圈每分钟</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>%m.direction %n 度，速度%d.motorDegreesvalue 圈每分鐘</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -45341,10 +45349,10 @@
   <dimension ref="A1:T1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B844" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C853" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C873" sqref="C873"/>
+      <selection pane="bottomRight" activeCell="C875" sqref="C875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -94179,13 +94187,13 @@
     </row>
     <row r="873" spans="1:17" ht="13.5" customHeight="1">
       <c r="A873" t="s">
-        <v>13331</v>
+        <v>13332</v>
       </c>
       <c r="B873" s="34" t="s">
-        <v>13332</v>
+        <v>13333</v>
       </c>
       <c r="C873" s="34" t="s">
-        <v>13332</v>
+        <v>13334</v>
       </c>
       <c r="N873" s="14"/>
       <c r="Q873" s="14"/>
@@ -94872,11 +94880,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="34" t="s">
-        <v>13332</v>
+        <v>13331</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8790" tabRatio="117"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8790" tabRatio="240"/>
   </bookViews>
   <sheets>
     <sheet name="locale" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15637" uniqueCount="13335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15639" uniqueCount="13337">
   <si>
     <t>zh_CN</t>
   </si>
@@ -44723,10 +44722,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>%m.direction %n 度，速度%d.motorDegreesvalue</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>%m.direction %n degrees at the speed of%d.motorDegreesvalue rpm</t>
   </si>
   <si>
@@ -44735,6 +44730,17 @@
   </si>
   <si>
     <t>%m.direction %n 度，速度%d.motorDegreesvalue 圈每分鐘</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查更新失败</t>
+  </si>
+  <si>
+    <t>檢查更新失敗</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection error</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -44742,7 +44748,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -44912,6 +44918,19 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Inherit"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -44954,7 +44973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -45043,6 +45062,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -45349,10 +45374,10 @@
   <dimension ref="A1:T1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C853" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B866" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C875" sqref="C875"/>
+      <selection pane="bottomRight" activeCell="B876" sqref="B876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -94187,24 +94212,34 @@
     </row>
     <row r="873" spans="1:17" ht="13.5" customHeight="1">
       <c r="A873" t="s">
+        <v>13331</v>
+      </c>
+      <c r="B873" s="34" t="s">
         <v>13332</v>
       </c>
-      <c r="B873" s="34" t="s">
+      <c r="C873" s="34" t="s">
         <v>13333</v>
-      </c>
-      <c r="C873" s="34" t="s">
-        <v>13334</v>
       </c>
       <c r="N873" s="14"/>
       <c r="Q873" s="14"/>
     </row>
     <row r="874" spans="1:17" ht="13.5" customHeight="1">
-      <c r="C874" s="7"/>
+      <c r="A874" s="41" t="s">
+        <v>13336</v>
+      </c>
+      <c r="B874" s="41" t="s">
+        <v>13334</v>
+      </c>
+      <c r="C874" s="42" t="s">
+        <v>13335</v>
+      </c>
       <c r="N874" s="14"/>
       <c r="Q874" s="14"/>
     </row>
     <row r="875" spans="1:17" ht="13.5" customHeight="1">
-      <c r="C875" s="7"/>
+      <c r="A875" s="34"/>
+      <c r="B875" s="34"/>
+      <c r="C875" s="34"/>
       <c r="N875" s="14"/>
       <c r="Q875" s="14"/>
     </row>
@@ -94866,26 +94901,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
   <legacyDrawing r:id="rId17"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="34" t="s">
-        <v>13331</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15842" uniqueCount="13515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15857" uniqueCount="13528">
   <si>
     <t>zh_CN</t>
   </si>
@@ -45642,6 +45642,51 @@
   <si>
     <t>温湿度传感器  %d.normalPort %d.humiture</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>line follower %d.bluePorts %d.leftRight is %d.whiteBlack</t>
+  </si>
+  <si>
+    <t>巡线传感器 %d.bluePorts %d.leftRight 是 %d.whiteBlack</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡線傳感器 %d.bluePorts %d.leftRight 是 %d.whiteBlack</t>
+  </si>
+  <si>
+    <t>左边</t>
+  </si>
+  <si>
+    <t>leftSide</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>左邊</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>右边</t>
+  </si>
+  <si>
+    <t>rightSide</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>右邊</t>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>white</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+  </si>
+  <si>
+    <t>白</t>
   </si>
 </sst>
 </file>
@@ -46322,10 +46367,10 @@
   <dimension ref="A1:T1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B843" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B847" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B878" sqref="B878"/>
+      <selection pane="bottomRight" activeCell="C883" sqref="C883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -95816,91 +95861,131 @@
       <c r="Q878" s="14"/>
     </row>
     <row r="879" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C879" s="7"/>
+      <c r="A879" t="s">
+        <v>13515</v>
+      </c>
+      <c r="B879" t="s">
+        <v>13516</v>
+      </c>
+      <c r="C879" s="7" t="s">
+        <v>13517</v>
+      </c>
       <c r="N879" s="14"/>
       <c r="Q879" s="14"/>
     </row>
     <row r="880" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C880" s="7"/>
+      <c r="A880" t="s">
+        <v>13519</v>
+      </c>
+      <c r="B880" t="s">
+        <v>13518</v>
+      </c>
+      <c r="C880" s="7" t="s">
+        <v>13520</v>
+      </c>
       <c r="N880" s="14"/>
       <c r="Q880" s="14"/>
     </row>
-    <row r="881" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C881" s="7"/>
+    <row r="881" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>13522</v>
+      </c>
+      <c r="B881" t="s">
+        <v>13521</v>
+      </c>
+      <c r="C881" s="7" t="s">
+        <v>13523</v>
+      </c>
       <c r="N881" s="14"/>
       <c r="Q881" s="14"/>
     </row>
-    <row r="882" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C882" s="7"/>
+    <row r="882" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>13524</v>
+      </c>
+      <c r="B882" t="s">
+        <v>13526</v>
+      </c>
+      <c r="C882" s="7" t="s">
+        <v>13526</v>
+      </c>
       <c r="N882" s="14"/>
       <c r="Q882" s="14"/>
     </row>
-    <row r="883" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C883" s="7"/>
+    <row r="883" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>13525</v>
+      </c>
+      <c r="B883" t="s">
+        <v>13527</v>
+      </c>
+      <c r="C883" s="7" t="s">
+        <v>13527</v>
+      </c>
       <c r="N883" s="14"/>
       <c r="Q883" s="14"/>
     </row>
-    <row r="884" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C884" s="7"/>
       <c r="N884" s="14"/>
       <c r="Q884" s="14"/>
     </row>
-    <row r="885" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C885" s="7"/>
       <c r="N885" s="14"/>
       <c r="Q885" s="14"/>
     </row>
-    <row r="886" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C886" s="7"/>
       <c r="N886" s="14"/>
       <c r="Q886" s="14"/>
     </row>
-    <row r="887" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C887" s="7"/>
       <c r="N887" s="14"/>
       <c r="Q887" s="14"/>
     </row>
-    <row r="888" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C888" s="7"/>
       <c r="N888" s="14"/>
       <c r="Q888" s="14"/>
     </row>
-    <row r="889" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C889" s="7"/>
       <c r="N889" s="14"/>
       <c r="Q889" s="14"/>
     </row>
-    <row r="890" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C890" s="7"/>
       <c r="N890" s="14"/>
       <c r="Q890" s="14"/>
     </row>
-    <row r="891" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C891" s="7"/>
       <c r="N891" s="14"/>
       <c r="Q891" s="14"/>
     </row>
-    <row r="892" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C892" s="7"/>
       <c r="N892" s="14"/>
       <c r="Q892" s="14"/>
     </row>
-    <row r="893" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C893" s="7"/>
       <c r="N893" s="14"/>
       <c r="Q893" s="14"/>
     </row>
-    <row r="894" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C894" s="7"/>
       <c r="N894" s="14"/>
       <c r="Q894" s="14"/>
     </row>
-    <row r="895" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C895" s="7"/>
       <c r="N895" s="14"/>
       <c r="Q895" s="14"/>
     </row>
-    <row r="896" spans="3:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C896" s="7"/>
       <c r="N896" s="14"/>
       <c r="Q896" s="14"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15862" uniqueCount="13497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15864" uniqueCount="13497">
   <si>
     <t>zh_CN</t>
   </si>
@@ -45727,10 +45727,10 @@
   <dimension ref="A1:T1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B845" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J561" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A848" sqref="A848:C883"/>
+      <selection pane="bottomRight" activeCell="K597" sqref="K597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -80441,8 +80441,8 @@
       <c r="J584" s="43" t="s">
         <v>9468</v>
       </c>
-      <c r="K584" s="46">
-        <v>42373</v>
+      <c r="K584" s="43" t="s">
+        <v>9468</v>
       </c>
       <c r="L584" s="4" t="s">
         <v>9469</v>
@@ -81232,8 +81232,8 @@
       <c r="J597" s="43" t="s">
         <v>9683</v>
       </c>
-      <c r="K597" s="46">
-        <v>42371</v>
+      <c r="K597" s="43" t="s">
+        <v>9683</v>
       </c>
       <c r="L597" s="4" t="s">
         <v>9684</v>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15864" uniqueCount="13497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15876" uniqueCount="13509">
   <si>
     <t>zh_CN</t>
   </si>
@@ -43686,10 +43686,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>設置板載LED  %d.index 紅色%d.value 綠色%d.value 藍色%d.value</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>led sulla scheda</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -44982,6 +44978,68 @@
   </si>
   <si>
     <t>LEDテープ %d.normalport の%d.index 番目を R=%d.value G=%d.value B=%d.value にします</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>set mini fan %d.fanPorts blow %d.fan</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置小风扇 %d.fanPorts 吹 %d.fan</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>設置板載LED  %d.index 紅色%d.value 綠色%d.value 藍色%d.value</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>設置小風扇 %d.fanPorts 吹 %d.fan</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>clockwise</t>
+  </si>
+  <si>
+    <t>counter-clockwise</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>top</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺时针</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆时针</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>順時針</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆時針</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -45727,10 +45785,10 @@
   <dimension ref="A1:T1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J561" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C868" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K597" sqref="K597"/>
+      <selection pane="bottomRight" activeCell="C887" sqref="C887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -45785,10 +45843,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="48" t="s">
-        <v>13270</v>
+        <v>13269</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>13460</v>
+        <v>13459</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>8</v>
@@ -45829,10 +45887,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>13142</v>
+        <v>13141</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>13144</v>
+        <v>13143</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -46239,10 +46297,10 @@
         <v>126</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>13271</v>
+        <v>13270</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>13229</v>
+        <v>13228</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>127</v>
@@ -46463,7 +46521,7 @@
         <v>179</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>13272</v>
+        <v>13271</v>
       </c>
       <c r="K13" s="46" t="s">
         <v>180</v>
@@ -46743,7 +46801,7 @@
         <v>260</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>13273</v>
+        <v>13272</v>
       </c>
       <c r="K18" s="46" t="s">
         <v>261</v>
@@ -47109,10 +47167,10 @@
         <v>356</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>13230</v>
+        <v>13229</v>
       </c>
       <c r="K24" s="46" t="s">
-        <v>13230</v>
+        <v>13229</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>357</v>
@@ -47209,10 +47267,10 @@
         <v>385</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>13274</v>
+        <v>13273</v>
       </c>
       <c r="K26" s="46" t="s">
-        <v>13274</v>
+        <v>13273</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>386</v>
@@ -47377,10 +47435,10 @@
         <v>426</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>13275</v>
+        <v>13274</v>
       </c>
       <c r="K29" s="46" t="s">
-        <v>13275</v>
+        <v>13274</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>427</v>
@@ -47430,10 +47488,10 @@
         <v>440</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>13276</v>
+        <v>13275</v>
       </c>
       <c r="K30" s="46" t="s">
-        <v>13276</v>
+        <v>13275</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>436</v>
@@ -47477,10 +47535,10 @@
         <v>450</v>
       </c>
       <c r="J31" s="43" t="s">
-        <v>13277</v>
+        <v>13276</v>
       </c>
       <c r="K31" s="46" t="s">
-        <v>13277</v>
+        <v>13276</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>451</v>
@@ -47539,10 +47597,10 @@
         <v>468</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>13278</v>
+        <v>13277</v>
       </c>
       <c r="K32" s="46" t="s">
-        <v>13278</v>
+        <v>13277</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>469</v>
@@ -47598,10 +47656,10 @@
         <v>485</v>
       </c>
       <c r="J33" s="43" t="s">
-        <v>13279</v>
+        <v>13278</v>
       </c>
       <c r="K33" s="46" t="s">
-        <v>13279</v>
+        <v>13278</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>486</v>
@@ -47722,7 +47780,7 @@
         <v>521</v>
       </c>
       <c r="J35" s="43" t="s">
-        <v>13280</v>
+        <v>13279</v>
       </c>
       <c r="K35" s="46" t="s">
         <v>522</v>
@@ -47896,10 +47954,10 @@
         <v>574</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>13281</v>
+        <v>13280</v>
       </c>
       <c r="K38" s="46" t="s">
-        <v>13281</v>
+        <v>13280</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>575</v>
@@ -47958,10 +48016,10 @@
         <v>591</v>
       </c>
       <c r="J39" s="43" t="s">
-        <v>13282</v>
+        <v>13281</v>
       </c>
       <c r="K39" s="46" t="s">
-        <v>13282</v>
+        <v>13281</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>592</v>
@@ -48079,10 +48137,10 @@
         <v>626</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>13283</v>
+        <v>13282</v>
       </c>
       <c r="K41" s="46" t="s">
-        <v>13283</v>
+        <v>13282</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>627</v>
@@ -48185,10 +48243,10 @@
         <v>657</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>13284</v>
+        <v>13283</v>
       </c>
       <c r="K43" s="46" t="s">
-        <v>13284</v>
+        <v>13283</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>658</v>
@@ -48247,7 +48305,7 @@
         <v>675</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>13285</v>
+        <v>13284</v>
       </c>
       <c r="K44" s="46" t="s">
         <v>676</v>
@@ -48297,10 +48355,10 @@
         <v>686</v>
       </c>
       <c r="J45" s="43" t="s">
-        <v>13286</v>
+        <v>13285</v>
       </c>
       <c r="K45" s="46" t="s">
-        <v>13286</v>
+        <v>13285</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>686</v>
@@ -48469,10 +48527,10 @@
         <v>734</v>
       </c>
       <c r="J48" s="43" t="s">
-        <v>13287</v>
+        <v>13286</v>
       </c>
       <c r="K48" s="46" t="s">
-        <v>13287</v>
+        <v>13286</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>735</v>
@@ -48531,7 +48589,7 @@
         <v>752</v>
       </c>
       <c r="J49" s="43" t="s">
-        <v>13288</v>
+        <v>13287</v>
       </c>
       <c r="K49" s="46" t="s">
         <v>753</v>
@@ -48590,10 +48648,10 @@
         <v>770</v>
       </c>
       <c r="J50" s="43" t="s">
-        <v>13289</v>
+        <v>13288</v>
       </c>
       <c r="K50" s="46" t="s">
-        <v>13289</v>
+        <v>13288</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>771</v>
@@ -48652,7 +48710,7 @@
         <v>788</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>13290</v>
+        <v>13289</v>
       </c>
       <c r="K51" s="46" t="s">
         <v>789</v>
@@ -48932,10 +48990,10 @@
         <v>871</v>
       </c>
       <c r="J56" s="43" t="s">
-        <v>13291</v>
+        <v>13290</v>
       </c>
       <c r="K56" s="46" t="s">
-        <v>13291</v>
+        <v>13290</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>872</v>
@@ -49056,10 +49114,10 @@
         <v>908</v>
       </c>
       <c r="J58" s="43" t="s">
-        <v>13292</v>
+        <v>13291</v>
       </c>
       <c r="K58" s="46" t="s">
-        <v>13292</v>
+        <v>13291</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>909</v>
@@ -49443,10 +49501,10 @@
         <v>999</v>
       </c>
       <c r="J65" s="43" t="s">
-        <v>13293</v>
+        <v>13292</v>
       </c>
       <c r="K65" s="46" t="s">
-        <v>13293</v>
+        <v>13292</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>1000</v>
@@ -49688,10 +49746,10 @@
         <v>1057</v>
       </c>
       <c r="J69" s="43" t="s">
-        <v>13294</v>
+        <v>13293</v>
       </c>
       <c r="K69" s="46" t="s">
-        <v>13294</v>
+        <v>13293</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>1058</v>
@@ -49800,10 +49858,10 @@
         <v>1090</v>
       </c>
       <c r="J71" s="43" t="s">
-        <v>13295</v>
+        <v>13294</v>
       </c>
       <c r="K71" s="46" t="s">
-        <v>13295</v>
+        <v>13294</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>1091</v>
@@ -50039,10 +50097,10 @@
         <v>1160</v>
       </c>
       <c r="J75" s="43" t="s">
-        <v>13296</v>
+        <v>13295</v>
       </c>
       <c r="K75" s="46" t="s">
-        <v>13296</v>
+        <v>13295</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>1161</v>
@@ -50089,10 +50147,10 @@
         <v>1174</v>
       </c>
       <c r="J76" s="43" t="s">
-        <v>13231</v>
+        <v>13230</v>
       </c>
       <c r="K76" s="46" t="s">
-        <v>13231</v>
+        <v>13230</v>
       </c>
       <c r="L76" s="10" t="s">
         <v>1175</v>
@@ -50151,10 +50209,10 @@
         <v>1191</v>
       </c>
       <c r="J77" s="43" t="s">
-        <v>13297</v>
+        <v>13296</v>
       </c>
       <c r="K77" s="46" t="s">
-        <v>13297</v>
+        <v>13296</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>1192</v>
@@ -50313,10 +50371,10 @@
         <v>1237</v>
       </c>
       <c r="J80" s="43" t="s">
-        <v>13298</v>
+        <v>13297</v>
       </c>
       <c r="K80" s="46" t="s">
-        <v>13298</v>
+        <v>13297</v>
       </c>
       <c r="L80" s="10" t="s">
         <v>1238</v>
@@ -50437,10 +50495,10 @@
         <v>1274</v>
       </c>
       <c r="J82" s="43" t="s">
-        <v>13299</v>
+        <v>13298</v>
       </c>
       <c r="K82" s="46" t="s">
-        <v>13299</v>
+        <v>13298</v>
       </c>
       <c r="L82" s="4" t="s">
         <v>1275</v>
@@ -50664,10 +50722,10 @@
         <v>1340</v>
       </c>
       <c r="J86" s="43" t="s">
-        <v>13300</v>
+        <v>13299</v>
       </c>
       <c r="K86" s="46" t="s">
-        <v>13300</v>
+        <v>13299</v>
       </c>
       <c r="L86" s="10" t="s">
         <v>1341</v>
@@ -50838,10 +50896,10 @@
         <v>1390</v>
       </c>
       <c r="J89" s="43" t="s">
-        <v>13301</v>
+        <v>13300</v>
       </c>
       <c r="K89" s="46" t="s">
-        <v>13301</v>
+        <v>13300</v>
       </c>
       <c r="L89" s="10" t="s">
         <v>1391</v>
@@ -50897,10 +50955,10 @@
         <v>1407</v>
       </c>
       <c r="J90" s="43" t="s">
-        <v>13302</v>
+        <v>13301</v>
       </c>
       <c r="K90" s="46" t="s">
-        <v>13302</v>
+        <v>13301</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>1408</v>
@@ -51077,10 +51135,10 @@
         <v>1455</v>
       </c>
       <c r="J93" s="43" t="s">
-        <v>13303</v>
+        <v>13302</v>
       </c>
       <c r="K93" s="46" t="s">
-        <v>13303</v>
+        <v>13302</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>1456</v>
@@ -51189,10 +51247,10 @@
         <v>1474</v>
       </c>
       <c r="J95" s="43" t="s">
-        <v>13304</v>
+        <v>13303</v>
       </c>
       <c r="K95" s="46" t="s">
-        <v>13304</v>
+        <v>13303</v>
       </c>
       <c r="L95" s="10" t="s">
         <v>1476</v>
@@ -51251,7 +51309,7 @@
         <v>1493</v>
       </c>
       <c r="J96" s="43" t="s">
-        <v>13305</v>
+        <v>13304</v>
       </c>
       <c r="K96" s="46" t="s">
         <v>1494</v>
@@ -51363,10 +51421,10 @@
         <v>1524</v>
       </c>
       <c r="J98" s="43" t="s">
-        <v>13306</v>
+        <v>13305</v>
       </c>
       <c r="K98" s="46" t="s">
-        <v>13306</v>
+        <v>13305</v>
       </c>
       <c r="L98" s="10" t="s">
         <v>1525</v>
@@ -51472,10 +51530,10 @@
         <v>1554</v>
       </c>
       <c r="J100" s="43" t="s">
-        <v>13307</v>
+        <v>13306</v>
       </c>
       <c r="K100" s="46" t="s">
-        <v>13307</v>
+        <v>13306</v>
       </c>
       <c r="L100" s="10" t="s">
         <v>1555</v>
@@ -51619,10 +51677,10 @@
         <v>1589</v>
       </c>
       <c r="J103" s="43" t="s">
-        <v>13308</v>
+        <v>13307</v>
       </c>
       <c r="K103" s="46" t="s">
-        <v>13308</v>
+        <v>13307</v>
       </c>
       <c r="L103" s="10" t="s">
         <v>1590</v>
@@ -51790,10 +51848,10 @@
         <v>1639</v>
       </c>
       <c r="J106" s="43" t="s">
-        <v>13309</v>
+        <v>13308</v>
       </c>
       <c r="K106" s="46" t="s">
-        <v>13309</v>
+        <v>13308</v>
       </c>
       <c r="L106" s="10" t="s">
         <v>1640</v>
@@ -51914,10 +51972,10 @@
         <v>1672</v>
       </c>
       <c r="J108" s="43" t="s">
-        <v>13190</v>
+        <v>13189</v>
       </c>
       <c r="K108" s="46" t="s">
-        <v>13190</v>
+        <v>13189</v>
       </c>
       <c r="L108" s="4" t="s">
         <v>1673</v>
@@ -52023,10 +52081,10 @@
         <v>1703</v>
       </c>
       <c r="J110" s="43" t="s">
-        <v>13310</v>
+        <v>13309</v>
       </c>
       <c r="K110" s="46" t="s">
-        <v>13310</v>
+        <v>13309</v>
       </c>
       <c r="L110" s="10" t="s">
         <v>1704</v>
@@ -52132,10 +52190,10 @@
         <v>1727</v>
       </c>
       <c r="J112" s="43" t="s">
-        <v>13311</v>
+        <v>13310</v>
       </c>
       <c r="K112" s="46" t="s">
-        <v>13311</v>
+        <v>13310</v>
       </c>
       <c r="L112" s="10" t="s">
         <v>1728</v>
@@ -52303,10 +52361,10 @@
         <v>1774</v>
       </c>
       <c r="J115" s="43" t="s">
-        <v>13312</v>
+        <v>13311</v>
       </c>
       <c r="K115" s="46" t="s">
-        <v>13312</v>
+        <v>13311</v>
       </c>
       <c r="L115" s="10" t="s">
         <v>1775</v>
@@ -52362,10 +52420,10 @@
         <v>1791</v>
       </c>
       <c r="J116" s="43" t="s">
-        <v>13313</v>
+        <v>13312</v>
       </c>
       <c r="K116" s="46" t="s">
-        <v>13313</v>
+        <v>13312</v>
       </c>
       <c r="L116" s="4" t="s">
         <v>1792</v>
@@ -52483,10 +52541,10 @@
         <v>1821</v>
       </c>
       <c r="J118" s="43" t="s">
-        <v>13314</v>
+        <v>13313</v>
       </c>
       <c r="K118" s="46" t="s">
-        <v>13314</v>
+        <v>13313</v>
       </c>
       <c r="L118" s="4" t="s">
         <v>1822</v>
@@ -52595,10 +52653,10 @@
         <v>1853</v>
       </c>
       <c r="J120" s="43" t="s">
-        <v>13315</v>
+        <v>13314</v>
       </c>
       <c r="K120" s="46" t="s">
-        <v>13315</v>
+        <v>13314</v>
       </c>
       <c r="L120" s="10" t="s">
         <v>1854</v>
@@ -52961,10 +53019,10 @@
         <v>1949</v>
       </c>
       <c r="J126" s="44" t="s">
-        <v>13316</v>
+        <v>13315</v>
       </c>
       <c r="K126" s="45" t="s">
-        <v>13316</v>
+        <v>13315</v>
       </c>
       <c r="L126" s="4" t="s">
         <v>1950</v>
@@ -53023,10 +53081,10 @@
         <v>1967</v>
       </c>
       <c r="J127" s="43" t="s">
-        <v>13317</v>
+        <v>13316</v>
       </c>
       <c r="K127" s="46" t="s">
-        <v>13317</v>
+        <v>13316</v>
       </c>
       <c r="L127" s="4" t="s">
         <v>1968</v>
@@ -53076,10 +53134,10 @@
         <v>1982</v>
       </c>
       <c r="J128" s="43" t="s">
-        <v>13318</v>
+        <v>13317</v>
       </c>
       <c r="K128" s="46" t="s">
-        <v>13318</v>
+        <v>13317</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>1983</v>
@@ -53252,10 +53310,10 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="43" t="s">
-        <v>13319</v>
+        <v>13318</v>
       </c>
       <c r="K131" s="46" t="s">
-        <v>13319</v>
+        <v>13318</v>
       </c>
       <c r="L131" s="4" t="s">
         <v>2031</v>
@@ -53473,10 +53531,10 @@
         <v>2086</v>
       </c>
       <c r="J135" s="43" t="s">
-        <v>13320</v>
+        <v>13319</v>
       </c>
       <c r="K135" s="46" t="s">
-        <v>13320</v>
+        <v>13319</v>
       </c>
       <c r="L135" s="10" t="s">
         <v>2087</v>
@@ -53842,10 +53900,10 @@
         <v>2188</v>
       </c>
       <c r="J141" s="43" t="s">
-        <v>13321</v>
+        <v>13320</v>
       </c>
       <c r="K141" s="46" t="s">
-        <v>13321</v>
+        <v>13320</v>
       </c>
       <c r="L141" s="4" t="s">
         <v>2189</v>
@@ -53954,10 +54012,10 @@
         <v>2221</v>
       </c>
       <c r="J143" s="43" t="s">
-        <v>13322</v>
+        <v>13321</v>
       </c>
       <c r="K143" s="46" t="s">
-        <v>13322</v>
+        <v>13321</v>
       </c>
       <c r="L143" s="10" t="s">
         <v>2222</v>
@@ -54125,10 +54183,10 @@
         <v>2270</v>
       </c>
       <c r="J146" s="43" t="s">
-        <v>13323</v>
+        <v>13322</v>
       </c>
       <c r="K146" s="46" t="s">
-        <v>13323</v>
+        <v>13322</v>
       </c>
       <c r="L146" s="10" t="s">
         <v>2271</v>
@@ -54311,10 +54369,10 @@
         <v>2320</v>
       </c>
       <c r="J149" s="43" t="s">
-        <v>13324</v>
+        <v>13323</v>
       </c>
       <c r="K149" s="46" t="s">
-        <v>13324</v>
+        <v>13323</v>
       </c>
       <c r="L149" s="4" t="s">
         <v>2321</v>
@@ -54358,10 +54416,10 @@
         <v>2332</v>
       </c>
       <c r="J150" s="43" t="s">
-        <v>13325</v>
+        <v>13324</v>
       </c>
       <c r="K150" s="46" t="s">
-        <v>13325</v>
+        <v>13324</v>
       </c>
       <c r="L150" s="10" t="s">
         <v>2333</v>
@@ -54544,7 +54602,7 @@
         <v>2385</v>
       </c>
       <c r="J153" s="43" t="s">
-        <v>13326</v>
+        <v>13325</v>
       </c>
       <c r="K153" s="46" t="s">
         <v>2386</v>
@@ -54700,10 +54758,10 @@
         <v>2427</v>
       </c>
       <c r="J156" s="43" t="s">
-        <v>13327</v>
+        <v>13326</v>
       </c>
       <c r="K156" s="46" t="s">
-        <v>13327</v>
+        <v>13326</v>
       </c>
       <c r="L156" s="10" t="s">
         <v>2428</v>
@@ -54809,10 +54867,10 @@
         <v>2459</v>
       </c>
       <c r="J158" s="43" t="s">
-        <v>13328</v>
+        <v>13327</v>
       </c>
       <c r="K158" s="46" t="s">
-        <v>13328</v>
+        <v>13327</v>
       </c>
       <c r="L158" s="4" t="s">
         <v>2460</v>
@@ -55104,10 +55162,10 @@
         <v>2540</v>
       </c>
       <c r="J163" s="43" t="s">
-        <v>13329</v>
+        <v>13328</v>
       </c>
       <c r="K163" s="46" t="s">
-        <v>13329</v>
+        <v>13328</v>
       </c>
       <c r="L163" s="10" t="s">
         <v>2541</v>
@@ -55228,7 +55286,7 @@
         <v>2577</v>
       </c>
       <c r="J165" s="43" t="s">
-        <v>13330</v>
+        <v>13329</v>
       </c>
       <c r="K165" s="46" t="s">
         <v>2578</v>
@@ -55488,7 +55546,7 @@
         <v>2656</v>
       </c>
       <c r="J170" s="43" t="s">
-        <v>13331</v>
+        <v>13330</v>
       </c>
       <c r="L170" s="10" t="s">
         <v>2657</v>
@@ -55547,10 +55605,10 @@
         <v>2674</v>
       </c>
       <c r="J171" s="43" t="s">
-        <v>13332</v>
+        <v>13331</v>
       </c>
       <c r="K171" s="46" t="s">
-        <v>13332</v>
+        <v>13331</v>
       </c>
       <c r="L171" s="4" t="s">
         <v>2675</v>
@@ -55712,7 +55770,7 @@
         <v>2723</v>
       </c>
       <c r="J174" s="43" t="s">
-        <v>13333</v>
+        <v>13332</v>
       </c>
       <c r="K174" s="46" t="s">
         <v>2724</v>
@@ -55762,10 +55820,10 @@
         <v>2738</v>
       </c>
       <c r="J175" s="43" t="s">
-        <v>13334</v>
+        <v>13333</v>
       </c>
       <c r="K175" s="46" t="s">
-        <v>13334</v>
+        <v>13333</v>
       </c>
       <c r="L175" s="10" t="s">
         <v>2739</v>
@@ -55948,10 +56006,10 @@
         <v>2794</v>
       </c>
       <c r="J178" s="43" t="s">
-        <v>13335</v>
+        <v>13334</v>
       </c>
       <c r="K178" s="46" t="s">
-        <v>13335</v>
+        <v>13334</v>
       </c>
       <c r="L178" s="4" t="s">
         <v>2795</v>
@@ -56057,10 +56115,10 @@
         <v>2825</v>
       </c>
       <c r="J180" s="43" t="s">
-        <v>13336</v>
+        <v>13335</v>
       </c>
       <c r="K180" s="46" t="s">
-        <v>13336</v>
+        <v>13335</v>
       </c>
       <c r="L180" s="10" t="s">
         <v>2826</v>
@@ -56243,10 +56301,10 @@
         <v>2880</v>
       </c>
       <c r="J183" s="43" t="s">
-        <v>13232</v>
+        <v>13231</v>
       </c>
       <c r="K183" s="46" t="s">
-        <v>13232</v>
+        <v>13231</v>
       </c>
       <c r="L183" s="4" t="s">
         <v>2881</v>
@@ -56302,10 +56360,10 @@
         <v>2897</v>
       </c>
       <c r="J184" s="43" t="s">
-        <v>13337</v>
+        <v>13336</v>
       </c>
       <c r="K184" s="46" t="s">
-        <v>13337</v>
+        <v>13336</v>
       </c>
       <c r="L184" s="4" t="s">
         <v>2898</v>
@@ -56529,10 +56587,10 @@
         <v>2963</v>
       </c>
       <c r="J188" s="43" t="s">
-        <v>13338</v>
+        <v>13337</v>
       </c>
       <c r="K188" s="46" t="s">
-        <v>13338</v>
+        <v>13337</v>
       </c>
       <c r="L188" s="10" t="s">
         <v>2964</v>
@@ -56591,7 +56649,7 @@
         <v>2981</v>
       </c>
       <c r="J189" s="43" t="s">
-        <v>13339</v>
+        <v>13338</v>
       </c>
       <c r="K189" s="46" t="s">
         <v>2982</v>
@@ -56824,7 +56882,7 @@
         <v>3050</v>
       </c>
       <c r="J193" s="43" t="s">
-        <v>13340</v>
+        <v>13339</v>
       </c>
       <c r="L193" s="10" t="s">
         <v>3051</v>
@@ -56883,7 +56941,7 @@
         <v>3068</v>
       </c>
       <c r="J194" s="43" t="s">
-        <v>13341</v>
+        <v>13340</v>
       </c>
       <c r="K194" s="46" t="s">
         <v>3069</v>
@@ -57172,7 +57230,7 @@
         <v>3145</v>
       </c>
       <c r="J199" s="43" t="s">
-        <v>13342</v>
+        <v>13341</v>
       </c>
       <c r="K199" s="46" t="s">
         <v>3146</v>
@@ -57358,10 +57416,10 @@
         <v>3202</v>
       </c>
       <c r="J202" s="43" t="s">
-        <v>13343</v>
+        <v>13342</v>
       </c>
       <c r="K202" s="46" t="s">
-        <v>13343</v>
+        <v>13342</v>
       </c>
       <c r="L202" s="4" t="s">
         <v>3203</v>
@@ -57420,10 +57478,10 @@
         <v>3220</v>
       </c>
       <c r="J203" s="43" t="s">
-        <v>13344</v>
+        <v>13343</v>
       </c>
       <c r="K203" s="46" t="s">
-        <v>13344</v>
+        <v>13343</v>
       </c>
       <c r="L203" s="4" t="s">
         <v>3221</v>
@@ -57470,10 +57528,10 @@
         <v>3234</v>
       </c>
       <c r="J204" s="43" t="s">
-        <v>13345</v>
+        <v>13344</v>
       </c>
       <c r="K204" s="46" t="s">
-        <v>13345</v>
+        <v>13344</v>
       </c>
       <c r="L204" s="10" t="s">
         <v>3235</v>
@@ -57694,10 +57752,10 @@
         <v>3293</v>
       </c>
       <c r="J208" s="43" t="s">
-        <v>13233</v>
+        <v>13232</v>
       </c>
       <c r="K208" s="46" t="s">
-        <v>13233</v>
+        <v>13232</v>
       </c>
       <c r="L208" s="10" t="s">
         <v>3294</v>
@@ -57818,7 +57876,7 @@
         <v>3324</v>
       </c>
       <c r="J210" s="43" t="s">
-        <v>13346</v>
+        <v>13345</v>
       </c>
       <c r="K210" s="46" t="s">
         <v>3325</v>
@@ -57880,7 +57938,7 @@
         <v>3343</v>
       </c>
       <c r="J211" s="43" t="s">
-        <v>13347</v>
+        <v>13346</v>
       </c>
       <c r="K211" s="46" t="s">
         <v>3344</v>
@@ -57930,10 +57988,10 @@
         <v>3358</v>
       </c>
       <c r="J212" s="43" t="s">
-        <v>13348</v>
+        <v>13347</v>
       </c>
       <c r="K212" s="46" t="s">
-        <v>13348</v>
+        <v>13347</v>
       </c>
       <c r="L212" s="10" t="s">
         <v>3359</v>
@@ -58116,7 +58174,7 @@
         <v>3414</v>
       </c>
       <c r="J215" s="43" t="s">
-        <v>13349</v>
+        <v>13348</v>
       </c>
       <c r="K215" s="46" t="s">
         <v>3415</v>
@@ -58178,7 +58236,7 @@
         <v>3433</v>
       </c>
       <c r="J216" s="43" t="s">
-        <v>13350</v>
+        <v>13349</v>
       </c>
       <c r="K216" s="46" t="s">
         <v>3434</v>
@@ -58349,10 +58407,10 @@
         <v>3480</v>
       </c>
       <c r="J219" s="43" t="s">
-        <v>13351</v>
+        <v>13350</v>
       </c>
       <c r="K219" s="46" t="s">
-        <v>13351</v>
+        <v>13350</v>
       </c>
       <c r="L219" s="10" t="s">
         <v>3481</v>
@@ -58411,7 +58469,7 @@
         <v>3498</v>
       </c>
       <c r="J220" s="43" t="s">
-        <v>13352</v>
+        <v>13351</v>
       </c>
       <c r="K220" s="46" t="s">
         <v>3499</v>
@@ -58473,7 +58531,7 @@
         <v>3517</v>
       </c>
       <c r="J221" s="43" t="s">
-        <v>13353</v>
+        <v>13352</v>
       </c>
       <c r="K221" s="46" t="s">
         <v>3518</v>
@@ -58523,10 +58581,10 @@
         <v>3532</v>
       </c>
       <c r="J222" s="43" t="s">
-        <v>13354</v>
+        <v>13353</v>
       </c>
       <c r="K222" s="46" t="s">
-        <v>13354</v>
+        <v>13353</v>
       </c>
       <c r="L222" s="10" t="s">
         <v>3533</v>
@@ -58635,10 +58693,10 @@
         <v>3565</v>
       </c>
       <c r="J224" s="43" t="s">
-        <v>13355</v>
+        <v>13354</v>
       </c>
       <c r="K224" s="46" t="s">
-        <v>13355</v>
+        <v>13354</v>
       </c>
       <c r="L224" s="10" t="s">
         <v>3566</v>
@@ -58809,10 +58867,10 @@
         <v>3608</v>
       </c>
       <c r="J227" s="43" t="s">
-        <v>13356</v>
+        <v>13355</v>
       </c>
       <c r="K227" s="46" t="s">
-        <v>13356</v>
+        <v>13355</v>
       </c>
       <c r="L227" s="10" t="s">
         <v>3609</v>
@@ -58933,7 +58991,7 @@
         <v>3645</v>
       </c>
       <c r="J229" s="43" t="s">
-        <v>13357</v>
+        <v>13356</v>
       </c>
       <c r="K229" s="46" t="s">
         <v>3646</v>
@@ -59358,10 +59416,10 @@
         <v>3763</v>
       </c>
       <c r="J236" s="43" t="s">
-        <v>13358</v>
+        <v>13357</v>
       </c>
       <c r="K236" s="46" t="s">
-        <v>13358</v>
+        <v>13357</v>
       </c>
       <c r="L236" s="4" t="s">
         <v>3764</v>
@@ -59606,7 +59664,7 @@
         <v>3837</v>
       </c>
       <c r="J240" s="43" t="s">
-        <v>13359</v>
+        <v>13358</v>
       </c>
       <c r="K240" s="46" t="s">
         <v>3838</v>
@@ -59907,7 +59965,7 @@
         <v>3928</v>
       </c>
       <c r="J245" s="43" t="s">
-        <v>13360</v>
+        <v>13359</v>
       </c>
       <c r="K245" s="46" t="s">
         <v>3929</v>
@@ -60016,10 +60074,10 @@
         <v>3954</v>
       </c>
       <c r="J247" s="43" t="s">
-        <v>13361</v>
+        <v>13360</v>
       </c>
       <c r="K247" s="46" t="s">
-        <v>13361</v>
+        <v>13360</v>
       </c>
       <c r="L247" s="10" t="s">
         <v>3955</v>
@@ -60196,10 +60254,10 @@
         <v>4006</v>
       </c>
       <c r="J250" s="43" t="s">
-        <v>13191</v>
+        <v>13190</v>
       </c>
       <c r="K250" s="46" t="s">
-        <v>13191</v>
+        <v>13190</v>
       </c>
       <c r="L250" s="4" t="s">
         <v>4007</v>
@@ -60367,10 +60425,10 @@
         <v>4055</v>
       </c>
       <c r="J253" s="43" t="s">
-        <v>13362</v>
+        <v>13361</v>
       </c>
       <c r="K253" s="46" t="s">
-        <v>13362</v>
+        <v>13361</v>
       </c>
       <c r="L253" s="10" t="s">
         <v>4056</v>
@@ -60677,10 +60735,10 @@
         <v>4134</v>
       </c>
       <c r="J258" s="43" t="s">
-        <v>13234</v>
+        <v>13233</v>
       </c>
       <c r="K258" s="46" t="s">
-        <v>13234</v>
+        <v>13233</v>
       </c>
       <c r="L258" s="4" t="s">
         <v>4135</v>
@@ -60861,10 +60919,10 @@
         <v>4180</v>
       </c>
       <c r="J261" s="43" t="s">
-        <v>13363</v>
+        <v>13362</v>
       </c>
       <c r="K261" s="46" t="s">
-        <v>13363</v>
+        <v>13362</v>
       </c>
       <c r="L261" s="4" t="s">
         <v>4181</v>
@@ -61779,10 +61837,10 @@
         <v>4418</v>
       </c>
       <c r="J276" s="43" t="s">
-        <v>13364</v>
+        <v>13363</v>
       </c>
       <c r="K276" s="46" t="s">
-        <v>13364</v>
+        <v>13363</v>
       </c>
       <c r="L276" s="10" t="s">
         <v>4419</v>
@@ -62027,10 +62085,10 @@
         <v>4490</v>
       </c>
       <c r="J280" s="43" t="s">
-        <v>13365</v>
+        <v>13364</v>
       </c>
       <c r="K280" s="46" t="s">
-        <v>13365</v>
+        <v>13364</v>
       </c>
       <c r="L280" s="4" t="s">
         <v>4488</v>
@@ -62275,7 +62333,7 @@
         <v>4552</v>
       </c>
       <c r="J284" s="43" t="s">
-        <v>13366</v>
+        <v>13365</v>
       </c>
       <c r="K284" s="46" t="s">
         <v>4553</v>
@@ -62576,7 +62634,7 @@
         <v>4639</v>
       </c>
       <c r="J289" s="43" t="s">
-        <v>13367</v>
+        <v>13366</v>
       </c>
       <c r="K289" s="46" t="s">
         <v>4640</v>
@@ -62638,7 +62696,7 @@
         <v>4658</v>
       </c>
       <c r="J290" s="43" t="s">
-        <v>13368</v>
+        <v>13367</v>
       </c>
       <c r="K290" s="46" t="s">
         <v>4659</v>
@@ -62877,10 +62935,10 @@
         <v>4724</v>
       </c>
       <c r="J294" s="43" t="s">
-        <v>13235</v>
+        <v>13234</v>
       </c>
       <c r="K294" s="46" t="s">
-        <v>13235</v>
+        <v>13234</v>
       </c>
       <c r="L294" s="4" t="s">
         <v>4725</v>
@@ -64725,7 +64783,7 @@
         <v>5226</v>
       </c>
       <c r="J324" s="43" t="s">
-        <v>13369</v>
+        <v>13368</v>
       </c>
       <c r="K324" s="46" t="s">
         <v>5227</v>
@@ -65265,10 +65323,10 @@
         <v>5377</v>
       </c>
       <c r="J333" s="43" t="s">
-        <v>13370</v>
+        <v>13369</v>
       </c>
       <c r="K333" s="46" t="s">
-        <v>13370</v>
+        <v>13369</v>
       </c>
       <c r="L333" s="10" t="s">
         <v>5378</v>
@@ -65808,10 +65866,10 @@
         <v>5533</v>
       </c>
       <c r="J342" s="43" t="s">
-        <v>13371</v>
+        <v>13370</v>
       </c>
       <c r="K342" s="46" t="s">
-        <v>13371</v>
+        <v>13370</v>
       </c>
       <c r="L342" s="10" t="s">
         <v>5534</v>
@@ -66791,10 +66849,10 @@
         <v>5775</v>
       </c>
       <c r="J358" s="43" t="s">
-        <v>13236</v>
+        <v>13235</v>
       </c>
       <c r="K358" s="46" t="s">
-        <v>13236</v>
+        <v>13235</v>
       </c>
       <c r="L358" s="4" t="s">
         <v>5776</v>
@@ -67213,7 +67271,7 @@
         <v>5884</v>
       </c>
       <c r="J365" s="43" t="s">
-        <v>13372</v>
+        <v>13371</v>
       </c>
       <c r="L365" s="10" t="s">
         <v>5885</v>
@@ -67499,7 +67557,7 @@
         <v>5968</v>
       </c>
       <c r="J370" s="43" t="s">
-        <v>13373</v>
+        <v>13372</v>
       </c>
       <c r="K370" s="46" t="s">
         <v>5969</v>
@@ -67546,10 +67604,10 @@
         <v>5982</v>
       </c>
       <c r="J371" s="43" t="s">
-        <v>13374</v>
+        <v>13373</v>
       </c>
       <c r="K371" s="46" t="s">
-        <v>13374</v>
+        <v>13373</v>
       </c>
       <c r="L371" s="10" t="s">
         <v>5983</v>
@@ -67980,10 +68038,10 @@
         <v>6104</v>
       </c>
       <c r="J378" s="43" t="s">
-        <v>13192</v>
+        <v>13191</v>
       </c>
       <c r="K378" s="46" t="s">
-        <v>13192</v>
+        <v>13191</v>
       </c>
       <c r="L378" s="4" t="s">
         <v>6105</v>
@@ -68219,10 +68277,10 @@
         <v>6166</v>
       </c>
       <c r="J382" s="43" t="s">
-        <v>13375</v>
+        <v>13374</v>
       </c>
       <c r="K382" s="46" t="s">
-        <v>13375</v>
+        <v>13374</v>
       </c>
       <c r="L382" s="10" t="s">
         <v>6167</v>
@@ -68467,10 +68525,10 @@
         <v>6238</v>
       </c>
       <c r="J386" s="43" t="s">
-        <v>13237</v>
+        <v>13236</v>
       </c>
       <c r="K386" s="46" t="s">
-        <v>13237</v>
+        <v>13236</v>
       </c>
       <c r="L386" s="4" t="s">
         <v>6239</v>
@@ -68760,10 +68818,10 @@
         <v>6319</v>
       </c>
       <c r="J391" s="43" t="s">
-        <v>13376</v>
+        <v>13375</v>
       </c>
       <c r="K391" s="46" t="s">
-        <v>13376</v>
+        <v>13375</v>
       </c>
       <c r="L391" s="10" t="s">
         <v>6320</v>
@@ -68884,10 +68942,10 @@
         <v>6345</v>
       </c>
       <c r="J393" s="43" t="s">
-        <v>13377</v>
+        <v>13376</v>
       </c>
       <c r="K393" s="46" t="s">
-        <v>13377</v>
+        <v>13376</v>
       </c>
       <c r="L393" s="4" t="s">
         <v>6346</v>
@@ -69005,10 +69063,10 @@
         <v>6377</v>
       </c>
       <c r="J395" s="43" t="s">
-        <v>13378</v>
+        <v>13377</v>
       </c>
       <c r="K395" s="46" t="s">
-        <v>13378</v>
+        <v>13377</v>
       </c>
       <c r="L395" s="4" t="s">
         <v>6378</v>
@@ -69191,10 +69249,10 @@
         <v>6433</v>
       </c>
       <c r="J398" s="43" t="s">
-        <v>13193</v>
+        <v>13192</v>
       </c>
       <c r="K398" s="46" t="s">
-        <v>13193</v>
+        <v>13192</v>
       </c>
       <c r="L398" s="4" t="s">
         <v>6434</v>
@@ -69315,10 +69373,10 @@
         <v>6465</v>
       </c>
       <c r="J400" s="43" t="s">
-        <v>13238</v>
+        <v>13237</v>
       </c>
       <c r="K400" s="46" t="s">
-        <v>13238</v>
+        <v>13237</v>
       </c>
       <c r="L400" s="4" t="s">
         <v>6466</v>
@@ -69430,10 +69488,10 @@
         <v>6491</v>
       </c>
       <c r="J402" s="43" t="s">
-        <v>13379</v>
+        <v>13378</v>
       </c>
       <c r="K402" s="46" t="s">
-        <v>13379</v>
+        <v>13378</v>
       </c>
       <c r="L402" s="10" t="s">
         <v>6492</v>
@@ -69542,7 +69600,7 @@
         <v>6524</v>
       </c>
       <c r="J404" s="43" t="s">
-        <v>13380</v>
+        <v>13379</v>
       </c>
       <c r="K404" s="46" t="s">
         <v>6525</v>
@@ -69666,7 +69724,7 @@
         <v>6560</v>
       </c>
       <c r="J406" s="43" t="s">
-        <v>13381</v>
+        <v>13380</v>
       </c>
       <c r="K406" s="46" t="s">
         <v>6561</v>
@@ -69840,10 +69898,10 @@
         <v>6612</v>
       </c>
       <c r="J409" s="43" t="s">
-        <v>13239</v>
+        <v>13238</v>
       </c>
       <c r="K409" s="46" t="s">
-        <v>13239</v>
+        <v>13238</v>
       </c>
       <c r="L409" s="10" t="s">
         <v>6613</v>
@@ -70011,10 +70069,10 @@
         <v>6663</v>
       </c>
       <c r="J412" s="43" t="s">
-        <v>13382</v>
+        <v>13381</v>
       </c>
       <c r="K412" s="46" t="s">
-        <v>13382</v>
+        <v>13381</v>
       </c>
       <c r="L412" s="10" t="s">
         <v>6664</v>
@@ -70135,10 +70193,10 @@
         <v>6700</v>
       </c>
       <c r="J414" s="43" t="s">
-        <v>13240</v>
+        <v>13239</v>
       </c>
       <c r="K414" s="46" t="s">
-        <v>13240</v>
+        <v>13239</v>
       </c>
       <c r="L414" s="4" t="s">
         <v>6701</v>
@@ -70185,10 +70243,10 @@
         <v>6714</v>
       </c>
       <c r="J415" s="43" t="s">
-        <v>13383</v>
+        <v>13382</v>
       </c>
       <c r="K415" s="46" t="s">
-        <v>13383</v>
+        <v>13382</v>
       </c>
       <c r="L415" s="10" t="s">
         <v>6715</v>
@@ -70433,7 +70491,7 @@
         <v>6780</v>
       </c>
       <c r="J419" s="43" t="s">
-        <v>13384</v>
+        <v>13383</v>
       </c>
       <c r="K419" s="46" t="s">
         <v>6781</v>
@@ -70495,7 +70553,7 @@
         <v>6798</v>
       </c>
       <c r="J420" s="43" t="s">
-        <v>13385</v>
+        <v>13384</v>
       </c>
       <c r="K420" s="46" t="s">
         <v>6799</v>
@@ -70728,10 +70786,10 @@
         <v>6864</v>
       </c>
       <c r="J424" s="43" t="s">
-        <v>13194</v>
+        <v>13193</v>
       </c>
       <c r="K424" s="46" t="s">
-        <v>13194</v>
+        <v>13193</v>
       </c>
       <c r="L424" s="10" t="s">
         <v>6865</v>
@@ -70790,10 +70848,10 @@
         <v>6881</v>
       </c>
       <c r="J425" s="43" t="s">
-        <v>13386</v>
+        <v>13385</v>
       </c>
       <c r="K425" s="46" t="s">
-        <v>13386</v>
+        <v>13385</v>
       </c>
       <c r="L425" s="4" t="s">
         <v>6882</v>
@@ -71280,10 +71338,10 @@
         <v>7013</v>
       </c>
       <c r="J433" s="43" t="s">
-        <v>13387</v>
+        <v>13386</v>
       </c>
       <c r="K433" s="46" t="s">
-        <v>13387</v>
+        <v>13386</v>
       </c>
       <c r="L433" s="4" t="s">
         <v>7014</v>
@@ -71956,10 +72014,10 @@
         <v>7189</v>
       </c>
       <c r="J444" s="43" t="s">
-        <v>13388</v>
+        <v>13387</v>
       </c>
       <c r="K444" s="46" t="s">
-        <v>13388</v>
+        <v>13387</v>
       </c>
       <c r="L444" s="4" t="s">
         <v>7190</v>
@@ -72003,10 +72061,10 @@
         <v>7202</v>
       </c>
       <c r="J445" s="43" t="s">
-        <v>13389</v>
+        <v>13388</v>
       </c>
       <c r="K445" s="46" t="s">
-        <v>13389</v>
+        <v>13388</v>
       </c>
       <c r="L445" s="10" t="s">
         <v>7203</v>
@@ -72065,10 +72123,10 @@
         <v>7219</v>
       </c>
       <c r="J446" s="43" t="s">
-        <v>13390</v>
+        <v>13389</v>
       </c>
       <c r="K446" s="46" t="s">
-        <v>13390</v>
+        <v>13389</v>
       </c>
       <c r="L446" s="4" t="s">
         <v>7220</v>
@@ -72127,10 +72185,10 @@
         <v>7237</v>
       </c>
       <c r="J447" s="43" t="s">
-        <v>13391</v>
+        <v>13390</v>
       </c>
       <c r="K447" s="46" t="s">
-        <v>13391</v>
+        <v>13390</v>
       </c>
       <c r="L447" s="4" t="s">
         <v>7238</v>
@@ -72251,10 +72309,10 @@
         <v>7266</v>
       </c>
       <c r="J449" s="43" t="s">
-        <v>13392</v>
+        <v>13391</v>
       </c>
       <c r="K449" s="46" t="s">
-        <v>13392</v>
+        <v>13391</v>
       </c>
       <c r="L449" s="4" t="s">
         <v>7267</v>
@@ -72794,10 +72852,10 @@
         <v>7396</v>
       </c>
       <c r="J458" s="43" t="s">
-        <v>13241</v>
+        <v>13240</v>
       </c>
       <c r="K458" s="46" t="s">
-        <v>13241</v>
+        <v>13240</v>
       </c>
       <c r="L458" s="4" t="s">
         <v>7397</v>
@@ -72856,10 +72914,10 @@
         <v>7413</v>
       </c>
       <c r="J459" s="43" t="s">
-        <v>13242</v>
+        <v>13241</v>
       </c>
       <c r="K459" s="46" t="s">
-        <v>13242</v>
+        <v>13241</v>
       </c>
       <c r="L459" s="4" t="s">
         <v>7414</v>
@@ -72903,10 +72961,10 @@
         <v>7426</v>
       </c>
       <c r="J460" s="43" t="s">
-        <v>13393</v>
+        <v>13392</v>
       </c>
       <c r="K460" s="46" t="s">
-        <v>13393</v>
+        <v>13392</v>
       </c>
       <c r="L460" s="10" t="s">
         <v>7427</v>
@@ -73062,10 +73120,10 @@
         <v>7472</v>
       </c>
       <c r="J463" s="43" t="s">
-        <v>13394</v>
+        <v>13393</v>
       </c>
       <c r="K463" s="46" t="s">
-        <v>13394</v>
+        <v>13393</v>
       </c>
       <c r="L463" s="10" t="s">
         <v>7473</v>
@@ -73298,10 +73356,10 @@
         <v>7539</v>
       </c>
       <c r="J467" s="43" t="s">
-        <v>13395</v>
+        <v>13394</v>
       </c>
       <c r="K467" s="46" t="s">
-        <v>13395</v>
+        <v>13394</v>
       </c>
       <c r="L467" s="10" t="s">
         <v>7540</v>
@@ -74078,10 +74136,10 @@
         <v>7761</v>
       </c>
       <c r="J480" s="43" t="s">
-        <v>13396</v>
+        <v>13395</v>
       </c>
       <c r="K480" s="46" t="s">
-        <v>13396</v>
+        <v>13395</v>
       </c>
       <c r="L480" s="4" t="s">
         <v>7762</v>
@@ -74326,10 +74384,10 @@
         <v>7826</v>
       </c>
       <c r="J484" s="43" t="s">
-        <v>13195</v>
+        <v>13194</v>
       </c>
       <c r="K484" s="46" t="s">
-        <v>13195</v>
+        <v>13194</v>
       </c>
       <c r="L484" s="4" t="s">
         <v>7827</v>
@@ -74686,10 +74744,10 @@
         <v>7916</v>
       </c>
       <c r="J490" s="43" t="s">
-        <v>13397</v>
+        <v>13396</v>
       </c>
       <c r="K490" s="46" t="s">
-        <v>13397</v>
+        <v>13396</v>
       </c>
       <c r="L490" s="10" t="s">
         <v>7917</v>
@@ -74993,10 +75051,10 @@
         <v>8006</v>
       </c>
       <c r="J495" s="43" t="s">
-        <v>13196</v>
+        <v>13195</v>
       </c>
       <c r="K495" s="46" t="s">
-        <v>13196</v>
+        <v>13195</v>
       </c>
       <c r="L495" s="4" t="s">
         <v>8007</v>
@@ -75176,10 +75234,10 @@
         <v>8056</v>
       </c>
       <c r="J498" s="43" t="s">
-        <v>13197</v>
+        <v>13196</v>
       </c>
       <c r="K498" s="46" t="s">
-        <v>13197</v>
+        <v>13196</v>
       </c>
       <c r="L498" s="4" t="s">
         <v>8057</v>
@@ -75300,10 +75358,10 @@
         <v>8085</v>
       </c>
       <c r="J500" s="43" t="s">
-        <v>13398</v>
+        <v>13397</v>
       </c>
       <c r="K500" s="46" t="s">
-        <v>13398</v>
+        <v>13397</v>
       </c>
       <c r="L500" s="10" t="s">
         <v>8086</v>
@@ -75424,10 +75482,10 @@
         <v>8117</v>
       </c>
       <c r="J502" s="43" t="s">
-        <v>13399</v>
+        <v>13398</v>
       </c>
       <c r="K502" s="46" t="s">
-        <v>13399</v>
+        <v>13398</v>
       </c>
       <c r="L502" s="4" t="s">
         <v>8118</v>
@@ -75672,10 +75730,10 @@
         <v>8190</v>
       </c>
       <c r="J506" s="43" t="s">
-        <v>13198</v>
+        <v>13197</v>
       </c>
       <c r="K506" s="46" t="s">
-        <v>13198</v>
+        <v>13197</v>
       </c>
       <c r="L506" s="4" t="s">
         <v>8191</v>
@@ -76227,10 +76285,10 @@
         <v>8344</v>
       </c>
       <c r="J515" s="43" t="s">
-        <v>13199</v>
+        <v>13198</v>
       </c>
       <c r="K515" s="46" t="s">
-        <v>13199</v>
+        <v>13198</v>
       </c>
       <c r="L515" s="4" t="s">
         <v>958</v>
@@ -76289,10 +76347,10 @@
         <v>8361</v>
       </c>
       <c r="J516" s="43" t="s">
-        <v>13200</v>
+        <v>13199</v>
       </c>
       <c r="K516" s="46" t="s">
-        <v>13200</v>
+        <v>13199</v>
       </c>
       <c r="L516" s="4" t="s">
         <v>8362</v>
@@ -76959,10 +77017,10 @@
         <v>8533</v>
       </c>
       <c r="J527" s="43" t="s">
-        <v>13201</v>
+        <v>13200</v>
       </c>
       <c r="K527" s="46" t="s">
-        <v>13201</v>
+        <v>13200</v>
       </c>
       <c r="L527" s="4" t="s">
         <v>8534</v>
@@ -77021,10 +77079,10 @@
         <v>8551</v>
       </c>
       <c r="J528" s="43" t="s">
-        <v>13400</v>
+        <v>13399</v>
       </c>
       <c r="K528" s="46" t="s">
-        <v>13400</v>
+        <v>13399</v>
       </c>
       <c r="L528" s="4" t="s">
         <v>8552</v>
@@ -77142,10 +77200,10 @@
         <v>8584</v>
       </c>
       <c r="J530" s="43" t="s">
-        <v>13401</v>
+        <v>13400</v>
       </c>
       <c r="K530" s="46" t="s">
-        <v>13401</v>
+        <v>13400</v>
       </c>
       <c r="L530" s="4" t="s">
         <v>8585</v>
@@ -77390,10 +77448,10 @@
         <v>8651</v>
       </c>
       <c r="J534" s="43" t="s">
-        <v>13402</v>
+        <v>13401</v>
       </c>
       <c r="K534" s="46" t="s">
-        <v>13402</v>
+        <v>13401</v>
       </c>
       <c r="L534" s="4" t="s">
         <v>8652</v>
@@ -77638,10 +77696,10 @@
         <v>8723</v>
       </c>
       <c r="J538" s="43" t="s">
-        <v>13202</v>
+        <v>13201</v>
       </c>
       <c r="K538" s="46" t="s">
-        <v>13202</v>
+        <v>13201</v>
       </c>
       <c r="L538" s="4" t="s">
         <v>8724</v>
@@ -77880,10 +77938,10 @@
         <v>8779</v>
       </c>
       <c r="J542" s="43" t="s">
-        <v>13403</v>
+        <v>13402</v>
       </c>
       <c r="K542" s="46" t="s">
-        <v>13403</v>
+        <v>13402</v>
       </c>
       <c r="L542" s="4" t="s">
         <v>8780</v>
@@ -78184,10 +78242,10 @@
         <v>8863</v>
       </c>
       <c r="J547" s="43" t="s">
-        <v>13203</v>
+        <v>13202</v>
       </c>
       <c r="K547" s="46" t="s">
-        <v>13203</v>
+        <v>13202</v>
       </c>
       <c r="L547" s="4" t="s">
         <v>8864</v>
@@ -78246,10 +78304,10 @@
         <v>8881</v>
       </c>
       <c r="J548" s="43" t="s">
-        <v>13204</v>
+        <v>13203</v>
       </c>
       <c r="K548" s="46" t="s">
-        <v>13204</v>
+        <v>13203</v>
       </c>
       <c r="L548" s="4" t="s">
         <v>8882</v>
@@ -78370,10 +78428,10 @@
         <v>8915</v>
       </c>
       <c r="J550" s="43" t="s">
-        <v>13404</v>
+        <v>13403</v>
       </c>
       <c r="K550" s="46" t="s">
-        <v>13404</v>
+        <v>13403</v>
       </c>
       <c r="L550" s="4" t="s">
         <v>8916</v>
@@ -78910,10 +78968,10 @@
         <v>9063</v>
       </c>
       <c r="J559" s="43" t="s">
-        <v>13205</v>
+        <v>13204</v>
       </c>
       <c r="K559" s="46" t="s">
-        <v>13205</v>
+        <v>13204</v>
       </c>
       <c r="L559" s="4" t="s">
         <v>9064</v>
@@ -79279,10 +79337,10 @@
         <v>9168</v>
       </c>
       <c r="J565" s="43" t="s">
-        <v>13405</v>
+        <v>13404</v>
       </c>
       <c r="K565" s="46" t="s">
-        <v>13405</v>
+        <v>13404</v>
       </c>
       <c r="L565" s="4" t="s">
         <v>9169</v>
@@ -79462,10 +79520,10 @@
         <v>9223</v>
       </c>
       <c r="J568" s="43" t="s">
-        <v>13406</v>
+        <v>13405</v>
       </c>
       <c r="K568" s="46" t="s">
-        <v>13406</v>
+        <v>13405</v>
       </c>
       <c r="L568" s="4" t="s">
         <v>9224</v>
@@ -79524,10 +79582,10 @@
         <v>9241</v>
       </c>
       <c r="J569" s="43" t="s">
-        <v>13407</v>
+        <v>13406</v>
       </c>
       <c r="K569" s="46" t="s">
-        <v>13407</v>
+        <v>13406</v>
       </c>
       <c r="L569" s="4" t="s">
         <v>9242</v>
@@ -79586,10 +79644,10 @@
         <v>9259</v>
       </c>
       <c r="J570" s="43" t="s">
-        <v>13206</v>
+        <v>13205</v>
       </c>
       <c r="K570" s="46" t="s">
-        <v>13206</v>
+        <v>13205</v>
       </c>
       <c r="L570" s="4" t="s">
         <v>9260</v>
@@ -81112,10 +81170,10 @@
         <v>9652</v>
       </c>
       <c r="J595" s="43" t="s">
-        <v>13207</v>
+        <v>13206</v>
       </c>
       <c r="K595" s="46" t="s">
-        <v>13207</v>
+        <v>13206</v>
       </c>
       <c r="L595" s="4" t="s">
         <v>9653</v>
@@ -81292,10 +81350,10 @@
         <v>9700</v>
       </c>
       <c r="J598" s="43" t="s">
-        <v>13208</v>
+        <v>13207</v>
       </c>
       <c r="K598" s="46" t="s">
-        <v>13208</v>
+        <v>13207</v>
       </c>
       <c r="L598" s="4" t="s">
         <v>9701</v>
@@ -81478,10 +81536,10 @@
         <v>9753</v>
       </c>
       <c r="J601" s="43" t="s">
-        <v>13209</v>
+        <v>13208</v>
       </c>
       <c r="K601" s="46" t="s">
-        <v>13209</v>
+        <v>13208</v>
       </c>
       <c r="L601" s="4" t="s">
         <v>9754</v>
@@ -81537,10 +81595,10 @@
         <v>9770</v>
       </c>
       <c r="J602" s="43" t="s">
-        <v>13408</v>
+        <v>13407</v>
       </c>
       <c r="K602" s="43" t="s">
-        <v>13408</v>
+        <v>13407</v>
       </c>
       <c r="L602" s="4" t="s">
         <v>9771</v>
@@ -81597,10 +81655,10 @@
         <v>9787</v>
       </c>
       <c r="J603" s="43" t="s">
-        <v>13210</v>
+        <v>13209</v>
       </c>
       <c r="K603" s="46" t="s">
-        <v>13210</v>
+        <v>13209</v>
       </c>
       <c r="L603" s="4" t="s">
         <v>9788</v>
@@ -81901,10 +81959,10 @@
         <v>9844</v>
       </c>
       <c r="J608" s="43" t="s">
-        <v>13409</v>
+        <v>13408</v>
       </c>
       <c r="K608" s="43" t="s">
-        <v>13409</v>
+        <v>13408</v>
       </c>
       <c r="L608" s="4" t="s">
         <v>9845</v>
@@ -82025,10 +82083,10 @@
         <v>9867</v>
       </c>
       <c r="J610" s="43" t="s">
-        <v>13211</v>
+        <v>13210</v>
       </c>
       <c r="K610" s="46" t="s">
-        <v>13211</v>
+        <v>13210</v>
       </c>
       <c r="L610" s="4" t="s">
         <v>9868</v>
@@ -82143,10 +82201,10 @@
         <v>9887</v>
       </c>
       <c r="J612" s="43" t="s">
-        <v>13410</v>
+        <v>13409</v>
       </c>
       <c r="K612" s="43" t="s">
-        <v>13410</v>
+        <v>13409</v>
       </c>
       <c r="L612" s="4" t="s">
         <v>9888</v>
@@ -83424,7 +83482,7 @@
         <v>10204</v>
       </c>
       <c r="J633" s="43" t="s">
-        <v>13411</v>
+        <v>13410</v>
       </c>
       <c r="K633" s="46" t="s">
         <v>10205</v>
@@ -84271,7 +84329,7 @@
         <v>10410</v>
       </c>
       <c r="J647" s="43" t="s">
-        <v>13412</v>
+        <v>13411</v>
       </c>
       <c r="K647" s="46">
         <v>2</v>
@@ -84511,10 +84569,10 @@
         <v>10470</v>
       </c>
       <c r="J651" s="43" t="s">
-        <v>13413</v>
+        <v>13412</v>
       </c>
       <c r="K651" s="46" t="s">
-        <v>13413</v>
+        <v>13412</v>
       </c>
       <c r="L651" s="4" t="s">
         <v>10471</v>
@@ -86075,10 +86133,10 @@
         <v>10858</v>
       </c>
       <c r="J677" s="43" t="s">
-        <v>13212</v>
+        <v>13211</v>
       </c>
       <c r="K677" s="46" t="s">
-        <v>13212</v>
+        <v>13211</v>
       </c>
       <c r="L677" s="4" t="s">
         <v>10859</v>
@@ -86134,10 +86192,10 @@
         <v>10872</v>
       </c>
       <c r="J678" s="43" t="s">
-        <v>13414</v>
+        <v>13413</v>
       </c>
       <c r="K678" s="43" t="s">
-        <v>13414</v>
+        <v>13413</v>
       </c>
       <c r="L678" s="4" t="s">
         <v>10873</v>
@@ -86565,10 +86623,10 @@
         <v>10988</v>
       </c>
       <c r="J685" s="43" t="s">
-        <v>13213</v>
+        <v>13212</v>
       </c>
       <c r="K685" s="46" t="s">
-        <v>13213</v>
+        <v>13212</v>
       </c>
       <c r="L685" s="4" t="s">
         <v>10989</v>
@@ -86689,10 +86747,10 @@
         <v>11022</v>
       </c>
       <c r="J687" s="43" t="s">
-        <v>13214</v>
+        <v>13213</v>
       </c>
       <c r="K687" s="46" t="s">
-        <v>13214</v>
+        <v>13213</v>
       </c>
       <c r="L687" s="4" t="s">
         <v>11023</v>
@@ -86751,10 +86809,10 @@
         <v>11039</v>
       </c>
       <c r="J688" s="43" t="s">
-        <v>13415</v>
+        <v>13414</v>
       </c>
       <c r="K688" s="43" t="s">
-        <v>13415</v>
+        <v>13414</v>
       </c>
       <c r="L688" s="4" t="s">
         <v>11040</v>
@@ -86978,10 +87036,10 @@
         <v>11107</v>
       </c>
       <c r="J692" s="43" t="s">
-        <v>13416</v>
+        <v>13415</v>
       </c>
       <c r="K692" s="43" t="s">
-        <v>13416</v>
+        <v>13415</v>
       </c>
       <c r="L692" s="10" t="s">
         <v>11108</v>
@@ -87078,10 +87136,10 @@
         <v>11132</v>
       </c>
       <c r="J694" s="43" t="s">
-        <v>13417</v>
+        <v>13416</v>
       </c>
       <c r="K694" s="43" t="s">
-        <v>13417</v>
+        <v>13416</v>
       </c>
       <c r="L694" s="10" t="s">
         <v>11133</v>
@@ -87276,7 +87334,7 @@
         <v>11188</v>
       </c>
       <c r="J698" s="43" t="s">
-        <v>13418</v>
+        <v>13417</v>
       </c>
       <c r="K698" s="46" t="s">
         <v>11189</v>
@@ -87503,7 +87561,7 @@
         <v>11240</v>
       </c>
       <c r="O702" s="50" t="s">
-        <v>13466</v>
+        <v>13465</v>
       </c>
       <c r="P702" s="9" t="s">
         <v>11241</v>
@@ -87606,10 +87664,10 @@
         <v>11270</v>
       </c>
       <c r="J704" s="43" t="s">
-        <v>13215</v>
+        <v>13214</v>
       </c>
       <c r="K704" s="46" t="s">
-        <v>13215</v>
+        <v>13214</v>
       </c>
       <c r="L704" s="10" t="s">
         <v>11271</v>
@@ -88496,10 +88554,10 @@
         <v>11506</v>
       </c>
       <c r="J721" s="43" t="s">
-        <v>13419</v>
+        <v>13418</v>
       </c>
       <c r="K721" s="43" t="s">
-        <v>13419</v>
+        <v>13418</v>
       </c>
       <c r="L721" s="10" t="s">
         <v>11507</v>
@@ -88605,10 +88663,10 @@
         <v>11538</v>
       </c>
       <c r="J723" s="43" t="s">
-        <v>13420</v>
+        <v>13419</v>
       </c>
       <c r="K723" s="43" t="s">
-        <v>13420</v>
+        <v>13419</v>
       </c>
       <c r="L723" s="10" t="s">
         <v>11539</v>
@@ -88652,10 +88710,10 @@
         <v>11551</v>
       </c>
       <c r="J724" s="43" t="s">
-        <v>13421</v>
+        <v>13420</v>
       </c>
       <c r="K724" s="43" t="s">
-        <v>13421</v>
+        <v>13420</v>
       </c>
       <c r="L724" s="10" t="s">
         <v>11552</v>
@@ -88813,10 +88871,10 @@
         <v>11581</v>
       </c>
       <c r="J727" s="43" t="s">
-        <v>13216</v>
+        <v>13215</v>
       </c>
       <c r="K727" s="46" t="s">
-        <v>13216</v>
+        <v>13215</v>
       </c>
       <c r="L727" s="4" t="s">
         <v>11582</v>
@@ -88916,10 +88974,10 @@
         <v>11608</v>
       </c>
       <c r="J729" s="43" t="s">
-        <v>13422</v>
+        <v>13421</v>
       </c>
       <c r="K729" s="43" t="s">
-        <v>13422</v>
+        <v>13421</v>
       </c>
       <c r="L729" s="4" t="s">
         <v>11609</v>
@@ -89014,10 +89072,10 @@
         <v>11634</v>
       </c>
       <c r="J731" s="43" t="s">
-        <v>13423</v>
+        <v>13422</v>
       </c>
       <c r="K731" s="43" t="s">
-        <v>13423</v>
+        <v>13422</v>
       </c>
       <c r="L731" s="10" t="s">
         <v>11635</v>
@@ -89064,10 +89122,10 @@
         <v>11646</v>
       </c>
       <c r="J732" s="43" t="s">
-        <v>13424</v>
+        <v>13423</v>
       </c>
       <c r="K732" s="43" t="s">
-        <v>13424</v>
+        <v>13423</v>
       </c>
       <c r="L732" s="10" t="s">
         <v>11647</v>
@@ -89111,10 +89169,10 @@
         <v>4248</v>
       </c>
       <c r="J733" s="43" t="s">
-        <v>13425</v>
+        <v>13424</v>
       </c>
       <c r="K733" s="43" t="s">
-        <v>13425</v>
+        <v>13424</v>
       </c>
       <c r="L733" s="10" t="s">
         <v>11659</v>
@@ -89164,7 +89222,7 @@
         <v>11672</v>
       </c>
       <c r="J734" s="45" t="s">
-        <v>13426</v>
+        <v>13425</v>
       </c>
       <c r="L734" s="10" t="s">
         <v>11673</v>
@@ -89217,7 +89275,7 @@
         <v>11688</v>
       </c>
       <c r="K735" s="43" t="s">
-        <v>13461</v>
+        <v>13460</v>
       </c>
       <c r="L735" s="10" t="s">
         <v>11689</v>
@@ -89270,7 +89328,7 @@
         <v>11688</v>
       </c>
       <c r="K736" s="43" t="s">
-        <v>13462</v>
+        <v>13461</v>
       </c>
       <c r="L736" s="10" t="s">
         <v>11703</v>
@@ -89720,7 +89778,7 @@
         <v>11838</v>
       </c>
       <c r="K745" s="46" t="s">
-        <v>13429</v>
+        <v>13428</v>
       </c>
       <c r="L745" s="10" t="s">
         <v>11839</v>
@@ -89773,7 +89831,7 @@
         <v>11854</v>
       </c>
       <c r="K746" s="46" t="s">
-        <v>13430</v>
+        <v>13429</v>
       </c>
       <c r="L746" s="10" t="s">
         <v>11855</v>
@@ -89820,7 +89878,7 @@
         <v>11868</v>
       </c>
       <c r="K747" s="46" t="s">
-        <v>13463</v>
+        <v>13462</v>
       </c>
       <c r="L747" s="10" t="s">
         <v>11869</v>
@@ -89867,7 +89925,7 @@
         <v>11881</v>
       </c>
       <c r="K748" s="46" t="s">
-        <v>13464</v>
+        <v>13463</v>
       </c>
       <c r="L748" s="10" t="s">
         <v>11882</v>
@@ -91005,10 +91063,10 @@
         <v>12147</v>
       </c>
       <c r="J768" s="43" t="s">
-        <v>13427</v>
+        <v>13426</v>
       </c>
       <c r="K768" s="43" t="s">
-        <v>13427</v>
+        <v>13426</v>
       </c>
       <c r="L768" s="10" t="s">
         <v>12148</v>
@@ -91061,10 +91119,10 @@
         <v>12159</v>
       </c>
       <c r="J769" s="43" t="s">
-        <v>13428</v>
+        <v>13427</v>
       </c>
       <c r="K769" s="43" t="s">
-        <v>13428</v>
+        <v>13427</v>
       </c>
       <c r="L769" s="10" t="s">
         <v>12160</v>
@@ -91114,10 +91172,10 @@
         <v>12171</v>
       </c>
       <c r="J770" s="43" t="s">
-        <v>13429</v>
+        <v>13428</v>
       </c>
       <c r="K770" s="43" t="s">
-        <v>13429</v>
+        <v>13428</v>
       </c>
       <c r="L770" s="10" t="s">
         <v>12172</v>
@@ -91167,10 +91225,10 @@
         <v>12184</v>
       </c>
       <c r="J771" s="43" t="s">
-        <v>13430</v>
+        <v>13429</v>
       </c>
       <c r="K771" s="43" t="s">
-        <v>13430</v>
+        <v>13429</v>
       </c>
       <c r="L771" s="10" t="s">
         <v>12185</v>
@@ -91220,10 +91278,10 @@
         <v>12197</v>
       </c>
       <c r="J772" s="43" t="s">
-        <v>13431</v>
+        <v>13430</v>
       </c>
       <c r="K772" s="43" t="s">
-        <v>13431</v>
+        <v>13430</v>
       </c>
       <c r="L772" s="10" t="s">
         <v>12198</v>
@@ -91273,10 +91331,10 @@
         <v>12209</v>
       </c>
       <c r="J773" s="43" t="s">
-        <v>13432</v>
+        <v>13431</v>
       </c>
       <c r="K773" s="43" t="s">
-        <v>13432</v>
+        <v>13431</v>
       </c>
       <c r="L773" s="10" t="s">
         <v>12210</v>
@@ -91388,10 +91446,10 @@
         <v>12241</v>
       </c>
       <c r="J775" s="43" t="s">
-        <v>13217</v>
+        <v>13216</v>
       </c>
       <c r="K775" s="46" t="s">
-        <v>13217</v>
+        <v>13216</v>
       </c>
       <c r="L775" s="4" t="s">
         <v>12242</v>
@@ -91450,7 +91508,7 @@
         <v>12259</v>
       </c>
       <c r="J776" s="45" t="s">
-        <v>13218</v>
+        <v>13217</v>
       </c>
       <c r="L776" s="10" t="s">
         <v>12260</v>
@@ -91500,7 +91558,7 @@
         <v>12274</v>
       </c>
       <c r="J777" s="45" t="s">
-        <v>13433</v>
+        <v>13432</v>
       </c>
       <c r="L777" s="10" t="s">
         <v>12275</v>
@@ -91545,7 +91603,7 @@
         <v>12287</v>
       </c>
       <c r="J778" s="45" t="s">
-        <v>13434</v>
+        <v>13433</v>
       </c>
       <c r="L778" s="10" t="s">
         <v>12288</v>
@@ -91602,10 +91660,10 @@
         <v>12304</v>
       </c>
       <c r="J779" s="43" t="s">
-        <v>13219</v>
+        <v>13218</v>
       </c>
       <c r="K779" s="46" t="s">
-        <v>13219</v>
+        <v>13218</v>
       </c>
       <c r="L779" s="4" t="s">
         <v>12305</v>
@@ -91662,10 +91720,10 @@
         <v>12321</v>
       </c>
       <c r="J780" s="43" t="s">
-        <v>13220</v>
+        <v>13219</v>
       </c>
       <c r="K780" s="46" t="s">
-        <v>13220</v>
+        <v>13219</v>
       </c>
       <c r="L780" s="4" t="s">
         <v>12322</v>
@@ -91710,10 +91768,10 @@
         <v>12334</v>
       </c>
       <c r="J781" s="43" t="s">
-        <v>13221</v>
+        <v>13220</v>
       </c>
       <c r="K781" s="43" t="s">
-        <v>13496</v>
+        <v>13495</v>
       </c>
       <c r="L781" s="10" t="s">
         <v>12335</v>
@@ -91721,7 +91779,7 @@
       <c r="M781" s="13"/>
       <c r="N781" s="5"/>
       <c r="O781" s="50" t="s">
-        <v>13495</v>
+        <v>13494</v>
       </c>
       <c r="P781" s="7" t="s">
         <v>12336</v>
@@ -91954,10 +92012,10 @@
         <v>12408</v>
       </c>
       <c r="J785" s="43" t="s">
-        <v>13222</v>
+        <v>13221</v>
       </c>
       <c r="K785" s="46" t="s">
-        <v>13222</v>
+        <v>13221</v>
       </c>
       <c r="L785" s="4" t="s">
         <v>12409</v>
@@ -92016,10 +92074,10 @@
         <v>12426</v>
       </c>
       <c r="J786" s="43" t="s">
-        <v>13223</v>
+        <v>13222</v>
       </c>
       <c r="K786" s="46" t="s">
-        <v>13243</v>
+        <v>13242</v>
       </c>
       <c r="L786" s="4" t="s">
         <v>12427</v>
@@ -92031,7 +92089,7 @@
         <v>12429</v>
       </c>
       <c r="O786" s="50" t="s">
-        <v>13467</v>
+        <v>13466</v>
       </c>
       <c r="P786" s="7" t="s">
         <v>12430</v>
@@ -92506,7 +92564,7 @@
         <v>12564</v>
       </c>
       <c r="K794" s="46" t="s">
-        <v>13244</v>
+        <v>13243</v>
       </c>
       <c r="L794" s="4" t="s">
         <v>12565</v>
@@ -92641,7 +92699,7 @@
         <v>12597</v>
       </c>
       <c r="B797" t="s">
-        <v>13256</v>
+        <v>13255</v>
       </c>
       <c r="C797" s="7" t="s">
         <v>12598</v>
@@ -92653,10 +92711,10 @@
         <v>12600</v>
       </c>
       <c r="J797" s="43" t="s">
-        <v>13435</v>
+        <v>13434</v>
       </c>
       <c r="K797" s="43" t="s">
-        <v>13435</v>
+        <v>13434</v>
       </c>
       <c r="L797" s="10" t="s">
         <v>12601</v>
@@ -92703,10 +92761,10 @@
         <v>12614</v>
       </c>
       <c r="J798" s="43" t="s">
-        <v>13436</v>
+        <v>13435</v>
       </c>
       <c r="K798" s="43" t="s">
-        <v>13436</v>
+        <v>13435</v>
       </c>
       <c r="L798" s="10" t="s">
         <v>12615</v>
@@ -92753,10 +92811,10 @@
         <v>12628</v>
       </c>
       <c r="J799" s="43" t="s">
-        <v>13437</v>
+        <v>13436</v>
       </c>
       <c r="K799" s="43" t="s">
-        <v>13437</v>
+        <v>13436</v>
       </c>
       <c r="L799" s="10" t="s">
         <v>12629</v>
@@ -92800,10 +92858,10 @@
         <v>12641</v>
       </c>
       <c r="J800" s="43" t="s">
-        <v>13438</v>
+        <v>13437</v>
       </c>
       <c r="K800" s="43" t="s">
-        <v>13438</v>
+        <v>13437</v>
       </c>
       <c r="L800" s="10" t="s">
         <v>12642</v>
@@ -92815,7 +92873,7 @@
         <v>12644</v>
       </c>
       <c r="O800" s="50" t="s">
-        <v>13468</v>
+        <v>13467</v>
       </c>
       <c r="P800" s="7" t="s">
         <v>12645</v>
@@ -93000,10 +93058,10 @@
         <v>12702</v>
       </c>
       <c r="J804" s="43" t="s">
-        <v>13439</v>
+        <v>13438</v>
       </c>
       <c r="K804" s="43" t="s">
-        <v>13439</v>
+        <v>13438</v>
       </c>
       <c r="L804" s="10" t="s">
         <v>12703</v>
@@ -93053,10 +93111,10 @@
         <v>12715</v>
       </c>
       <c r="J805" s="43" t="s">
-        <v>13440</v>
+        <v>13439</v>
       </c>
       <c r="K805" s="43" t="s">
-        <v>13440</v>
+        <v>13439</v>
       </c>
       <c r="L805" s="10" t="s">
         <v>12716</v>
@@ -93206,16 +93264,16 @@
         <v>12757</v>
       </c>
       <c r="D808" s="34" t="s">
+        <v>13134</v>
+      </c>
+      <c r="E808" s="34" t="s">
         <v>13135</v>
       </c>
-      <c r="E808" s="34" t="s">
+      <c r="F808" s="34" t="s">
         <v>13136</v>
       </c>
-      <c r="F808" s="34" t="s">
+      <c r="G808" s="34" t="s">
         <v>13137</v>
-      </c>
-      <c r="G808" s="34" t="s">
-        <v>13138</v>
       </c>
       <c r="L808" s="10" t="s">
         <v>12758</v>
@@ -93400,7 +93458,7 @@
         <v>12800</v>
       </c>
       <c r="J812" s="43" t="s">
-        <v>13224</v>
+        <v>13223</v>
       </c>
       <c r="L812" s="10" t="s">
         <v>12801</v>
@@ -93677,10 +93735,10 @@
         <v>12885</v>
       </c>
       <c r="J817" s="43" t="s">
-        <v>13225</v>
+        <v>13224</v>
       </c>
       <c r="K817" s="46" t="s">
-        <v>13225</v>
+        <v>13224</v>
       </c>
       <c r="L817" s="4" t="s">
         <v>12886</v>
@@ -93736,10 +93794,10 @@
         <v>12902</v>
       </c>
       <c r="J818" s="43" t="s">
-        <v>13226</v>
+        <v>13225</v>
       </c>
       <c r="K818" s="46" t="s">
-        <v>13226</v>
+        <v>13225</v>
       </c>
       <c r="L818" s="4" t="s">
         <v>12903</v>
@@ -93795,10 +93853,10 @@
         <v>12919</v>
       </c>
       <c r="J819" s="43" t="s">
-        <v>13227</v>
+        <v>13226</v>
       </c>
       <c r="K819" s="46" t="s">
-        <v>13227</v>
+        <v>13226</v>
       </c>
       <c r="L819" s="4" t="s">
         <v>12920</v>
@@ -93845,10 +93903,10 @@
         <v>12933</v>
       </c>
       <c r="J820" s="43" t="s">
-        <v>13441</v>
+        <v>13440</v>
       </c>
       <c r="K820" s="43" t="s">
-        <v>13441</v>
+        <v>13440</v>
       </c>
       <c r="L820" s="29" t="s">
         <v>12934</v>
@@ -93857,7 +93915,7 @@
         <v>12935</v>
       </c>
       <c r="O820" s="50" t="s">
-        <v>13469</v>
+        <v>13468</v>
       </c>
       <c r="Q820" s="7" t="s">
         <v>12936</v>
@@ -93936,10 +93994,10 @@
         <v>12958</v>
       </c>
       <c r="J822" s="43" t="s">
-        <v>13228</v>
+        <v>13227</v>
       </c>
       <c r="K822" s="46" t="s">
-        <v>13228</v>
+        <v>13227</v>
       </c>
       <c r="L822" s="1" t="s">
         <v>12959</v>
@@ -93980,7 +94038,7 @@
         <v>12970</v>
       </c>
       <c r="O823" s="53" t="s">
-        <v>13470</v>
+        <v>13469</v>
       </c>
       <c r="Q823" s="14"/>
       <c r="S823" s="7" t="s">
@@ -93999,7 +94057,7 @@
       </c>
       <c r="M824" s="7"/>
       <c r="O824" s="53" t="s">
-        <v>13471</v>
+        <v>13470</v>
       </c>
       <c r="P824" s="7"/>
       <c r="Q824" s="15"/>
@@ -94020,14 +94078,14 @@
         <v>12757</v>
       </c>
       <c r="J825" s="43" t="s">
-        <v>13442</v>
+        <v>13441</v>
       </c>
       <c r="K825" s="43" t="s">
-        <v>13442</v>
+        <v>13441</v>
       </c>
       <c r="M825" s="7"/>
       <c r="O825" s="54" t="s">
-        <v>13472</v>
+        <v>13471</v>
       </c>
       <c r="P825" s="7"/>
       <c r="Q825" s="15"/>
@@ -94048,14 +94106,14 @@
         <v>12978</v>
       </c>
       <c r="J826" s="43" t="s">
-        <v>13443</v>
+        <v>13442</v>
       </c>
       <c r="K826" s="43" t="s">
-        <v>13443</v>
+        <v>13442</v>
       </c>
       <c r="M826" s="7"/>
       <c r="O826" s="53" t="s">
-        <v>13473</v>
+        <v>13472</v>
       </c>
       <c r="P826" s="7"/>
       <c r="Q826" s="15"/>
@@ -94076,14 +94134,14 @@
         <v>12982</v>
       </c>
       <c r="J827" s="43" t="s">
-        <v>13444</v>
+        <v>13443</v>
       </c>
       <c r="K827" s="43" t="s">
-        <v>13444</v>
+        <v>13443</v>
       </c>
       <c r="M827" s="7"/>
       <c r="O827" s="53" t="s">
-        <v>13474</v>
+        <v>13473</v>
       </c>
       <c r="P827" s="7"/>
       <c r="Q827" s="15"/>
@@ -94107,16 +94165,16 @@
       <c r="H828" s="1"/>
       <c r="I828" s="1"/>
       <c r="J828" s="43" t="s">
-        <v>13445</v>
+        <v>13444</v>
       </c>
       <c r="K828" s="43" t="s">
-        <v>13445</v>
+        <v>13444</v>
       </c>
       <c r="L828" s="1"/>
       <c r="M828" s="7"/>
       <c r="N828" s="1"/>
       <c r="O828" s="53" t="s">
-        <v>13475</v>
+        <v>13474</v>
       </c>
       <c r="P828" s="7"/>
       <c r="Q828" s="15"/>
@@ -94142,7 +94200,7 @@
         <v>12989</v>
       </c>
       <c r="O829" s="53" t="s">
-        <v>13476</v>
+        <v>13475</v>
       </c>
       <c r="Q829" s="14"/>
       <c r="S829" s="7" t="s">
@@ -94166,7 +94224,7 @@
         <v>12992</v>
       </c>
       <c r="O830" s="53" t="s">
-        <v>13477</v>
+        <v>13476</v>
       </c>
       <c r="Q830" s="14"/>
       <c r="S830" s="7" t="s">
@@ -94191,7 +94249,7 @@
       <c r="M831" s="2"/>
       <c r="N831" s="5"/>
       <c r="O831" s="53" t="s">
-        <v>13478</v>
+        <v>13477</v>
       </c>
       <c r="P831" s="7"/>
       <c r="Q831" s="15"/>
@@ -94219,7 +94277,7 @@
       <c r="M832" s="2"/>
       <c r="N832" s="5"/>
       <c r="O832" s="53" t="s">
-        <v>13479</v>
+        <v>13478</v>
       </c>
       <c r="P832" s="7"/>
       <c r="Q832" s="15"/>
@@ -94240,15 +94298,15 @@
         <v>13004</v>
       </c>
       <c r="J833" s="43" t="s">
-        <v>13446</v>
+        <v>13445</v>
       </c>
       <c r="K833" s="43" t="s">
-        <v>13446</v>
+        <v>13445</v>
       </c>
       <c r="L833" s="18"/>
       <c r="N833" s="14"/>
       <c r="O833" s="53" t="s">
-        <v>13480</v>
+        <v>13479</v>
       </c>
       <c r="Q833" s="14"/>
       <c r="S833" s="7" t="s">
@@ -94266,14 +94324,14 @@
         <v>13008</v>
       </c>
       <c r="J834" s="43" t="s">
-        <v>13447</v>
+        <v>13446</v>
       </c>
       <c r="K834" s="43" t="s">
-        <v>13447</v>
+        <v>13446</v>
       </c>
       <c r="N834" s="14"/>
       <c r="O834" s="53" t="s">
-        <v>13481</v>
+        <v>13480</v>
       </c>
       <c r="Q834" s="14"/>
       <c r="S834" s="7" t="s">
@@ -94282,7 +94340,7 @@
     </row>
     <row r="835" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A835" s="34" t="s">
-        <v>13494</v>
+        <v>13493</v>
       </c>
       <c r="B835" t="s">
         <v>13011</v>
@@ -94297,10 +94355,10 @@
         <v>13014</v>
       </c>
       <c r="J835" s="43" t="s">
-        <v>13448</v>
+        <v>13447</v>
       </c>
       <c r="K835" s="43" t="s">
-        <v>13448</v>
+        <v>13447</v>
       </c>
       <c r="L835" s="10" t="s">
         <v>13015</v>
@@ -94341,14 +94399,14 @@
         <v>13024</v>
       </c>
       <c r="J836" s="47" t="s">
-        <v>13449</v>
+        <v>13448</v>
       </c>
       <c r="K836" s="47" t="s">
-        <v>13449</v>
+        <v>13448</v>
       </c>
       <c r="N836" s="14"/>
       <c r="O836" s="55" t="s">
-        <v>13482</v>
+        <v>13481</v>
       </c>
       <c r="Q836" s="14"/>
     </row>
@@ -94363,14 +94421,14 @@
         <v>13027</v>
       </c>
       <c r="J837" s="43" t="s">
-        <v>13450</v>
+        <v>13449</v>
       </c>
       <c r="K837" s="43" t="s">
-        <v>13450</v>
+        <v>13449</v>
       </c>
       <c r="N837" s="14"/>
       <c r="O837" s="56" t="s">
-        <v>13483</v>
+        <v>13482</v>
       </c>
       <c r="Q837" s="14"/>
     </row>
@@ -94385,11 +94443,11 @@
         <v>13030</v>
       </c>
       <c r="K838" s="46" t="s">
-        <v>13465</v>
+        <v>13464</v>
       </c>
       <c r="N838" s="14"/>
       <c r="O838" s="50" t="s">
-        <v>13484</v>
+        <v>13483</v>
       </c>
       <c r="Q838" s="14"/>
     </row>
@@ -94404,14 +94462,14 @@
         <v>13033</v>
       </c>
       <c r="J839" s="43" t="s">
-        <v>13451</v>
+        <v>13450</v>
       </c>
       <c r="K839" s="43" t="s">
-        <v>13451</v>
+        <v>13450</v>
       </c>
       <c r="N839" s="14"/>
       <c r="O839" s="50" t="s">
-        <v>13485</v>
+        <v>13484</v>
       </c>
       <c r="Q839" s="14"/>
     </row>
@@ -94426,14 +94484,14 @@
         <v>13036</v>
       </c>
       <c r="J840" s="43" t="s">
-        <v>13452</v>
+        <v>13451</v>
       </c>
       <c r="K840" s="43" t="s">
-        <v>13452</v>
+        <v>13451</v>
       </c>
       <c r="N840" s="14"/>
       <c r="O840" s="50" t="s">
-        <v>13486</v>
+        <v>13485</v>
       </c>
       <c r="Q840" s="14"/>
     </row>
@@ -94448,14 +94506,14 @@
         <v>13039</v>
       </c>
       <c r="J841" s="43" t="s">
-        <v>13453</v>
+        <v>13452</v>
       </c>
       <c r="K841" s="43" t="s">
-        <v>13453</v>
+        <v>13452</v>
       </c>
       <c r="N841" s="14"/>
       <c r="O841" s="50" t="s">
-        <v>13487</v>
+        <v>13486</v>
       </c>
       <c r="Q841" s="14"/>
     </row>
@@ -94470,14 +94528,14 @@
         <v>13042</v>
       </c>
       <c r="J842" s="43" t="s">
-        <v>13454</v>
+        <v>13453</v>
       </c>
       <c r="K842" s="43" t="s">
-        <v>13454</v>
+        <v>13453</v>
       </c>
       <c r="N842" s="14"/>
       <c r="O842" s="50" t="s">
-        <v>13488</v>
+        <v>13487</v>
       </c>
       <c r="Q842" s="14"/>
     </row>
@@ -94492,14 +94550,14 @@
         <v>13045</v>
       </c>
       <c r="J843" s="43" t="s">
-        <v>13455</v>
+        <v>13454</v>
       </c>
       <c r="K843" s="43" t="s">
-        <v>13455</v>
+        <v>13454</v>
       </c>
       <c r="N843" s="14"/>
       <c r="O843" s="50" t="s">
-        <v>13489</v>
+        <v>13488</v>
       </c>
       <c r="Q843" s="14"/>
     </row>
@@ -94514,14 +94572,14 @@
         <v>13048</v>
       </c>
       <c r="J844" s="43" t="s">
-        <v>13456</v>
+        <v>13455</v>
       </c>
       <c r="K844" s="43" t="s">
-        <v>13456</v>
+        <v>13455</v>
       </c>
       <c r="N844" s="14"/>
       <c r="O844" s="50" t="s">
-        <v>13490</v>
+        <v>13489</v>
       </c>
       <c r="Q844" s="14"/>
     </row>
@@ -94536,14 +94594,14 @@
         <v>13051</v>
       </c>
       <c r="J845" s="43" t="s">
-        <v>13457</v>
+        <v>13456</v>
       </c>
       <c r="K845" s="43" t="s">
-        <v>13457</v>
+        <v>13456</v>
       </c>
       <c r="N845" s="14"/>
       <c r="O845" s="50" t="s">
-        <v>13491</v>
+        <v>13490</v>
       </c>
       <c r="Q845" s="14"/>
     </row>
@@ -94558,14 +94616,14 @@
         <v>13054</v>
       </c>
       <c r="J846" s="43" t="s">
-        <v>13458</v>
+        <v>13457</v>
       </c>
       <c r="K846" s="43" t="s">
-        <v>13458</v>
+        <v>13457</v>
       </c>
       <c r="N846" s="14"/>
       <c r="O846" s="50" t="s">
-        <v>13492</v>
+        <v>13491</v>
       </c>
       <c r="Q846" s="14"/>
     </row>
@@ -94580,14 +94638,14 @@
         <v>13056</v>
       </c>
       <c r="J847" s="43" t="s">
-        <v>13459</v>
+        <v>13458</v>
       </c>
       <c r="K847" s="43" t="s">
-        <v>13459</v>
+        <v>13458</v>
       </c>
       <c r="N847" s="14"/>
       <c r="O847" s="50" t="s">
-        <v>13493</v>
+        <v>13492</v>
       </c>
       <c r="Q847" s="14"/>
     </row>
@@ -94980,31 +95038,31 @@
     </row>
     <row r="860" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A860" s="37" t="s">
+        <v>13139</v>
+      </c>
+      <c r="B860" s="37" t="s">
+        <v>13138</v>
+      </c>
+      <c r="C860" s="7" t="s">
         <v>13140</v>
       </c>
-      <c r="B860" s="37" t="s">
-        <v>13139</v>
-      </c>
-      <c r="C860" s="7" t="s">
-        <v>13141</v>
-      </c>
       <c r="D860" t="s">
-        <v>13143</v>
+        <v>13142</v>
       </c>
       <c r="E860" t="s">
+        <v>13144</v>
+      </c>
+      <c r="F860" t="s">
         <v>13145</v>
       </c>
-      <c r="F860" t="s">
+      <c r="G860" s="38" t="s">
         <v>13146</v>
       </c>
-      <c r="G860" s="38" t="s">
+      <c r="H860" t="s">
         <v>13147</v>
       </c>
-      <c r="H860" t="s">
+      <c r="I860" t="s">
         <v>13148</v>
-      </c>
-      <c r="I860" t="s">
-        <v>13149</v>
       </c>
       <c r="N860" s="14"/>
       <c r="O860" s="50"/>
@@ -95012,13 +95070,13 @@
     </row>
     <row r="861" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A861" t="s">
+        <v>13149</v>
+      </c>
+      <c r="B861" s="34" t="s">
         <v>13150</v>
       </c>
-      <c r="B861" s="34" t="s">
+      <c r="C861" s="34" t="s">
         <v>13151</v>
-      </c>
-      <c r="C861" s="34" t="s">
-        <v>13152</v>
       </c>
       <c r="N861" s="14"/>
       <c r="O861" s="50"/>
@@ -95026,13 +95084,13 @@
     </row>
     <row r="862" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A862" t="s">
+        <v>13152</v>
+      </c>
+      <c r="B862" s="35" t="s">
         <v>13153</v>
       </c>
-      <c r="B862" s="35" t="s">
+      <c r="C862" s="35" t="s">
         <v>13154</v>
-      </c>
-      <c r="C862" s="35" t="s">
-        <v>13155</v>
       </c>
       <c r="N862" s="14"/>
       <c r="O862" s="50"/>
@@ -95040,13 +95098,13 @@
     </row>
     <row r="863" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A863" s="34" t="s">
+        <v>13155</v>
+      </c>
+      <c r="B863" s="40" t="s">
         <v>13156</v>
       </c>
-      <c r="B863" s="40" t="s">
+      <c r="C863" s="40" t="s">
         <v>13157</v>
-      </c>
-      <c r="C863" s="40" t="s">
-        <v>13158</v>
       </c>
       <c r="N863" s="14"/>
       <c r="O863" s="50"/>
@@ -95054,13 +95112,13 @@
     </row>
     <row r="864" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A864" s="34" t="s">
+        <v>13176</v>
+      </c>
+      <c r="B864" s="34" t="s">
         <v>13177</v>
       </c>
-      <c r="B864" s="34" t="s">
+      <c r="C864" s="34" t="s">
         <v>13178</v>
-      </c>
-      <c r="C864" s="34" t="s">
-        <v>13179</v>
       </c>
       <c r="N864" s="14"/>
       <c r="O864" s="50"/>
@@ -95068,13 +95126,13 @@
     </row>
     <row r="865" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A865" s="34" t="s">
+        <v>13158</v>
+      </c>
+      <c r="B865" s="34" t="s">
         <v>13159</v>
       </c>
-      <c r="B865" s="34" t="s">
-        <v>13160</v>
-      </c>
       <c r="C865" s="34" t="s">
-        <v>13176</v>
+        <v>13175</v>
       </c>
       <c r="N865" s="14"/>
       <c r="O865" s="50"/>
@@ -95082,13 +95140,13 @@
     </row>
     <row r="866" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A866" t="s">
-        <v>13161</v>
+        <v>13160</v>
       </c>
       <c r="B866" s="34" t="s">
-        <v>13175</v>
+        <v>13174</v>
       </c>
       <c r="C866" s="34" t="s">
-        <v>13182</v>
+        <v>13181</v>
       </c>
       <c r="N866" s="14"/>
       <c r="O866" s="50"/>
@@ -95096,13 +95154,13 @@
     </row>
     <row r="867" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A867" t="s">
+        <v>13161</v>
+      </c>
+      <c r="B867" s="40" t="s">
         <v>13162</v>
       </c>
-      <c r="B867" s="40" t="s">
+      <c r="C867" s="40" t="s">
         <v>13163</v>
-      </c>
-      <c r="C867" s="40" t="s">
-        <v>13164</v>
       </c>
       <c r="N867" s="14"/>
       <c r="O867" s="50"/>
@@ -95110,13 +95168,13 @@
     </row>
     <row r="868" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A868" s="34" t="s">
+        <v>13164</v>
+      </c>
+      <c r="B868" s="34" t="s">
         <v>13165</v>
       </c>
-      <c r="B868" s="34" t="s">
-        <v>13166</v>
-      </c>
       <c r="C868" s="34" t="s">
-        <v>13180</v>
+        <v>13179</v>
       </c>
       <c r="N868" s="14"/>
       <c r="O868" s="50"/>
@@ -95124,13 +95182,13 @@
     </row>
     <row r="869" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A869" t="s">
+        <v>13166</v>
+      </c>
+      <c r="B869" s="34" t="s">
         <v>13167</v>
       </c>
-      <c r="B869" s="34" t="s">
+      <c r="C869" s="34" t="s">
         <v>13168</v>
-      </c>
-      <c r="C869" s="34" t="s">
-        <v>13169</v>
       </c>
       <c r="N869" s="14"/>
       <c r="O869" s="50"/>
@@ -95138,13 +95196,13 @@
     </row>
     <row r="870" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A870" t="s">
-        <v>13170</v>
+        <v>13169</v>
       </c>
       <c r="B870" s="34" t="s">
-        <v>13174</v>
+        <v>13173</v>
       </c>
       <c r="C870" s="34" t="s">
-        <v>13181</v>
+        <v>13180</v>
       </c>
       <c r="N870" s="14"/>
       <c r="O870" s="50"/>
@@ -95152,13 +95210,13 @@
     </row>
     <row r="871" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A871" s="34" t="s">
+        <v>13170</v>
+      </c>
+      <c r="B871" s="34" t="s">
         <v>13171</v>
       </c>
-      <c r="B871" s="34" t="s">
+      <c r="C871" s="34" t="s">
         <v>13172</v>
-      </c>
-      <c r="C871" s="34" t="s">
-        <v>13173</v>
       </c>
       <c r="N871" s="14"/>
       <c r="O871" s="50"/>
@@ -95166,13 +95224,13 @@
     </row>
     <row r="872" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A872" t="s">
+        <v>13182</v>
+      </c>
+      <c r="B872" s="34" t="s">
         <v>13183</v>
       </c>
-      <c r="B872" s="34" t="s">
+      <c r="C872" s="34" t="s">
         <v>13184</v>
-      </c>
-      <c r="C872" s="34" t="s">
-        <v>13185</v>
       </c>
       <c r="N872" s="14"/>
       <c r="O872" s="50"/>
@@ -95180,13 +95238,13 @@
     </row>
     <row r="873" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A873" s="41" t="s">
-        <v>13188</v>
+        <v>13187</v>
       </c>
       <c r="B873" s="41" t="s">
+        <v>13185</v>
+      </c>
+      <c r="C873" s="42" t="s">
         <v>13186</v>
-      </c>
-      <c r="C873" s="42" t="s">
-        <v>13187</v>
       </c>
       <c r="N873" s="14"/>
       <c r="O873" s="50"/>
@@ -95194,13 +95252,13 @@
     </row>
     <row r="874" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A874" s="34" t="s">
-        <v>13246</v>
+        <v>13245</v>
       </c>
       <c r="B874" s="34" t="s">
-        <v>13245</v>
+        <v>13244</v>
       </c>
       <c r="C874" s="34" t="s">
-        <v>13189</v>
+        <v>13188</v>
       </c>
       <c r="N874" s="14"/>
       <c r="O874" s="50"/>
@@ -95208,13 +95266,13 @@
     </row>
     <row r="875" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A875" t="s">
+        <v>13246</v>
+      </c>
+      <c r="B875" t="s">
         <v>13247</v>
       </c>
-      <c r="B875" t="s">
-        <v>13248</v>
-      </c>
       <c r="C875" s="7" t="s">
-        <v>13253</v>
+        <v>13252</v>
       </c>
       <c r="N875" s="14"/>
       <c r="O875" s="50"/>
@@ -95222,13 +95280,13 @@
     </row>
     <row r="876" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A876" t="s">
+        <v>13248</v>
+      </c>
+      <c r="B876" t="s">
         <v>13249</v>
       </c>
-      <c r="B876" t="s">
-        <v>13250</v>
-      </c>
       <c r="C876" s="7" t="s">
-        <v>13254</v>
+        <v>13253</v>
       </c>
       <c r="N876" s="14"/>
       <c r="O876" s="50"/>
@@ -95236,13 +95294,13 @@
     </row>
     <row r="877" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A877" t="s">
+        <v>13250</v>
+      </c>
+      <c r="B877" t="s">
         <v>13251</v>
       </c>
-      <c r="B877" t="s">
-        <v>13252</v>
-      </c>
       <c r="C877" s="7" t="s">
-        <v>13255</v>
+        <v>13254</v>
       </c>
       <c r="N877" s="14"/>
       <c r="O877" s="50"/>
@@ -95250,13 +95308,13 @@
     </row>
     <row r="878" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A878" t="s">
+        <v>13256</v>
+      </c>
+      <c r="B878" t="s">
         <v>13257</v>
       </c>
-      <c r="B878" t="s">
+      <c r="C878" s="7" t="s">
         <v>13258</v>
-      </c>
-      <c r="C878" s="7" t="s">
-        <v>13259</v>
       </c>
       <c r="N878" s="14"/>
       <c r="O878" s="50"/>
@@ -95264,13 +95322,13 @@
     </row>
     <row r="879" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A879" t="s">
+        <v>13260</v>
+      </c>
+      <c r="B879" t="s">
+        <v>13259</v>
+      </c>
+      <c r="C879" s="7" t="s">
         <v>13261</v>
-      </c>
-      <c r="B879" t="s">
-        <v>13260</v>
-      </c>
-      <c r="C879" s="7" t="s">
-        <v>13262</v>
       </c>
       <c r="N879" s="14"/>
       <c r="O879" s="50"/>
@@ -95278,13 +95336,13 @@
     </row>
     <row r="880" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A880" t="s">
+        <v>13263</v>
+      </c>
+      <c r="B880" t="s">
+        <v>13262</v>
+      </c>
+      <c r="C880" s="7" t="s">
         <v>13264</v>
-      </c>
-      <c r="B880" t="s">
-        <v>13263</v>
-      </c>
-      <c r="C880" s="7" t="s">
-        <v>13265</v>
       </c>
       <c r="N880" s="14"/>
       <c r="O880" s="50"/>
@@ -95292,13 +95350,13 @@
     </row>
     <row r="881" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A881" t="s">
-        <v>13266</v>
+        <v>13265</v>
       </c>
       <c r="B881" t="s">
-        <v>13268</v>
+        <v>13267</v>
       </c>
       <c r="C881" s="7" t="s">
-        <v>13268</v>
+        <v>13267</v>
       </c>
       <c r="N881" s="14"/>
       <c r="O881" s="50"/>
@@ -95306,13 +95364,13 @@
     </row>
     <row r="882" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A882" t="s">
-        <v>13267</v>
+        <v>13266</v>
       </c>
       <c r="B882" t="s">
-        <v>13269</v>
+        <v>13268</v>
       </c>
       <c r="C882" s="7" t="s">
-        <v>13269</v>
+        <v>13268</v>
       </c>
       <c r="N882" s="14"/>
       <c r="O882" s="50"/>
@@ -95326,7 +95384,7 @@
         <v>13133</v>
       </c>
       <c r="C883" s="35" t="s">
-        <v>13134</v>
+        <v>13498</v>
       </c>
       <c r="D883" s="34"/>
       <c r="E883" s="34"/>
@@ -95337,6 +95395,15 @@
       <c r="O883" s="50"/>
     </row>
     <row r="884" spans="1:20" ht="33" customHeight="1" thickBot="1">
+      <c r="A884" s="34" t="s">
+        <v>13496</v>
+      </c>
+      <c r="B884" s="34" t="s">
+        <v>13497</v>
+      </c>
+      <c r="C884" s="34" t="s">
+        <v>13499</v>
+      </c>
       <c r="L884" s="4"/>
       <c r="M884" s="7"/>
       <c r="N884" s="5"/>
@@ -95345,20 +95412,44 @@
       <c r="S884" s="7"/>
       <c r="T884" s="6"/>
     </row>
-    <row r="885" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C885" s="7"/>
+    <row r="885" spans="1:20" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A885" t="s">
+        <v>13500</v>
+      </c>
+      <c r="B885" s="34" t="s">
+        <v>13503</v>
+      </c>
+      <c r="C885" s="35" t="s">
+        <v>13506</v>
+      </c>
       <c r="N885" s="14"/>
       <c r="O885" s="50"/>
       <c r="Q885" s="14"/>
     </row>
-    <row r="886" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C886" s="7"/>
+    <row r="886" spans="1:20" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A886" t="s">
+        <v>13501</v>
+      </c>
+      <c r="B886" s="34" t="s">
+        <v>13504</v>
+      </c>
+      <c r="C886" s="35" t="s">
+        <v>13507</v>
+      </c>
       <c r="N886" s="14"/>
       <c r="O886" s="50"/>
       <c r="Q886" s="14"/>
     </row>
-    <row r="887" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C887" s="7"/>
+    <row r="887" spans="1:20" ht="21" customHeight="1" thickBot="1">
+      <c r="A887" s="34" t="s">
+        <v>13502</v>
+      </c>
+      <c r="B887" s="34" t="s">
+        <v>13505</v>
+      </c>
+      <c r="C887" s="35" t="s">
+        <v>13508</v>
+      </c>
       <c r="N887" s="14"/>
       <c r="O887" s="50"/>
       <c r="Q887" s="14"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16798" uniqueCount="14300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16801" uniqueCount="14303">
   <si>
     <t>zh_CN</t>
   </si>
@@ -47513,6 +47513,16 @@
   </si>
   <si>
     <t>More Info</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>please choose file location</t>
+  </si>
+  <si>
+    <t>请选择文件位置</t>
+  </si>
+  <si>
+    <t>請選擇文件位置</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -48306,10 +48316,10 @@
   <dimension ref="A1:U1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B874" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B889" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A898" sqref="A898"/>
+      <selection pane="bottomRight" activeCell="B904" sqref="B904"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -100823,7 +100833,15 @@
       <c r="Q903" s="14"/>
     </row>
     <row r="904" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C904" s="7"/>
+      <c r="A904" t="s">
+        <v>14300</v>
+      </c>
+      <c r="B904" t="s">
+        <v>14301</v>
+      </c>
+      <c r="C904" s="34" t="s">
+        <v>14302</v>
+      </c>
       <c r="N904" s="14"/>
       <c r="O904" s="50"/>
       <c r="Q904" s="14"/>
